--- a/codeLibrary/R/R/airlineData/Des Moines Airline data following Thanksgiving 2021.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Moines Airline data following Thanksgiving 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210D244B-9274-514C-82EC-6844F55D88DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6649E-5AB9-F34F-9E58-2AF8C5279B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1520" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EFD48417-6E4C-3444-B4C0-EAF2B63A29BA}"/>
+    <workbookView xWindow="3500" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EFD48417-6E4C-3444-B4C0-EAF2B63A29BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrivals" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="1702">
   <si>
     <t>TIME</t>
   </si>
@@ -3859,9 +3859,6 @@
     <t>Departed 8:12 AM</t>
   </si>
   <si>
-    <t>Estimated dep. 9:38 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 12:19 PM</t>
   </si>
   <si>
@@ -3877,12 +3874,6 @@
     <t>AA5491</t>
   </si>
   <si>
-    <t>Estimated dep. 6:40 AM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 6:43 AM</t>
-  </si>
-  <si>
     <t>WN2971</t>
   </si>
   <si>
@@ -4159,9 +4150,6 @@
     <t xml:space="preserve">CRJ7 (N746SK) </t>
   </si>
   <si>
-    <t>Estimated dep. 6:13 AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">E75L (N275NN) </t>
   </si>
   <si>
@@ -4219,9 +4207,6 @@
     <t xml:space="preserve">B737 (N445WN) </t>
   </si>
   <si>
-    <t>Estimated dep. 2:47 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">E145 (N908AE) </t>
   </si>
   <si>
@@ -4234,9 +4219,6 @@
     <t xml:space="preserve">B737 (N567WN) </t>
   </si>
   <si>
-    <t>Estimated dep. 3:55 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">A319 (N812UA) </t>
   </si>
   <si>
@@ -4246,27 +4228,12 @@
     <t>Tuesday, Dec 07</t>
   </si>
   <si>
-    <t>Estimated dep. 5:15 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E75 </t>
-  </si>
-  <si>
-    <t>Estimated dep. 5:46 AM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 6:00 AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">A319 (N808AW) </t>
   </si>
   <si>
     <t xml:space="preserve">CRJ7 (N668CA) </t>
   </si>
   <si>
-    <t>Estimated dep. 7:23 AM</t>
-  </si>
-  <si>
     <t>Landed 9:45 AM</t>
   </si>
   <si>
@@ -4612,9 +4579,6 @@
     <t xml:space="preserve">A320 (N445UA) </t>
   </si>
   <si>
-    <t>Delayed 10:30 PM</t>
-  </si>
-  <si>
     <t>Landed 8:46 PM</t>
   </si>
   <si>
@@ -4639,30 +4603,15 @@
     <t xml:space="preserve">E75L (N85377) </t>
   </si>
   <si>
-    <t>Estimated 10:21 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">B712 (N949AT) </t>
   </si>
   <si>
-    <t>Estimated 10:24 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">E75L (N230NN) </t>
   </si>
   <si>
-    <t>Estimated 10:34 PM</t>
-  </si>
-  <si>
-    <t>Estimated 10:58 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">A319 (N9012) </t>
   </si>
   <si>
-    <t>Estimated 10:50 PM</t>
-  </si>
-  <si>
     <t>BYA584</t>
   </si>
   <si>
@@ -4678,9 +4627,6 @@
     <t xml:space="preserve">A320 (N110UW) </t>
   </si>
   <si>
-    <t>Estimated 11:41 PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">A306 </t>
   </si>
   <si>
@@ -4693,9 +4639,6 @@
     <t xml:space="preserve">B752 </t>
   </si>
   <si>
-    <t xml:space="preserve">E145 (N661JA) </t>
-  </si>
-  <si>
     <t xml:space="preserve">CRJ9 (N606LR) </t>
   </si>
   <si>
@@ -4732,15 +4675,9 @@
     <t xml:space="preserve">B737 (N214WN) </t>
   </si>
   <si>
-    <t xml:space="preserve">E75L (N89304) </t>
-  </si>
-  <si>
     <t xml:space="preserve">B737 (N241WN) </t>
   </si>
   <si>
-    <t xml:space="preserve">B712 (N988AT) </t>
-  </si>
-  <si>
     <t xml:space="preserve">A320 (N456UA) </t>
   </si>
   <si>
@@ -4771,15 +4708,9 @@
     <t xml:space="preserve">B712 (N955AT) </t>
   </si>
   <si>
-    <t xml:space="preserve">E75L (N201NN) </t>
-  </si>
-  <si>
     <t>Wednesday, Dec 08</t>
   </si>
   <si>
-    <t xml:space="preserve">CRJ9 (N913XJ) </t>
-  </si>
-  <si>
     <t>Departed 7:47 PM</t>
   </si>
   <si>
@@ -4909,24 +4840,12 @@
     <t>Estimated dep. 6:11 AM</t>
   </si>
   <si>
-    <t>Estimated dep. 6:27 AM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 6:47 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 7:48 AM</t>
   </si>
   <si>
-    <t>Estimated dep. 7:50 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 8:28 AM</t>
   </si>
   <si>
-    <t>Estimated dep. 9:39 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 10:10 AM</t>
   </si>
   <si>
@@ -4945,9 +4864,6 @@
     <t>Estimated dep. 1:25 PM</t>
   </si>
   <si>
-    <t>Estimated dep. 2:48 PM</t>
-  </si>
-  <si>
     <t>Estimated dep. 3:00 PM</t>
   </si>
   <si>
@@ -4957,25 +4873,274 @@
     <t>Estimated dep. 5:18 PM</t>
   </si>
   <si>
-    <t>Estimated dep. 6:04 PM</t>
-  </si>
-  <si>
     <t>Estimated dep. 6:23 PM</t>
   </si>
   <si>
     <t>Estimated dep. 9:02 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">CRJ9 (N919XJ) </t>
-  </si>
-  <si>
-    <t>Estimated dep. 8:10 AM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 9:20 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 10:20 AM</t>
+  </si>
+  <si>
+    <t>Landed 10:23 PM</t>
+  </si>
+  <si>
+    <t>Landed 10:34 PM</t>
+  </si>
+  <si>
+    <t>Landed 10:46 PM</t>
+  </si>
+  <si>
+    <t>Landed 11:39 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT75 (N937AZ) </t>
+  </si>
+  <si>
+    <t>Landed 2:06 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B763 (N336UP) </t>
+  </si>
+  <si>
+    <t>Landed 6:28 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A306 (N674FE) </t>
+  </si>
+  <si>
+    <t>DL5558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N305PQ) </t>
+  </si>
+  <si>
+    <t>Landed 7:20 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B752 (N937FD) </t>
+  </si>
+  <si>
+    <t>Landed 9:28 AM</t>
+  </si>
+  <si>
+    <t>Estimated 10:29 AM</t>
+  </si>
+  <si>
+    <t>Estimated 10:51 AM</t>
+  </si>
+  <si>
+    <t>Estimated 11:14 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlMasria Universal Airlines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA20 </t>
+  </si>
+  <si>
+    <t>Estimated 12:03 PM</t>
+  </si>
+  <si>
+    <t>CNS176</t>
+  </si>
+  <si>
+    <t>Philadelphia (PNE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlaneSense </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N82338) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E145 (N677AE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N86309) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B712 (N965AT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N416YX) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N274NN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N186PQ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ2 (N469AW) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B712 (N717JL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N256SY) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N491PX) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ2 (N709BR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B737 (N281WN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B737 (N7721E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B712 (N925AT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A319 (N851UA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N906XJ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A320 (N482UA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B739 (N38458) </t>
+  </si>
+  <si>
+    <t>Departed 1:36 AM</t>
+  </si>
+  <si>
+    <t>Departed 5:47 AM</t>
+  </si>
+  <si>
+    <t>Departed 6:18 AM</t>
+  </si>
+  <si>
+    <t>Departed 7:35 AM</t>
+  </si>
+  <si>
+    <t>Departed 8:37 AM</t>
+  </si>
+  <si>
+    <t>Departed 7:49 AM</t>
+  </si>
+  <si>
+    <t>Departed 8:10 AM</t>
+  </si>
+  <si>
+    <t>Departed 8:53 AM</t>
+  </si>
+  <si>
+    <t>Departed 9:57 AM</t>
+  </si>
+  <si>
+    <t>DJR213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75V </t>
+  </si>
+  <si>
+    <t>DL5559</t>
+  </si>
+  <si>
+    <t>Minneapolis (QQA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(N481JB) </t>
+  </si>
+  <si>
+    <t>Estimated dep. 1:46 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 1:40 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 2:40 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 2:50 PM</t>
+  </si>
+  <si>
+    <t>Dallas (DAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL60 (N900H) </t>
+  </si>
+  <si>
+    <t>Estimated dep. 3:10 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 3:45 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:13 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 9:15 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:12 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:25 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:42 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 9:26 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 11:40 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 12:04 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 1:37 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 1:45 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 3:14 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 3:25 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 3:31 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 5:00 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 5:53 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 5:59 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:07 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 7:27 PM</t>
   </si>
 </sst>
 </file>
@@ -5360,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668ED79-057C-234F-A981-77AB06F4CAD5}">
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I582"/>
   <sheetViews>
-    <sheetView topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="A466" sqref="A466:A468"/>
+    <sheetView topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="A509" sqref="A509:A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13514,7 +13679,7 @@
         <v>1088</v>
       </c>
       <c r="H358" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -13537,7 +13702,7 @@
         <v>28</v>
       </c>
       <c r="H359" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -13560,7 +13725,7 @@
         <v>1090</v>
       </c>
       <c r="H360" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -13583,7 +13748,7 @@
         <v>1092</v>
       </c>
       <c r="H361" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -13606,7 +13771,7 @@
         <v>1093</v>
       </c>
       <c r="H362" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -13618,13 +13783,13 @@
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="E363" t="s">
         <v>17</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="H363" t="s">
         <v>234</v>
@@ -13673,7 +13838,7 @@
         <v>519</v>
       </c>
       <c r="H365" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -13719,7 +13884,7 @@
         <v>303</v>
       </c>
       <c r="H367" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -13737,10 +13902,10 @@
         <v>17</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="H368" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -13760,7 +13925,7 @@
         <v>31</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H369" t="s">
         <v>981</v>
@@ -13783,10 +13948,10 @@
         <v>22</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="H370" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -13809,7 +13974,7 @@
         <v>1097</v>
       </c>
       <c r="H371" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -13878,7 +14043,7 @@
         <v>752</v>
       </c>
       <c r="H374" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -13901,7 +14066,7 @@
         <v>1226</v>
       </c>
       <c r="H375" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -13921,7 +14086,7 @@
         <v>36</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="H376" t="s">
         <v>498</v>
@@ -13947,7 +14112,7 @@
         <v>1103</v>
       </c>
       <c r="H377" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -13967,10 +14132,10 @@
         <v>22</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H378" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -14034,7 +14199,7 @@
         <v>17</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H381" t="s">
         <v>927</v>
@@ -14060,7 +14225,7 @@
         <v>1105</v>
       </c>
       <c r="H382" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -14106,7 +14271,7 @@
         <v>1230</v>
       </c>
       <c r="H384" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -14198,7 +14363,7 @@
         <v>1111</v>
       </c>
       <c r="H388" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -14221,7 +14386,7 @@
         <v>1113</v>
       </c>
       <c r="H389" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -14241,10 +14406,10 @@
         <v>22</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="H390" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -14290,7 +14455,7 @@
         <v>873</v>
       </c>
       <c r="H392" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -14308,10 +14473,10 @@
         <v>17</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="H393" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -14334,7 +14499,7 @@
         <v>749</v>
       </c>
       <c r="H394" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
@@ -14354,10 +14519,10 @@
         <v>22</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="H395" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -14380,7 +14545,7 @@
         <v>1233</v>
       </c>
       <c r="H396" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -14403,7 +14568,7 @@
         <v>1235</v>
       </c>
       <c r="H397" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -14426,7 +14591,7 @@
         <v>1236</v>
       </c>
       <c r="H398" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -14446,10 +14611,10 @@
         <v>22</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H399" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -14472,7 +14637,7 @@
         <v>91</v>
       </c>
       <c r="H400" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -14495,7 +14660,7 @@
         <v>1238</v>
       </c>
       <c r="H401" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
@@ -14515,10 +14680,10 @@
         <v>27</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="H402" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -14529,7 +14694,7 @@
         <v>0.50486111111111109</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>606</v>
@@ -14538,7 +14703,7 @@
         <v>602</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="H403" t="s">
         <v>238</v>
@@ -14559,7 +14724,7 @@
         <v>17</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="H404" t="s">
         <v>586</v>
@@ -14583,7 +14748,7 @@
         <v>425</v>
       </c>
       <c r="H405" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
@@ -14606,7 +14771,7 @@
         <v>783</v>
       </c>
       <c r="H406" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
@@ -14626,7 +14791,7 @@
         <v>31</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="H407" t="s">
         <v>1053</v>
@@ -14652,7 +14817,7 @@
         <v>1054</v>
       </c>
       <c r="H408" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -14675,7 +14840,7 @@
         <v>1240</v>
       </c>
       <c r="H409" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
@@ -14695,7 +14860,7 @@
         <v>31</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="H410" t="s">
         <v>72</v>
@@ -14721,7 +14886,7 @@
         <v>893</v>
       </c>
       <c r="H411" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
@@ -14767,7 +14932,7 @@
         <v>1063</v>
       </c>
       <c r="H413" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
@@ -14808,10 +14973,10 @@
         <v>17</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="H415" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -14834,7 +14999,7 @@
         <v>577</v>
       </c>
       <c r="H416" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.2">
@@ -14857,7 +15022,7 @@
         <v>1076</v>
       </c>
       <c r="H417" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
@@ -14900,10 +15065,10 @@
         <v>13</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="H419" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
@@ -14923,7 +15088,7 @@
         <v>60</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="H420" t="s">
         <v>495</v>
@@ -14946,7 +15111,7 @@
         <v>22</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H421" t="s">
         <v>496</v>
@@ -14972,7 +15137,7 @@
         <v>114</v>
       </c>
       <c r="H422" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
@@ -14995,7 +15160,7 @@
         <v>1244</v>
       </c>
       <c r="H423" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
@@ -15018,7 +15183,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
@@ -15038,7 +15203,7 @@
         <v>27</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H425" t="s">
         <v>1001</v>
@@ -15061,10 +15226,10 @@
         <v>79</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="H426" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
@@ -15084,10 +15249,10 @@
         <v>22</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="H427" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
@@ -15108,7 +15273,7 @@
         <v>834</v>
       </c>
       <c r="H428" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
@@ -15119,7 +15284,7 @@
         <v>0.76944444444444438</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>94</v>
@@ -15131,7 +15296,7 @@
         <v>1040</v>
       </c>
       <c r="H429" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
@@ -15151,10 +15316,10 @@
         <v>151</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="H430" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
@@ -15174,10 +15339,10 @@
         <v>22</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H431" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
@@ -15200,7 +15365,7 @@
         <v>1247</v>
       </c>
       <c r="H432" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -15220,10 +15385,10 @@
         <v>27</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="H433" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -15235,16 +15400,16 @@
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="E434" t="s">
         <v>17</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="H434" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="I434" s="6"/>
     </row>
@@ -15268,7 +15433,7 @@
         <v>1248</v>
       </c>
       <c r="H435" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
@@ -15291,7 +15456,7 @@
         <v>1026</v>
       </c>
       <c r="H436" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -15314,7 +15479,7 @@
         <v>783</v>
       </c>
       <c r="H437" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -15337,7 +15502,7 @@
         <v>117</v>
       </c>
       <c r="H438" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -15357,7 +15522,7 @@
         <v>13</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H439" t="s">
         <v>1010</v>
@@ -15383,7 +15548,7 @@
         <v>80</v>
       </c>
       <c r="H440" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -15403,10 +15568,10 @@
         <v>27</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="H441" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -15426,7 +15591,7 @@
         <v>22</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="H442" t="s">
         <v>1016</v>
@@ -15449,10 +15614,10 @@
         <v>22</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="H443" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -15495,10 +15660,10 @@
         <v>36</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="H445" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -15509,7 +15674,7 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>188</v>
@@ -15541,7 +15706,7 @@
         <v>22</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H447" t="s">
         <v>557</v>
@@ -15567,7 +15732,7 @@
         <v>252</v>
       </c>
       <c r="H448" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
@@ -15590,7 +15755,7 @@
         <v>91</v>
       </c>
       <c r="H449" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
@@ -15610,10 +15775,10 @@
         <v>67</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H450" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
@@ -15659,7 +15824,7 @@
         <v>210</v>
       </c>
       <c r="H452" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
@@ -15671,16 +15836,16 @@
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="E453" t="s">
         <v>17</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="H453" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
@@ -15691,19 +15856,19 @@
         <v>0.3659722222222222</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="H454" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.2">
@@ -15726,7 +15891,7 @@
         <v>215</v>
       </c>
       <c r="H455" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.2">
@@ -15749,7 +15914,7 @@
         <v>1244</v>
       </c>
       <c r="H456" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
@@ -15769,10 +15934,10 @@
         <v>31</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="H457" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
@@ -15792,10 +15957,10 @@
         <v>36</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H458" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
@@ -15835,13 +16000,13 @@
         <v>229</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="H460" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
@@ -15864,7 +16029,7 @@
         <v>121</v>
       </c>
       <c r="H461" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
@@ -15884,10 +16049,10 @@
         <v>27</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="H462" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -15907,7 +16072,7 @@
         <v>110</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="H463" t="s">
         <v>981</v>
@@ -15930,10 +16095,10 @@
         <v>22</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="H464" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
@@ -15953,10 +16118,10 @@
         <v>60</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="H465" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
@@ -15976,10 +16141,10 @@
         <v>31</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="H466" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.2">
@@ -15999,7 +16164,7 @@
         <v>67</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="H467" t="s">
         <v>988</v>
@@ -16045,7 +16210,7 @@
         <v>22</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="H469" t="s">
         <v>598</v>
@@ -16068,7 +16233,7 @@
         <v>31</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="H470" t="s">
         <v>990</v>
@@ -16094,7 +16259,7 @@
         <v>91</v>
       </c>
       <c r="H471" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
@@ -16105,19 +16270,19 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="H472" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
@@ -16140,7 +16305,7 @@
         <v>1026</v>
       </c>
       <c r="H473" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
@@ -16160,10 +16325,10 @@
         <v>60</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="H474" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
@@ -16175,13 +16340,13 @@
       </c>
       <c r="C475" s="3"/>
       <c r="D475" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E475" t="s">
         <v>17</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H475" t="s">
         <v>611</v>
@@ -16218,16 +16383,16 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="H477" t="s">
         <v>112</v>
@@ -16250,10 +16415,10 @@
         <v>13</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="H478" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
@@ -16273,10 +16438,10 @@
         <v>22</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="H479" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
@@ -16322,7 +16487,7 @@
         <v>124</v>
       </c>
       <c r="H481" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
@@ -16334,16 +16499,16 @@
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="E482" t="s">
         <v>17</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="H482" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.2">
@@ -16363,7 +16528,7 @@
         <v>27</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="H483" t="s">
         <v>1196</v>
@@ -16386,10 +16551,10 @@
         <v>22</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="H484" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.2">
@@ -16400,7 +16565,7 @@
         <v>0.8256944444444444</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>74</v>
@@ -16409,10 +16574,10 @@
         <v>103</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="H485" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
@@ -16432,10 +16597,10 @@
         <v>13</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
       <c r="H486" t="s">
-        <v>1525</v>
+        <v>645</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
@@ -16455,7 +16620,7 @@
         <v>27</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="H487" t="s">
         <v>1010</v>
@@ -16481,7 +16646,7 @@
         <v>117</v>
       </c>
       <c r="H488" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
@@ -16501,7 +16666,7 @@
         <v>13</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="H489" t="s">
         <v>639</v>
@@ -16527,7 +16692,7 @@
         <v>80</v>
       </c>
       <c r="H490" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -16547,7 +16712,7 @@
         <v>27</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="H491" t="s">
         <v>1210</v>
@@ -16570,10 +16735,10 @@
         <v>22</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="H492" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
@@ -16593,10 +16758,10 @@
         <v>60</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="H493" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
@@ -16616,10 +16781,10 @@
         <v>22</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="H494" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -16639,13 +16804,16 @@
         <v>67</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="H495" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44536</v>
+      </c>
       <c r="B496" s="2">
         <v>0.93194444444444446</v>
       </c>
@@ -16659,370 +16827,412 @@
         <v>31</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="H496" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44536</v>
+      </c>
       <c r="B497" s="2">
-        <v>0.92222222222222217</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="C497" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E497" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H497" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44536</v>
+      </c>
+      <c r="B498" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="C498" t="s">
+        <v>191</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E498" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F497" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H497" t="s">
+      <c r="F498" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H498" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44536</v>
+      </c>
+      <c r="B499" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H499" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44536</v>
+      </c>
+      <c r="B500" s="2">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="C500" t="s">
+        <v>195</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H500" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44536</v>
+      </c>
+      <c r="B501" s="2">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H501" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44536</v>
+      </c>
+      <c r="B502" s="2">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="C502" t="s">
+        <v>201</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B503" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B504" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H504" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B505" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H505" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B506" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H506" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B507" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H507" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B508" s="2">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B498" s="2">
-        <v>0.9243055555555556</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F498" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H498" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="499" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B499" s="2">
-        <v>0.93194444444444446</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D499" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E499" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F499" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="H499" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="500" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B500" s="2">
-        <v>0.94027777777777777</v>
-      </c>
-      <c r="C500" t="s">
-        <v>184</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F500" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H500" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B501" s="2">
-        <v>0.94861111111111107</v>
-      </c>
-      <c r="C501" t="s">
-        <v>191</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F501" s="3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H501" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="502" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B502" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E502" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F502" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H502" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B503" s="2">
-        <v>0.96180555555555547</v>
-      </c>
-      <c r="C503" t="s">
-        <v>195</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E503" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F503" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H503" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B504" s="2">
-        <v>0.97083333333333333</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E504" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F504" s="3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H504" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="505" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B505" s="2">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="C505" t="s">
-        <v>201</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E505" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F505" s="3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="H505" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="506" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B506" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="507" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B507" s="2">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E507" s="3" t="s">
+      <c r="D508" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E508" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F507" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H507" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="508" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B508" s="2">
-        <v>0.25069444444444444</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F508" t="s">
-        <v>1549</v>
+      <c r="F508" s="3" t="s">
+        <v>1627</v>
       </c>
       <c r="H508" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="509" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44537</v>
+      </c>
       <c r="B509" s="2">
-        <v>0.3659722222222222</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>1550</v>
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C509" t="s">
+        <v>20</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>1061</v>
+        <v>21</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F509" t="s">
-        <v>1551</v>
+        <v>22</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>855</v>
       </c>
       <c r="H509" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44537</v>
+      </c>
       <c r="B510" s="2">
         <v>0.40069444444444446</v>
       </c>
-      <c r="C510" t="s">
-        <v>20</v>
+      <c r="C510" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1552</v>
+        <v>1534</v>
       </c>
       <c r="H510" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="511" spans="2:8" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44537</v>
+      </c>
       <c r="B511" s="2">
         <v>0.40069444444444446</v>
       </c>
-      <c r="C511" s="3" t="s">
+      <c r="C511" t="s">
+        <v>20</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B512" s="2">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D511" s="3" t="s">
+      <c r="D512" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E511" s="3" t="s">
+      <c r="E512" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F511" s="3" t="s">
-        <v>1553</v>
-      </c>
-      <c r="H511" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B512" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E512" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F512" s="3" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="H512" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="513" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B513" s="2">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>34</v>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1234</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E513" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>263</v>
+        <v>1535</v>
       </c>
       <c r="H513" t="s">
-        <v>258</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="514" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B514" s="2">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="C514" s="3"/>
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D514" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E514" t="s">
-        <v>17</v>
-      </c>
-      <c r="F514" t="s">
-        <v>1556</v>
+        <v>35</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="H514" t="s">
-        <v>258</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="515" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B515" s="2">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="C515" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C515" s="3"/>
       <c r="D515" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E515" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F515" s="3" t="s">
-        <v>71</v>
+        <v>1536</v>
+      </c>
+      <c r="E515" t="s">
+        <v>17</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1537</v>
       </c>
       <c r="H515" t="s">
         <v>258</v>
@@ -17030,22 +17240,22 @@
     </row>
     <row r="516" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B516" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1557</v>
+        <v>39</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>756</v>
+        <v>40</v>
       </c>
       <c r="E516" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F516" t="s">
-        <v>832</v>
+        <v>22</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H516" t="s">
-        <v>258</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="517" spans="2:8" x14ac:dyDescent="0.2">
@@ -17062,7 +17272,7 @@
         <v>27</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1559</v>
+        <v>1540</v>
       </c>
       <c r="H517" t="s">
         <v>258</v>
@@ -17070,19 +17280,19 @@
     </row>
     <row r="518" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B518" s="2">
-        <v>0.52638888888888891</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>47</v>
+        <v>1489</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>48</v>
+        <v>1490</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F518" s="3" t="s">
-        <v>891</v>
+        <v>1632</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1633</v>
       </c>
       <c r="H518" t="s">
         <v>258</v>
@@ -17090,19 +17300,19 @@
     </row>
     <row r="519" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B519" s="2">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="C519" t="s">
-        <v>51</v>
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>1538</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>12</v>
+        <v>756</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F519" s="3" t="s">
-        <v>1560</v>
+        <v>1539</v>
+      </c>
+      <c r="F519" t="s">
+        <v>832</v>
       </c>
       <c r="H519" t="s">
         <v>258</v>
@@ -17110,19 +17320,19 @@
     </row>
     <row r="520" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B520" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>54</v>
+        <v>1590</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>55</v>
+        <v>1490</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F520" s="3" t="s">
-        <v>128</v>
+        <v>1491</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1634</v>
       </c>
       <c r="H520" t="s">
         <v>258</v>
@@ -17130,39 +17340,39 @@
     </row>
     <row r="521" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B521" s="2">
-        <v>0.58124999999999993</v>
-      </c>
-      <c r="C521" t="s">
-        <v>142</v>
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>1561</v>
+        <v>27</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1562</v>
+        <v>891</v>
       </c>
       <c r="H521" t="s">
-        <v>258</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="522" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B522" s="2">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>662</v>
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C522" t="s">
+        <v>51</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>1563</v>
+        <v>31</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1564</v>
+        <v>1541</v>
       </c>
       <c r="H522" t="s">
         <v>258</v>
@@ -17170,19 +17380,19 @@
     </row>
     <row r="523" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B523" s="2">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1098</v>
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>1636</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>21</v>
+        <v>1637</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F523" s="3" t="s">
-        <v>1565</v>
+        <v>1638</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1639</v>
       </c>
       <c r="H523" t="s">
         <v>258</v>
@@ -17190,19 +17400,19 @@
     </row>
     <row r="524" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B524" s="2">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="C524" t="s">
-        <v>404</v>
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>866</v>
+        <v>128</v>
       </c>
       <c r="H524" t="s">
         <v>258</v>
@@ -17210,19 +17420,19 @@
     </row>
     <row r="525" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B525" s="2">
-        <v>0.59930555555555554</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="C525" t="s">
-        <v>666</v>
+        <v>142</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>22</v>
+        <v>1542</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>685</v>
+        <v>1543</v>
       </c>
       <c r="H525" t="s">
         <v>258</v>
@@ -17230,19 +17440,19 @@
     </row>
     <row r="526" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B526" s="2">
-        <v>0.60625000000000007</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1101</v>
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>31</v>
+        <v>1544</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>254</v>
+        <v>1545</v>
       </c>
       <c r="H526" t="s">
         <v>258</v>
@@ -17250,19 +17460,19 @@
     </row>
     <row r="527" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B527" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>667</v>
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1098</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1566</v>
+        <v>1640</v>
       </c>
       <c r="H527" t="s">
         <v>258</v>
@@ -17270,19 +17480,19 @@
     </row>
     <row r="528" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B528" s="2">
-        <v>0.66597222222222219</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="C528" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>1567</v>
+        <v>866</v>
       </c>
       <c r="H528" t="s">
         <v>258</v>
@@ -17290,19 +17500,19 @@
     </row>
     <row r="529" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B529" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="C529" t="s">
-        <v>1102</v>
+        <v>666</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>1568</v>
+        <v>1641</v>
       </c>
       <c r="H529" t="s">
         <v>258</v>
@@ -17310,19 +17520,19 @@
     </row>
     <row r="530" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B530" s="2">
-        <v>0.6958333333333333</v>
+        <v>0.60625000000000007</v>
       </c>
       <c r="C530" t="s">
-        <v>113</v>
+        <v>1101</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1087</v>
+        <v>1642</v>
       </c>
       <c r="H530" t="s">
         <v>258</v>
@@ -17330,19 +17540,19 @@
     </row>
     <row r="531" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B531" s="2">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="C531" t="s">
-        <v>116</v>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>1569</v>
+        <v>1546</v>
       </c>
       <c r="H531" t="s">
         <v>258</v>
@@ -17350,19 +17560,19 @@
     </row>
     <row r="532" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B532" s="2">
-        <v>0.7270833333333333</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>520</v>
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C532" t="s">
+        <v>98</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F532" t="s">
-        <v>1548</v>
+        <v>36</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>1643</v>
       </c>
       <c r="H532" t="s">
         <v>258</v>
@@ -17370,19 +17580,19 @@
     </row>
     <row r="533" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B533" s="2">
-        <v>0.72777777777777775</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>126</v>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1102</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>1570</v>
+        <v>1547</v>
       </c>
       <c r="H533" t="s">
         <v>258</v>
@@ -17390,19 +17600,19 @@
     </row>
     <row r="534" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B534" s="2">
-        <v>0.83819444444444446</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="C534" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>1571</v>
+        <v>1087</v>
       </c>
       <c r="H534" t="s">
         <v>258</v>
@@ -17410,19 +17620,19 @@
     </row>
     <row r="535" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B535" s="2">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>160</v>
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="C535" t="s">
+        <v>116</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E535" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F535" s="3" t="s">
-        <v>891</v>
+        <v>1548</v>
       </c>
       <c r="H535" t="s">
         <v>258</v>
@@ -17430,19 +17640,19 @@
     </row>
     <row r="536" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B536" s="2">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="C536" t="s">
-        <v>162</v>
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F536" s="3" t="s">
-        <v>117</v>
+        <v>151</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1530</v>
       </c>
       <c r="H536" t="s">
         <v>258</v>
@@ -17450,19 +17660,19 @@
     </row>
     <row r="537" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B537" s="2">
-        <v>0.88750000000000007</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1106</v>
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>1572</v>
+        <v>1549</v>
       </c>
       <c r="H537" t="s">
         <v>258</v>
@@ -17470,19 +17680,19 @@
     </row>
     <row r="538" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B538" s="2">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="C538" t="s">
-        <v>171</v>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F538" s="3" t="s">
-        <v>1573</v>
+        <v>103</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1531</v>
       </c>
       <c r="H538" t="s">
         <v>258</v>
@@ -17490,19 +17700,19 @@
     </row>
     <row r="539" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B539" s="2">
-        <v>0.91041666666666676</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>678</v>
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="C539" t="s">
+        <v>157</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1574</v>
+        <v>13</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>1550</v>
       </c>
       <c r="H539" t="s">
         <v>258</v>
@@ -17510,19 +17720,19 @@
     </row>
     <row r="540" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B540" s="2">
-        <v>0.92013888888888884</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1575</v>
+        <v>891</v>
       </c>
       <c r="H540" t="s">
         <v>258</v>
@@ -17530,19 +17740,19 @@
     </row>
     <row r="541" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B541" s="2">
-        <v>0.9243055555555556</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>683</v>
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C541" t="s">
+        <v>162</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>896</v>
+        <v>117</v>
       </c>
       <c r="H541" t="s">
         <v>258</v>
@@ -17550,19 +17760,19 @@
     </row>
     <row r="542" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B542" s="2">
-        <v>0.93194444444444446</v>
+        <v>0.88750000000000007</v>
       </c>
       <c r="C542" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>1576</v>
+        <v>1551</v>
       </c>
       <c r="H542" t="s">
         <v>258</v>
@@ -17570,19 +17780,19 @@
     </row>
     <row r="543" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B543" s="2">
-        <v>0.94027777777777777</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="C543" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>1577</v>
+        <v>1552</v>
       </c>
       <c r="H543" t="s">
         <v>258</v>
@@ -17590,19 +17800,19 @@
     </row>
     <row r="544" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B544" s="2">
-        <v>0.94861111111111107</v>
-      </c>
-      <c r="C544" t="s">
-        <v>191</v>
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="E544" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>1578</v>
+        <v>1644</v>
       </c>
       <c r="H544" t="s">
         <v>258</v>
@@ -17610,19 +17820,19 @@
     </row>
     <row r="545" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B545" s="2">
-        <v>0.96180555555555547</v>
-      </c>
-      <c r="C545" t="s">
-        <v>195</v>
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>287</v>
+        <v>1554</v>
       </c>
       <c r="H545" t="s">
         <v>258</v>
@@ -17630,44 +17840,59 @@
     </row>
     <row r="546" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B546" s="2">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="C546" t="s">
-        <v>201</v>
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E546" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1546</v>
+        <v>1060</v>
       </c>
       <c r="H546" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="547" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B547" t="s">
-        <v>1579</v>
+      <c r="B547" s="2">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H547" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="548" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B548" s="2">
-        <v>0.40069444444444446</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="C548" t="s">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>855</v>
+        <v>1556</v>
       </c>
       <c r="H548" t="s">
         <v>258</v>
@@ -17675,21 +17900,666 @@
     </row>
     <row r="549" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B549" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H549" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B550" s="2">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="C550" t="s">
+        <v>195</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H550" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B551" s="2">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="C551" t="s">
+        <v>201</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H551" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B552" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B553" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H553" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B554" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H554" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="555" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B555" s="2">
         <v>0.40069444444444446</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="C555" t="s">
+        <v>20</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H555" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="556" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B556" s="2">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C556" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D549" s="3" t="s">
+      <c r="D556" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E549" s="3" t="s">
+      <c r="E556" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F549" s="3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H549" t="s">
+      <c r="F556" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H556" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="557" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B557" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H557" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="558" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B558" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H558" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="559" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B559" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H559" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="560" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B560" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C560" t="s">
+        <v>43</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="H560" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="561" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B561" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H561" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B562" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C562" t="s">
+        <v>51</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H562" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="563" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B563" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H563" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="564" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B564" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H564" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="565" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B565" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H565" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="566" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B566" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="C566" t="s">
+        <v>404</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H566" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="567" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B567" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="C567" t="s">
+        <v>666</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="H567" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="568" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B568" s="2">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H568" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B569" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H569" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B570" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C570" t="s">
+        <v>98</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H570" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B571" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H571" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B572" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="C572" t="s">
+        <v>670</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H572" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B573" s="2">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="C573" t="s">
+        <v>113</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H573" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B574" s="2">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="C574" t="s">
+        <v>123</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H574" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B575" s="2">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="C575" t="s">
+        <v>116</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H575" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B576" s="2">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H576" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B577" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="C577" t="s">
+        <v>274</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H577" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B578" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="C578" t="s">
+        <v>146</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H578" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B579" s="2">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="C579" t="s">
+        <v>157</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H579" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B580" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H580" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B581" s="2">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C581" t="s">
+        <v>162</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H581" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B582" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H582" t="s">
         <v>258</v>
       </c>
     </row>
@@ -19381,176 +20251,285 @@
     <hyperlink ref="D495" r:id="rId1683" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{74C858AA-004C-2140-8EE8-ACEDB1FF6BA0}"/>
     <hyperlink ref="E495" r:id="rId1684" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BB16492F-2C13-3E47-A812-FC9DB49C3CD2}"/>
     <hyperlink ref="F495" r:id="rId1685" tooltip="N808AW" display="https://www.flightradar24.com/data/aircraft/n808aw" xr:uid="{75D5C6B7-F429-1847-996F-9613B9B8DE33}"/>
-    <hyperlink ref="D496" r:id="rId1686" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{00CE4A63-69DE-9A41-92D3-418EBB2D4DEC}"/>
-    <hyperlink ref="E496" r:id="rId1687" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{1BAF1439-3F77-C847-A280-1DC48DB44C60}"/>
-    <hyperlink ref="F496" r:id="rId1688" tooltip="N85377" display="https://www.flightradar24.com/data/aircraft/n85377" xr:uid="{57B79DBB-52AA-1340-A6AC-B13E588F62D2}"/>
-    <hyperlink ref="D497" r:id="rId1689" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{39F56386-E9F2-8847-80A4-2F3B6D19493A}"/>
-    <hyperlink ref="E497" r:id="rId1690" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{28015696-EC36-9349-BDF3-D83EFEEB6847}"/>
-    <hyperlink ref="F497" r:id="rId1691" tooltip="N755SK" display="https://www.flightradar24.com/data/aircraft/n755sk" xr:uid="{4B4009F1-F10C-DB40-8630-F3B1C7029EAD}"/>
-    <hyperlink ref="C498" r:id="rId1692" tooltip="AA825" display="https://www.flightradar24.com/data/flights/aa825" xr:uid="{D603370D-87A3-7742-B1D5-2E57809252D9}"/>
-    <hyperlink ref="D498" r:id="rId1693" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{46F7A777-0046-DE41-946E-A7863F83EE45}"/>
-    <hyperlink ref="E498" r:id="rId1694" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{568714DF-5CD5-844A-8FBE-C82EFEA3E04F}"/>
-    <hyperlink ref="F498" r:id="rId1695" tooltip="N808AW" display="https://www.flightradar24.com/data/aircraft/n808aw" xr:uid="{116D4C3A-2707-1540-BB4A-B57E38DFD1BF}"/>
-    <hyperlink ref="D499" r:id="rId1696" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{F267C869-BB49-C744-9C01-BC7BE473740A}"/>
-    <hyperlink ref="E499" r:id="rId1697" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{311FFE70-4EFC-E742-84C0-2C7700E20F0E}"/>
-    <hyperlink ref="F499" r:id="rId1698" tooltip="N85377" display="https://www.flightradar24.com/data/aircraft/n85377" xr:uid="{1428E7FE-8FC7-4843-BFA7-41F16700EF15}"/>
-    <hyperlink ref="D500" r:id="rId1699" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{B4C64059-6C16-8C49-9E84-C3AF9F4C7ABD}"/>
-    <hyperlink ref="E500" r:id="rId1700" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A019B2E9-10E6-464F-BC62-F23B1129EB48}"/>
-    <hyperlink ref="F500" r:id="rId1701" tooltip="N949AT" display="https://www.flightradar24.com/data/aircraft/n949at" xr:uid="{F81B7DDA-3520-C347-AE05-3287748430E5}"/>
-    <hyperlink ref="D501" r:id="rId1702" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{5AFB1AC6-2E71-1A41-995E-2E2A10B26308}"/>
-    <hyperlink ref="E501" r:id="rId1703" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C27D1C0C-3C03-2B4E-AD77-4F17681C2285}"/>
-    <hyperlink ref="F501" r:id="rId1704" tooltip="N230NN" display="https://www.flightradar24.com/data/aircraft/n230nn" xr:uid="{BEA06A60-A7C7-4149-B54E-004DDD3F325C}"/>
-    <hyperlink ref="C502" r:id="rId1705" tooltip="G4813" display="https://www.flightradar24.com/data/flights/g4813" xr:uid="{6C932271-ECD4-774C-A29A-052021088EBD}"/>
-    <hyperlink ref="D502" r:id="rId1706" tooltip="Fort Lauderdale Hollywood International Airport, United States" display="https://www.flightradar24.com/data/airports/fll" xr:uid="{E6C72A9B-FFFD-4A48-BFD0-0632735850D4}"/>
-    <hyperlink ref="E502" r:id="rId1707" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{00F54F71-EC6B-BE4B-AB12-5F629A922CB4}"/>
-    <hyperlink ref="F502" r:id="rId1708" tooltip="N284NV" display="https://www.flightradar24.com/data/aircraft/n284nv" xr:uid="{A34FCE02-24DC-8545-9829-36CE5B101670}"/>
-    <hyperlink ref="D503" r:id="rId1709" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{F6449E4E-AB3F-7843-88BE-EC6D7C88BD89}"/>
-    <hyperlink ref="E503" r:id="rId1710" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BEEF90F9-E082-D24C-9239-9CD5F4337058}"/>
-    <hyperlink ref="F503" r:id="rId1711" tooltip="N9012" display="https://www.flightradar24.com/data/aircraft/n9012" xr:uid="{3C453611-6C48-7F4D-8720-1FFAD6E109F1}"/>
-    <hyperlink ref="C504" r:id="rId1712" tooltip="BYA584" display="https://www.flightradar24.com/data/flights/bya584" xr:uid="{E8DCEBCB-95F0-0D4B-AD2F-607D796B107D}"/>
-    <hyperlink ref="D504" r:id="rId1713" tooltip="Kansas City International Airport, United States" display="https://www.flightradar24.com/data/airports/mci" xr:uid="{43799999-5478-7F47-8F07-EF2F1C61812E}"/>
-    <hyperlink ref="E504" r:id="rId1714" tooltip="Berry Aviation" display="https://www.flightradar24.com/data/airlines/-bya" xr:uid="{34C6DB24-02ED-8442-AB57-904AD0E030DF}"/>
-    <hyperlink ref="F504" r:id="rId1715" tooltip="N584SW" display="https://www.flightradar24.com/data/aircraft/n584sw" xr:uid="{4627398D-9618-844C-A3B5-162BF159C613}"/>
-    <hyperlink ref="D505" r:id="rId1716" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{4D90E188-A7DC-214E-9B51-126825440409}"/>
-    <hyperlink ref="E505" r:id="rId1717" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{855921A1-4BD2-DC49-A04B-23E3EDC9C2B1}"/>
-    <hyperlink ref="F505" r:id="rId1718" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{62B56720-7F9A-D14B-9B82-DA37C4E28F04}"/>
-    <hyperlink ref="C507" r:id="rId1719" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{44834C23-E1B3-7A49-B582-02738F51F1DD}"/>
-    <hyperlink ref="D507" r:id="rId1720" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{589B5D02-9408-3D42-A719-BDFC78C809F1}"/>
-    <hyperlink ref="E507" r:id="rId1721" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{64950EDD-971C-464F-9DA7-0EB180ED9D55}"/>
-    <hyperlink ref="C508" r:id="rId1722" tooltip="5X514" display="https://www.flightradar24.com/data/flights/5x514" xr:uid="{F64BDCFF-905C-0B4C-A8F9-9E658C6F3ED5}"/>
-    <hyperlink ref="D508" r:id="rId1723" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{79F7ED9A-93AF-FC4C-9142-54EEDF2239AC}"/>
-    <hyperlink ref="E508" r:id="rId1724" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{51456285-BFC9-3A4C-8E78-7A031F1EAB29}"/>
-    <hyperlink ref="C509" r:id="rId1725" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{21A528DF-931A-2444-8DA4-77225DF188BE}"/>
-    <hyperlink ref="D509" r:id="rId1726" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{E99CDDA7-6700-2043-ADA6-76AD3BA47181}"/>
-    <hyperlink ref="E509" r:id="rId1727" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{DB6B10E9-B495-3F4E-BC7F-BD809171E30A}"/>
-    <hyperlink ref="D510" r:id="rId1728" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{E0C4212C-AF88-5342-92C1-C0EE87A85A10}"/>
-    <hyperlink ref="E510" r:id="rId1729" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9FA0BDC8-A513-CA44-B322-2AE5EC8B6991}"/>
-    <hyperlink ref="F510" r:id="rId1730" tooltip="N661JA" display="https://www.flightradar24.com/data/aircraft/n661ja" xr:uid="{EC5A49A8-2E5A-B942-815E-E1C5788D3CEC}"/>
-    <hyperlink ref="C511" r:id="rId1731" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{F6E0A4B5-F6D5-4841-99BD-B5B585A65001}"/>
-    <hyperlink ref="D511" r:id="rId1732" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{0D34ECAE-982F-564A-BF54-8EF74C822720}"/>
-    <hyperlink ref="E511" r:id="rId1733" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{9ACAED9B-4B12-2D41-8611-F0A7C6C23358}"/>
-    <hyperlink ref="F511" r:id="rId1734" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{4E36A380-131C-8549-B12D-F4AEDDABB8D6}"/>
-    <hyperlink ref="D512" r:id="rId1735" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{067F29DE-3E55-6C40-A354-057A8F61FE11}"/>
-    <hyperlink ref="E512" r:id="rId1736" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{3200FB39-A006-B941-B0E0-09424DD78FCB}"/>
-    <hyperlink ref="F512" r:id="rId1737" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{4AE41A90-0A6B-434E-AFBD-F7B2D7796A21}"/>
-    <hyperlink ref="C513" r:id="rId1738" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{22E55F68-B9C3-1B44-9ED4-E5678EA9DFCC}"/>
-    <hyperlink ref="D513" r:id="rId1739" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{1FF260CB-6D46-254B-9373-B3731FF380F8}"/>
-    <hyperlink ref="E513" r:id="rId1740" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{F42280FE-DFDA-4040-B3A8-E737A7E03D87}"/>
-    <hyperlink ref="F513" r:id="rId1741" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{9EE668C1-8A79-8543-B330-EA7494F206C0}"/>
-    <hyperlink ref="C514" r:id="rId1742" display="https://www.flightradar24.com/data/flights/" xr:uid="{2BBA84BB-CB82-1342-9199-FAF210A05F82}"/>
-    <hyperlink ref="D514" r:id="rId1743" tooltip="Chicago Gary International, United States" display="https://www.flightradar24.com/data/airports/gyy" xr:uid="{6C49E6AE-53B2-FF4C-A863-24990CFD4FE0}"/>
-    <hyperlink ref="C515" r:id="rId1744" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{8EE16B93-8F0A-5E44-A7B7-499DAFB07007}"/>
-    <hyperlink ref="D515" r:id="rId1745" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{E463D5DF-4903-0947-BE72-867EE14C3558}"/>
-    <hyperlink ref="E515" r:id="rId1746" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E5DA28B2-1A2E-BF42-A42F-56E0F24017DD}"/>
-    <hyperlink ref="F515" r:id="rId1747" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{9A99CD63-6B10-414A-9B39-A43187BC3ABB}"/>
-    <hyperlink ref="C516" r:id="rId1748" tooltip="JL43" display="https://www.flightradar24.com/data/flights/jl43" xr:uid="{7E682BE1-43D4-F74B-802E-C5EFDB57AD86}"/>
-    <hyperlink ref="D516" r:id="rId1749" tooltip="Scottsdale Airport, United States" display="https://www.flightradar24.com/data/airports/scf" xr:uid="{A9DF80CD-B7EF-2A43-A004-763E28683647}"/>
-    <hyperlink ref="E516" r:id="rId1750" tooltip="Jet Linx Aviation" display="https://www.flightradar24.com/data/airlines/jl-jtl" xr:uid="{50525C6A-F6CF-E54A-BF6B-6405ED5BB772}"/>
-    <hyperlink ref="D517" r:id="rId1751" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{82AC06B6-6043-3A4B-B077-5B7EAA2ED234}"/>
-    <hyperlink ref="E517" r:id="rId1752" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{CFFCB21B-735E-F546-AE47-CCFAB6652674}"/>
-    <hyperlink ref="F517" r:id="rId1753" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{C33837DF-B01A-814C-8CE6-B8384148397B}"/>
-    <hyperlink ref="C518" r:id="rId1754" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{86DC4A5E-63A0-FC4D-AFEC-C242D43EABEF}"/>
-    <hyperlink ref="D518" r:id="rId1755" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{EAAAEFEE-DD1C-CC49-8702-2C7A0785B17C}"/>
-    <hyperlink ref="E518" r:id="rId1756" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{10B580F3-2547-E948-A75F-B411A35928BE}"/>
-    <hyperlink ref="F518" r:id="rId1757" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{AA21BED2-B6CC-BF43-AF6F-1546032EBF0A}"/>
-    <hyperlink ref="D519" r:id="rId1758" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{529328E8-A81C-0941-B9BE-697709BE0808}"/>
-    <hyperlink ref="E519" r:id="rId1759" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{1F72483B-BB4E-DE4B-BE53-AE786C046B1F}"/>
-    <hyperlink ref="F519" r:id="rId1760" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{4B9F6A28-9883-1A4C-B844-16FB99D177B8}"/>
-    <hyperlink ref="C520" r:id="rId1761" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{BCD97BEB-14CA-5241-B1E4-B6EDDF22896A}"/>
-    <hyperlink ref="D520" r:id="rId1762" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{220BDE27-995A-DE4E-939B-F18B6ED36DC4}"/>
-    <hyperlink ref="E520" r:id="rId1763" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B8995134-D31D-D244-9DF6-BBB1241A52C2}"/>
-    <hyperlink ref="F520" r:id="rId1764" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{E8CB1E57-85CD-7B41-A744-3067A37F4D18}"/>
-    <hyperlink ref="D521" r:id="rId1765" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{AA604D45-371B-F541-A8DF-BA8F38E48323}"/>
-    <hyperlink ref="E521" r:id="rId1766" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{88A55EA2-E1D0-FE42-B05E-016EBC16D570}"/>
-    <hyperlink ref="F521" r:id="rId1767" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{8622A3FA-C8EA-7F45-91A2-8AE910EB9A5F}"/>
-    <hyperlink ref="C522" r:id="rId1768" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{817A6E7C-9C50-474C-BE0C-744C6AE482EF}"/>
-    <hyperlink ref="D522" r:id="rId1769" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{FB26BCC4-4485-9B4C-969C-8357FF3F644B}"/>
-    <hyperlink ref="E522" r:id="rId1770" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{31C59422-EA1B-304E-8E0F-F38AF2C7B172}"/>
-    <hyperlink ref="F522" r:id="rId1771" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{EFDC82BB-181B-8242-A572-F83513261006}"/>
-    <hyperlink ref="D523" r:id="rId1772" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{44A3C005-876F-ED48-B74A-D1278E21DD18}"/>
-    <hyperlink ref="E523" r:id="rId1773" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{D658A525-CDB1-7C4E-B388-52A04C4D3D8D}"/>
-    <hyperlink ref="F523" r:id="rId1774" tooltip="N89304" display="https://www.flightradar24.com/data/aircraft/n89304" xr:uid="{15A9EAF5-8F43-274B-9AB9-B42D48FF0739}"/>
-    <hyperlink ref="D524" r:id="rId1775" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{63896587-8054-DD45-BDE7-2FCB3CD309D3}"/>
-    <hyperlink ref="E524" r:id="rId1776" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1867E600-123B-574D-A058-6FC1677AB055}"/>
-    <hyperlink ref="F524" r:id="rId1777" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{6766A2A1-DCCE-694A-A213-D8CEABF18F53}"/>
-    <hyperlink ref="D525" r:id="rId1778" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{A2AB7269-6BFC-8447-8598-0E1680E015F3}"/>
-    <hyperlink ref="E525" r:id="rId1779" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{6443FAB2-E208-D647-AE80-186B322E7071}"/>
-    <hyperlink ref="F525" r:id="rId1780" tooltip="N696AE" display="https://www.flightradar24.com/data/aircraft/n696ae" xr:uid="{DABBC477-7913-F946-92FE-3FF5B5285BF3}"/>
-    <hyperlink ref="D526" r:id="rId1781" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{B3894BF2-16A0-F74A-966C-7FF5304FEE50}"/>
-    <hyperlink ref="E526" r:id="rId1782" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{4B974274-32C6-4A42-9B5E-307135A3F9F6}"/>
-    <hyperlink ref="F526" r:id="rId1783" tooltip="N88346" display="https://www.flightradar24.com/data/aircraft/n88346" xr:uid="{7197D28F-E583-174E-ABD7-7B468A950506}"/>
-    <hyperlink ref="C527" r:id="rId1784" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{C29E557A-B63B-BE4E-B08F-381FE9902B1E}"/>
-    <hyperlink ref="D527" r:id="rId1785" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{D6FB658D-07D4-194C-939B-802BBBD998CC}"/>
-    <hyperlink ref="E527" r:id="rId1786" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{490B527F-CD34-904C-A8B9-F74CEEA6A487}"/>
-    <hyperlink ref="F527" r:id="rId1787" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{CE4F7CFA-D5D9-2A41-9619-86321DB9EEED}"/>
-    <hyperlink ref="D528" r:id="rId1788" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{2BF94C0B-3702-0044-8DD1-9EEE843F2CC7}"/>
-    <hyperlink ref="E528" r:id="rId1789" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D9FE196F-D71C-7542-8E0D-EACD0C687439}"/>
-    <hyperlink ref="F528" r:id="rId1790" tooltip="N988AT" display="https://www.flightradar24.com/data/aircraft/n988at" xr:uid="{9749639C-22B9-C644-B7D2-9E2C9632E24F}"/>
-    <hyperlink ref="D529" r:id="rId1791" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{1E818E75-7498-9449-9BBE-B09B903B8A2B}"/>
-    <hyperlink ref="E529" r:id="rId1792" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{6E21F4ED-51FF-4E47-8BF3-165043C81C31}"/>
-    <hyperlink ref="F529" r:id="rId1793" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{0E2950F1-2586-6748-883E-0CABBF9B0C37}"/>
-    <hyperlink ref="D530" r:id="rId1794" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{A54129CA-21E8-D44D-A078-C7468D106F34}"/>
-    <hyperlink ref="E530" r:id="rId1795" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{35D35CBA-75CA-3342-9D51-01902E2C6E00}"/>
-    <hyperlink ref="F530" r:id="rId1796" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{9E16C5C7-A281-CE45-A567-C564F1D7F168}"/>
-    <hyperlink ref="D531" r:id="rId1797" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{B9877477-F299-6F41-A85C-015D24729D33}"/>
-    <hyperlink ref="E531" r:id="rId1798" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{CEAB13CC-9ABC-BE42-84B0-C86AD0C9529C}"/>
-    <hyperlink ref="F531" r:id="rId1799" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{50CCE83D-16E9-8749-9F6C-D8C73BA52C67}"/>
-    <hyperlink ref="C532" r:id="rId1800" tooltip="FX718" display="https://www.flightradar24.com/data/flights/fx718" xr:uid="{80E90B8E-6393-984C-B11A-7EB886A662EA}"/>
-    <hyperlink ref="D532" r:id="rId1801" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{831FA982-34DF-7B43-9CAD-473F7EA6FD3A}"/>
-    <hyperlink ref="E532" r:id="rId1802" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{B68C2050-16C6-E847-90DC-5834E2C1BF97}"/>
-    <hyperlink ref="C533" r:id="rId1803" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{B1ECC834-6C46-0D42-A93E-97964C28D693}"/>
-    <hyperlink ref="D533" r:id="rId1804" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{AC8D7DC4-F1DA-CA4D-883A-9F6CFE614DC4}"/>
-    <hyperlink ref="E533" r:id="rId1805" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B4E0FCA8-13F9-2241-BBFD-3B4829961D41}"/>
-    <hyperlink ref="F533" r:id="rId1806" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{6AECC87D-AA0C-D54E-A211-88AFF1B65C02}"/>
-    <hyperlink ref="D534" r:id="rId1807" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{B25916CF-2E5F-CD4F-91B5-20FF035F3428}"/>
-    <hyperlink ref="E534" r:id="rId1808" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{23A9DC89-FD32-FA4D-96E3-1406EC1B7787}"/>
-    <hyperlink ref="F534" r:id="rId1809" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{F000020E-560A-8247-9774-B6EB7F68CBA0}"/>
-    <hyperlink ref="C535" r:id="rId1810" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{EBF4E0E8-11E5-6041-814E-55857191CF2A}"/>
-    <hyperlink ref="D535" r:id="rId1811" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{507A057C-7790-154E-A7DB-06C1ADA2E85F}"/>
-    <hyperlink ref="E535" r:id="rId1812" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6168BFD9-358E-5743-88A5-25DA8150CA68}"/>
-    <hyperlink ref="F535" r:id="rId1813" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{0487A5AA-52A8-D948-A9E6-AF90366C87EC}"/>
-    <hyperlink ref="D536" r:id="rId1814" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{B7EA7459-5574-2E49-9EDA-76186B8B8ABF}"/>
-    <hyperlink ref="E536" r:id="rId1815" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D77C97C2-F362-854C-9B68-D12803FCA1C2}"/>
-    <hyperlink ref="F536" r:id="rId1816" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{48B9C47F-9397-D241-B1BF-709D1F841C8F}"/>
-    <hyperlink ref="D537" r:id="rId1817" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{003B0889-75AB-8140-B8E3-E7526F148D33}"/>
-    <hyperlink ref="E537" r:id="rId1818" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{B1368DCC-2E57-A14D-94FE-CF053648B313}"/>
-    <hyperlink ref="F537" r:id="rId1819" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{0DA17A63-78FB-D141-81ED-360861FCE456}"/>
-    <hyperlink ref="D538" r:id="rId1820" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{441B8DB2-2695-D94B-BF8E-A2E2C0AF53F9}"/>
-    <hyperlink ref="E538" r:id="rId1821" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D7F40352-08FB-0C4C-A9CF-EEDDE30F1F30}"/>
-    <hyperlink ref="F538" r:id="rId1822" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{62F2BD8C-BAED-4843-BB76-587DCE8CF9BB}"/>
-    <hyperlink ref="C539" r:id="rId1823" tooltip="AA4770" display="https://www.flightradar24.com/data/flights/aa4770" xr:uid="{767E8B36-8683-BB47-8887-B5097B9284D4}"/>
-    <hyperlink ref="D539" r:id="rId1824" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{F4E06CFA-EFED-B440-A9FD-5F8B59EC4EF6}"/>
-    <hyperlink ref="E539" r:id="rId1825" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E1C446F0-3468-8A44-8045-BA8E91A44085}"/>
-    <hyperlink ref="C540" r:id="rId1826" tooltip="WN3250" display="https://www.flightradar24.com/data/flights/wn3250" xr:uid="{DEDFA1C3-AD88-BF42-87D0-49CFD4CA16FC}"/>
-    <hyperlink ref="D540" r:id="rId1827" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{AD4810FD-48BD-4144-B79A-065ABD74CCF5}"/>
-    <hyperlink ref="E540" r:id="rId1828" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{B9F0CC28-8E8B-1740-8B85-A3C446CBD6F6}"/>
-    <hyperlink ref="F540" r:id="rId1829" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{02989821-A9F5-0A45-AB61-5BC1619BCBBC}"/>
-    <hyperlink ref="C541" r:id="rId1830" tooltip="AA825" display="https://www.flightradar24.com/data/flights/aa825" xr:uid="{71DD74D0-19FD-D742-BDA9-630542D7F3EF}"/>
-    <hyperlink ref="D541" r:id="rId1831" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{3140C47D-004F-B348-A7E3-758771EE77F4}"/>
-    <hyperlink ref="E541" r:id="rId1832" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BE63645A-817D-C24B-B5A7-0A194989C8A6}"/>
-    <hyperlink ref="F541" r:id="rId1833" tooltip="N703UW" display="https://www.flightradar24.com/data/aircraft/n703uw" xr:uid="{0CC3054B-990E-B94A-B4EF-FF9BC83BA705}"/>
-    <hyperlink ref="D542" r:id="rId1834" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{FBC45F3E-3A4F-1540-ADEC-76195CADC56B}"/>
-    <hyperlink ref="E542" r:id="rId1835" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{9E10BDBF-33FA-EA49-9B10-6DB827A516C1}"/>
-    <hyperlink ref="F542" r:id="rId1836" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{2122F0F1-3EEF-4844-A710-380494853C78}"/>
-    <hyperlink ref="D543" r:id="rId1837" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{5BE23C70-9BD3-9546-87B0-7D095091F835}"/>
-    <hyperlink ref="E543" r:id="rId1838" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8DBF0967-87EE-144E-B105-69EF32CB7B34}"/>
-    <hyperlink ref="F543" r:id="rId1839" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{8CF691C4-6A15-0644-A197-A6EDBF29B780}"/>
-    <hyperlink ref="D544" r:id="rId1840" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{BF757B1A-0909-4947-9957-853965D284D3}"/>
-    <hyperlink ref="E544" r:id="rId1841" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{83194BB4-74F9-1344-8085-30BC7D7E8D79}"/>
-    <hyperlink ref="F544" r:id="rId1842" tooltip="N201NN" display="https://www.flightradar24.com/data/aircraft/n201nn" xr:uid="{2575527E-F6F5-1041-AD17-AD8C915F9D2A}"/>
-    <hyperlink ref="D545" r:id="rId1843" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{6D312B7C-9874-BB47-AEFC-F43A48A95C6C}"/>
-    <hyperlink ref="E545" r:id="rId1844" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{35E93A38-2480-D944-B963-778B21D7CE4D}"/>
-    <hyperlink ref="F545" r:id="rId1845" tooltip="N711UW" display="https://www.flightradar24.com/data/aircraft/n711uw" xr:uid="{CC1A2921-CCE6-7940-B864-5FD70FF97B3E}"/>
-    <hyperlink ref="D546" r:id="rId1846" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{51345CBC-4FD5-E54D-A11B-C97614F71391}"/>
-    <hyperlink ref="E546" r:id="rId1847" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{0A66F1B8-EB5B-3A4D-9BAC-41E876CC8C08}"/>
-    <hyperlink ref="F546" r:id="rId1848" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{112CADCE-CCDB-5F40-99D2-3FA651201E6A}"/>
-    <hyperlink ref="D548" r:id="rId1849" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{ECA64B89-F59C-ED42-AC9F-5EEA03178F2D}"/>
-    <hyperlink ref="E548" r:id="rId1850" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{16EB6061-E08A-CC43-9828-BC2826D93A10}"/>
-    <hyperlink ref="F548" r:id="rId1851" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{66479E69-7A31-0745-A38F-A9618A0C59E3}"/>
-    <hyperlink ref="C549" r:id="rId1852" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{B296E693-2237-5D40-A4B8-06DDAA8E5A78}"/>
-    <hyperlink ref="D549" r:id="rId1853" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{173080C2-EE22-D545-A4C9-E99772E0DAF0}"/>
-    <hyperlink ref="E549" r:id="rId1854" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A447C440-7D4D-CD4B-BA3D-13CDA4644CFE}"/>
-    <hyperlink ref="F549" r:id="rId1855" tooltip="N913XJ" display="https://www.flightradar24.com/data/aircraft/n913xj" xr:uid="{CF74B8B9-DFA8-874D-9109-20D3BDF35910}"/>
+    <hyperlink ref="D496" r:id="rId1686" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{C7433377-9B70-574E-B03D-78DEE1C05030}"/>
+    <hyperlink ref="E496" r:id="rId1687" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{CF1B675C-A173-A148-B678-A17CF240CBA5}"/>
+    <hyperlink ref="F496" r:id="rId1688" tooltip="N85377" display="https://www.flightradar24.com/data/aircraft/n85377" xr:uid="{6DE8F408-0DE8-B94F-89C8-285BC2A80C14}"/>
+    <hyperlink ref="D497" r:id="rId1689" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E148D97A-A742-E24F-B396-AD3B4A46D993}"/>
+    <hyperlink ref="E497" r:id="rId1690" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{65B87164-68A3-5947-9DE7-E9EE809BC48B}"/>
+    <hyperlink ref="F497" r:id="rId1691" tooltip="N949AT" display="https://www.flightradar24.com/data/aircraft/n949at" xr:uid="{2E5DC72C-121C-A04B-A3C6-FA9A574968DA}"/>
+    <hyperlink ref="D498" r:id="rId1692" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{6036642D-510C-B04E-8106-7E3558E0AF14}"/>
+    <hyperlink ref="E498" r:id="rId1693" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3778070D-BBEC-4448-9672-08D6A8BD73DB}"/>
+    <hyperlink ref="F498" r:id="rId1694" tooltip="N230NN" display="https://www.flightradar24.com/data/aircraft/n230nn" xr:uid="{133092F1-A460-F840-8CDF-ACB499D505C5}"/>
+    <hyperlink ref="C499" r:id="rId1695" tooltip="G4813" display="https://www.flightradar24.com/data/flights/g4813" xr:uid="{682B1C8F-DD0D-1349-848D-61E795BCD0F4}"/>
+    <hyperlink ref="D499" r:id="rId1696" tooltip="Fort Lauderdale Hollywood International Airport, United States" display="https://www.flightradar24.com/data/airports/fll" xr:uid="{23B7042E-59D1-F74E-9BB9-9FA369CEF09D}"/>
+    <hyperlink ref="E499" r:id="rId1697" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{56372A73-38C7-554B-A513-E02970B87161}"/>
+    <hyperlink ref="F499" r:id="rId1698" tooltip="N284NV" display="https://www.flightradar24.com/data/aircraft/n284nv" xr:uid="{2526CBD1-8A7D-8948-8B0D-A6CE49A5C854}"/>
+    <hyperlink ref="D500" r:id="rId1699" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{6055D713-2747-8643-A0BF-7D14D4EE6D81}"/>
+    <hyperlink ref="E500" r:id="rId1700" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E0598913-6F0A-2449-B865-7325E7ED82A0}"/>
+    <hyperlink ref="F500" r:id="rId1701" tooltip="N9012" display="https://www.flightradar24.com/data/aircraft/n9012" xr:uid="{BCA115ED-4041-AB45-86D2-E3E6744BB185}"/>
+    <hyperlink ref="C501" r:id="rId1702" tooltip="BYA584" display="https://www.flightradar24.com/data/flights/bya584" xr:uid="{7E0D9BC0-0B45-4F4E-9933-24B17E73D601}"/>
+    <hyperlink ref="D501" r:id="rId1703" tooltip="Kansas City International Airport, United States" display="https://www.flightradar24.com/data/airports/mci" xr:uid="{5675BE6C-55AD-0241-9564-9F5EE9E28502}"/>
+    <hyperlink ref="E501" r:id="rId1704" tooltip="Berry Aviation" display="https://www.flightradar24.com/data/airlines/-bya" xr:uid="{0C92FE84-DEBD-C946-BB29-F82DF6C20072}"/>
+    <hyperlink ref="F501" r:id="rId1705" tooltip="N584SW" display="https://www.flightradar24.com/data/aircraft/n584sw" xr:uid="{F3D238C4-5AB1-8347-9A19-301DF215E03D}"/>
+    <hyperlink ref="D502" r:id="rId1706" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{12A9B150-DBCD-A04F-848F-4085C8DD0B98}"/>
+    <hyperlink ref="E502" r:id="rId1707" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{205A9BC4-B911-DC40-82D2-1BDC99103B8B}"/>
+    <hyperlink ref="F502" r:id="rId1708" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{A1731804-2648-9D4C-9860-15BCFE18E7F2}"/>
+    <hyperlink ref="C504" r:id="rId1709" tooltip="3M3901" display="https://www.flightradar24.com/data/flights/3m3901" xr:uid="{1751357B-1CFA-2B48-90F5-A1ACAA21180E}"/>
+    <hyperlink ref="D504" r:id="rId1710" tooltip="Fort Worth Alliance Airport, United States" display="https://www.flightradar24.com/data/airports/afw" xr:uid="{467CEE99-3F92-B14E-BF9E-CB52D92AC58C}"/>
+    <hyperlink ref="E504" r:id="rId1711" tooltip="Amazon Air" display="https://www.flightradar24.com/data/airlines/3m-sil" xr:uid="{ED7A5C7A-A050-6940-BEE5-E14D59C8B5D4}"/>
+    <hyperlink ref="F504" r:id="rId1712" tooltip="N937AZ" display="https://www.flightradar24.com/data/aircraft/n937az" xr:uid="{1CAE6190-FEDB-E64D-8539-922054F38229}"/>
+    <hyperlink ref="C505" r:id="rId1713" tooltip="5X514" display="https://www.flightradar24.com/data/flights/5x514" xr:uid="{8511A98F-4ADC-8B4C-B988-33F38A50D5F9}"/>
+    <hyperlink ref="D505" r:id="rId1714" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{D3989693-39F1-374E-8A85-644BDB9C7AB7}"/>
+    <hyperlink ref="E505" r:id="rId1715" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{62D5DEE4-F7E2-B844-B3E6-BC96E989ACA0}"/>
+    <hyperlink ref="F505" r:id="rId1716" tooltip="N336UP" display="https://www.flightradar24.com/data/aircraft/n336up" xr:uid="{1979C210-F752-5941-9810-D7C81E1A1350}"/>
+    <hyperlink ref="C506" r:id="rId1717" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{3C118D3E-AE9C-5640-838C-2EA0B4CE6F5D}"/>
+    <hyperlink ref="D506" r:id="rId1718" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{211BFCC8-A4D3-9B42-B546-0407F4035584}"/>
+    <hyperlink ref="E506" r:id="rId1719" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{18AE3D55-3CA6-B749-98F8-E665DB5C8D80}"/>
+    <hyperlink ref="F506" r:id="rId1720" tooltip="N674FE" display="https://www.flightradar24.com/data/aircraft/n674fe" xr:uid="{BECE677B-2423-8D4B-B6E4-2795DD1D5AA5}"/>
+    <hyperlink ref="C507" r:id="rId1721" tooltip="DL5558" display="https://www.flightradar24.com/data/flights/dl5558" xr:uid="{72EAB0AC-D482-1843-937E-76DB4CFCB413}"/>
+    <hyperlink ref="D507" r:id="rId1722" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{27EC093E-E5B1-A44C-87F0-3EF686ED03EA}"/>
+    <hyperlink ref="E507" r:id="rId1723" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{55263E12-3D16-584E-9DBF-5ACD7CE37BD0}"/>
+    <hyperlink ref="F507" r:id="rId1724" tooltip="N305PQ" display="https://www.flightradar24.com/data/aircraft/n305pq" xr:uid="{298F32B2-CA5A-4243-A117-14E37A97054D}"/>
+    <hyperlink ref="C508" r:id="rId1725" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{0A6FF6E4-1D0C-B74A-985F-384B9A097EC9}"/>
+    <hyperlink ref="D508" r:id="rId1726" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{D95ED30C-E312-9B4A-A0B4-196F11E4F868}"/>
+    <hyperlink ref="E508" r:id="rId1727" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{AE3B8543-B727-7F4C-BCD0-38184DA32CE4}"/>
+    <hyperlink ref="F508" r:id="rId1728" tooltip="N937FD" display="https://www.flightradar24.com/data/aircraft/n937fd" xr:uid="{95EF9C7E-3C7E-8C47-A663-2FE56B74488C}"/>
+    <hyperlink ref="D509" r:id="rId1729" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{CD038919-8C56-FD49-909D-212D4393C0EA}"/>
+    <hyperlink ref="E509" r:id="rId1730" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B465B4C6-489A-A74A-99D2-B5725CE8B6CF}"/>
+    <hyperlink ref="F509" r:id="rId1731" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{1CB0F148-8C59-F54E-9AFA-F0961C3CCA59}"/>
+    <hyperlink ref="C510" r:id="rId1732" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{CE64EA3E-C25F-1145-9358-D23BCBC65EDB}"/>
+    <hyperlink ref="D510" r:id="rId1733" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{B3E78807-CA9F-0944-9100-10BD1FC5A9F2}"/>
+    <hyperlink ref="E510" r:id="rId1734" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6BF34300-0813-3B4D-8EC9-704CD5349B43}"/>
+    <hyperlink ref="F510" r:id="rId1735" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{5BB9CADA-8B0E-724A-BE97-9B8612B0FAC1}"/>
+    <hyperlink ref="D511" r:id="rId1736" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{24263B1C-2F76-A944-BE7E-389095580555}"/>
+    <hyperlink ref="E511" r:id="rId1737" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1AD7B0D1-4C4C-3440-849A-994D333EEC2C}"/>
+    <hyperlink ref="F511" r:id="rId1738" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{1DE6EAE3-1596-4F41-BFBC-FF56122AB15C}"/>
+    <hyperlink ref="C512" r:id="rId1739" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{65937059-4EA0-6442-9E20-092E56E569C3}"/>
+    <hyperlink ref="D512" r:id="rId1740" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{64D013A5-A199-574D-BE6A-D04258D42FC5}"/>
+    <hyperlink ref="E512" r:id="rId1741" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8F0268A6-4E0C-9A46-B11D-52934E95BBB0}"/>
+    <hyperlink ref="F512" r:id="rId1742" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{972F5C9C-3F0F-9E48-8CFB-3517B10ED19A}"/>
+    <hyperlink ref="D513" r:id="rId1743" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{51E9105C-C21C-5246-B7F1-634C468FAB2D}"/>
+    <hyperlink ref="E513" r:id="rId1744" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C0FB4299-E7FE-1B4E-8C0F-383334BDC3C3}"/>
+    <hyperlink ref="F513" r:id="rId1745" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{232B918A-9758-5E4B-BEC5-BBB709A3DF43}"/>
+    <hyperlink ref="C514" r:id="rId1746" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{8BE99289-E93F-B14A-A730-626A4961BF7E}"/>
+    <hyperlink ref="D514" r:id="rId1747" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{323DEE1E-6B45-7D4A-90C5-9C86B62227A9}"/>
+    <hyperlink ref="E514" r:id="rId1748" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{0A31E575-EC32-9C4C-9DD7-0B7B3FDF7AB3}"/>
+    <hyperlink ref="F514" r:id="rId1749" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{1FEFFAD5-677E-A946-BDFF-D49D375D0370}"/>
+    <hyperlink ref="C515" r:id="rId1750" display="https://www.flightradar24.com/data/flights/" xr:uid="{7B6818C8-7469-C54D-B747-CAA134FE7C73}"/>
+    <hyperlink ref="D515" r:id="rId1751" tooltip="Chicago Gary International, United States" display="https://www.flightradar24.com/data/airports/gyy" xr:uid="{A1C1DD41-4104-F945-861F-900E5A2B5C8C}"/>
+    <hyperlink ref="C516" r:id="rId1752" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{055DEE99-A6B9-BA43-8690-59997FBC16F3}"/>
+    <hyperlink ref="D516" r:id="rId1753" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{5F89E727-75F8-C047-BA0E-304AAD783458}"/>
+    <hyperlink ref="E516" r:id="rId1754" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{A88E1FD6-DC67-EC4E-96D6-FF2D3B8AC874}"/>
+    <hyperlink ref="F516" r:id="rId1755" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{3211E951-9485-194F-9D5D-2D8C06EBCAA9}"/>
+    <hyperlink ref="D517" r:id="rId1756" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{D5850D84-B468-5F40-A6C4-8215AB7939F6}"/>
+    <hyperlink ref="E517" r:id="rId1757" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1B155252-EFF8-854A-9B79-05F5E1BB7E35}"/>
+    <hyperlink ref="F517" r:id="rId1758" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{38201778-9B72-074E-9A9C-7D1DED51D4FC}"/>
+    <hyperlink ref="C518" r:id="rId1759" tooltip="UJ811" display="https://www.flightradar24.com/data/flights/uj811" xr:uid="{FD42E7F3-376D-4D42-860C-02B0A2AD5DB3}"/>
+    <hyperlink ref="D518" r:id="rId1760" tooltip="Detroit Willow Run Airport, United States" display="https://www.flightradar24.com/data/airports/yip" xr:uid="{FB0ECBD0-2E13-364E-B650-80DEDAB3E6D7}"/>
+    <hyperlink ref="E518" r:id="rId1761" tooltip="AlMasria Universal Airlines" display="https://www.flightradar24.com/data/airlines/uj-lmu" xr:uid="{5AC7162C-0C00-774E-91AF-EB589C0CD94C}"/>
+    <hyperlink ref="C519" r:id="rId1762" tooltip="JL43" display="https://www.flightradar24.com/data/flights/jl43" xr:uid="{52DF35BD-7314-A642-9905-717F78E87124}"/>
+    <hyperlink ref="D519" r:id="rId1763" tooltip="Scottsdale Airport, United States" display="https://www.flightradar24.com/data/airports/scf" xr:uid="{40F48DCD-DEB1-F948-8DBF-CFAE9995ACD3}"/>
+    <hyperlink ref="E519" r:id="rId1764" tooltip="Jet Linx Aviation" display="https://www.flightradar24.com/data/airlines/jl-jtl" xr:uid="{17994101-7388-9442-B5BD-746D904D7EAE}"/>
+    <hyperlink ref="C520" r:id="rId1765" tooltip="JUS811" display="https://www.flightradar24.com/data/flights/jus811" xr:uid="{3A9A57C6-A4BF-694F-9B9C-EA7C5E2E7882}"/>
+    <hyperlink ref="D520" r:id="rId1766" tooltip="Detroit Willow Run Airport, United States" display="https://www.flightradar24.com/data/airports/yip" xr:uid="{904631CE-F6E3-574C-8701-B44727893A65}"/>
+    <hyperlink ref="E520" r:id="rId1767" tooltip="USA Jet Airlines" display="https://www.flightradar24.com/data/airlines/-jus" xr:uid="{25568FE9-02E4-AC49-9F32-9B2558C668FD}"/>
+    <hyperlink ref="C521" r:id="rId1768" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{21A9D6B6-3DFA-AE4B-85C6-B960203710DB}"/>
+    <hyperlink ref="D521" r:id="rId1769" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{6EEB1655-37EC-E944-96F9-940E91885201}"/>
+    <hyperlink ref="E521" r:id="rId1770" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{3A89DA9F-FE89-D149-98B9-63808529ADA2}"/>
+    <hyperlink ref="F521" r:id="rId1771" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{EC65D619-EF01-E44B-9E10-080598713A03}"/>
+    <hyperlink ref="D522" r:id="rId1772" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{DE982125-7B17-8F47-903A-D6B63DC8F3E8}"/>
+    <hyperlink ref="E522" r:id="rId1773" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{55B43117-7618-2342-8E2A-ED44B12A61D0}"/>
+    <hyperlink ref="F522" r:id="rId1774" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{2D3EEC60-8DA1-A843-8217-83160CEF40C2}"/>
+    <hyperlink ref="C523" r:id="rId1775" tooltip="CNS176" display="https://www.flightradar24.com/data/flights/cns176" xr:uid="{79E0C91B-D66D-CF43-B1E3-A75517E6F154}"/>
+    <hyperlink ref="D523" r:id="rId1776" tooltip="Philadelphia Northeast Airport, United States" display="https://www.flightradar24.com/data/airports/pne" xr:uid="{0C628142-C2C8-5E47-A586-DE351F9167D5}"/>
+    <hyperlink ref="E523" r:id="rId1777" tooltip="PlaneSense" display="https://www.flightradar24.com/data/airlines/-cns" xr:uid="{80616FD9-9655-1B41-B9AD-765204F134FC}"/>
+    <hyperlink ref="C524" r:id="rId1778" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{855C860A-4194-254E-822E-8D3F37B8DB53}"/>
+    <hyperlink ref="D524" r:id="rId1779" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{C087D186-7F1C-BB4F-947D-074A502C8EA4}"/>
+    <hyperlink ref="E524" r:id="rId1780" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E39B9159-10B9-884D-B2B4-1EB848F49F2F}"/>
+    <hyperlink ref="F524" r:id="rId1781" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{2CB62131-151B-C447-BC7B-87F9C1B6ADC1}"/>
+    <hyperlink ref="D525" r:id="rId1782" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{361028A9-0AE0-8F47-BCA3-75C8ACF2EE60}"/>
+    <hyperlink ref="E525" r:id="rId1783" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{BFF61326-1BE8-7B4B-853C-2C60FF40ED88}"/>
+    <hyperlink ref="F525" r:id="rId1784" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{B84EB96E-945A-2F41-B1CF-FAE7DF47CCD0}"/>
+    <hyperlink ref="C526" r:id="rId1785" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{3EF833F9-A6B0-5A47-85AC-E9AD5A650A13}"/>
+    <hyperlink ref="D526" r:id="rId1786" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{214C6B0D-6654-7B4D-8D53-A1F1E66DB132}"/>
+    <hyperlink ref="E526" r:id="rId1787" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{2011A7CF-5AAD-4F4A-B1B8-92C5A741D56B}"/>
+    <hyperlink ref="F526" r:id="rId1788" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{B34818B7-F3E2-9148-9A0D-7BE577DAD23D}"/>
+    <hyperlink ref="D527" r:id="rId1789" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{417D386E-84AE-C540-8D4E-31693C8824ED}"/>
+    <hyperlink ref="E527" r:id="rId1790" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{84690AB1-9EFA-7A45-8B17-FB5D5B56F4B1}"/>
+    <hyperlink ref="F527" r:id="rId1791" tooltip="N82338" display="https://www.flightradar24.com/data/aircraft/n82338" xr:uid="{1DCD2041-D050-DC4F-8492-D6913E742177}"/>
+    <hyperlink ref="D528" r:id="rId1792" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{E4BBBE09-B909-6042-BC64-BFED204FA5D8}"/>
+    <hyperlink ref="E528" r:id="rId1793" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D9208BD7-3483-3942-BB33-AA8FECFEF21F}"/>
+    <hyperlink ref="F528" r:id="rId1794" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{339F0202-B0A0-3245-B02D-CF51BF68BC90}"/>
+    <hyperlink ref="D529" r:id="rId1795" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{3F0BCE05-4A7C-884C-80A9-665D8F2097D4}"/>
+    <hyperlink ref="E529" r:id="rId1796" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{420F9930-1D48-BE42-9DCF-D92EFAD45709}"/>
+    <hyperlink ref="F529" r:id="rId1797" tooltip="N677AE" display="https://www.flightradar24.com/data/aircraft/n677ae" xr:uid="{85E2C1FE-E567-F74D-9832-A981625BCEF0}"/>
+    <hyperlink ref="D530" r:id="rId1798" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{65B441BE-73FE-2447-A710-579172AA0C0F}"/>
+    <hyperlink ref="E530" r:id="rId1799" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{04437415-C72D-BB42-9A9D-F1B699688CEC}"/>
+    <hyperlink ref="F530" r:id="rId1800" tooltip="N86309" display="https://www.flightradar24.com/data/aircraft/n86309" xr:uid="{3B140539-CA8D-104D-AD1C-61BD36C0AF5F}"/>
+    <hyperlink ref="C531" r:id="rId1801" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{3AEAEC91-7950-FC43-AB39-FEF1AD2FE704}"/>
+    <hyperlink ref="D531" r:id="rId1802" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{BD8DCF17-C4CD-C444-BA39-568EEADB4E73}"/>
+    <hyperlink ref="E531" r:id="rId1803" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{7F1A7730-94FF-5D42-A36C-E19B45510B1F}"/>
+    <hyperlink ref="F531" r:id="rId1804" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{014DC63C-348F-9249-8DE4-A38614DC1C6A}"/>
+    <hyperlink ref="D532" r:id="rId1805" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{D1CD2A20-0D74-054C-9EB9-D39A2F8566F4}"/>
+    <hyperlink ref="E532" r:id="rId1806" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{FC360E0B-558E-BC46-A961-54D41F9ACC63}"/>
+    <hyperlink ref="F532" r:id="rId1807" tooltip="N965AT" display="https://www.flightradar24.com/data/aircraft/n965at" xr:uid="{2F471F25-32D9-DC4A-AABF-45ECC8ED756F}"/>
+    <hyperlink ref="D533" r:id="rId1808" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{BDE8D8CD-77F4-8844-9173-2509B9C7BAC8}"/>
+    <hyperlink ref="E533" r:id="rId1809" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{5E88523E-37E4-AE43-8D0D-71A45C3C1C09}"/>
+    <hyperlink ref="F533" r:id="rId1810" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{CF5C8ED2-72F3-7849-9C2B-1AED471D4B05}"/>
+    <hyperlink ref="D534" r:id="rId1811" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{35180F43-9C87-C447-A136-8F4CC727907B}"/>
+    <hyperlink ref="E534" r:id="rId1812" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1328AB9D-B49C-9F44-B845-F2072DE95B01}"/>
+    <hyperlink ref="F534" r:id="rId1813" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{77187984-50E8-BE46-8FF9-FC7C002F4F7D}"/>
+    <hyperlink ref="D535" r:id="rId1814" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{196D7789-DD19-7E43-A5F3-6CEC9E6F6A25}"/>
+    <hyperlink ref="E535" r:id="rId1815" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E8F4CBAF-381A-8249-89F3-027BBC979850}"/>
+    <hyperlink ref="F535" r:id="rId1816" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{3EA336D6-DBBF-F546-8331-EBE1214A8C74}"/>
+    <hyperlink ref="C536" r:id="rId1817" tooltip="FX718" display="https://www.flightradar24.com/data/flights/fx718" xr:uid="{C24A6228-F26F-B94F-9787-32D5D23B19CD}"/>
+    <hyperlink ref="D536" r:id="rId1818" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{E4DAE6DD-5221-5B4C-AE73-D4B754244A00}"/>
+    <hyperlink ref="E536" r:id="rId1819" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{28127526-8478-134C-B6D5-AEC418E02A6C}"/>
+    <hyperlink ref="C537" r:id="rId1820" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{B5EAA286-8C18-8A4A-877D-EF36DE0DBAAA}"/>
+    <hyperlink ref="D537" r:id="rId1821" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{9187875B-72BA-9542-BE15-EF419E1B6805}"/>
+    <hyperlink ref="E537" r:id="rId1822" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{8067C1FD-4022-DA44-9BFB-267A513A4926}"/>
+    <hyperlink ref="F537" r:id="rId1823" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{693DB717-7FBC-BD43-9D42-34533DB84E62}"/>
+    <hyperlink ref="C538" r:id="rId1824" tooltip="5X9654" display="https://www.flightradar24.com/data/flights/5x9654" xr:uid="{3F52C0E9-58B4-9646-BDD0-D12A2D011B4C}"/>
+    <hyperlink ref="D538" r:id="rId1825" tooltip="Louisville International Airport, United States" display="https://www.flightradar24.com/data/airports/sdf" xr:uid="{D4F64FD1-812C-7E41-88E8-7FDFEE9FB356}"/>
+    <hyperlink ref="E538" r:id="rId1826" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{6EE37E7F-38F6-394F-96E6-6FCBFCC4A317}"/>
+    <hyperlink ref="D539" r:id="rId1827" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{F34D8CD6-9AD5-D142-B75A-BF9608F685A9}"/>
+    <hyperlink ref="E539" r:id="rId1828" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C08E2CE8-7B4F-D04E-A3D2-0E935B2417EA}"/>
+    <hyperlink ref="F539" r:id="rId1829" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{24E24035-5839-CA40-B262-D40F7D230451}"/>
+    <hyperlink ref="C540" r:id="rId1830" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{4E5596D0-EFA1-414E-831A-F29AC41972C5}"/>
+    <hyperlink ref="D540" r:id="rId1831" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{C5397DD2-4E14-0349-BD03-A52CBE4E30D7}"/>
+    <hyperlink ref="E540" r:id="rId1832" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C945B140-7E66-2641-B6AC-1277813C6DC5}"/>
+    <hyperlink ref="F540" r:id="rId1833" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{ACFA590B-A0CE-F949-9EAA-EE3C7090D605}"/>
+    <hyperlink ref="D541" r:id="rId1834" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{E12E03E9-71B7-CD49-B27F-0B56D4351ADC}"/>
+    <hyperlink ref="E541" r:id="rId1835" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E7086197-276D-2049-B72F-22AF2B463C25}"/>
+    <hyperlink ref="F541" r:id="rId1836" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{3746805A-D8B1-C549-8FDD-01257DF0FEC1}"/>
+    <hyperlink ref="D542" r:id="rId1837" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{38796B8E-B466-644C-88A2-4F9F636FEBB9}"/>
+    <hyperlink ref="E542" r:id="rId1838" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{FC2346E5-0C1A-8C4E-8D66-611E3A1067AC}"/>
+    <hyperlink ref="F542" r:id="rId1839" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{FC4E3B6A-9CA8-0A4F-B356-73178BF704C5}"/>
+    <hyperlink ref="D543" r:id="rId1840" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{FF304F0D-1F29-904F-8E8C-7FCD4F8B98A9}"/>
+    <hyperlink ref="E543" r:id="rId1841" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{88F8D847-4F09-6A4B-9CF9-891CED5B4655}"/>
+    <hyperlink ref="F543" r:id="rId1842" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{0D2D6EDE-BC27-754E-A612-5CCD195B62B6}"/>
+    <hyperlink ref="C544" r:id="rId1843" tooltip="AA4770" display="https://www.flightradar24.com/data/flights/aa4770" xr:uid="{2D786498-C188-824F-9565-AD6CD92923B0}"/>
+    <hyperlink ref="D544" r:id="rId1844" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{7B873F14-F574-8346-9D3B-5E08D4FCCCE1}"/>
+    <hyperlink ref="E544" r:id="rId1845" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BEFF99A6-3F9A-8945-AB95-D141CDBA3B47}"/>
+    <hyperlink ref="F544" r:id="rId1846" tooltip="N416YX" display="https://www.flightradar24.com/data/aircraft/n416yx" xr:uid="{97C41F25-B9E4-FA48-9A73-6FD4BCCA06AC}"/>
+    <hyperlink ref="C545" r:id="rId1847" tooltip="WN3250" display="https://www.flightradar24.com/data/flights/wn3250" xr:uid="{A860BE7D-E96E-F84E-BDCD-87AA27061E23}"/>
+    <hyperlink ref="D545" r:id="rId1848" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{9206803B-FAAA-F44C-B001-D6C9468BDCF4}"/>
+    <hyperlink ref="E545" r:id="rId1849" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{33021274-F4E1-FD4E-9E68-7AB6E1C5A88C}"/>
+    <hyperlink ref="F545" r:id="rId1850" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{2FF84401-30C6-3E4A-876D-CE88D4AFF78A}"/>
+    <hyperlink ref="C546" r:id="rId1851" tooltip="AA825" display="https://www.flightradar24.com/data/flights/aa825" xr:uid="{AE765369-3B63-364D-B306-BE48A1228E0D}"/>
+    <hyperlink ref="D546" r:id="rId1852" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{B4AF5DF2-B536-014C-88DF-4576082EF201}"/>
+    <hyperlink ref="E546" r:id="rId1853" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{554A381A-00ED-3042-9FA7-EFE556BC87B6}"/>
+    <hyperlink ref="F546" r:id="rId1854" tooltip="N836AW" display="https://www.flightradar24.com/data/aircraft/n836aw" xr:uid="{054AE903-51B8-5A42-9D80-C84F185F64CF}"/>
+    <hyperlink ref="D547" r:id="rId1855" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{11C559E0-795A-E342-992D-D1F8936346F1}"/>
+    <hyperlink ref="E547" r:id="rId1856" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{47F13320-B94B-DA42-8E29-B1E9746FEDD9}"/>
+    <hyperlink ref="F547" r:id="rId1857" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{A6F8B3FF-CE34-324D-8EF0-F80DD6F43D21}"/>
+    <hyperlink ref="D548" r:id="rId1858" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{06B320E2-CD86-D747-8C58-078BBFD99C33}"/>
+    <hyperlink ref="E548" r:id="rId1859" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{248191D8-DD83-B341-8758-855B8D80461F}"/>
+    <hyperlink ref="F548" r:id="rId1860" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{FF3E4E2C-1271-A347-9EBD-723D9B12D235}"/>
+    <hyperlink ref="C549" r:id="rId1861" tooltip="AA3558" display="https://www.flightradar24.com/data/flights/aa3558" xr:uid="{C5800808-6101-954B-8039-833E10519396}"/>
+    <hyperlink ref="D549" r:id="rId1862" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{BA653373-2F15-EC46-9497-DBEB5CB95801}"/>
+    <hyperlink ref="E549" r:id="rId1863" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9B76E02A-F417-6746-AEEB-12878A7137ED}"/>
+    <hyperlink ref="F549" r:id="rId1864" tooltip="N274NN" display="https://www.flightradar24.com/data/aircraft/n274nn" xr:uid="{93490BF9-E45F-6249-B881-7BE7E21BEE64}"/>
+    <hyperlink ref="D550" r:id="rId1865" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{979DE76B-993C-E343-B18B-3D45E6763BB2}"/>
+    <hyperlink ref="E550" r:id="rId1866" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3D618FCF-2A70-D646-913F-C4414B8F4786}"/>
+    <hyperlink ref="F550" r:id="rId1867" tooltip="N711UW" display="https://www.flightradar24.com/data/aircraft/n711uw" xr:uid="{5CCA2CE7-C8F0-E348-9F99-609679A52640}"/>
+    <hyperlink ref="D551" r:id="rId1868" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{8D7D41DA-C344-664A-9976-DC2B4B8EFA89}"/>
+    <hyperlink ref="E551" r:id="rId1869" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{019EB0DB-FD33-4C44-967D-E4268FCCDF41}"/>
+    <hyperlink ref="F551" r:id="rId1870" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{8D2CAF10-5E1C-A54C-9FE6-BEE6517972DB}"/>
+    <hyperlink ref="C553" r:id="rId1871" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{B08ECB06-AFD9-994B-9C89-DDD6DBDA5563}"/>
+    <hyperlink ref="D553" r:id="rId1872" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{05790219-8D87-234C-9281-2B73C5F97D94}"/>
+    <hyperlink ref="E553" r:id="rId1873" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{37344D21-4AEA-C442-81D7-150591F9B7EA}"/>
+    <hyperlink ref="C554" r:id="rId1874" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{CF35E16A-E8FA-8F45-95DC-5B4E66910820}"/>
+    <hyperlink ref="D554" r:id="rId1875" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{AA06D374-A3B1-D242-9FBD-DDB1DA1E91CC}"/>
+    <hyperlink ref="E554" r:id="rId1876" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{D7211A5C-F255-1942-A59C-2BF2B2AE8E96}"/>
+    <hyperlink ref="D555" r:id="rId1877" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{68BB8A7B-A881-DB44-8B96-9AAFA6862CE5}"/>
+    <hyperlink ref="E555" r:id="rId1878" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D5C4587A-7E7C-E840-8D2F-ED19C20491A0}"/>
+    <hyperlink ref="F555" r:id="rId1879" tooltip="N685AE" display="https://www.flightradar24.com/data/aircraft/n685ae" xr:uid="{F6BDC087-D115-474E-96B5-BF8752C3EF81}"/>
+    <hyperlink ref="C556" r:id="rId1880" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{C0E56F0E-F3A2-0440-A94F-D27A02C2B1B4}"/>
+    <hyperlink ref="D556" r:id="rId1881" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{B72DC859-746B-8244-84F3-76C8A9F680CF}"/>
+    <hyperlink ref="E556" r:id="rId1882" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{CF40C429-EBEA-1148-B5F6-9C3A6B0D8094}"/>
+    <hyperlink ref="F556" r:id="rId1883" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{79AF8EEB-60A7-0240-ADC4-BF2A2F573F99}"/>
+    <hyperlink ref="D557" r:id="rId1884" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{34D22AC5-524C-3F4B-BAEE-8B56B5B1664C}"/>
+    <hyperlink ref="E557" r:id="rId1885" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{CA04E348-DBC2-D14A-B4D7-D817C157BEC0}"/>
+    <hyperlink ref="F557" r:id="rId1886" tooltip="N469AW" display="https://www.flightradar24.com/data/aircraft/n469aw" xr:uid="{E1794B9D-7F2B-0142-9467-44FDA8B3AAD9}"/>
+    <hyperlink ref="C558" r:id="rId1887" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{2483D332-B803-D048-BFD3-A0DCF3F1E3AD}"/>
+    <hyperlink ref="D558" r:id="rId1888" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E2F556A6-AC2D-4C4E-8FF1-483A3B23D977}"/>
+    <hyperlink ref="E558" r:id="rId1889" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7DE3B099-9EFE-3F40-8BF3-951C861267B6}"/>
+    <hyperlink ref="F558" r:id="rId1890" tooltip="N717JL" display="https://www.flightradar24.com/data/aircraft/n717jl" xr:uid="{0034D95D-FEBC-214C-B5BD-33C10AE07364}"/>
+    <hyperlink ref="C559" r:id="rId1891" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{C17B35EB-14A2-B84F-B315-58A4B7B4BF15}"/>
+    <hyperlink ref="D559" r:id="rId1892" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{84649310-A2D9-BC45-9937-478A8AC2FBCD}"/>
+    <hyperlink ref="E559" r:id="rId1893" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{12871A29-36DB-6547-93C7-BBB0F4CE89B2}"/>
+    <hyperlink ref="D560" r:id="rId1894" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{E6B05222-F722-E247-9065-7DAE8146164D}"/>
+    <hyperlink ref="E560" r:id="rId1895" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7B673B94-08A0-FF42-9533-F42F3CED123C}"/>
+    <hyperlink ref="F560" r:id="rId1896" tooltip="N256SY" display="https://www.flightradar24.com/data/aircraft/n256sy" xr:uid="{86F0117D-9FD4-CD4A-8765-2005C02C11C8}"/>
+    <hyperlink ref="C561" r:id="rId1897" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{170EA538-92FC-1345-8BEF-4CB324D8EFEE}"/>
+    <hyperlink ref="D561" r:id="rId1898" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{D9914048-08B4-124C-8885-EC9C5AE71414}"/>
+    <hyperlink ref="E561" r:id="rId1899" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C5F5BDA1-606F-6044-AFFB-7B23CB921BA5}"/>
+    <hyperlink ref="F561" r:id="rId1900" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{0B0391E4-71B8-7640-9A00-402F7CF92AF4}"/>
+    <hyperlink ref="D562" r:id="rId1901" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{9523B34B-79A2-F54E-81B6-5A5FC9FA5D14}"/>
+    <hyperlink ref="E562" r:id="rId1902" tooltip="SkyWest Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{99DB98D2-BDB4-4C4F-806F-F833C7A4653A}"/>
+    <hyperlink ref="F562" r:id="rId1903" tooltip="N709BR" display="https://www.flightradar24.com/data/aircraft/n709br" xr:uid="{8C5C79F2-9E63-CD4C-868D-D0707F0AEE5F}"/>
+    <hyperlink ref="C563" r:id="rId1904" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{2F5154AC-C428-B94B-8022-31870DF480E7}"/>
+    <hyperlink ref="D563" r:id="rId1905" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{A57208C9-2CA0-DC45-8716-6B7E030C4F0A}"/>
+    <hyperlink ref="E563" r:id="rId1906" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C1D2C2EC-32AE-364F-9347-E85DC15C1B87}"/>
+    <hyperlink ref="C564" r:id="rId1907" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{2D3B1077-EBD5-4343-96D4-A635412A0803}"/>
+    <hyperlink ref="D564" r:id="rId1908" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{7037631F-5CE2-7A4D-8F49-04E86A07629B}"/>
+    <hyperlink ref="E564" r:id="rId1909" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{BCC98CF9-388A-7D44-A84B-0C61D679B283}"/>
+    <hyperlink ref="F564" r:id="rId1910" tooltip="N281WN" display="https://www.flightradar24.com/data/aircraft/n281wn" xr:uid="{319BCECC-7734-A14E-852B-88757909D48B}"/>
+    <hyperlink ref="D565" r:id="rId1911" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{1914C85C-59ED-4142-8AAB-387BD9CB2B1D}"/>
+    <hyperlink ref="E565" r:id="rId1912" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{14C4041F-4A3D-DA4D-B513-C335F275626F}"/>
+    <hyperlink ref="F565" r:id="rId1913" tooltip="N89317" display="https://www.flightradar24.com/data/aircraft/n89317" xr:uid="{4C5EB65C-C2BA-EB45-AFD9-9F5C70C9F1FB}"/>
+    <hyperlink ref="D566" r:id="rId1914" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{523D03E3-0916-E042-ACF9-9A88B6166320}"/>
+    <hyperlink ref="E566" r:id="rId1915" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{8A76BD05-C12D-864D-91D0-A0DF4B12824A}"/>
+    <hyperlink ref="F566" r:id="rId1916" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{825DBE41-E2A6-6E44-9EF2-23D508783C23}"/>
+    <hyperlink ref="D567" r:id="rId1917" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{598EB242-8E12-3B49-A6FD-DCC79D3DFE24}"/>
+    <hyperlink ref="E567" r:id="rId1918" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{716662D8-83BF-2A43-AEA8-50328A6D7E73}"/>
+    <hyperlink ref="F567" r:id="rId1919" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{31445F27-72EE-5347-AA37-021B369AD385}"/>
+    <hyperlink ref="D568" r:id="rId1920" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{CA9C531F-E23F-A440-A2A3-11D0DB42BA30}"/>
+    <hyperlink ref="E568" r:id="rId1921" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{59E534BF-DB71-DC4D-B479-C7D62E54172E}"/>
+    <hyperlink ref="F568" r:id="rId1922" tooltip="N88332" display="https://www.flightradar24.com/data/aircraft/n88332" xr:uid="{3EBA3A65-9DF9-4247-879A-7EAB623873B4}"/>
+    <hyperlink ref="C569" r:id="rId1923" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{122FEE8D-9701-4841-847C-C16D57CB3C32}"/>
+    <hyperlink ref="D569" r:id="rId1924" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{0952DBF0-49D6-F14A-A263-E99B01B522DB}"/>
+    <hyperlink ref="E569" r:id="rId1925" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{0A2F8E43-54CA-544F-8269-A4A49C56AA43}"/>
+    <hyperlink ref="F569" r:id="rId1926" tooltip="N7721E" display="https://www.flightradar24.com/data/aircraft/n7721e" xr:uid="{DF012DA3-6BB0-FD4F-BC12-BB6EA368D4B7}"/>
+    <hyperlink ref="D570" r:id="rId1927" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{D1031E63-58BD-4F48-8913-335F1FFEFDE1}"/>
+    <hyperlink ref="E570" r:id="rId1928" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1054D492-0D19-434A-A0F1-7E3023501614}"/>
+    <hyperlink ref="F570" r:id="rId1929" tooltip="N925AT" display="https://www.flightradar24.com/data/aircraft/n925at" xr:uid="{0D5AEB32-E081-DE41-9768-B19813A58DDC}"/>
+    <hyperlink ref="D571" r:id="rId1930" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{DE09CC5B-93BB-7A42-9D1A-215E73F05016}"/>
+    <hyperlink ref="E571" r:id="rId1931" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{1C19627E-65A3-3F41-842B-6BA0EE079B25}"/>
+    <hyperlink ref="F571" r:id="rId1932" tooltip="N851UA" display="https://www.flightradar24.com/data/aircraft/n851ua" xr:uid="{DCC4F9B7-48C9-A440-BF81-68046EE9B6EF}"/>
+    <hyperlink ref="D572" r:id="rId1933" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{8B5CBAC6-BC47-0D4E-801A-41BE139415F9}"/>
+    <hyperlink ref="E572" r:id="rId1934" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2E2239F7-F7D1-764F-B075-C9906A2D9F80}"/>
+    <hyperlink ref="D573" r:id="rId1935" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{DCF275AF-6F19-1245-871D-E49F22B72FFA}"/>
+    <hyperlink ref="E573" r:id="rId1936" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E514B1AC-CA21-7A4E-80DE-48C077949349}"/>
+    <hyperlink ref="F573" r:id="rId1937" tooltip="N816AW" display="https://www.flightradar24.com/data/aircraft/n816aw" xr:uid="{29E04F53-A473-C448-BD77-1FC61F8B965A}"/>
+    <hyperlink ref="D574" r:id="rId1938" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{34CFC8C5-2D62-5B44-B9E8-3094442568D7}"/>
+    <hyperlink ref="E574" r:id="rId1939" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A331681F-3E60-B848-8043-123F135AFCD4}"/>
+    <hyperlink ref="F574" r:id="rId1940" tooltip="N906XJ" display="https://www.flightradar24.com/data/aircraft/n906xj" xr:uid="{9F921C0F-4E20-5A4A-980F-46C8B6C42374}"/>
+    <hyperlink ref="D575" r:id="rId1941" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{D73EA832-F721-6940-9DC9-5574ABDF7BFA}"/>
+    <hyperlink ref="E575" r:id="rId1942" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{0EB599E1-714D-5042-A4A8-9B7D5FF28D23}"/>
+    <hyperlink ref="F575" r:id="rId1943" tooltip="N324PQ" display="https://www.flightradar24.com/data/aircraft/n324pq" xr:uid="{CAA698B3-7049-274D-8EFD-03E74F6B8EA5}"/>
+    <hyperlink ref="C576" r:id="rId1944" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{06DB6FDD-AE57-9648-BAB4-ADC9BA9E6B13}"/>
+    <hyperlink ref="D576" r:id="rId1945" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{024B11DC-ABE2-CC4E-9849-A981845B72BC}"/>
+    <hyperlink ref="E576" r:id="rId1946" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DC6FE02E-DA8D-564E-9774-8F49125A1AB5}"/>
+    <hyperlink ref="D577" r:id="rId1947" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{15600228-8043-DE4C-804D-2CCA15D3C48F}"/>
+    <hyperlink ref="E577" r:id="rId1948" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{EDF9A1CA-DA42-0046-9278-D9759F8F8497}"/>
+    <hyperlink ref="D578" r:id="rId1949" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E568344D-6806-274E-983B-300D99693999}"/>
+    <hyperlink ref="E578" r:id="rId1950" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{965BD03A-464C-604C-A82E-58F84DC67D00}"/>
+    <hyperlink ref="F578" r:id="rId1951" tooltip="N330PQ" display="https://www.flightradar24.com/data/aircraft/n330pq" xr:uid="{B32CA5F4-046A-4C43-A33D-77AF90BA7D40}"/>
+    <hyperlink ref="D579" r:id="rId1952" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{C7BC0BC3-A95F-274D-BAA9-D7A47CDE34D4}"/>
+    <hyperlink ref="E579" r:id="rId1953" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{973451AE-C4DB-CE48-983B-DD78A0D4FFAF}"/>
+    <hyperlink ref="F579" r:id="rId1954" tooltip="N482UA" display="https://www.flightradar24.com/data/aircraft/n482ua" xr:uid="{56A4DFD1-4E93-B645-84BF-80DBDC82565D}"/>
+    <hyperlink ref="C580" r:id="rId1955" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{E2E6846C-8692-A545-8F83-01494749F16C}"/>
+    <hyperlink ref="D580" r:id="rId1956" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{6256B90A-6A41-FF41-9832-62A7DA1AE0B7}"/>
+    <hyperlink ref="E580" r:id="rId1957" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6B07F640-B936-B94E-9AE9-5881E3FC3EFC}"/>
+    <hyperlink ref="F580" r:id="rId1958" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{2C90404D-4795-B149-9CA9-BFC0765D07CF}"/>
+    <hyperlink ref="D581" r:id="rId1959" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{81B64D08-B090-7D44-BEEC-781EDE3E866F}"/>
+    <hyperlink ref="E581" r:id="rId1960" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{B770A4E5-48C2-6D4C-8392-EE2D0C1757C8}"/>
+    <hyperlink ref="F581" r:id="rId1961" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{E085B4E7-0969-DB49-9B5D-1111DB030458}"/>
+    <hyperlink ref="D582" r:id="rId1962" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{3BF4D75A-3DE7-D545-9F29-4142363BE445}"/>
+    <hyperlink ref="E582" r:id="rId1963" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{36ED79F7-C484-8D44-A427-31A944A2E19B}"/>
+    <hyperlink ref="F582" r:id="rId1964" tooltip="N38458" display="https://www.flightradar24.com/data/aircraft/n38458" xr:uid="{FBFFBA0C-E729-0843-ABB0-14C082EE4A6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19558,10 +20537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7696585-1829-FE4B-B36A-0ED8734950E8}">
-  <dimension ref="A1:H568"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="A513" sqref="A513"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529:XFD529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27937,7 +28916,7 @@
         <v>1077</v>
       </c>
       <c r="H368" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -28006,7 +28985,7 @@
         <v>1090</v>
       </c>
       <c r="H371" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -28050,7 +29029,7 @@
         <v>1092</v>
       </c>
       <c r="H373" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -28068,10 +29047,10 @@
         <v>17</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="H374" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -28112,10 +29091,10 @@
         <v>17</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="H376" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
@@ -28138,7 +29117,7 @@
         <v>519</v>
       </c>
       <c r="H377" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -28161,7 +29140,7 @@
         <v>1095</v>
       </c>
       <c r="H378" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -28184,7 +29163,7 @@
         <v>1225</v>
       </c>
       <c r="H379" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
@@ -28219,13 +29198,13 @@
       </c>
       <c r="C381" s="3"/>
       <c r="D381" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="E381" t="s">
         <v>17</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="H381" t="s">
         <v>373</v>
@@ -28248,10 +29227,10 @@
         <v>22</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="H382" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -28271,10 +29250,10 @@
         <v>31</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H383" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -28297,7 +29276,7 @@
         <v>1097</v>
       </c>
       <c r="H384" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -28320,7 +29299,7 @@
         <v>303</v>
       </c>
       <c r="H385" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
@@ -28332,13 +29311,13 @@
       </c>
       <c r="C386" s="3"/>
       <c r="D386" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E386" t="s">
         <v>17</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="H386" t="s">
         <v>1132</v>
@@ -28364,7 +29343,7 @@
         <v>1099</v>
       </c>
       <c r="H387" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
@@ -28410,7 +29389,7 @@
         <v>266</v>
       </c>
       <c r="H389" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -28453,10 +29432,10 @@
         <v>36</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="H391" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
@@ -28479,7 +29458,7 @@
         <v>1103</v>
       </c>
       <c r="H392" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -28548,7 +29527,7 @@
         <v>873</v>
       </c>
       <c r="H395" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -28571,7 +29550,7 @@
         <v>749</v>
       </c>
       <c r="H396" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -28614,7 +29593,7 @@
         <v>22</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H398" t="s">
         <v>1152</v>
@@ -28637,7 +29616,7 @@
         <v>22</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="H399" t="s">
         <v>322</v>
@@ -28674,7 +29653,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>127</v>
@@ -28732,7 +29711,7 @@
         <v>91</v>
       </c>
       <c r="H403" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.2">
@@ -28778,7 +29757,7 @@
         <v>614</v>
       </c>
       <c r="H405" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
@@ -28812,7 +29791,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>12</v>
@@ -28824,7 +29803,7 @@
         <v>1105</v>
       </c>
       <c r="H407" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
@@ -28836,16 +29815,16 @@
       </c>
       <c r="C408" s="3"/>
       <c r="D408" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E408" t="s">
         <v>17</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="H408" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -28932,10 +29911,10 @@
         <v>17</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H412" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.2">
@@ -28979,7 +29958,7 @@
         <v>1223</v>
       </c>
       <c r="H414" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.2">
@@ -28999,10 +29978,10 @@
         <v>22</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="H415" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -29036,7 +30015,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="C417" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>21</v>
@@ -29048,7 +30027,7 @@
         <v>1235</v>
       </c>
       <c r="H417" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
@@ -29071,7 +30050,7 @@
         <v>1236</v>
       </c>
       <c r="H418" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
@@ -29083,16 +30062,16 @@
       </c>
       <c r="C419" s="3"/>
       <c r="D419" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E419" t="s">
         <v>17</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H419" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
@@ -29112,10 +30091,10 @@
         <v>22</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H420" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.2">
@@ -29138,7 +30117,7 @@
         <v>1238</v>
       </c>
       <c r="H421" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.2">
@@ -29161,7 +30140,7 @@
         <v>91</v>
       </c>
       <c r="H422" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
@@ -29172,19 +30151,19 @@
         <v>0.53125</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>602</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="H423" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
@@ -29207,7 +30186,7 @@
         <v>1113</v>
       </c>
       <c r="H424" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
@@ -29219,16 +30198,16 @@
       </c>
       <c r="C425" s="3"/>
       <c r="D425" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="E425" t="s">
         <v>17</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="H425" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.2">
@@ -29294,10 +30273,10 @@
         <v>31</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="H428" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
@@ -29340,7 +30319,7 @@
         <v>27</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="H430" t="s">
         <v>1250</v>
@@ -29366,7 +30345,7 @@
         <v>1240</v>
       </c>
       <c r="H431" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
@@ -29386,10 +30365,10 @@
         <v>31</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="H432" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
@@ -29412,7 +30391,7 @@
         <v>80</v>
       </c>
       <c r="H433" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
@@ -29435,7 +30414,7 @@
         <v>1063</v>
       </c>
       <c r="H434" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.2">
@@ -29458,7 +30437,7 @@
         <v>893</v>
       </c>
       <c r="H435" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.2">
@@ -29493,16 +30472,16 @@
       </c>
       <c r="C437" s="3"/>
       <c r="D437" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E437" t="s">
         <v>17</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="H437" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
@@ -29545,7 +30524,7 @@
         <v>13</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="H439" t="s">
         <v>1140</v>
@@ -29591,10 +30570,10 @@
         <v>60</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="H441" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
@@ -29617,7 +30596,7 @@
         <v>1244</v>
       </c>
       <c r="H442" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
@@ -29640,7 +30619,7 @@
         <v>1076</v>
       </c>
       <c r="H443" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
@@ -29660,10 +30639,10 @@
         <v>22</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H444" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
@@ -29686,7 +30665,7 @@
         <v>114</v>
       </c>
       <c r="H445" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
@@ -29706,7 +30685,7 @@
         <v>27</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H446" t="s">
         <v>734</v>
@@ -29729,7 +30708,7 @@
         <v>22</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="H447" t="s">
         <v>1258</v>
@@ -29752,10 +30731,10 @@
         <v>79</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="H448" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
@@ -29776,7 +30755,7 @@
         <v>834</v>
       </c>
       <c r="H449" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
@@ -29787,7 +30766,7 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>44</v>
@@ -29799,7 +30778,7 @@
         <v>1040</v>
       </c>
       <c r="H450" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
@@ -29819,10 +30798,10 @@
         <v>22</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H451" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
@@ -29842,10 +30821,10 @@
         <v>22</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H452" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
@@ -29868,7 +30847,7 @@
         <v>1247</v>
       </c>
       <c r="H453" t="s">
-        <v>1581</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
@@ -29888,7 +30867,7 @@
         <v>67</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H454" t="s">
         <v>316</v>
@@ -29914,7 +30893,7 @@
         <v>117</v>
       </c>
       <c r="H455" t="s">
-        <v>1582</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.2">
@@ -29937,7 +30916,7 @@
         <v>210</v>
       </c>
       <c r="H456" t="s">
-        <v>1583</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
@@ -29957,10 +30936,10 @@
         <v>22</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="H457" t="s">
-        <v>1584</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
@@ -29980,10 +30959,10 @@
         <v>36</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="H458" t="s">
-        <v>1585</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
@@ -30003,7 +30982,7 @@
         <v>22</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="H459" t="s">
         <v>818</v>
@@ -30026,7 +31005,7 @@
         <v>22</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H460" t="s">
         <v>1152</v>
@@ -30075,7 +31054,7 @@
         <v>783</v>
       </c>
       <c r="H462" t="s">
-        <v>1586</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -30098,7 +31077,7 @@
         <v>252</v>
       </c>
       <c r="H463" t="s">
-        <v>1587</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
@@ -30118,7 +31097,7 @@
         <v>27</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="H464" t="s">
         <v>334</v>
@@ -30144,7 +31123,7 @@
         <v>91</v>
       </c>
       <c r="H465" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
@@ -30164,7 +31143,7 @@
         <v>27</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="H466" t="s">
         <v>438</v>
@@ -30190,7 +31169,7 @@
         <v>1024</v>
       </c>
       <c r="H467" t="s">
-        <v>1588</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
@@ -30213,7 +31192,7 @@
         <v>80</v>
       </c>
       <c r="H468" t="s">
-        <v>1589</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.2">
@@ -30233,7 +31212,7 @@
         <v>13</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H469" t="s">
         <v>1155</v>
@@ -30248,16 +31227,16 @@
       </c>
       <c r="C470" s="3"/>
       <c r="D470" s="3" t="s">
-        <v>1590</v>
+        <v>1567</v>
       </c>
       <c r="E470" t="s">
         <v>17</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="H470" t="s">
-        <v>1591</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.2">
@@ -30268,19 +31247,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C471" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H471" t="s">
         <v>1379</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E471" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F471" t="s">
-        <v>1592</v>
-      </c>
-      <c r="H471" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
@@ -30303,7 +31282,7 @@
         <v>681</v>
       </c>
       <c r="H472" t="s">
-        <v>1593</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
@@ -30326,7 +31305,7 @@
         <v>1026</v>
       </c>
       <c r="H473" t="s">
-        <v>1594</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
@@ -30349,7 +31328,7 @@
         <v>1248</v>
       </c>
       <c r="H474" t="s">
-        <v>1595</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
@@ -30372,7 +31351,7 @@
         <v>215</v>
       </c>
       <c r="H475" t="s">
-        <v>1596</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.2">
@@ -30395,7 +31374,7 @@
         <v>1244</v>
       </c>
       <c r="H476" t="s">
-        <v>1597</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
@@ -30407,16 +31386,16 @@
       </c>
       <c r="C477" s="3"/>
       <c r="D477" s="3" t="s">
-        <v>1598</v>
+        <v>1575</v>
       </c>
       <c r="E477" t="s">
         <v>17</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="H477" t="s">
-        <v>1599</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
@@ -30428,16 +31407,16 @@
       </c>
       <c r="C478" s="3"/>
       <c r="D478" s="3" t="s">
-        <v>1600</v>
+        <v>1577</v>
       </c>
       <c r="E478" t="s">
         <v>17</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1601</v>
+        <v>1578</v>
       </c>
       <c r="H478" t="s">
-        <v>1602</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
@@ -30448,7 +31427,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="C479" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>21</v>
@@ -30457,10 +31436,10 @@
         <v>31</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="H479" t="s">
-        <v>1603</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
@@ -30480,10 +31459,10 @@
         <v>36</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H480" t="s">
-        <v>1604</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
@@ -30495,16 +31474,16 @@
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3" t="s">
-        <v>1605</v>
+        <v>1582</v>
       </c>
       <c r="E481" t="s">
         <v>17</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>1606</v>
+        <v>1583</v>
       </c>
       <c r="H481" t="s">
-        <v>1607</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
@@ -30544,13 +31523,13 @@
         <v>229</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="H483" t="s">
-        <v>1608</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
@@ -30593,7 +31572,7 @@
         <v>27</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="H485" t="s">
         <v>1131</v>
@@ -30616,10 +31595,10 @@
         <v>22</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="H486" t="s">
-        <v>1609</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
@@ -30639,7 +31618,7 @@
         <v>110</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="H487" t="s">
         <v>1129</v>
@@ -30665,7 +31644,7 @@
         <v>121</v>
       </c>
       <c r="H488" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
@@ -30685,7 +31664,7 @@
         <v>60</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="H489" t="s">
         <v>1134</v>
@@ -30708,10 +31687,10 @@
         <v>31</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="H490" t="s">
-        <v>1610</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -30734,7 +31713,7 @@
         <v>80</v>
       </c>
       <c r="H491" t="s">
-        <v>1611</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
@@ -30754,10 +31733,10 @@
         <v>22</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="H492" t="s">
-        <v>1612</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
@@ -30768,19 +31747,19 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1613</v>
+        <v>1590</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>1614</v>
+        <v>1591</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="H493" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
@@ -30800,10 +31779,10 @@
         <v>67</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="H494" t="s">
-        <v>1616</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -30823,10 +31802,10 @@
         <v>31</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="H495" t="s">
-        <v>1617</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
@@ -30846,10 +31825,10 @@
         <v>60</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="H496" t="s">
-        <v>1618</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
@@ -30872,7 +31851,7 @@
         <v>91</v>
       </c>
       <c r="H497" t="s">
-        <v>1619</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
@@ -30895,7 +31874,7 @@
         <v>1227</v>
       </c>
       <c r="H498" t="s">
-        <v>1620</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
@@ -30915,7 +31894,7 @@
         <v>13</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="H499" t="s">
         <v>798</v>
@@ -30929,16 +31908,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>516</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="H500" t="s">
         <v>1140</v>
@@ -30984,7 +31963,7 @@
         <v>22</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="H502" t="s">
         <v>1260</v>
@@ -31030,7 +32009,7 @@
         <v>27</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="H504" t="s">
         <v>735</v>
@@ -31053,7 +32032,7 @@
         <v>22</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="H505" t="s">
         <v>734</v>
@@ -31076,10 +32055,10 @@
         <v>151</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="H506" t="s">
-        <v>1621</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
@@ -31091,16 +32070,16 @@
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="3" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="E507" t="s">
         <v>17</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="H507" t="s">
-        <v>1622</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
@@ -31120,18 +32099,39 @@
         <v>103</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="H508" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B509" t="s">
-        <v>1402</v>
+      <c r="A509" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B509" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H509" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44537</v>
+      </c>
       <c r="B510" s="2">
         <v>0.21875</v>
       </c>
@@ -31145,13 +32145,16 @@
         <v>67</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1546</v>
+        <v>1529</v>
       </c>
       <c r="H510" t="s">
-        <v>874</v>
+        <v>435</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44537</v>
+      </c>
       <c r="B511" s="2">
         <v>0.22916666666666666</v>
       </c>
@@ -31168,10 +32171,13 @@
         <v>117</v>
       </c>
       <c r="H511" t="s">
-        <v>1369</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44537</v>
+      </c>
       <c r="B512" s="2">
         <v>0.24027777777777778</v>
       </c>
@@ -31185,13 +32191,16 @@
         <v>22</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="H512" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="513" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44537</v>
+      </c>
       <c r="B513" s="2">
         <v>0.24583333333333335</v>
       </c>
@@ -31205,13 +32214,16 @@
         <v>36</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="H513" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44537</v>
+      </c>
       <c r="B514" s="2">
         <v>0.25</v>
       </c>
@@ -31225,13 +32237,16 @@
         <v>22</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="H514" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44537</v>
+      </c>
       <c r="B515" s="2">
         <v>0.25</v>
       </c>
@@ -31245,13 +32260,16 @@
         <v>22</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="H515" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44537</v>
+      </c>
       <c r="B516" s="2">
         <v>0.25</v>
       </c>
@@ -31265,235 +32283,270 @@
         <v>31</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="H516" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44537</v>
+      </c>
       <c r="B517" s="2">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H517" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B518" s="2">
         <v>0.2673611111111111</v>
       </c>
-      <c r="C517" s="3" t="s">
+      <c r="C518" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D517" s="3" t="s">
+      <c r="D518" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E517" s="3" t="s">
+      <c r="E518" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F517" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H517" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="518" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B518" s="2">
+      <c r="F518" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B519" s="2">
         <v>0.27083333333333331</v>
       </c>
-      <c r="C518" s="3"/>
-      <c r="D518" s="3" t="s">
+      <c r="C519" s="3"/>
+      <c r="D519" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E518" t="s">
+      <c r="E519" t="s">
         <v>17</v>
       </c>
-      <c r="F518" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H518" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B519" s="2">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E519" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F519" s="3" t="s">
-        <v>1407</v>
+        <v>1286</v>
       </c>
       <c r="H519" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44537</v>
+      </c>
       <c r="B520" s="2">
         <v>0.27777777777777779</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C520" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H520" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B521" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C521" t="s">
         <v>333</v>
       </c>
-      <c r="D520" s="3" t="s">
+      <c r="D521" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E520" s="3" t="s">
+      <c r="E521" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F520" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="H520" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="521" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B521" s="2">
+      <c r="F521" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H521" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B522" s="2">
         <v>0.30763888888888891</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C522" t="s">
         <v>351</v>
       </c>
-      <c r="D521" s="3" t="s">
+      <c r="D522" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E521" s="3" t="s">
+      <c r="E522" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F521" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H521" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B522" s="2">
+      <c r="F522" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H522" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B523" s="2">
         <v>0.31944444444444448</v>
       </c>
-      <c r="C522" s="3" t="s">
+      <c r="C523" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D522" s="3" t="s">
+      <c r="D523" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E522" s="3" t="s">
+      <c r="E523" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F522" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H522" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B523" s="2">
+      <c r="F523" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H523" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B524" s="2">
         <v>0.32291666666666669</v>
       </c>
-      <c r="C523" s="3" t="s">
+      <c r="C524" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D523" s="3" t="s">
+      <c r="D524" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E523" s="3" t="s">
+      <c r="E524" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F523" t="s">
-        <v>1549</v>
-      </c>
-      <c r="H523" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="524" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B524" s="2">
+      <c r="F524" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B525" s="2">
         <v>0.34027777777777773</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C525" t="s">
         <v>1181</v>
       </c>
-      <c r="D524" s="3" t="s">
+      <c r="D525" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E524" s="3" t="s">
+      <c r="E525" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F524" s="3" t="s">
-        <v>1467</v>
-      </c>
-      <c r="H524" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="525" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B525" s="2">
+      <c r="F525" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B526" s="2">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C525" s="3" t="s">
+      <c r="C526" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D525" s="3" t="s">
+      <c r="D526" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E525" s="3" t="s">
+      <c r="E526" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F525" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H525" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="526" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B526" s="2">
+      <c r="F526" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B527" s="2">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C527" t="s">
         <v>444</v>
       </c>
-      <c r="D526" s="3" t="s">
+      <c r="D527" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E526" s="3" t="s">
+      <c r="E527" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F526" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H526" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="527" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B527" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E527" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F527" t="s">
-        <v>1551</v>
+      <c r="F527" s="3" t="s">
+        <v>1513</v>
       </c>
       <c r="H527" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="528" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B528" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C528" s="3"/>
+      <c r="C528" s="3" t="s">
+        <v>1671</v>
+      </c>
       <c r="D528" s="3" t="s">
         <v>154</v>
       </c>
@@ -31501,521 +32554,532 @@
         <v>17</v>
       </c>
       <c r="F528" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="H528" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="2">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C529" t="s">
-        <v>20</v>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>1532</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F529" s="3" t="s">
-        <v>1552</v>
+        <v>151</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1672</v>
       </c>
       <c r="H529" t="s">
-        <v>477</v>
+        <v>258</v>
       </c>
     </row>
     <row r="530" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B530" s="2">
-        <v>0.4368055555555555</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C530" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1553</v>
+        <v>855</v>
       </c>
       <c r="H530" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="531" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B531" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.4368055555555555</v>
       </c>
       <c r="C531" t="s">
-        <v>1285</v>
+        <v>25</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="H531" t="s">
-        <v>1386</v>
+        <v>478</v>
       </c>
     </row>
     <row r="532" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B532" s="2">
-        <v>0.49861111111111112</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="C532" t="s">
-        <v>367</v>
+        <v>1282</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>263</v>
+        <v>1535</v>
       </c>
       <c r="H532" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="533" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B533" s="2">
-        <v>0.50277777777777777</v>
+        <v>0.49861111111111112</v>
       </c>
       <c r="C533" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="H533" t="s">
-        <v>1275</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="534" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B534" s="2">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1557</v>
+        <v>1673</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>1631</v>
+        <v>44</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F534" t="s">
-        <v>832</v>
+        <v>27</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>1481</v>
       </c>
       <c r="H534" t="s">
-        <v>1632</v>
+        <v>258</v>
       </c>
     </row>
     <row r="535" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B535" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C535" s="3"/>
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C535" t="s">
+        <v>39</v>
+      </c>
       <c r="D535" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E535" t="s">
-        <v>17</v>
-      </c>
-      <c r="F535" t="s">
-        <v>1556</v>
+        <v>40</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H535" t="s">
-        <v>1633</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="536" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B536" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1379</v>
+        <v>1538</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>1380</v>
+        <v>1604</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>1381</v>
+        <v>1539</v>
       </c>
       <c r="F536" t="s">
-        <v>1382</v>
+        <v>832</v>
       </c>
       <c r="H536" t="s">
-        <v>1634</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="537" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B537" s="2">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>374</v>
-      </c>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C537" s="3"/>
       <c r="D537" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E537" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F537" s="3" t="s">
-        <v>891</v>
+        <v>1536</v>
+      </c>
+      <c r="E537" t="s">
+        <v>17</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1537</v>
       </c>
       <c r="H537" t="s">
-        <v>1635</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="538" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B538" s="2">
-        <v>0.56736111111111109</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>54</v>
+        <v>1375</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>55</v>
+        <v>1376</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F538" s="3" t="s">
-        <v>128</v>
+        <v>1377</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1378</v>
       </c>
       <c r="H538" t="s">
-        <v>846</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="539" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B539" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="C539" t="s">
-        <v>377</v>
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>1560</v>
+        <v>891</v>
       </c>
       <c r="H539" t="s">
-        <v>1392</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="540" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B540" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>662</v>
-      </c>
+        <v>0.5625</v>
+      </c>
+      <c r="C540" s="3"/>
       <c r="D540" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>1563</v>
+        <v>1674</v>
+      </c>
+      <c r="E540" t="s">
+        <v>17</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1564</v>
+        <v>1675</v>
       </c>
       <c r="H540" t="s">
-        <v>1394</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="541" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B541" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.5625</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>465</v>
+        <v>1590</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>12</v>
+        <v>1591</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F541" s="3" t="s">
-        <v>1562</v>
+        <v>1491</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1634</v>
       </c>
       <c r="H541" t="s">
-        <v>1636</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="542" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B542" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1185</v>
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>1565</v>
+        <v>128</v>
       </c>
       <c r="H542" t="s">
-        <v>1637</v>
+        <v>846</v>
       </c>
     </row>
     <row r="543" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B543" s="2">
-        <v>0.63472222222222219</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="C543" t="s">
-        <v>742</v>
+        <v>377</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>685</v>
+        <v>1541</v>
       </c>
       <c r="H543" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="544" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B544" s="2">
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="C544" t="s">
-        <v>386</v>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>67</v>
+        <v>1544</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>866</v>
+        <v>1545</v>
       </c>
       <c r="H544" t="s">
-        <v>856</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="545" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B545" s="2">
-        <v>0.64652777777777781</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1186</v>
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>31</v>
+        <v>1542</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>254</v>
+        <v>1543</v>
       </c>
       <c r="H545" t="s">
-        <v>1277</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="546" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B546" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>667</v>
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1185</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1566</v>
+        <v>1640</v>
       </c>
       <c r="H546" t="s">
-        <v>1399</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="547" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B547" s="2">
-        <v>0.70416666666666661</v>
-      </c>
-      <c r="C547" t="s">
-        <v>98</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="C547" s="3"/>
       <c r="D547" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E547" s="3" t="s">
-        <v>36</v>
+        <v>1680</v>
+      </c>
+      <c r="E547" t="s">
+        <v>17</v>
       </c>
       <c r="F547" s="3" t="s">
-        <v>1567</v>
+        <v>1681</v>
       </c>
       <c r="H547" t="s">
-        <v>1638</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="548" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B548" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="C548" t="s">
-        <v>1187</v>
+        <v>742</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>1568</v>
+        <v>1641</v>
       </c>
       <c r="H548" t="s">
-        <v>1639</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="549" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B549" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="C549" t="s">
-        <v>863</v>
+        <v>386</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E549" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1569</v>
+        <v>866</v>
       </c>
       <c r="H549" t="s">
-        <v>1401</v>
+        <v>856</v>
       </c>
     </row>
     <row r="550" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B550" s="2">
-        <v>0.74930555555555556</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="C550" t="s">
-        <v>743</v>
+        <v>1186</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>1087</v>
+        <v>1642</v>
       </c>
       <c r="H550" t="s">
-        <v>867</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="551" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B551" s="2">
-        <v>0.74930555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>406</v>
+        <v>667</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="H551" t="s">
-        <v>1640</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="552" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B552" s="2">
-        <v>0.75486111111111109</v>
-      </c>
-      <c r="C552" s="3" t="s">
-        <v>126</v>
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C552" t="s">
+        <v>98</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F552" s="3" t="s">
-        <v>1570</v>
+        <v>1643</v>
       </c>
       <c r="H552" t="s">
-        <v>1641</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="553" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B553" s="2">
-        <v>0.87013888888888891</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>472</v>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1187</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F553" t="s">
+        <v>13</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B554" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C554" t="s">
+        <v>863</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F554" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="H553" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B554" t="s">
-        <v>1579</v>
+      <c r="H554" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="555" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B555" s="2">
-        <v>0.21875</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="C555" t="s">
-        <v>315</v>
+        <v>743</v>
       </c>
       <c r="D555" s="3" t="s">
         <v>59</v>
@@ -32024,18 +33088,18 @@
         <v>67</v>
       </c>
       <c r="F555" s="3" t="s">
-        <v>1546</v>
+        <v>1087</v>
       </c>
       <c r="H555" t="s">
-        <v>1403</v>
+        <v>867</v>
       </c>
     </row>
     <row r="556" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B556" s="2">
-        <v>0.22916666666666666</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="C556" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="D556" s="3" t="s">
         <v>44</v>
@@ -32044,250 +33108,795 @@
         <v>27</v>
       </c>
       <c r="F556" s="3" t="s">
-        <v>117</v>
+        <v>1540</v>
       </c>
       <c r="H556" t="s">
-        <v>258</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="557" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B557" s="2">
-        <v>0.24027777777777778</v>
+        <v>0.75486111111111109</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>744</v>
+        <v>126</v>
       </c>
       <c r="D557" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1404</v>
+        <v>22</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>1549</v>
       </c>
       <c r="H557" t="s">
-        <v>1405</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="558" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B558" s="2">
-        <v>0.24583333333333335</v>
-      </c>
-      <c r="C558" t="s">
-        <v>323</v>
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F558" s="3" t="s">
-        <v>1577</v>
+        <v>151</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1530</v>
       </c>
       <c r="H558" t="s">
-        <v>258</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="559" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B559" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C559" t="s">
-        <v>325</v>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>192</v>
+        <v>474</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F559" s="3" t="s">
-        <v>1578</v>
+        <v>103</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1531</v>
       </c>
       <c r="H559" t="s">
-        <v>1406</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="560" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B560" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C560" t="s">
-        <v>328</v>
-      </c>
-      <c r="D560" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E560" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F560" s="3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="H560" t="s">
-        <v>1406</v>
+      <c r="B560" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="561" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B561" s="2">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>340</v>
+        <v>0.21875</v>
+      </c>
+      <c r="C561" t="s">
+        <v>315</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1643</v>
+        <v>1365</v>
       </c>
       <c r="H561" t="s">
-        <v>258</v>
+        <v>874</v>
       </c>
     </row>
     <row r="562" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B562" s="2">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>547</v>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C562" t="s">
+        <v>320</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="H562" t="s">
-        <v>1280</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="563" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B563" s="2">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="C563" t="s">
-        <v>333</v>
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>744</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F563" s="3" t="s">
-        <v>1081</v>
+        <v>67</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1553</v>
       </c>
       <c r="H563" t="s">
-        <v>258</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="564" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B564" s="2">
-        <v>0.30763888888888891</v>
+        <v>0.24583333333333335</v>
       </c>
       <c r="C564" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F564" s="3" t="s">
-        <v>896</v>
+        <v>1556</v>
       </c>
       <c r="H564" t="s">
-        <v>1409</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="565" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B565" s="2">
-        <v>0.34027777777777773</v>
+        <v>0.25</v>
       </c>
       <c r="C565" t="s">
-        <v>1181</v>
+        <v>325</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>1572</v>
+        <v>1645</v>
       </c>
       <c r="H565" t="s">
-        <v>1644</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="566" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B566" s="2">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="C566" s="3" t="s">
-        <v>741</v>
+        <v>0.25</v>
+      </c>
+      <c r="C566" t="s">
+        <v>328</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1575</v>
+        <v>1555</v>
       </c>
       <c r="H566" t="s">
-        <v>258</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="567" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B567" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C567" t="s">
-        <v>444</v>
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>1571</v>
+        <v>891</v>
       </c>
       <c r="H567" t="s">
-        <v>1645</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="568" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B568" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H568" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="569" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B569" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C569" t="s">
+        <v>333</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B570" s="2">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="C570" t="s">
+        <v>351</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H570" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="571" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B571" s="2">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B572" s="2">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B573" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H573" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B574" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C574" t="s">
+        <v>444</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H574" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B575" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C568" t="s">
+      <c r="C575" t="s">
         <v>20</v>
       </c>
-      <c r="D568" s="3" t="s">
+      <c r="D575" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E568" s="3" t="s">
+      <c r="E575" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F568" s="3" t="s">
+      <c r="F575" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H575" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="576" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B576" s="2">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="C576" t="s">
+        <v>25</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H576" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="577" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B577" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="578" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B578" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="C578" t="s">
+        <v>367</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H578" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="579" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B579" s="2">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C579" t="s">
+        <v>39</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H579" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B580" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H580" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="581" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B581" s="2">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="582" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B582" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C582" t="s">
+        <v>377</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B583" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H583" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B584" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H584" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B585" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C585" t="s">
+        <v>742</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F585" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="H568" t="s">
+      <c r="H585" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B586" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C586" t="s">
+        <v>386</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H586" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B587" s="2">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H587" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B588" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H588" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B589" s="2">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C589" t="s">
+        <v>98</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H589" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B590" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H590" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B591" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C591" t="s">
+        <v>863</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F591" s="3" t="s">
         <v>1646</v>
+      </c>
+      <c r="H591" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B592" s="2">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="C592" t="s">
+        <v>670</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B593" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="C593" t="s">
+        <v>743</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H593" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B594" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="C594" t="s">
+        <v>406</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H594" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="595" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B595" s="2">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="596" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B596" s="2">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="C596" t="s">
+        <v>274</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H596" t="s">
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -33997,192 +35606,283 @@
     <hyperlink ref="D508" r:id="rId1702" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{65F73263-801B-BF4D-8D23-1AE297A63472}"/>
     <hyperlink ref="E508" r:id="rId1703" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{2FEBD083-E0B4-3747-9A81-9EE4DDD838A6}"/>
     <hyperlink ref="F508" r:id="rId1704" tooltip="N337UP" display="https://www.flightradar24.com/data/aircraft/n337up" xr:uid="{7DF1D766-00FA-6949-8C1E-F3503078E4D5}"/>
-    <hyperlink ref="D510" r:id="rId1705" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{78EFBCF3-FD1A-4A40-A8BE-6CC84680D0B1}"/>
-    <hyperlink ref="E510" r:id="rId1706" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C5B60FE5-EDB4-0349-B4BD-AB10754A03E3}"/>
-    <hyperlink ref="F510" r:id="rId1707" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{7B2D700C-1218-D043-8774-3139F2866067}"/>
-    <hyperlink ref="D511" r:id="rId1708" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{B4868ACC-F2EC-1B49-BCFB-C58A21A3C61C}"/>
-    <hyperlink ref="E511" r:id="rId1709" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{AAF5398C-A5AC-5642-80C3-52A8D745A8D6}"/>
-    <hyperlink ref="F511" r:id="rId1710" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{D2754AD6-36A5-0841-8487-464BC2B7D5D3}"/>
-    <hyperlink ref="C512" r:id="rId1711" tooltip="AA4812" display="https://www.flightradar24.com/data/flights/aa4812" xr:uid="{9CEBEBA4-C460-AF45-B932-A33293DF5203}"/>
-    <hyperlink ref="D512" r:id="rId1712" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{31F825D0-9433-894C-AE00-0A329F87D921}"/>
-    <hyperlink ref="E512" r:id="rId1713" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{042234B5-6F34-EA45-AD31-2C6910C7BB09}"/>
-    <hyperlink ref="F512" r:id="rId1714" tooltip="N433YX" display="https://www.flightradar24.com/data/aircraft/n433yx" xr:uid="{30AC74D7-3881-5847-8B05-55BB5D0A38F8}"/>
-    <hyperlink ref="D513" r:id="rId1715" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{DF124E30-ADDA-284D-8388-107269471F5D}"/>
-    <hyperlink ref="E513" r:id="rId1716" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1E328475-378E-9044-9750-A3B766D1DA9C}"/>
-    <hyperlink ref="F513" r:id="rId1717" tooltip="N949AT" display="https://www.flightradar24.com/data/aircraft/n949at" xr:uid="{217AA2BE-D90E-A34F-B674-E4B69FAF9172}"/>
-    <hyperlink ref="D514" r:id="rId1718" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{813099A8-D29A-8B44-8B97-EE9B8D31B864}"/>
-    <hyperlink ref="E514" r:id="rId1719" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{6D4F595E-9125-1249-87C1-1F7D695DA100}"/>
-    <hyperlink ref="F514" r:id="rId1720" tooltip="N755SK" display="https://www.flightradar24.com/data/aircraft/n755sk" xr:uid="{156489E7-E3FF-6B40-9D19-26D02C58CD02}"/>
-    <hyperlink ref="D515" r:id="rId1721" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{03738338-6643-6F46-ADA9-72007E1851F6}"/>
-    <hyperlink ref="E515" r:id="rId1722" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E2423CE0-99F9-484D-8597-A68E24940795}"/>
-    <hyperlink ref="F515" r:id="rId1723" tooltip="N230NN" display="https://www.flightradar24.com/data/aircraft/n230nn" xr:uid="{C5D47615-EEE4-594D-A79B-96B8D61645CE}"/>
-    <hyperlink ref="D516" r:id="rId1724" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{DF6E731A-CAC7-D64A-A4CE-EC45550B292D}"/>
-    <hyperlink ref="E516" r:id="rId1725" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{391D0403-D490-6844-A7F9-C5A8F1699399}"/>
-    <hyperlink ref="F516" r:id="rId1726" tooltip="N85377" display="https://www.flightradar24.com/data/aircraft/n85377" xr:uid="{9FDEB2C9-4E0E-8A4F-BE68-CA0A9EA634F2}"/>
-    <hyperlink ref="C517" r:id="rId1727" tooltip="DL5469" display="https://www.flightradar24.com/data/flights/dl5469" xr:uid="{782D0486-5200-C947-B241-DE3CF267BF23}"/>
-    <hyperlink ref="D517" r:id="rId1728" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{F2095B70-9171-8A46-BF6F-368C6298653F}"/>
-    <hyperlink ref="E517" r:id="rId1729" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{EEEE93D8-9A34-D543-A96B-6F463089C951}"/>
-    <hyperlink ref="F517" r:id="rId1730" tooltip="N928XJ" display="https://www.flightradar24.com/data/aircraft/n928xj" xr:uid="{F24D1BB7-1224-D14C-A5AA-3892C6E02077}"/>
-    <hyperlink ref="C518" r:id="rId1731" display="https://www.flightradar24.com/data/flights/" xr:uid="{BB332A5F-D8F3-A549-8306-1144434D5D8B}"/>
-    <hyperlink ref="D518" r:id="rId1732" tooltip="Sioux Falls Regional Airport, United States" display="https://www.flightradar24.com/data/airports/fsd" xr:uid="{FA93AC61-0DA3-5E4C-AFE9-86B043FB6884}"/>
-    <hyperlink ref="F518" r:id="rId1733" tooltip="N425DD" display="https://www.flightradar24.com/data/aircraft/n425dd" xr:uid="{DAA0BB64-FC24-F14F-8297-874053BCDD24}"/>
-    <hyperlink ref="C519" r:id="rId1734" tooltip="AA2854" display="https://www.flightradar24.com/data/flights/aa2854" xr:uid="{F478ECFC-D8C3-5342-A2CC-09FA60D864B2}"/>
-    <hyperlink ref="D519" r:id="rId1735" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{786ED1CC-8F90-3E44-AFCA-83E866147B6B}"/>
-    <hyperlink ref="E519" r:id="rId1736" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E34492CD-DC24-DA4D-A13A-ED7D6E147133}"/>
-    <hyperlink ref="F519" r:id="rId1737" tooltip="N808AW" display="https://www.flightradar24.com/data/aircraft/n808aw" xr:uid="{9664EF10-44CF-694A-8C6C-6D74A98AEF69}"/>
-    <hyperlink ref="D520" r:id="rId1738" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{3014804A-0257-6840-9C44-DD8710503CC6}"/>
-    <hyperlink ref="E520" r:id="rId1739" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{9C409950-EF91-6F40-8ACA-01519B653B26}"/>
-    <hyperlink ref="F520" r:id="rId1740" tooltip="N668CA" display="https://www.flightradar24.com/data/aircraft/n668ca" xr:uid="{B0154CD9-E55D-814E-B3BD-57A2CC036627}"/>
-    <hyperlink ref="D521" r:id="rId1741" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{43C9B0B0-AD0D-3644-B139-991DE2D375F6}"/>
-    <hyperlink ref="E521" r:id="rId1742" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9FC8FA98-559C-ED45-A02A-D8511532596D}"/>
-    <hyperlink ref="F521" r:id="rId1743" tooltip="N9012" display="https://www.flightradar24.com/data/aircraft/n9012" xr:uid="{CE020FB7-9A96-6C49-8262-534D29269256}"/>
-    <hyperlink ref="C522" r:id="rId1744" tooltip="FX697" display="https://www.flightradar24.com/data/flights/fx697" xr:uid="{0E1447BB-984D-7E47-BCAE-4AFF28F28230}"/>
-    <hyperlink ref="D522" r:id="rId1745" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{41070A4B-5E78-8C4F-8C51-C667226E950E}"/>
-    <hyperlink ref="E522" r:id="rId1746" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{85FF0B17-E45F-EE47-8185-98AAD97AD1A7}"/>
-    <hyperlink ref="C523" r:id="rId1747" tooltip="5X9875" display="https://www.flightradar24.com/data/flights/5x9875" xr:uid="{AE6FFD56-4D58-4C42-BCE9-3626FB8F4D9F}"/>
-    <hyperlink ref="D523" r:id="rId1748" tooltip="Louisville International Airport, United States" display="https://www.flightradar24.com/data/airports/sdf" xr:uid="{E1286439-C2DA-2442-B15B-81260CBFF3A9}"/>
-    <hyperlink ref="E523" r:id="rId1749" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{4296C00C-3152-9544-84E2-DB90C74A9F77}"/>
-    <hyperlink ref="D524" r:id="rId1750" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{01D0E9FF-5156-BD4C-975C-534ED65E24AD}"/>
-    <hyperlink ref="E524" r:id="rId1751" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{F4CD86F2-BA08-1B42-97A6-2FFAA28A1089}"/>
-    <hyperlink ref="F524" r:id="rId1752" tooltip="N53442" display="https://www.flightradar24.com/data/aircraft/n53442" xr:uid="{2B54D47A-0596-6B4A-B925-CA5FE901BB1B}"/>
-    <hyperlink ref="C525" r:id="rId1753" tooltip="WN1480" display="https://www.flightradar24.com/data/flights/wn1480" xr:uid="{578B7207-1CB2-D549-9A8D-42D6169585A6}"/>
-    <hyperlink ref="D525" r:id="rId1754" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{8F175942-2453-D347-8E94-B9589A70F314}"/>
-    <hyperlink ref="E525" r:id="rId1755" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{A5E2EC9C-F1E5-E945-836B-33CB817417E5}"/>
-    <hyperlink ref="F525" r:id="rId1756" tooltip="N8502Z" display="https://www.flightradar24.com/data/aircraft/n8502z" xr:uid="{A8282DF8-5389-694C-85E4-15AF6AC95186}"/>
-    <hyperlink ref="D526" r:id="rId1757" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{E9D2A5C1-97B0-C945-A20D-FE6DA0A7FE47}"/>
-    <hyperlink ref="E526" r:id="rId1758" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{52CAB7B7-71F5-FF46-82D9-6AFE648711A0}"/>
-    <hyperlink ref="F526" r:id="rId1759" tooltip="N445UA" display="https://www.flightradar24.com/data/aircraft/n445ua" xr:uid="{9F106E6B-2076-2247-AA0C-7EC859398F6B}"/>
-    <hyperlink ref="C527" r:id="rId1760" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{4249029E-E286-F442-B688-37D42367DE31}"/>
-    <hyperlink ref="D527" r:id="rId1761" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{16AEAF81-9EDE-5047-BD57-D06354253273}"/>
-    <hyperlink ref="E527" r:id="rId1762" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{25E02F97-E749-1546-8A13-471E5C8329B7}"/>
-    <hyperlink ref="C528" r:id="rId1763" display="https://www.flightradar24.com/data/flights/" xr:uid="{ED01977B-FED3-ED41-BCEE-CD8B99A977AE}"/>
-    <hyperlink ref="D528" r:id="rId1764" tooltip="Thermal Jacqueline Cochran Regional Airport, United States" display="https://www.flightradar24.com/data/airports/trm" xr:uid="{FC94ED8F-DC9F-CD4E-9D66-825EBECDEE66}"/>
-    <hyperlink ref="D529" r:id="rId1765" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{247CA74D-6F60-664D-9549-0EC290EAD220}"/>
-    <hyperlink ref="E529" r:id="rId1766" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3B83509A-127F-9147-A0B8-8D9E65981CF5}"/>
-    <hyperlink ref="F529" r:id="rId1767" tooltip="N661JA" display="https://www.flightradar24.com/data/aircraft/n661ja" xr:uid="{101C382A-5D0D-8443-896E-57C1602F3F80}"/>
-    <hyperlink ref="D530" r:id="rId1768" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{A69F349E-B0DD-7B42-88DD-0227989E1C58}"/>
-    <hyperlink ref="E530" r:id="rId1769" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{ECD75691-BDB0-2446-B49C-64A0EB28D919}"/>
-    <hyperlink ref="F530" r:id="rId1770" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{6EF845AF-6527-2F4E-BF23-BA190022F986}"/>
-    <hyperlink ref="D531" r:id="rId1771" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{1B381EAC-0014-5342-8898-63AC95EE8CA5}"/>
-    <hyperlink ref="E531" r:id="rId1772" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C6E3DA48-89AF-D541-AA36-F07C576EDD50}"/>
-    <hyperlink ref="F531" r:id="rId1773" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{A834AEC0-EDF7-F448-9200-3F5AB114529D}"/>
-    <hyperlink ref="D532" r:id="rId1774" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{A1C4A0C8-1A73-2347-AF8B-56B79A56116C}"/>
-    <hyperlink ref="E532" r:id="rId1775" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1BF52D14-895A-4143-9C4E-B3808320C1C1}"/>
-    <hyperlink ref="F532" r:id="rId1776" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{26EA1108-8406-0042-81EF-1F1501463F57}"/>
-    <hyperlink ref="D533" r:id="rId1777" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{50FA7E12-C490-D142-AC2A-B9BCCF949D83}"/>
-    <hyperlink ref="E533" r:id="rId1778" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DE5682B6-3100-C749-B032-1AC7C094C569}"/>
-    <hyperlink ref="F533" r:id="rId1779" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{CF9B7876-DE11-1842-B1FF-467FE51E0521}"/>
-    <hyperlink ref="C534" r:id="rId1780" tooltip="JL43" display="https://www.flightradar24.com/data/flights/jl43" xr:uid="{378C0430-882A-E44A-B22A-2E8EB9558886}"/>
-    <hyperlink ref="D534" r:id="rId1781" tooltip="Aspen Pitkin County Airport, United States" display="https://www.flightradar24.com/data/airports/ase" xr:uid="{F893D289-C1CC-3646-8AA3-BB872A5ECF66}"/>
-    <hyperlink ref="E534" r:id="rId1782" tooltip="Jet Linx Aviation" display="https://www.flightradar24.com/data/airlines/jl-jtl" xr:uid="{557DD8F0-061F-0E46-80BE-FEEB86EEA754}"/>
-    <hyperlink ref="C535" r:id="rId1783" display="https://www.flightradar24.com/data/flights/" xr:uid="{F4FC4EA4-A7F5-7C48-BC18-891D3E30BDF4}"/>
-    <hyperlink ref="D535" r:id="rId1784" tooltip="Chicago Gary International, United States" display="https://www.flightradar24.com/data/airports/gyy" xr:uid="{D52B6A3F-5599-084A-B018-26824BE84C4C}"/>
-    <hyperlink ref="C536" r:id="rId1785" tooltip="TJ816" display="https://www.flightradar24.com/data/flights/tj816" xr:uid="{FCEC3E5F-535D-9747-AF63-CB41C4502E9A}"/>
-    <hyperlink ref="D536" r:id="rId1786" tooltip="Grand Junction Regional Airport, United States" display="https://www.flightradar24.com/data/airports/gjt" xr:uid="{8204E9D0-3D9F-7F47-9743-E2DABC111269}"/>
-    <hyperlink ref="E536" r:id="rId1787" tooltip="Tradewind Aviation" display="https://www.flightradar24.com/data/airlines/tj-gpd" xr:uid="{59C33401-FC97-8F44-A319-60CF37E66DDB}"/>
-    <hyperlink ref="C537" r:id="rId1788" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{D4B9CEF9-B33E-7847-B96E-AF9D973063CC}"/>
-    <hyperlink ref="D537" r:id="rId1789" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{40C9B25B-2EC1-2248-9978-236640038E20}"/>
-    <hyperlink ref="E537" r:id="rId1790" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{66D79697-5D69-E14A-A45C-4FC336043143}"/>
-    <hyperlink ref="F537" r:id="rId1791" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{DA4078F7-A136-5B45-B47C-75E71A201A24}"/>
-    <hyperlink ref="C538" r:id="rId1792" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{07B61F95-3095-B340-BBB5-6F85AFD39D92}"/>
-    <hyperlink ref="D538" r:id="rId1793" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{3EB3D56B-95A8-5246-8001-76C91271F8C1}"/>
-    <hyperlink ref="E538" r:id="rId1794" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{A7085441-D61A-B944-893C-C939D21D27F2}"/>
-    <hyperlink ref="F538" r:id="rId1795" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{53C63186-274E-A145-A1E0-CD7E672E3E0C}"/>
-    <hyperlink ref="D539" r:id="rId1796" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{418D824C-DB31-2E49-9127-7E5689648802}"/>
-    <hyperlink ref="E539" r:id="rId1797" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{40EC3550-8347-4F4B-9AE1-D92C38258C22}"/>
-    <hyperlink ref="F539" r:id="rId1798" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{79FB3A39-175B-594C-A2A4-E70EDEAB1361}"/>
-    <hyperlink ref="C540" r:id="rId1799" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{3A24CDC6-A01A-EC4A-8318-1A2515481833}"/>
-    <hyperlink ref="D540" r:id="rId1800" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{D14EF120-49DE-4D43-8EBD-555CDD76DAA5}"/>
-    <hyperlink ref="E540" r:id="rId1801" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{785D5B45-8205-654F-860D-9E08C8715610}"/>
-    <hyperlink ref="F540" r:id="rId1802" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{D5C8B96C-64AA-B940-9471-801B0CA2BCC8}"/>
-    <hyperlink ref="C541" r:id="rId1803" tooltip="F9471" display="https://www.flightradar24.com/data/flights/f9471" xr:uid="{2F53D99A-79CF-B443-8F09-C45B1FC4EF96}"/>
-    <hyperlink ref="D541" r:id="rId1804" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{BD9DE890-8202-984A-A953-09B2A7B198C4}"/>
-    <hyperlink ref="E541" r:id="rId1805" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{B3B18B56-BA75-E345-9B28-029F1B645258}"/>
-    <hyperlink ref="F541" r:id="rId1806" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{918C2766-2BEC-2A40-83C7-BBDF69040275}"/>
-    <hyperlink ref="D542" r:id="rId1807" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{20B5050F-39BC-FD43-90AE-A8A8CCDCB867}"/>
-    <hyperlink ref="E542" r:id="rId1808" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{CA3C4465-925C-8148-844E-9934900515F0}"/>
-    <hyperlink ref="F542" r:id="rId1809" tooltip="N89304" display="https://www.flightradar24.com/data/aircraft/n89304" xr:uid="{7E9FCF4B-F845-F449-B97E-4EE7C8399773}"/>
-    <hyperlink ref="D543" r:id="rId1810" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{514CF653-9534-254A-BA9E-003B55F3152F}"/>
-    <hyperlink ref="E543" r:id="rId1811" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E0AC37AD-307A-5549-8106-59AABDE724CD}"/>
-    <hyperlink ref="F543" r:id="rId1812" tooltip="N696AE" display="https://www.flightradar24.com/data/aircraft/n696ae" xr:uid="{4793DE5B-9F56-6B4C-BCCA-EC5ABE950AA1}"/>
-    <hyperlink ref="D544" r:id="rId1813" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{3F6DD544-BDEB-F94D-8177-2B0BE62A1BDE}"/>
-    <hyperlink ref="E544" r:id="rId1814" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{AC5B1518-40DD-7D4E-B01D-B4ECC36FD278}"/>
-    <hyperlink ref="F544" r:id="rId1815" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{2E9431C5-2412-0D48-9946-0CA012754E7D}"/>
-    <hyperlink ref="D545" r:id="rId1816" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{46C1E879-57F1-FA49-8971-72A752ECDE1C}"/>
-    <hyperlink ref="E545" r:id="rId1817" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{4F51053E-C34D-CC4F-85C6-C9AA01E630B8}"/>
-    <hyperlink ref="F545" r:id="rId1818" tooltip="N88346" display="https://www.flightradar24.com/data/aircraft/n88346" xr:uid="{0863DBDC-7EBD-CC43-829E-E066F1D8DC01}"/>
-    <hyperlink ref="C546" r:id="rId1819" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{72049155-CAAA-494B-8B7E-C5539CD9565F}"/>
-    <hyperlink ref="D546" r:id="rId1820" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{8CB074F9-0083-6C41-B19D-26A9FE198120}"/>
-    <hyperlink ref="E546" r:id="rId1821" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{76D345BF-DA8D-574D-9983-171A608805C5}"/>
-    <hyperlink ref="F546" r:id="rId1822" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{47287FF9-CF2B-9C4F-B360-326ED67AD61F}"/>
-    <hyperlink ref="D547" r:id="rId1823" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{9E1387D2-80A6-644B-9383-D332C39F98D6}"/>
-    <hyperlink ref="E547" r:id="rId1824" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C4802F53-9E12-A643-98E0-06075655CA66}"/>
-    <hyperlink ref="F547" r:id="rId1825" tooltip="N988AT" display="https://www.flightradar24.com/data/aircraft/n988at" xr:uid="{F1464000-FD57-BF41-8405-42F399194836}"/>
-    <hyperlink ref="D548" r:id="rId1826" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{77764EF8-3113-B74A-AB41-DB5F4A6162E7}"/>
-    <hyperlink ref="E548" r:id="rId1827" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{87DE96C7-E740-9A4B-8D84-CAAB8734E8DD}"/>
-    <hyperlink ref="F548" r:id="rId1828" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{129F5437-E38B-4A4B-AABF-9759F05E95B1}"/>
-    <hyperlink ref="D549" r:id="rId1829" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{8706A367-262D-1A4A-AFB6-6D490AF2B4C1}"/>
-    <hyperlink ref="E549" r:id="rId1830" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{AE568F2B-1835-FD43-9DFD-0F005B5CE056}"/>
-    <hyperlink ref="F549" r:id="rId1831" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{4078E43F-BFEA-7A42-9203-38ECB24E160A}"/>
-    <hyperlink ref="D550" r:id="rId1832" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{945AB536-38DE-4D43-BAF4-CBA601F70D53}"/>
-    <hyperlink ref="E550" r:id="rId1833" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{AF53173F-4833-5B49-B8D4-8EE0D4280447}"/>
-    <hyperlink ref="F550" r:id="rId1834" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{80B35971-9131-8E48-AEF0-09185868BB63}"/>
-    <hyperlink ref="C551" r:id="rId1835" tooltip="DL4179" display="https://www.flightradar24.com/data/flights/dl4179" xr:uid="{6E7E1222-1E01-1349-BB98-140C26BF9D70}"/>
-    <hyperlink ref="D551" r:id="rId1836" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{E0DB2EE3-C0F5-454A-BC6F-C71C998A0B48}"/>
-    <hyperlink ref="E551" r:id="rId1837" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{90599CD0-5CC2-364C-8E8C-6B3A1B7010DF}"/>
-    <hyperlink ref="F551" r:id="rId1838" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{D80D9C40-6023-2A44-B253-A7F3799A80E4}"/>
-    <hyperlink ref="C552" r:id="rId1839" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{188EA290-9B33-4E44-B805-911463B8BFF9}"/>
-    <hyperlink ref="D552" r:id="rId1840" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{F0B75EF2-7E21-C14C-81AA-2A3AB6C57EA9}"/>
-    <hyperlink ref="E552" r:id="rId1841" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{5188D503-F9D7-5E43-9647-DDDBB3E8522C}"/>
-    <hyperlink ref="F552" r:id="rId1842" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{7EF7B0FA-CA68-8E4F-921E-A0D53AC3239A}"/>
-    <hyperlink ref="C553" r:id="rId1843" tooltip="FX1211" display="https://www.flightradar24.com/data/flights/fx1211" xr:uid="{013F6441-7E81-6745-A824-B873286402C3}"/>
-    <hyperlink ref="D553" r:id="rId1844" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{29FC9FA5-ED26-4047-BD7E-927C1BB408C0}"/>
-    <hyperlink ref="E553" r:id="rId1845" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{4ACE9B69-D2DF-E64F-A98A-2BBAEC46DCD9}"/>
-    <hyperlink ref="D555" r:id="rId1846" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{95311625-4295-9640-8152-33D5F6936519}"/>
-    <hyperlink ref="E555" r:id="rId1847" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DDBBCB4C-2D5A-7C4C-8218-65987F8E52EA}"/>
-    <hyperlink ref="F555" r:id="rId1848" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{3E8D56C4-D19D-184A-8ACB-1E7D4EB592ED}"/>
-    <hyperlink ref="D556" r:id="rId1849" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{17592872-D022-E84E-A6BC-66439A572CB1}"/>
-    <hyperlink ref="E556" r:id="rId1850" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8944E5FF-7986-254D-8FDB-1FD7376A3ECC}"/>
-    <hyperlink ref="F556" r:id="rId1851" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{A14F39DE-D138-194D-BB33-B337AD06CECA}"/>
-    <hyperlink ref="C557" r:id="rId1852" tooltip="AA4812" display="https://www.flightradar24.com/data/flights/aa4812" xr:uid="{FBAD5AC1-2186-EA46-BAE9-7862E9F80CF9}"/>
-    <hyperlink ref="D557" r:id="rId1853" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{E0FFD1CA-3BE5-334E-B995-6C26F7305401}"/>
-    <hyperlink ref="E557" r:id="rId1854" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C9D5128F-3975-3F4E-B6BE-727CCD91B9A0}"/>
-    <hyperlink ref="D558" r:id="rId1855" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{CC3D756D-90C0-3742-8D20-A47457804FE7}"/>
-    <hyperlink ref="E558" r:id="rId1856" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C902F517-5839-964A-AAEA-7AD40DD0E935}"/>
-    <hyperlink ref="F558" r:id="rId1857" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{6165F1E6-6ACD-DA4D-B0AE-750E200B54A7}"/>
-    <hyperlink ref="D559" r:id="rId1858" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{95553215-225E-A340-BEAB-26A7D89506E6}"/>
-    <hyperlink ref="E559" r:id="rId1859" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2E5375CC-AAE0-0747-ADEA-DC28531AAEED}"/>
-    <hyperlink ref="F559" r:id="rId1860" tooltip="N201NN" display="https://www.flightradar24.com/data/aircraft/n201nn" xr:uid="{9EA9A3EE-637A-4F4B-AA61-724D358E86F7}"/>
-    <hyperlink ref="D560" r:id="rId1861" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{3565A302-5363-954C-A503-CCFE7C225274}"/>
-    <hyperlink ref="E560" r:id="rId1862" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{2B72A9EC-22D6-BB42-97EE-6E4256643220}"/>
-    <hyperlink ref="F560" r:id="rId1863" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{EAC13DF1-20AB-B545-A332-197C96C0B6F9}"/>
-    <hyperlink ref="C561" r:id="rId1864" tooltip="DL5469" display="https://www.flightradar24.com/data/flights/dl5469" xr:uid="{4CE0B0FD-82A9-6848-A1FF-4C0DA5B7216F}"/>
-    <hyperlink ref="D561" r:id="rId1865" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{751432EE-C672-3E46-8A05-1707295054E8}"/>
-    <hyperlink ref="E561" r:id="rId1866" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{2079BD6F-A4C5-0E42-99A1-08ABBFFF2EF6}"/>
-    <hyperlink ref="F561" r:id="rId1867" tooltip="N919XJ" display="https://www.flightradar24.com/data/aircraft/n919xj" xr:uid="{5F82FB15-3224-D846-8FE3-C0CDC1E0BF9D}"/>
-    <hyperlink ref="C562" r:id="rId1868" tooltip="AA2854" display="https://www.flightradar24.com/data/flights/aa2854" xr:uid="{43760DC9-005E-174E-ADBF-B63C747E35AA}"/>
-    <hyperlink ref="D562" r:id="rId1869" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{9B8CE101-89E9-8C4F-A3F0-55B9EDA9FCD2}"/>
-    <hyperlink ref="E562" r:id="rId1870" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{94DA7E14-EB54-A14E-B9E6-3A33F1B1ACB2}"/>
-    <hyperlink ref="F562" r:id="rId1871" tooltip="N711UW" display="https://www.flightradar24.com/data/aircraft/n711uw" xr:uid="{7972A3D1-2CDC-1E4B-9554-0331CB8E2BDE}"/>
-    <hyperlink ref="D563" r:id="rId1872" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{E1253ABB-3F74-9341-B362-B4F9570026AE}"/>
-    <hyperlink ref="E563" r:id="rId1873" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C2C8F6D9-88A0-1E4E-8FEE-2B2FF640BD94}"/>
-    <hyperlink ref="F563" r:id="rId1874" tooltip="N376CA" display="https://www.flightradar24.com/data/aircraft/n376ca" xr:uid="{8EF5C9CC-7A09-DD47-97B3-BCDF92BB485D}"/>
-    <hyperlink ref="D564" r:id="rId1875" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{2CA4E012-C5A8-EF45-869B-4952C94CE640}"/>
-    <hyperlink ref="E564" r:id="rId1876" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{8217509A-2CFF-5A40-A3BA-4827995087EF}"/>
-    <hyperlink ref="F564" r:id="rId1877" tooltip="N703UW" display="https://www.flightradar24.com/data/aircraft/n703uw" xr:uid="{9AEBA041-9944-924B-A9BE-07B1C6B6FA4F}"/>
-    <hyperlink ref="D565" r:id="rId1878" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{493B1F45-03D1-0147-82F2-A63990B6AC8A}"/>
-    <hyperlink ref="E565" r:id="rId1879" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{3E37586F-F4E3-AC43-8EEF-93E129C4570B}"/>
-    <hyperlink ref="F565" r:id="rId1880" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{5E5F1B4B-5134-5341-9490-E82351313011}"/>
-    <hyperlink ref="C566" r:id="rId1881" tooltip="WN1480" display="https://www.flightradar24.com/data/flights/wn1480" xr:uid="{6BBB54A6-9CD7-E746-9D40-2BA4D0F3AA36}"/>
-    <hyperlink ref="D566" r:id="rId1882" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{2F62C59A-8638-A14E-99D9-79B21A20791C}"/>
-    <hyperlink ref="E566" r:id="rId1883" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{5A6DF046-B09A-1F44-8E42-D6DE09E50CF7}"/>
-    <hyperlink ref="F566" r:id="rId1884" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{03DC0845-F145-D946-83A0-7E1EC97B9AD1}"/>
-    <hyperlink ref="D567" r:id="rId1885" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{B2C55268-EFC9-DE47-8B45-D6AFE5EB4765}"/>
-    <hyperlink ref="E567" r:id="rId1886" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{74279C7B-D344-3840-B70D-2C1E7DFDA45E}"/>
-    <hyperlink ref="F567" r:id="rId1887" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{1DDF642B-C959-0843-9DF7-C2AE3DAB6455}"/>
-    <hyperlink ref="D568" r:id="rId1888" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{27C7A872-F9C2-2B43-ACB2-07DA1A95AF37}"/>
-    <hyperlink ref="E568" r:id="rId1889" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{5CBF8F34-6D7F-7B4E-9F76-F690A5990FE5}"/>
-    <hyperlink ref="F568" r:id="rId1890" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{CF13FDC4-5D86-4F40-B05A-39A73CFFDC16}"/>
+    <hyperlink ref="C509" r:id="rId1705" tooltip="BYA584" display="https://www.flightradar24.com/data/flights/bya584" xr:uid="{5B52A4B5-AC3D-2643-AF9C-789833322CAF}"/>
+    <hyperlink ref="D509" r:id="rId1706" tooltip="Hickory Regional, United States" display="https://www.flightradar24.com/data/airports/hky" xr:uid="{D3B19E9E-7736-2848-8E8A-8D045A456868}"/>
+    <hyperlink ref="E509" r:id="rId1707" tooltip="Berry Aviation" display="https://www.flightradar24.com/data/airlines/-bya" xr:uid="{F319989F-FEA8-294D-B16E-E6C9FD484AED}"/>
+    <hyperlink ref="F509" r:id="rId1708" tooltip="N584SW" display="https://www.flightradar24.com/data/aircraft/n584sw" xr:uid="{87B9803C-EF43-4248-942E-F23C3DAC2101}"/>
+    <hyperlink ref="D510" r:id="rId1709" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{6365BA93-99DA-3742-ACF0-759A4B750B92}"/>
+    <hyperlink ref="E510" r:id="rId1710" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2C0F8229-12AC-9445-B7B6-C208F6621FDF}"/>
+    <hyperlink ref="F510" r:id="rId1711" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{4B73FA09-971C-8E4D-A69F-3C6DA1C1CC07}"/>
+    <hyperlink ref="D511" r:id="rId1712" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{D8835883-8FB9-4747-831A-5220446C5296}"/>
+    <hyperlink ref="E511" r:id="rId1713" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7F609E73-5A95-AF44-B37A-999B63B46006}"/>
+    <hyperlink ref="F511" r:id="rId1714" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{E44454D8-34C6-3149-97AD-C327845D124C}"/>
+    <hyperlink ref="C512" r:id="rId1715" tooltip="AA4812" display="https://www.flightradar24.com/data/flights/aa4812" xr:uid="{8968E98E-5379-9C45-9BD8-745EBF64E290}"/>
+    <hyperlink ref="D512" r:id="rId1716" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{D3484E9F-9B45-1746-918E-F35F7ABF53C5}"/>
+    <hyperlink ref="E512" r:id="rId1717" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{AFCF2AAA-452E-F243-8C78-13C80DD6CB02}"/>
+    <hyperlink ref="F512" r:id="rId1718" tooltip="N433YX" display="https://www.flightradar24.com/data/aircraft/n433yx" xr:uid="{8440CD09-E84B-C34C-9B50-80F751AC2955}"/>
+    <hyperlink ref="D513" r:id="rId1719" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{1F3A524C-CC53-304C-A33F-C67DE1B38606}"/>
+    <hyperlink ref="E513" r:id="rId1720" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{823044BE-A7EB-AE42-BA6E-42685DCC56CA}"/>
+    <hyperlink ref="F513" r:id="rId1721" tooltip="N949AT" display="https://www.flightradar24.com/data/aircraft/n949at" xr:uid="{58BD8797-98F7-E14E-B60B-EFCD5A4EA25D}"/>
+    <hyperlink ref="D514" r:id="rId1722" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{A5FB3978-151D-1E47-904B-B97F9C2F92EB}"/>
+    <hyperlink ref="E514" r:id="rId1723" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BF29D94C-BF1F-3C4C-8B39-A01CA85D9ADC}"/>
+    <hyperlink ref="F514" r:id="rId1724" tooltip="N755SK" display="https://www.flightradar24.com/data/aircraft/n755sk" xr:uid="{DF150F2B-3CD3-8B48-9A4D-2ED226B22287}"/>
+    <hyperlink ref="D515" r:id="rId1725" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{BCE0230E-5A33-984C-BADD-C6A30291E6D6}"/>
+    <hyperlink ref="E515" r:id="rId1726" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1F034DC1-5F6C-C34B-A990-501D5D2F41E8}"/>
+    <hyperlink ref="F515" r:id="rId1727" tooltip="N230NN" display="https://www.flightradar24.com/data/aircraft/n230nn" xr:uid="{B0354CD8-55AA-F640-A2FE-373409E385EF}"/>
+    <hyperlink ref="D516" r:id="rId1728" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{3D3A3C7A-20A9-C34A-AB0F-30A0DDA5CF7E}"/>
+    <hyperlink ref="E516" r:id="rId1729" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{A8279A19-8D0C-C64D-82BD-F9BE78A9B448}"/>
+    <hyperlink ref="F516" r:id="rId1730" tooltip="N85377" display="https://www.flightradar24.com/data/aircraft/n85377" xr:uid="{087232CB-BBF3-B04C-B2D3-ADA7FA691133}"/>
+    <hyperlink ref="C517" r:id="rId1731" tooltip="3M3902" display="https://www.flightradar24.com/data/flights/3m3902" xr:uid="{F4CC626E-CB6A-1D4F-8EA4-C902196C30A5}"/>
+    <hyperlink ref="D517" r:id="rId1732" tooltip="Fort Worth Alliance Airport, United States" display="https://www.flightradar24.com/data/airports/afw" xr:uid="{C3F88F1F-02FE-9343-89D2-2AA530DA9B07}"/>
+    <hyperlink ref="E517" r:id="rId1733" tooltip="Amazon Air" display="https://www.flightradar24.com/data/airlines/3m-sil" xr:uid="{51DE0C9D-0ED6-204F-8CA5-D55FAB46BDB1}"/>
+    <hyperlink ref="F517" r:id="rId1734" tooltip="N937AZ" display="https://www.flightradar24.com/data/aircraft/n937az" xr:uid="{5C6DD067-8F57-284D-873F-85483281B2D0}"/>
+    <hyperlink ref="C518" r:id="rId1735" tooltip="DL5469" display="https://www.flightradar24.com/data/flights/dl5469" xr:uid="{CA1BF17A-D77E-1046-9C70-969076E7B7F7}"/>
+    <hyperlink ref="D518" r:id="rId1736" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{C7A965CD-4287-B340-9C41-0A0B19C62976}"/>
+    <hyperlink ref="E518" r:id="rId1737" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{641A5E41-BAFB-B240-99BC-6C4A1397D443}"/>
+    <hyperlink ref="F518" r:id="rId1738" tooltip="N305PQ" display="https://www.flightradar24.com/data/aircraft/n305pq" xr:uid="{D4420738-8502-B244-A695-D46E60FC8E1A}"/>
+    <hyperlink ref="C519" r:id="rId1739" display="https://www.flightradar24.com/data/flights/" xr:uid="{037C5ADD-62FB-4146-8CED-23E11257B65D}"/>
+    <hyperlink ref="D519" r:id="rId1740" tooltip="Sioux Falls Regional Airport, United States" display="https://www.flightradar24.com/data/airports/fsd" xr:uid="{B3335A6F-B2DB-DC40-8391-02451E1419A2}"/>
+    <hyperlink ref="F519" r:id="rId1741" tooltip="N425DD" display="https://www.flightradar24.com/data/aircraft/n425dd" xr:uid="{C95E87B4-4E6C-8041-8657-1725FE77BE17}"/>
+    <hyperlink ref="C520" r:id="rId1742" tooltip="AA2854" display="https://www.flightradar24.com/data/flights/aa2854" xr:uid="{443AA712-0F62-4244-91C5-9524A1094B78}"/>
+    <hyperlink ref="D520" r:id="rId1743" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{95A4F9B2-8AB2-E34F-A754-969D4D36A9B3}"/>
+    <hyperlink ref="E520" r:id="rId1744" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C6F70DE4-79DC-E544-A872-05050E641052}"/>
+    <hyperlink ref="F520" r:id="rId1745" tooltip="N808AW" display="https://www.flightradar24.com/data/aircraft/n808aw" xr:uid="{B2803946-9731-EE4C-8523-AEE0150DD01F}"/>
+    <hyperlink ref="D521" r:id="rId1746" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{63236B1D-39D5-0640-9B06-00727AD12072}"/>
+    <hyperlink ref="E521" r:id="rId1747" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D1A7088C-2DBD-174E-96D7-F26E31045C53}"/>
+    <hyperlink ref="F521" r:id="rId1748" tooltip="N668CA" display="https://www.flightradar24.com/data/aircraft/n668ca" xr:uid="{C0338765-737C-6E41-B50F-11EEC7D0099A}"/>
+    <hyperlink ref="D522" r:id="rId1749" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{CD0E93B1-2B00-5143-ACD7-BAF56B09AA33}"/>
+    <hyperlink ref="E522" r:id="rId1750" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{F9613853-4A98-3C4C-9869-BDB9A9B0E079}"/>
+    <hyperlink ref="F522" r:id="rId1751" tooltip="N9012" display="https://www.flightradar24.com/data/aircraft/n9012" xr:uid="{7B38E8D0-CA1E-E546-AA83-3F98BF0CA86B}"/>
+    <hyperlink ref="C523" r:id="rId1752" tooltip="FX697" display="https://www.flightradar24.com/data/flights/fx697" xr:uid="{2EF72DE6-9C2C-3D42-BBE2-C458DE96887B}"/>
+    <hyperlink ref="D523" r:id="rId1753" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{C8BB8F31-7D0F-9143-BAA8-50D804F535F9}"/>
+    <hyperlink ref="E523" r:id="rId1754" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{DAF5BD19-0038-BA45-85FF-B89ADFE93F4A}"/>
+    <hyperlink ref="F523" r:id="rId1755" tooltip="N674FE" display="https://www.flightradar24.com/data/aircraft/n674fe" xr:uid="{6238A324-5E0E-9B4C-9480-B8B44427C43C}"/>
+    <hyperlink ref="C524" r:id="rId1756" tooltip="5X9875" display="https://www.flightradar24.com/data/flights/5x9875" xr:uid="{95A76B5C-FBF1-AA4A-87B4-A28325A33FCB}"/>
+    <hyperlink ref="D524" r:id="rId1757" tooltip="Louisville International Airport, United States" display="https://www.flightradar24.com/data/airports/sdf" xr:uid="{8AD600F2-509A-B648-B416-7DC084D2EEAB}"/>
+    <hyperlink ref="E524" r:id="rId1758" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{177E9823-436B-3043-9505-B19A447D8B35}"/>
+    <hyperlink ref="F524" r:id="rId1759" tooltip="N336UP" display="https://www.flightradar24.com/data/aircraft/n336up" xr:uid="{582E2C50-4A4A-9C47-8085-41F90B02BA12}"/>
+    <hyperlink ref="D525" r:id="rId1760" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{498D6863-E8FC-164D-B559-997FB0DBF87C}"/>
+    <hyperlink ref="E525" r:id="rId1761" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{96D048A2-187A-CD4B-934F-CE763DAAB9E6}"/>
+    <hyperlink ref="F525" r:id="rId1762" tooltip="N53442" display="https://www.flightradar24.com/data/aircraft/n53442" xr:uid="{5D8E9125-54C9-FF47-B7A5-F229CE2FFBF4}"/>
+    <hyperlink ref="C526" r:id="rId1763" tooltip="WN1480" display="https://www.flightradar24.com/data/flights/wn1480" xr:uid="{A3FCF507-7B96-AF40-80B9-3725366E9441}"/>
+    <hyperlink ref="D526" r:id="rId1764" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{1713E821-63CD-B845-9BCC-9FFDC5CB2DB9}"/>
+    <hyperlink ref="E526" r:id="rId1765" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{FD5CB7CF-DA81-6C46-91D3-A1855AC6F60F}"/>
+    <hyperlink ref="F526" r:id="rId1766" tooltip="N8502Z" display="https://www.flightradar24.com/data/aircraft/n8502z" xr:uid="{FA0D1E65-804E-5747-AD28-49710DED6EA7}"/>
+    <hyperlink ref="D527" r:id="rId1767" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{F793D39F-CB8B-B34F-A0B9-1B302D88BCF9}"/>
+    <hyperlink ref="E527" r:id="rId1768" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{3D643F7B-4076-F34A-AFBB-E15049F34658}"/>
+    <hyperlink ref="F527" r:id="rId1769" tooltip="N445UA" display="https://www.flightradar24.com/data/aircraft/n445ua" xr:uid="{108C6D16-F7CF-D84F-ACF3-B6414F6EB720}"/>
+    <hyperlink ref="C528" r:id="rId1770" tooltip="DJR213" display="https://www.flightradar24.com/data/flights/djr213" xr:uid="{CBFE5F03-88E5-1B48-8C01-8795CAEDA5D0}"/>
+    <hyperlink ref="D528" r:id="rId1771" tooltip="Thermal Jacqueline Cochran Regional Airport, United States" display="https://www.flightradar24.com/data/airports/trm" xr:uid="{B4F2293F-77A1-C04A-9E1F-DA274BA7B18C}"/>
+    <hyperlink ref="C529" r:id="rId1772" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{08FE4231-BC9A-844C-95B1-0C8D6CDB7825}"/>
+    <hyperlink ref="D529" r:id="rId1773" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{C86AED1F-637C-5344-98BF-20D58A4CB60F}"/>
+    <hyperlink ref="E529" r:id="rId1774" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{41933962-E6FD-5340-8AF7-E5A8E59FE822}"/>
+    <hyperlink ref="D530" r:id="rId1775" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{255A2213-E182-0046-BEC6-1C531A6AD8A6}"/>
+    <hyperlink ref="E530" r:id="rId1776" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{CCA98758-2F3E-A94D-9DB0-FA182F484409}"/>
+    <hyperlink ref="F530" r:id="rId1777" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{A2A68972-730B-AA45-BFA7-20FC38A5BF42}"/>
+    <hyperlink ref="D531" r:id="rId1778" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{30D29B25-9192-2548-8DF8-0CE22B0B67FC}"/>
+    <hyperlink ref="E531" r:id="rId1779" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{FD0CB122-04C9-1441-8E32-F51EEA63610E}"/>
+    <hyperlink ref="F531" r:id="rId1780" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{4445E3E9-7F01-0244-BC88-BCED4A16BFF9}"/>
+    <hyperlink ref="D532" r:id="rId1781" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{EC62417D-957D-8540-AC12-89A6DB0986E3}"/>
+    <hyperlink ref="E532" r:id="rId1782" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{635FAFEC-C876-F748-B7BC-C9B7B75872B3}"/>
+    <hyperlink ref="F532" r:id="rId1783" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{A051AAC8-C40C-E140-8EED-CBA55022C97F}"/>
+    <hyperlink ref="D533" r:id="rId1784" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{724CBB93-10E7-5E46-BA68-31FDCC846D37}"/>
+    <hyperlink ref="E533" r:id="rId1785" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D553A19A-BAB5-A046-B22C-FD8DD8A60675}"/>
+    <hyperlink ref="F533" r:id="rId1786" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{70F08DB2-4E4C-DE4B-86C4-27EADE1D9085}"/>
+    <hyperlink ref="C534" r:id="rId1787" tooltip="DL5559" display="https://www.flightradar24.com/data/flights/dl5559" xr:uid="{C8531DBF-FDA0-D645-B6E8-473559BA1030}"/>
+    <hyperlink ref="D534" r:id="rId1788" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{775FDFE7-BF42-A444-A9E4-CC17FC496D14}"/>
+    <hyperlink ref="E534" r:id="rId1789" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{506ABFA2-E048-424D-8EC8-3BDCBB6CDEF4}"/>
+    <hyperlink ref="F534" r:id="rId1790" tooltip="N928XJ" display="https://www.flightradar24.com/data/aircraft/n928xj" xr:uid="{2483B262-C860-BC41-9FF7-73309F4A9A0F}"/>
+    <hyperlink ref="D535" r:id="rId1791" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{EE62F4E5-681F-6046-9BB3-97F6969EA6A3}"/>
+    <hyperlink ref="E535" r:id="rId1792" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D1ABF581-5D12-7D45-B3EC-8B1FDF54825E}"/>
+    <hyperlink ref="F535" r:id="rId1793" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{A905F253-4FEE-8345-B1EE-2865FF10681E}"/>
+    <hyperlink ref="C536" r:id="rId1794" tooltip="JL43" display="https://www.flightradar24.com/data/flights/jl43" xr:uid="{00ACF097-B0F3-4741-8C4D-E340B45D43EC}"/>
+    <hyperlink ref="D536" r:id="rId1795" tooltip="Aspen Pitkin County Airport, United States" display="https://www.flightradar24.com/data/airports/ase" xr:uid="{CA5B906C-638B-D741-8DAC-00A5B90ED4FA}"/>
+    <hyperlink ref="E536" r:id="rId1796" tooltip="Jet Linx Aviation" display="https://www.flightradar24.com/data/airlines/jl-jtl" xr:uid="{99D99877-F49A-6A47-B2ED-E81B54B55390}"/>
+    <hyperlink ref="C537" r:id="rId1797" display="https://www.flightradar24.com/data/flights/" xr:uid="{79E178FC-6A61-6E44-A399-320D4420376D}"/>
+    <hyperlink ref="D537" r:id="rId1798" tooltip="Chicago Gary International, United States" display="https://www.flightradar24.com/data/airports/gyy" xr:uid="{F7C7ABD6-9A74-B048-893D-62742DD6B2DF}"/>
+    <hyperlink ref="C538" r:id="rId1799" tooltip="TJ816" display="https://www.flightradar24.com/data/flights/tj816" xr:uid="{2BB29186-F854-D64D-9C7C-B9B49A9E31A7}"/>
+    <hyperlink ref="D538" r:id="rId1800" tooltip="Grand Junction Regional Airport, United States" display="https://www.flightradar24.com/data/airports/gjt" xr:uid="{4A51AA1F-A597-B04C-A141-557EE51D8270}"/>
+    <hyperlink ref="E538" r:id="rId1801" tooltip="Tradewind Aviation" display="https://www.flightradar24.com/data/airlines/tj-gpd" xr:uid="{46405666-FC50-934D-8472-B8670529DBBE}"/>
+    <hyperlink ref="C539" r:id="rId1802" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{E068946C-E9D2-6742-B513-58BECCD220BE}"/>
+    <hyperlink ref="D539" r:id="rId1803" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{C73163B0-8367-F641-9330-7DFF0FA33937}"/>
+    <hyperlink ref="E539" r:id="rId1804" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1A0E0297-40B4-0043-B141-4358960A56A2}"/>
+    <hyperlink ref="F539" r:id="rId1805" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{FCC129D6-6EFE-9C42-A420-A24879677245}"/>
+    <hyperlink ref="C540" r:id="rId1806" display="https://www.flightradar24.com/data/flights/" xr:uid="{5D4F268F-0973-EA4C-85F4-DAC1B5C51708}"/>
+    <hyperlink ref="D540" r:id="rId1807" tooltip="Minneapolis Anoka County Blaine Airport, United States" display="https://www.flightradar24.com/data/airports/qqa" xr:uid="{783E9005-2B13-FF4A-B604-C74B19F3F9B7}"/>
+    <hyperlink ref="F540" r:id="rId1808" tooltip="N481JB" display="https://www.flightradar24.com/data/aircraft/n481jb" xr:uid="{46967E26-D725-6D4A-8E65-017B95A78103}"/>
+    <hyperlink ref="C541" r:id="rId1809" tooltip="JUS811" display="https://www.flightradar24.com/data/flights/jus811" xr:uid="{BC388998-D4A2-054F-A5F7-F92CB9845099}"/>
+    <hyperlink ref="D541" r:id="rId1810" tooltip="Hickory Regional, United States" display="https://www.flightradar24.com/data/airports/hky" xr:uid="{622868C9-AE05-FE4C-87EF-CC613CD8A654}"/>
+    <hyperlink ref="E541" r:id="rId1811" tooltip="USA Jet Airlines" display="https://www.flightradar24.com/data/airlines/-jus" xr:uid="{FDD16789-4CD5-A540-A555-711FEEF546C9}"/>
+    <hyperlink ref="C542" r:id="rId1812" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{0E4A1EB6-26C0-734C-84B8-80CCEC8A1A24}"/>
+    <hyperlink ref="D542" r:id="rId1813" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{84BAD6E5-D28D-7C45-9B73-33DFF91CACFC}"/>
+    <hyperlink ref="E542" r:id="rId1814" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9DD7445F-EF1A-0C4C-B088-1A2A9E88AC32}"/>
+    <hyperlink ref="F542" r:id="rId1815" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{08FA7E41-F1FB-0342-887F-88B1FB8B1AD7}"/>
+    <hyperlink ref="D543" r:id="rId1816" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{BDCCC262-B17B-9A46-B194-38C4524814CF}"/>
+    <hyperlink ref="E543" r:id="rId1817" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{F5BA3E46-DD66-1C4F-9C0A-BD78090E7D64}"/>
+    <hyperlink ref="F543" r:id="rId1818" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{EA2B3EB8-EFE5-8548-A1DC-C69952970D53}"/>
+    <hyperlink ref="C544" r:id="rId1819" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{9384B33F-499E-354B-8183-77A40BDBE726}"/>
+    <hyperlink ref="D544" r:id="rId1820" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{D01ABC94-3727-AC48-B9A8-72C4D562AC6B}"/>
+    <hyperlink ref="E544" r:id="rId1821" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{8AD422D0-549A-994A-97E3-63610CA06A97}"/>
+    <hyperlink ref="F544" r:id="rId1822" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{058E0C41-35E2-214B-A571-0839A5C0D03D}"/>
+    <hyperlink ref="C545" r:id="rId1823" tooltip="F9471" display="https://www.flightradar24.com/data/flights/f9471" xr:uid="{029DEDAF-C5CD-C145-8C5F-E3BD30739374}"/>
+    <hyperlink ref="D545" r:id="rId1824" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{7605C73E-EEFA-7F4A-8C13-F88DD8613226}"/>
+    <hyperlink ref="E545" r:id="rId1825" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{29931389-719F-5D42-A877-0632202969E3}"/>
+    <hyperlink ref="F545" r:id="rId1826" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{1FF715F7-B758-734A-8C57-FCD17E2884A0}"/>
+    <hyperlink ref="D546" r:id="rId1827" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{EB8AF98C-FB92-3840-9E9D-C05015DEEC89}"/>
+    <hyperlink ref="E546" r:id="rId1828" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{DC314F68-BF96-114F-B7A0-DEE436DF73A5}"/>
+    <hyperlink ref="F546" r:id="rId1829" tooltip="N82338" display="https://www.flightradar24.com/data/aircraft/n82338" xr:uid="{D4084261-5D1C-DF43-AE84-3A4F3729D7DF}"/>
+    <hyperlink ref="C547" r:id="rId1830" display="https://www.flightradar24.com/data/flights/" xr:uid="{44934817-0A4C-5B40-BAE6-CA8BACF7476B}"/>
+    <hyperlink ref="D547" r:id="rId1831" tooltip="Dallas Love Field Airport, United States" display="https://www.flightradar24.com/data/airports/dal" xr:uid="{B41B93C6-75E9-C740-A702-CA9F5191C79A}"/>
+    <hyperlink ref="F547" r:id="rId1832" tooltip="N900H" display="https://www.flightradar24.com/data/aircraft/n900h" xr:uid="{DE7EAA2E-BB03-AC4E-9C00-9D49BDFBF062}"/>
+    <hyperlink ref="D548" r:id="rId1833" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{5A037CFB-FB96-AC42-849E-16B73059FC74}"/>
+    <hyperlink ref="E548" r:id="rId1834" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{531AA077-E137-C84D-989B-49F8CC9A384D}"/>
+    <hyperlink ref="F548" r:id="rId1835" tooltip="N677AE" display="https://www.flightradar24.com/data/aircraft/n677ae" xr:uid="{3C04C24B-D5AA-2941-B8C0-3B3BE132DF2F}"/>
+    <hyperlink ref="D549" r:id="rId1836" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{698B4D06-FB4E-2D4A-92C3-B0F0E78F2A1A}"/>
+    <hyperlink ref="E549" r:id="rId1837" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DF5B37CF-A7C8-5945-9F69-8EE7CF902A6C}"/>
+    <hyperlink ref="F549" r:id="rId1838" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{9C3CBDBD-7734-AB4E-84B2-5ED13AC8882F}"/>
+    <hyperlink ref="D550" r:id="rId1839" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{DE3E1CA5-86B8-6A4E-B511-3984E4529E96}"/>
+    <hyperlink ref="E550" r:id="rId1840" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{57163F0C-6E69-BC49-8C21-FDC1AA3A4FBE}"/>
+    <hyperlink ref="F550" r:id="rId1841" tooltip="N86309" display="https://www.flightradar24.com/data/aircraft/n86309" xr:uid="{18D1DB91-3AD3-7D46-857A-124102E6DCDC}"/>
+    <hyperlink ref="C551" r:id="rId1842" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{64CD9A15-4E57-2F47-BBD8-22699057AF76}"/>
+    <hyperlink ref="D551" r:id="rId1843" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{4F0A4786-4C92-654F-B336-B1E0B0E65EBB}"/>
+    <hyperlink ref="E551" r:id="rId1844" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{09E18CE7-431B-6941-B7B8-58A533541332}"/>
+    <hyperlink ref="F551" r:id="rId1845" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{6D5BD197-9670-8244-B959-390DFC4AC534}"/>
+    <hyperlink ref="D552" r:id="rId1846" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{14E2ED72-5DA3-454C-B862-E26F9F8A8E54}"/>
+    <hyperlink ref="E552" r:id="rId1847" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{4ECBB466-BF0A-654B-BB69-25F1A08C435C}"/>
+    <hyperlink ref="F552" r:id="rId1848" tooltip="N965AT" display="https://www.flightradar24.com/data/aircraft/n965at" xr:uid="{3DF80F90-A633-7249-9E55-D20B03936BA5}"/>
+    <hyperlink ref="D553" r:id="rId1849" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{91CD4F00-1997-9148-B9BE-9E1C3FB27E26}"/>
+    <hyperlink ref="E553" r:id="rId1850" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{E6A7781F-774A-574F-B134-745BE2065DB4}"/>
+    <hyperlink ref="F553" r:id="rId1851" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{8DB76E5F-4CFC-224D-A92D-97BFC3F6B624}"/>
+    <hyperlink ref="D554" r:id="rId1852" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{F2D15F09-CAC3-9945-9DDC-8F6BADC834F7}"/>
+    <hyperlink ref="E554" r:id="rId1853" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{F59C26A6-C964-E643-80F9-12DA7BD5F952}"/>
+    <hyperlink ref="F554" r:id="rId1854" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{6B145207-D11D-604B-82DB-31231B575BA0}"/>
+    <hyperlink ref="D555" r:id="rId1855" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{565B5D33-A9F8-5F42-857B-928086783233}"/>
+    <hyperlink ref="E555" r:id="rId1856" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B715BA86-9521-7045-8028-83B6E0A07341}"/>
+    <hyperlink ref="F555" r:id="rId1857" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{F3E86FA9-8C6E-DB43-B642-4C52FABD1E60}"/>
+    <hyperlink ref="D556" r:id="rId1858" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{34FCF271-71D3-CE49-A215-BE13766D4E16}"/>
+    <hyperlink ref="E556" r:id="rId1859" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E539DD87-61AD-E14F-A06B-F06C4E94A996}"/>
+    <hyperlink ref="F556" r:id="rId1860" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{E9FF1443-5D22-854D-93C3-A8C36C2E5D4A}"/>
+    <hyperlink ref="C557" r:id="rId1861" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{032B8DBC-CB3D-4046-A403-AF2E4FF7B0A4}"/>
+    <hyperlink ref="D557" r:id="rId1862" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{E98CE8AE-4F27-D148-A9EC-E05E6D18F8FC}"/>
+    <hyperlink ref="E557" r:id="rId1863" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{CE51E68D-B7F4-364B-AB0B-6625D812CEE7}"/>
+    <hyperlink ref="F557" r:id="rId1864" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{302715C7-9E97-E14A-87EF-64251382166F}"/>
+    <hyperlink ref="C558" r:id="rId1865" tooltip="FX1211" display="https://www.flightradar24.com/data/flights/fx1211" xr:uid="{3A91E68B-EE48-F147-8284-C76CC568D063}"/>
+    <hyperlink ref="D558" r:id="rId1866" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{4DF6A26F-CFC9-F042-953A-231565580A79}"/>
+    <hyperlink ref="E558" r:id="rId1867" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{892213E9-B586-AF40-AF5A-BC2A1781DB35}"/>
+    <hyperlink ref="C559" r:id="rId1868" tooltip="5X513" display="https://www.flightradar24.com/data/flights/5x513" xr:uid="{9AB1A5AE-B53B-B84D-AFE8-2BEBC3C002A6}"/>
+    <hyperlink ref="D559" r:id="rId1869" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{747AA801-21CF-2543-856C-59E073195E1D}"/>
+    <hyperlink ref="E559" r:id="rId1870" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{F739A2EE-7774-B14F-B39E-BF8889973268}"/>
+    <hyperlink ref="D561" r:id="rId1871" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{C6D6C743-CB58-8A43-915C-3BFC6DBAAC6B}"/>
+    <hyperlink ref="E561" r:id="rId1872" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2FC9E838-4657-8840-A033-2A8B68A85BCF}"/>
+    <hyperlink ref="F561" r:id="rId1873" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{52955152-AB91-3F49-859B-CB215BA5117A}"/>
+    <hyperlink ref="D562" r:id="rId1874" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{DBAFE020-13F4-8944-93B8-10FFA72CC25A}"/>
+    <hyperlink ref="E562" r:id="rId1875" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{AA5CFD7A-25CA-2A48-B98A-84B23336680E}"/>
+    <hyperlink ref="F562" r:id="rId1876" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{754BB136-8BB1-724D-AEC1-A1D3CB17AE2B}"/>
+    <hyperlink ref="C563" r:id="rId1877" tooltip="AA4812" display="https://www.flightradar24.com/data/flights/aa4812" xr:uid="{1544D1BA-60EF-4A49-A247-4AD9460B34A1}"/>
+    <hyperlink ref="D563" r:id="rId1878" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{14D05F72-E706-814F-BDA0-C774DC81A427}"/>
+    <hyperlink ref="E563" r:id="rId1879" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2A4E181B-C890-0346-86F1-93A3A423E01B}"/>
+    <hyperlink ref="D564" r:id="rId1880" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{02AAE518-CF28-5443-A05F-756D9FB4CA00}"/>
+    <hyperlink ref="E564" r:id="rId1881" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A9617357-48A4-3849-AAB9-C49F5870FBC6}"/>
+    <hyperlink ref="F564" r:id="rId1882" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{131117E1-B8F7-9546-8696-FC2AB4D0788A}"/>
+    <hyperlink ref="D565" r:id="rId1883" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{5CE2BE1C-7DAD-D240-95D2-0EB5DA75F2C8}"/>
+    <hyperlink ref="E565" r:id="rId1884" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3DC11A8F-1D15-BC4D-8402-AA613C2F4BA2}"/>
+    <hyperlink ref="F565" r:id="rId1885" tooltip="N274NN" display="https://www.flightradar24.com/data/aircraft/n274nn" xr:uid="{D240CBBF-7212-324C-AFA6-04447EE12FB6}"/>
+    <hyperlink ref="D566" r:id="rId1886" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{BC2AC51E-ECAD-BF44-BFD3-06480626C754}"/>
+    <hyperlink ref="E566" r:id="rId1887" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{D7B00464-1E2C-5A46-BC86-3AB4D329B668}"/>
+    <hyperlink ref="F566" r:id="rId1888" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{DFE69D98-EA83-0745-8E04-A9882D0881B1}"/>
+    <hyperlink ref="C567" r:id="rId1889" tooltip="DL5469" display="https://www.flightradar24.com/data/flights/dl5469" xr:uid="{015479CD-F945-054A-8EA2-40CED7756DB5}"/>
+    <hyperlink ref="D567" r:id="rId1890" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{D753C93D-4051-5144-8631-9117589DE472}"/>
+    <hyperlink ref="E567" r:id="rId1891" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6D170809-7424-2247-8A27-23988EB9D108}"/>
+    <hyperlink ref="F567" r:id="rId1892" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{399DB9D6-9B41-4145-BB82-A1F7FC3AE7A5}"/>
+    <hyperlink ref="C568" r:id="rId1893" tooltip="AA2854" display="https://www.flightradar24.com/data/flights/aa2854" xr:uid="{3C2D8947-ACEB-EC49-A726-28946C04B428}"/>
+    <hyperlink ref="D568" r:id="rId1894" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{DD97D8A8-647D-244A-B53C-BD26DE9F308C}"/>
+    <hyperlink ref="E568" r:id="rId1895" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E2ED4740-628E-F74D-B336-5E7BEAE77E24}"/>
+    <hyperlink ref="F568" r:id="rId1896" tooltip="N711UW" display="https://www.flightradar24.com/data/aircraft/n711uw" xr:uid="{418E958B-B4FB-A84D-A4C4-515421F6CB4B}"/>
+    <hyperlink ref="D569" r:id="rId1897" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{31A5B415-D27E-7641-A1C9-550D52D16276}"/>
+    <hyperlink ref="E569" r:id="rId1898" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{62886EE7-AB17-014E-A622-ECE218A66636}"/>
+    <hyperlink ref="F569" r:id="rId1899" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{B46F3BD7-1C55-AD42-B226-0D9FD18F8766}"/>
+    <hyperlink ref="D570" r:id="rId1900" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{F10D046A-D9C6-5945-87DE-63A7D03FB2B2}"/>
+    <hyperlink ref="E570" r:id="rId1901" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D4546A41-AD7C-6049-9CE9-0649EC834CF6}"/>
+    <hyperlink ref="F570" r:id="rId1902" tooltip="N836AW" display="https://www.flightradar24.com/data/aircraft/n836aw" xr:uid="{FE1F2DD9-338C-4D45-8191-AE959C4A0193}"/>
+    <hyperlink ref="C571" r:id="rId1903" tooltip="FX697" display="https://www.flightradar24.com/data/flights/fx697" xr:uid="{3BB1CAF6-CAE3-C743-8DD3-21ED2E5A7344}"/>
+    <hyperlink ref="D571" r:id="rId1904" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{ACA18EFA-52AB-8441-A29C-4930B8ED3342}"/>
+    <hyperlink ref="E571" r:id="rId1905" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{8896E845-3653-3F45-BC98-641A0014D47B}"/>
+    <hyperlink ref="D572" r:id="rId1906" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{4A3D5574-E8DC-7242-9335-B0A30725D4FB}"/>
+    <hyperlink ref="E572" r:id="rId1907" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{A95A1FA6-6BF3-C740-8BAE-CDF30C907359}"/>
+    <hyperlink ref="F572" r:id="rId1908" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{F1B5A104-085B-3C42-A882-F0C2DFD96FD8}"/>
+    <hyperlink ref="C573" r:id="rId1909" tooltip="WN1480" display="https://www.flightradar24.com/data/flights/wn1480" xr:uid="{2B0B7953-1176-7E4B-A1E4-B6920F21B0CF}"/>
+    <hyperlink ref="D573" r:id="rId1910" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{284452E8-863D-6845-920C-FE7FDFD411DC}"/>
+    <hyperlink ref="E573" r:id="rId1911" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{D418D645-CE7B-754D-932A-0C1988DE45D0}"/>
+    <hyperlink ref="F573" r:id="rId1912" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{E0E8BC2B-2ABC-C040-8B39-2D22A874C256}"/>
+    <hyperlink ref="D574" r:id="rId1913" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{9605519B-12C5-8F41-98E3-199B717A2FC7}"/>
+    <hyperlink ref="E574" r:id="rId1914" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{A01548E6-18C1-F04E-9104-5FF4E84F880C}"/>
+    <hyperlink ref="F574" r:id="rId1915" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{3AA8D69D-60C4-8449-A8C2-34E03CD5A6D4}"/>
+    <hyperlink ref="D575" r:id="rId1916" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{5F6DA0D2-9CFE-004A-B7E5-0BDBC999EC21}"/>
+    <hyperlink ref="E575" r:id="rId1917" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D252EC00-3426-5F46-8210-08ED6D9DE1D2}"/>
+    <hyperlink ref="F575" r:id="rId1918" tooltip="N685AE" display="https://www.flightradar24.com/data/aircraft/n685ae" xr:uid="{71A9CE01-F297-5042-A328-C61437A647ED}"/>
+    <hyperlink ref="D576" r:id="rId1919" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{9AA8C53B-6382-CA42-AA2A-16566BB2CDFF}"/>
+    <hyperlink ref="E576" r:id="rId1920" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{5C865B1E-0315-7848-8A00-F99A090227E1}"/>
+    <hyperlink ref="F576" r:id="rId1921" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{DF58A3DE-819B-1E49-AE2A-0BABEBC414E2}"/>
+    <hyperlink ref="D577" r:id="rId1922" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{2F7E19AD-F718-0940-AABA-F7E290091EA3}"/>
+    <hyperlink ref="E577" r:id="rId1923" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{1C739DB6-8C7F-5147-8B39-5A359C017201}"/>
+    <hyperlink ref="F577" r:id="rId1924" tooltip="N469AW" display="https://www.flightradar24.com/data/aircraft/n469aw" xr:uid="{3007EC45-0062-804C-B72A-851429AF343E}"/>
+    <hyperlink ref="D578" r:id="rId1925" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E328C937-3A16-0E4E-978D-45161BCBD74E}"/>
+    <hyperlink ref="E578" r:id="rId1926" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{9A4ED850-3863-D640-A840-49A1DCEC26D2}"/>
+    <hyperlink ref="F578" r:id="rId1927" tooltip="N717JL" display="https://www.flightradar24.com/data/aircraft/n717jl" xr:uid="{BC3F3E11-855F-0446-87AA-1FD9C63735CD}"/>
+    <hyperlink ref="D579" r:id="rId1928" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{311C9516-5951-4F4C-9BCE-341B30937031}"/>
+    <hyperlink ref="E579" r:id="rId1929" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{81D1F0D2-7747-9B4F-912E-9B084F3E0E97}"/>
+    <hyperlink ref="C580" r:id="rId1930" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{2A364126-9A06-404B-B89C-5D07F43ADB7E}"/>
+    <hyperlink ref="D580" r:id="rId1931" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{E58C8075-8AEC-8147-BD20-B99739F977B4}"/>
+    <hyperlink ref="E580" r:id="rId1932" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7168D6A9-DF22-AF40-9DB8-EB9728A7CB5F}"/>
+    <hyperlink ref="F580" r:id="rId1933" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{CD6C5FED-1D0C-4246-BE37-C72F25F19F0B}"/>
+    <hyperlink ref="C581" r:id="rId1934" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{A35A59A1-70B3-8342-9775-FE803E1A646F}"/>
+    <hyperlink ref="D581" r:id="rId1935" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{91E3C3C5-ABFB-714B-85A7-5C3821FF7AB2}"/>
+    <hyperlink ref="E581" r:id="rId1936" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{67C842D1-4359-7240-A48B-6A0454DEA21C}"/>
+    <hyperlink ref="D582" r:id="rId1937" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{4711EC88-6FA8-CB45-BB57-22D3405C8770}"/>
+    <hyperlink ref="E582" r:id="rId1938" tooltip="SkyWest Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{8BD75293-9769-6841-A533-2FE671D83FFC}"/>
+    <hyperlink ref="F582" r:id="rId1939" tooltip="N709BR" display="https://www.flightradar24.com/data/aircraft/n709br" xr:uid="{0D1E3715-A7FF-D747-A5F6-C979118FD09B}"/>
+    <hyperlink ref="C583" r:id="rId1940" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{A478C499-B38D-DA4A-859B-56A469D19223}"/>
+    <hyperlink ref="D583" r:id="rId1941" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{DA9B080E-686C-5144-B9A5-8CD7F187EF5A}"/>
+    <hyperlink ref="E583" r:id="rId1942" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{0076EF0F-E3A9-A241-8B59-1D74FF3F3855}"/>
+    <hyperlink ref="F583" r:id="rId1943" tooltip="N281WN" display="https://www.flightradar24.com/data/aircraft/n281wn" xr:uid="{A55E3282-FFFC-064D-8830-5D19AAF6FB29}"/>
+    <hyperlink ref="D584" r:id="rId1944" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{DCEE416F-7FD8-D542-8661-EB0B683B5AEB}"/>
+    <hyperlink ref="E584" r:id="rId1945" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{6149B65B-61D4-164C-B806-0A60CCBA116A}"/>
+    <hyperlink ref="F584" r:id="rId1946" tooltip="N89317" display="https://www.flightradar24.com/data/aircraft/n89317" xr:uid="{A8D44F6F-D155-6C49-B4B6-3916E5BB6034}"/>
+    <hyperlink ref="D585" r:id="rId1947" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{3C30EB2B-BA79-E744-B8CF-F662AF2F5C9A}"/>
+    <hyperlink ref="E585" r:id="rId1948" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E45B88BF-A50E-B14F-936F-D5A56B1F6155}"/>
+    <hyperlink ref="F585" r:id="rId1949" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{18B36A48-A569-3247-80DE-7DF29E8DFF4F}"/>
+    <hyperlink ref="D586" r:id="rId1950" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{F2E074C6-1EBA-634F-9972-460B026780A5}"/>
+    <hyperlink ref="E586" r:id="rId1951" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BBA86838-DFAF-EB44-9B45-87BF91B93640}"/>
+    <hyperlink ref="F586" r:id="rId1952" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{BCA073BC-B447-A346-BCB6-BAF44B6098C1}"/>
+    <hyperlink ref="D587" r:id="rId1953" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{BD80536E-2160-F640-988D-12388A514F82}"/>
+    <hyperlink ref="E587" r:id="rId1954" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{61889E66-DFD3-BB48-A554-2E2F22F5EB73}"/>
+    <hyperlink ref="F587" r:id="rId1955" tooltip="N88332" display="https://www.flightradar24.com/data/aircraft/n88332" xr:uid="{B34E568E-1089-A64C-A038-09F13448EE4A}"/>
+    <hyperlink ref="C588" r:id="rId1956" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{9D7EC79C-AE3E-1A49-B9A7-F35D7D0B12AF}"/>
+    <hyperlink ref="D588" r:id="rId1957" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{2CFAD8F4-A230-9C4C-A253-61B1CA4745A2}"/>
+    <hyperlink ref="E588" r:id="rId1958" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{FD85CD10-0674-9D48-9C0C-B9EAC044D6DC}"/>
+    <hyperlink ref="F588" r:id="rId1959" tooltip="N7721E" display="https://www.flightradar24.com/data/aircraft/n7721e" xr:uid="{2D2E5F06-4343-104D-9232-D250D1F22F1D}"/>
+    <hyperlink ref="D589" r:id="rId1960" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{0837D5E4-3FF4-2C45-9798-2704FF98E853}"/>
+    <hyperlink ref="E589" r:id="rId1961" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{60FB574D-4C4F-D241-877D-6DDC1623924A}"/>
+    <hyperlink ref="F589" r:id="rId1962" tooltip="N925AT" display="https://www.flightradar24.com/data/aircraft/n925at" xr:uid="{C4872609-8C66-DC47-AC94-C58106650ABD}"/>
+    <hyperlink ref="D590" r:id="rId1963" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{FC45CD6C-6A88-5A45-AB38-DCAD69D78D80}"/>
+    <hyperlink ref="E590" r:id="rId1964" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{7A19AA26-6F79-5044-9489-135BB4D21D45}"/>
+    <hyperlink ref="F590" r:id="rId1965" tooltip="N851UA" display="https://www.flightradar24.com/data/aircraft/n851ua" xr:uid="{9D901324-A17F-A040-AECB-A04418B14758}"/>
+    <hyperlink ref="D591" r:id="rId1966" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{D0D75C51-4369-4046-8F91-8BA3EBF7B6ED}"/>
+    <hyperlink ref="E591" r:id="rId1967" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{F9C7B664-5285-A84F-81AE-4EC7CC6B13E4}"/>
+    <hyperlink ref="F591" r:id="rId1968" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{C1B0A5FF-6884-3D40-ACAE-445A70F17A88}"/>
+    <hyperlink ref="D592" r:id="rId1969" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{D0BCD96B-F1D7-B74E-8573-E9CB4A0673B2}"/>
+    <hyperlink ref="E592" r:id="rId1970" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E5625F05-72D7-8C45-8F5C-E8A45E3EF918}"/>
+    <hyperlink ref="D593" r:id="rId1971" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{E67E638A-327F-C444-9643-0DB7007573F9}"/>
+    <hyperlink ref="E593" r:id="rId1972" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B8061471-4CE7-FE45-B88F-F490C38DEB16}"/>
+    <hyperlink ref="F593" r:id="rId1973" tooltip="N816AW" display="https://www.flightradar24.com/data/aircraft/n816aw" xr:uid="{F3A0AA69-CA15-B345-9E0E-4AD30E630848}"/>
+    <hyperlink ref="D594" r:id="rId1974" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{2C86E72E-C9FF-064B-BD6E-E9949C3655FA}"/>
+    <hyperlink ref="E594" r:id="rId1975" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E0F1A906-3902-5B46-B8A7-56C1CCC69D29}"/>
+    <hyperlink ref="F594" r:id="rId1976" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{1E05451B-4151-AB4A-B1D4-1F0FA8C9CF8C}"/>
+    <hyperlink ref="C595" r:id="rId1977" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{325D3C55-C9B5-1346-B78E-2AFFEB231960}"/>
+    <hyperlink ref="D595" r:id="rId1978" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{0974DBA8-017F-0745-BEEA-149D5DAB9FC8}"/>
+    <hyperlink ref="E595" r:id="rId1979" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{367E26AB-0A3A-CF49-A9CA-8191FE9CD589}"/>
+    <hyperlink ref="D596" r:id="rId1980" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{E517C63C-A4EB-9B4F-BEA8-3147193960A5}"/>
+    <hyperlink ref="E596" r:id="rId1981" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{66718311-CEDA-2343-AB52-45FF874D1A26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/codeLibrary/R/R/airlineData/Des Moines Airline data following Thanksgiving 2021.xlsx
+++ b/codeLibrary/R/R/airlineData/Des Moines Airline data following Thanksgiving 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/LVM-Code/codeLibrary/R/R/airlineData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6649E-5AB9-F34F-9E58-2AF8C5279B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A068B6-E2D2-564E-B6B2-6E42457AD0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EFD48417-6E4C-3444-B4C0-EAF2B63A29BA}"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EFD48417-6E4C-3444-B4C0-EAF2B63A29BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrivals" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="1763">
   <si>
     <t>TIME</t>
   </si>
@@ -4171,9 +4171,6 @@
     <t xml:space="preserve">Tradewind Aviation </t>
   </si>
   <si>
-    <t xml:space="preserve">PC12 </t>
-  </si>
-  <si>
     <t>Estimated dep. 8:40 AM</t>
   </si>
   <si>
@@ -4225,9 +4222,6 @@
     <t>Estimated dep. 5:42 PM</t>
   </si>
   <si>
-    <t>Tuesday, Dec 07</t>
-  </si>
-  <si>
     <t xml:space="preserve">A319 (N808AW) </t>
   </si>
   <si>
@@ -4402,9 +4396,6 @@
     <t>White Plains (HPN)</t>
   </si>
   <si>
-    <t xml:space="preserve">C25B </t>
-  </si>
-  <si>
     <t xml:space="preserve">B739 (N53442) </t>
   </si>
   <si>
@@ -4636,27 +4627,12 @@
     <t>FX422</t>
   </si>
   <si>
-    <t xml:space="preserve">B752 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CRJ9 (N606LR) </t>
   </si>
   <si>
     <t xml:space="preserve">CRJ2 (N436AW) </t>
   </si>
   <si>
-    <t>Gary (GYY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2TH </t>
-  </si>
-  <si>
-    <t>JL43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jet Linx Aviation </t>
-  </si>
-  <si>
     <t xml:space="preserve">E75L (N293SY) </t>
   </si>
   <si>
@@ -4708,9 +4684,6 @@
     <t xml:space="preserve">B712 (N955AT) </t>
   </si>
   <si>
-    <t>Wednesday, Dec 08</t>
-  </si>
-  <si>
     <t>Departed 7:47 PM</t>
   </si>
   <si>
@@ -4843,24 +4816,6 @@
     <t>Estimated dep. 7:48 AM</t>
   </si>
   <si>
-    <t>Estimated dep. 8:28 AM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 10:10 AM</t>
-  </si>
-  <si>
-    <t>Aspen (ASE)</t>
-  </si>
-  <si>
-    <t>Estimated dep. 12:55 PM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 1:00 PM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 1:10 PM</t>
-  </si>
-  <si>
     <t>Estimated dep. 1:25 PM</t>
   </si>
   <si>
@@ -4870,9 +4825,6 @@
     <t>Estimated dep. 5:04 PM</t>
   </si>
   <si>
-    <t>Estimated dep. 5:18 PM</t>
-  </si>
-  <si>
     <t>Estimated dep. 6:23 PM</t>
   </si>
   <si>
@@ -4924,27 +4876,6 @@
     <t>Landed 9:28 AM</t>
   </si>
   <si>
-    <t>Estimated 10:29 AM</t>
-  </si>
-  <si>
-    <t>Estimated 10:51 AM</t>
-  </si>
-  <si>
-    <t>Estimated 11:14 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlMasria Universal Airlines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA20 </t>
-  </si>
-  <si>
-    <t>Estimated 12:03 PM</t>
-  </si>
-  <si>
     <t>CNS176</t>
   </si>
   <si>
@@ -4954,9 +4885,6 @@
     <t xml:space="preserve">PlaneSense </t>
   </si>
   <si>
-    <t xml:space="preserve">PC24 </t>
-  </si>
-  <si>
     <t xml:space="preserve">E75L (N82338) </t>
   </si>
   <si>
@@ -4978,33 +4906,18 @@
     <t xml:space="preserve">CRJ9 (N186PQ) </t>
   </si>
   <si>
-    <t xml:space="preserve">CRJ2 (N469AW) </t>
-  </si>
-  <si>
     <t xml:space="preserve">B712 (N717JL) </t>
   </si>
   <si>
-    <t xml:space="preserve">CRJ7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">E75L (N256SY) </t>
   </si>
   <si>
     <t xml:space="preserve">CRJ9 (N491PX) </t>
   </si>
   <si>
-    <t xml:space="preserve">CRJ2 (N709BR) </t>
-  </si>
-  <si>
     <t xml:space="preserve">CR9 </t>
   </si>
   <si>
-    <t xml:space="preserve">B737 (N281WN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B737 (N7721E) </t>
-  </si>
-  <si>
     <t xml:space="preserve">B712 (N925AT) </t>
   </si>
   <si>
@@ -5014,9 +4927,6 @@
     <t xml:space="preserve">CR7 </t>
   </si>
   <si>
-    <t xml:space="preserve">CRJ9 (N906XJ) </t>
-  </si>
-  <si>
     <t xml:space="preserve">A320 (N482UA) </t>
   </si>
   <si>
@@ -5050,42 +4960,21 @@
     <t>Departed 9:57 AM</t>
   </si>
   <si>
-    <t>DJR213</t>
-  </si>
-  <si>
     <t xml:space="preserve">75V </t>
   </si>
   <si>
-    <t>DL5559</t>
-  </si>
-  <si>
     <t>Minneapolis (QQA)</t>
   </si>
   <si>
     <t xml:space="preserve">(N481JB) </t>
   </si>
   <si>
-    <t>Estimated dep. 1:46 PM</t>
-  </si>
-  <si>
-    <t>Estimated dep. 1:40 PM</t>
-  </si>
-  <si>
     <t>Estimated dep. 2:40 PM</t>
   </si>
   <si>
     <t>Estimated dep. 2:50 PM</t>
   </si>
   <si>
-    <t>Dallas (DAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL60 (N900H) </t>
-  </si>
-  <si>
-    <t>Estimated dep. 3:10 PM</t>
-  </si>
-  <si>
     <t>Estimated dep. 3:45 PM</t>
   </si>
   <si>
@@ -5095,18 +4984,12 @@
     <t>Estimated dep. 9:15 PM</t>
   </si>
   <si>
-    <t>Estimated dep. 6:12 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 6:25 AM</t>
   </si>
   <si>
     <t>Estimated dep. 6:42 AM</t>
   </si>
   <si>
-    <t>Estimated dep. 9:26 AM</t>
-  </si>
-  <si>
     <t>Estimated dep. 11:40 AM</t>
   </si>
   <si>
@@ -5141,6 +5024,306 @@
   </si>
   <si>
     <t>Estimated dep. 7:27 PM</t>
+  </si>
+  <si>
+    <t>Diverted to MEM</t>
+  </si>
+  <si>
+    <t>Landed 12:23 PM</t>
+  </si>
+  <si>
+    <t>Landed 12:19 PM</t>
+  </si>
+  <si>
+    <t>Landed 12:37 PM</t>
+  </si>
+  <si>
+    <t>Landed 12:32 PM</t>
+  </si>
+  <si>
+    <t>Landed 12:58 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC24 (N154AF) </t>
+  </si>
+  <si>
+    <t>Landed 2:29 PM</t>
+  </si>
+  <si>
+    <t>Landed 3:14 PM</t>
+  </si>
+  <si>
+    <t>Landed 3:39 PM</t>
+  </si>
+  <si>
+    <t>Landed 3:53 PM</t>
+  </si>
+  <si>
+    <t>Landed 4:32 PM</t>
+  </si>
+  <si>
+    <t>Landed 5:19 PM</t>
+  </si>
+  <si>
+    <t>Landed 5:35 PM</t>
+  </si>
+  <si>
+    <t>Peru (VYS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR22 (N375RR) </t>
+  </si>
+  <si>
+    <t>Landed 5:49 PM</t>
+  </si>
+  <si>
+    <t>Landed 7:19 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B763 (N356UP) </t>
+  </si>
+  <si>
+    <t>Landed 8:25 PM</t>
+  </si>
+  <si>
+    <t>Landed 8:27 PM</t>
+  </si>
+  <si>
+    <t>Landed 9:51 PM</t>
+  </si>
+  <si>
+    <t>Landed 9:04 PM</t>
+  </si>
+  <si>
+    <t>Landed 9:54 PM</t>
+  </si>
+  <si>
+    <t>Landed 10:10 PM</t>
+  </si>
+  <si>
+    <t>Landed 11:21 PM</t>
+  </si>
+  <si>
+    <t>Landed 2:09 AM</t>
+  </si>
+  <si>
+    <t>BYA651</t>
+  </si>
+  <si>
+    <t>Port Huron (PHN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E120 (N651CT) </t>
+  </si>
+  <si>
+    <t>Landed 5:08 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B763 (N330UP) </t>
+  </si>
+  <si>
+    <t>Landed 6:12 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A306 (N676FE) </t>
+  </si>
+  <si>
+    <t>Landed 6:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C560 (N560WH) </t>
+  </si>
+  <si>
+    <t>Mountain Home (WMH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDJT (N368BL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE58 (N3281K) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B752 (N951FD) </t>
+  </si>
+  <si>
+    <t>Estimated 9:15 AM</t>
+  </si>
+  <si>
+    <t>Estimated 9:30 AM</t>
+  </si>
+  <si>
+    <t>Moline (MLI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C414 (N414TJ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ7 (N753SK) </t>
+  </si>
+  <si>
+    <t>Naples (APF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25B (N238KK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ2 (N875AS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N594NN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE9L (N155GB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B737 (N7815L) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E145 (N661JA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B737 (N285WN) </t>
+  </si>
+  <si>
+    <t>LXJ415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ7 (N718SK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N147PQ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N550NN) </t>
+  </si>
+  <si>
+    <t>1I328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E55P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ7 (N705SK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N336PQ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLF4 (N430QS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N419YX) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B738 (N8646B) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N299JJ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A319 (N747UW) </t>
+  </si>
+  <si>
+    <t>Thursday, Dec 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ2 (N466AW) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B712 (N986AT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N490PX) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ2 (N465SW) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontier (Verde the Resplendent Quetzal Livery) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A20N (N380FR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B737 (N754SW) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E75L (N86311) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E145 (N613AE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B737 (N7843A) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B712 (N940AT) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontier (Sonny the Lemon Shark Livery) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A20N (N382FR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A319 (N820UA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N135EV) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N316PQ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA50 (N70EJ) </t>
+  </si>
+  <si>
+    <t>Estimated dep. 10:16 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJ9 (N596NN) </t>
+  </si>
+  <si>
+    <t>Estimated dep. 5:10 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 5:40 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:09 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 7:44 PM</t>
+  </si>
+  <si>
+    <t>Farmingdale (FRG)</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:13 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 6:40 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 7:11 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 7:19 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 8:23 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 9:20 AM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 2:42 PM</t>
+  </si>
+  <si>
+    <t>Estimated dep. 4:44 PM</t>
   </si>
 </sst>
 </file>
@@ -5525,10 +5708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668ED79-057C-234F-A981-77AB06F4CAD5}">
-  <dimension ref="A1:I582"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
-    <sheetView topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509:A512"/>
+    <sheetView topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13679,7 +13862,7 @@
         <v>1088</v>
       </c>
       <c r="H358" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
@@ -13702,7 +13885,7 @@
         <v>28</v>
       </c>
       <c r="H359" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
@@ -13725,7 +13908,7 @@
         <v>1090</v>
       </c>
       <c r="H360" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
@@ -13748,7 +13931,7 @@
         <v>1092</v>
       </c>
       <c r="H361" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
@@ -13771,7 +13954,7 @@
         <v>1093</v>
       </c>
       <c r="H362" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
@@ -13838,7 +14021,7 @@
         <v>519</v>
       </c>
       <c r="H365" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
@@ -13884,7 +14067,7 @@
         <v>303</v>
       </c>
       <c r="H367" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
@@ -13905,7 +14088,7 @@
         <v>1288</v>
       </c>
       <c r="H368" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
@@ -13951,7 +14134,7 @@
         <v>1295</v>
       </c>
       <c r="H370" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
@@ -13974,7 +14157,7 @@
         <v>1097</v>
       </c>
       <c r="H371" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -14043,7 +14226,7 @@
         <v>752</v>
       </c>
       <c r="H374" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -14066,7 +14249,7 @@
         <v>1226</v>
       </c>
       <c r="H375" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -14112,7 +14295,7 @@
         <v>1103</v>
       </c>
       <c r="H377" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
@@ -14135,7 +14318,7 @@
         <v>1308</v>
       </c>
       <c r="H378" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
@@ -14225,7 +14408,7 @@
         <v>1105</v>
       </c>
       <c r="H382" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -14271,7 +14454,7 @@
         <v>1230</v>
       </c>
       <c r="H384" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
@@ -14363,7 +14546,7 @@
         <v>1111</v>
       </c>
       <c r="H388" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
@@ -14386,7 +14569,7 @@
         <v>1113</v>
       </c>
       <c r="H389" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
@@ -14409,7 +14592,7 @@
         <v>1309</v>
       </c>
       <c r="H390" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
@@ -14455,7 +14638,7 @@
         <v>873</v>
       </c>
       <c r="H392" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
@@ -14473,10 +14656,10 @@
         <v>17</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H393" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
@@ -14499,7 +14682,7 @@
         <v>749</v>
       </c>
       <c r="H394" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
@@ -14522,7 +14705,7 @@
         <v>1317</v>
       </c>
       <c r="H395" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
@@ -14545,7 +14728,7 @@
         <v>1233</v>
       </c>
       <c r="H396" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
@@ -14568,7 +14751,7 @@
         <v>1235</v>
       </c>
       <c r="H397" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
@@ -14591,7 +14774,7 @@
         <v>1236</v>
       </c>
       <c r="H398" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
@@ -14614,7 +14797,7 @@
         <v>1324</v>
       </c>
       <c r="H399" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
@@ -14637,7 +14820,7 @@
         <v>91</v>
       </c>
       <c r="H400" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.2">
@@ -14660,7 +14843,7 @@
         <v>1238</v>
       </c>
       <c r="H401" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.2">
@@ -14683,7 +14866,7 @@
         <v>1338</v>
       </c>
       <c r="H402" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.2">
@@ -14748,7 +14931,7 @@
         <v>425</v>
       </c>
       <c r="H405" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
@@ -14771,7 +14954,7 @@
         <v>783</v>
       </c>
       <c r="H406" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
@@ -14817,7 +15000,7 @@
         <v>1054</v>
       </c>
       <c r="H408" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.2">
@@ -14840,7 +15023,7 @@
         <v>1240</v>
       </c>
       <c r="H409" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.2">
@@ -14886,7 +15069,7 @@
         <v>893</v>
       </c>
       <c r="H411" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.2">
@@ -14932,7 +15115,7 @@
         <v>1063</v>
       </c>
       <c r="H413" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.2">
@@ -14976,7 +15159,7 @@
         <v>1346</v>
       </c>
       <c r="H415" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.2">
@@ -14999,7 +15182,7 @@
         <v>577</v>
       </c>
       <c r="H416" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.2">
@@ -15022,7 +15205,7 @@
         <v>1076</v>
       </c>
       <c r="H417" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.2">
@@ -15068,7 +15251,7 @@
         <v>1348</v>
       </c>
       <c r="H419" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.2">
@@ -15137,7 +15320,7 @@
         <v>114</v>
       </c>
       <c r="H422" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
@@ -15160,7 +15343,7 @@
         <v>1244</v>
       </c>
       <c r="H423" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
@@ -15183,7 +15366,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
@@ -15229,7 +15412,7 @@
         <v>1358</v>
       </c>
       <c r="H426" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.2">
@@ -15252,7 +15435,7 @@
         <v>1357</v>
       </c>
       <c r="H427" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
@@ -15273,7 +15456,7 @@
         <v>834</v>
       </c>
       <c r="H428" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
@@ -15296,7 +15479,7 @@
         <v>1040</v>
       </c>
       <c r="H429" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
@@ -15316,10 +15499,10 @@
         <v>151</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H430" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
@@ -15342,7 +15525,7 @@
         <v>1363</v>
       </c>
       <c r="H431" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
@@ -15365,7 +15548,7 @@
         <v>1247</v>
       </c>
       <c r="H432" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
@@ -15388,7 +15571,7 @@
         <v>1373</v>
       </c>
       <c r="H433" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
@@ -15400,16 +15583,16 @@
       </c>
       <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E434" t="s">
         <v>17</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H434" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I434" s="6"/>
     </row>
@@ -15433,7 +15616,7 @@
         <v>1248</v>
       </c>
       <c r="H435" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
@@ -15456,7 +15639,7 @@
         <v>1026</v>
       </c>
       <c r="H436" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
@@ -15479,7 +15662,7 @@
         <v>783</v>
       </c>
       <c r="H437" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
@@ -15502,7 +15685,7 @@
         <v>117</v>
       </c>
       <c r="H438" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
@@ -15548,7 +15731,7 @@
         <v>80</v>
       </c>
       <c r="H440" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
@@ -15571,7 +15754,7 @@
         <v>1372</v>
       </c>
       <c r="H441" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
@@ -15617,7 +15800,7 @@
         <v>1370</v>
       </c>
       <c r="H443" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
@@ -15663,7 +15846,7 @@
         <v>1369</v>
       </c>
       <c r="H445" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
@@ -15674,7 +15857,7 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>188</v>
@@ -15732,7 +15915,7 @@
         <v>252</v>
       </c>
       <c r="H448" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
@@ -15755,7 +15938,7 @@
         <v>91</v>
       </c>
       <c r="H449" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
@@ -15778,7 +15961,7 @@
         <v>1365</v>
       </c>
       <c r="H450" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
@@ -15824,7 +16007,7 @@
         <v>210</v>
       </c>
       <c r="H452" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
@@ -15836,16 +16019,16 @@
       </c>
       <c r="C453" s="3"/>
       <c r="D453" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E453" t="s">
         <v>17</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="H453" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
@@ -15859,16 +16042,16 @@
         <v>1375</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>1377</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="H454" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.2">
@@ -15891,7 +16074,7 @@
         <v>215</v>
       </c>
       <c r="H455" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.2">
@@ -15914,7 +16097,7 @@
         <v>1244</v>
       </c>
       <c r="H456" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
@@ -15934,10 +16117,10 @@
         <v>31</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H457" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
@@ -15957,10 +16140,10 @@
         <v>36</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H458" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
@@ -16000,13 +16183,13 @@
         <v>229</v>
       </c>
       <c r="E460" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F460" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="F460" s="3" t="s">
-        <v>1386</v>
-      </c>
       <c r="H460" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
@@ -16029,7 +16212,7 @@
         <v>121</v>
       </c>
       <c r="H461" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
@@ -16049,10 +16232,10 @@
         <v>27</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H462" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -16072,7 +16255,7 @@
         <v>110</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H463" t="s">
         <v>981</v>
@@ -16095,10 +16278,10 @@
         <v>22</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H464" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
@@ -16118,10 +16301,10 @@
         <v>60</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H465" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
@@ -16141,10 +16324,10 @@
         <v>31</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H466" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.2">
@@ -16164,7 +16347,7 @@
         <v>67</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H467" t="s">
         <v>988</v>
@@ -16210,7 +16393,7 @@
         <v>22</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H469" t="s">
         <v>598</v>
@@ -16233,7 +16416,7 @@
         <v>31</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H470" t="s">
         <v>990</v>
@@ -16259,7 +16442,7 @@
         <v>91</v>
       </c>
       <c r="H471" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
@@ -16270,19 +16453,19 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="C472" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F472" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="D472" s="3" t="s">
+      <c r="H472" t="s">
         <v>1490</v>
-      </c>
-      <c r="E472" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F472" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H472" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
@@ -16305,7 +16488,7 @@
         <v>1026</v>
       </c>
       <c r="H473" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
@@ -16325,10 +16508,10 @@
         <v>60</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H474" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
@@ -16383,16 +16566,16 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="C477" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F477" s="3" t="s">
         <v>1496</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="F477" s="3" t="s">
-        <v>1499</v>
       </c>
       <c r="H477" t="s">
         <v>112</v>
@@ -16415,10 +16598,10 @@
         <v>13</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H478" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
@@ -16438,10 +16621,10 @@
         <v>22</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H479" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
@@ -16487,7 +16670,7 @@
         <v>124</v>
       </c>
       <c r="H481" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
@@ -16499,16 +16682,16 @@
       </c>
       <c r="C482" s="3"/>
       <c r="D482" s="3" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E482" t="s">
         <v>17</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H482" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.2">
@@ -16528,7 +16711,7 @@
         <v>27</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="H483" t="s">
         <v>1196</v>
@@ -16551,10 +16734,10 @@
         <v>22</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="H484" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.2">
@@ -16565,7 +16748,7 @@
         <v>0.8256944444444444</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>74</v>
@@ -16574,10 +16757,10 @@
         <v>103</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H485" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.2">
@@ -16597,7 +16780,7 @@
         <v>13</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="H486" t="s">
         <v>645</v>
@@ -16620,7 +16803,7 @@
         <v>27</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H487" t="s">
         <v>1010</v>
@@ -16646,7 +16829,7 @@
         <v>117</v>
       </c>
       <c r="H488" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.2">
@@ -16666,7 +16849,7 @@
         <v>13</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="H489" t="s">
         <v>639</v>
@@ -16692,7 +16875,7 @@
         <v>80</v>
       </c>
       <c r="H490" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -16712,7 +16895,7 @@
         <v>27</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H491" t="s">
         <v>1210</v>
@@ -16735,10 +16918,10 @@
         <v>22</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H492" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
@@ -16758,10 +16941,10 @@
         <v>60</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H493" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
@@ -16781,10 +16964,10 @@
         <v>22</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H494" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -16804,7 +16987,7 @@
         <v>67</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H495" t="s">
         <v>183</v>
@@ -16827,10 +17010,10 @@
         <v>31</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="H496" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
@@ -16850,7 +17033,7 @@
         <v>36</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H497" t="s">
         <v>557</v>
@@ -16873,10 +17056,10 @@
         <v>22</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H498" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
@@ -16919,10 +17102,10 @@
         <v>67</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="H500" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.2">
@@ -16933,16 +17116,16 @@
         <v>0.97083333333333333</v>
       </c>
       <c r="C501" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F501" s="3" t="s">
         <v>1525</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F501" s="3" t="s">
-        <v>1528</v>
       </c>
       <c r="H501" t="s">
         <v>197</v>
@@ -16965,15 +17148,33 @@
         <v>67</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="H502" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B503" t="s">
-        <v>1396</v>
+      <c r="A503" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B503" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
@@ -16981,22 +17182,22 @@
         <v>44537</v>
       </c>
       <c r="B504" s="2">
-        <v>9.2361111111111116E-2</v>
+        <v>0.25069444444444444</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="H504" t="s">
-        <v>1620</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.2">
@@ -17004,22 +17205,22 @@
         <v>44537</v>
       </c>
       <c r="B505" s="2">
-        <v>0.25069444444444444</v>
+        <v>0.27499999999999997</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>474</v>
+        <v>150</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>1621</v>
+        <v>1607</v>
       </c>
       <c r="H505" t="s">
-        <v>1622</v>
+        <v>902</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.2">
@@ -17027,22 +17228,22 @@
         <v>44537</v>
       </c>
       <c r="B506" s="2">
-        <v>0.27499999999999997</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>290</v>
+        <v>1608</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1623</v>
+        <v>1609</v>
       </c>
       <c r="H506" t="s">
-        <v>902</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
@@ -17050,42 +17251,45 @@
         <v>44537</v>
       </c>
       <c r="B507" s="2">
-        <v>0.30555555555555552</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>1624</v>
+        <v>1529</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>44</v>
+        <v>1061</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>1625</v>
+        <v>1611</v>
       </c>
       <c r="H507" t="s">
-        <v>1626</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44537</v>
+      </c>
       <c r="B508" s="2">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>1532</v>
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C508" t="s">
+        <v>20</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>1061</v>
+        <v>21</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1627</v>
+        <v>855</v>
       </c>
       <c r="H508" t="s">
-        <v>258</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
@@ -17095,20 +17299,20 @@
       <c r="B509" s="2">
         <v>0.40069444444444446</v>
       </c>
-      <c r="C509" t="s">
-        <v>20</v>
+      <c r="C509" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>855</v>
+        <v>1530</v>
       </c>
       <c r="H509" t="s">
-        <v>1628</v>
+        <v>217</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
@@ -17116,22 +17320,22 @@
         <v>44537</v>
       </c>
       <c r="B510" s="2">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>25</v>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1234</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="H510" t="s">
-        <v>217</v>
+        <v>975</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
@@ -17139,22 +17343,22 @@
         <v>44537</v>
       </c>
       <c r="B511" s="2">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="C511" t="s">
-        <v>20</v>
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>855</v>
+        <v>263</v>
       </c>
       <c r="H511" t="s">
-        <v>1628</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
@@ -17162,810 +17366,944 @@
         <v>44537</v>
       </c>
       <c r="B512" s="2">
-        <v>0.40069444444444446</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E512" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B513" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C513" t="s">
+        <v>43</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E513" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F512" s="3" t="s">
+      <c r="F513" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B514" s="2">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H514" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B515" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H515" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B516" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C516" t="s">
+        <v>51</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H516" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B517" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B518" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C518" t="s">
+        <v>142</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E518" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="H512" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="513" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B513" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D513" s="3" t="s">
+      <c r="F518" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B519" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H519" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B520" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D520" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E513" s="3" t="s">
+      <c r="E520" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F513" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H513" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B514" s="2">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D514" s="3" t="s">
+      <c r="F520" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H520" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B521" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="C521" t="s">
+        <v>404</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="H521" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B522" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="C522" t="s">
+        <v>666</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H522" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B523" s="2">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H523" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B524" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H524" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B525" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B526" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C526" t="s">
+        <v>98</v>
+      </c>
+      <c r="D526" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E514" s="3" t="s">
+      <c r="E526" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F514" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H514" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B515" s="2">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="C515" s="3"/>
-      <c r="D515" s="3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E515" t="s">
-        <v>17</v>
-      </c>
-      <c r="F515" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H515" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B516" s="2">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D516" s="3" t="s">
+      <c r="F526" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H526" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B527" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B528" s="2">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="C528" t="s">
+        <v>113</v>
+      </c>
+      <c r="D528" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E516" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F516" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H516" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B517" s="2">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="C517" t="s">
-        <v>43</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E517" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F517" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H517" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="518" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B518" s="2">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E518" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F518" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H518" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="519" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B519" s="2">
-        <v>0.50138888888888888</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="E519" s="3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F519" t="s">
-        <v>832</v>
-      </c>
-      <c r="H519" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B520" s="2">
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E520" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F520" t="s">
-        <v>1634</v>
-      </c>
-      <c r="H520" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="521" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B521" s="2">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D521" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E521" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F521" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="H521" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B522" s="2">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="C522" t="s">
-        <v>51</v>
-      </c>
-      <c r="D522" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E522" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F522" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H522" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B523" s="2">
-        <v>0.54375000000000007</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E523" s="3" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F523" t="s">
-        <v>1639</v>
-      </c>
-      <c r="H523" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="524" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B524" s="2">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E524" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F524" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H524" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="525" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B525" s="2">
-        <v>0.58124999999999993</v>
-      </c>
-      <c r="C525" t="s">
-        <v>142</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E525" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F525" s="3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H525" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="526" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B526" s="2">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E526" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F526" s="3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H526" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="527" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B527" s="2">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E527" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F527" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H527" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="528" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B528" s="2">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="C528" t="s">
-        <v>404</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E528" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>866</v>
+        <v>1087</v>
       </c>
       <c r="H528" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44537</v>
+      </c>
       <c r="B529" s="2">
-        <v>0.59930555555555554</v>
+        <v>0.69930555555555562</v>
       </c>
       <c r="C529" t="s">
-        <v>666</v>
+        <v>116</v>
       </c>
       <c r="D529" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H529" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B530" s="2">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="C530" s="3"/>
+      <c r="D530" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E530" t="s">
+        <v>17</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H530" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B531" s="2">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H531" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B532" s="2">
+        <v>0.73888888888888893</v>
+      </c>
+      <c r="C532" s="3"/>
+      <c r="D532" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E532" t="s">
+        <v>17</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H532" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B533" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H533" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B534" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H534" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B535" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H535" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B536" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="C536" s="3"/>
+      <c r="D536" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E536" t="s">
+        <v>17</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B537" s="2">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="C537" t="s">
+        <v>157</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H537" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B538" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C539" t="s">
+        <v>162</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H539" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B540" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D540" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E529" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F529" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="H529" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="530" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B530" s="2">
-        <v>0.60625000000000007</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F530" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H530" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="531" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B531" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E531" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F531" s="3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="H531" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="532" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B532" s="2">
-        <v>0.66597222222222219</v>
-      </c>
-      <c r="C532" t="s">
-        <v>98</v>
-      </c>
-      <c r="D532" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E532" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F532" s="3" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H532" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="533" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B533" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D533" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E533" s="3" t="s">
+      <c r="E540" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F533" s="3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H533" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="534" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B534" s="2">
-        <v>0.6958333333333333</v>
-      </c>
-      <c r="C534" t="s">
-        <v>113</v>
-      </c>
-      <c r="D534" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E534" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F534" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H534" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="535" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B535" s="2">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="C535" t="s">
-        <v>116</v>
-      </c>
-      <c r="D535" s="3" t="s">
+      <c r="F540" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H540" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B541" s="2">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="C541" t="s">
+        <v>171</v>
+      </c>
+      <c r="D541" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F535" s="3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H535" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="536" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B536" s="2">
-        <v>0.7270833333333333</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D536" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F536" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H536" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="537" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B537" s="2">
-        <v>0.72777777777777775</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D537" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E537" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F537" s="3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="H537" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="538" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B538" s="2">
-        <v>0.82500000000000007</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D538" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E538" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F538" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H538" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="539" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B539" s="2">
-        <v>0.83819444444444446</v>
-      </c>
-      <c r="C539" t="s">
-        <v>157</v>
-      </c>
-      <c r="D539" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E539" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F539" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="H539" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="540" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B540" s="2">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="C540" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F540" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="H540" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B541" s="2">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="C541" t="s">
-        <v>162</v>
-      </c>
-      <c r="D541" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E541" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>117</v>
+        <v>1544</v>
       </c>
       <c r="H541" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="542" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44537</v>
+      </c>
       <c r="B542" s="2">
-        <v>0.88750000000000007</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1106</v>
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>1551</v>
+        <v>1620</v>
       </c>
       <c r="H542" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="543" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44537</v>
+      </c>
       <c r="B543" s="2">
-        <v>0.90902777777777777</v>
-      </c>
-      <c r="C543" t="s">
-        <v>171</v>
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="H543" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="544" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44537</v>
+      </c>
       <c r="B544" s="2">
-        <v>0.91041666666666676</v>
+        <v>0.9243055555555556</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E544" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B545" s="2">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H545" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B546" s="2">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="C546" t="s">
+        <v>184</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B547" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="C547" t="s">
+        <v>191</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E547" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F544" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H544" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="545" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B545" s="2">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D545" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E545" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F545" s="3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="H545" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="546" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B546" s="2">
-        <v>0.9243055555555556</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D546" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E546" s="3" t="s">
+      <c r="F547" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44537</v>
+      </c>
+      <c r="B548" s="2">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="C548" t="s">
+        <v>195</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E548" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F546" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H546" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B547" s="2">
-        <v>0.93194444444444446</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D547" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E547" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F547" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="H547" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B548" s="2">
-        <v>0.94027777777777777</v>
-      </c>
-      <c r="C548" t="s">
-        <v>184</v>
-      </c>
-      <c r="D548" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E548" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F548" s="3" t="s">
-        <v>1556</v>
+        <v>893</v>
       </c>
       <c r="H548" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44537</v>
+      </c>
       <c r="B549" s="2">
-        <v>0.94861111111111107</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>191</v>
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="C549" t="s">
+        <v>201</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="E549" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1645</v>
+        <v>1365</v>
       </c>
       <c r="H549" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="550" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44538</v>
+      </c>
       <c r="B550" s="2">
-        <v>0.96180555555555547</v>
-      </c>
-      <c r="C550" t="s">
-        <v>195</v>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="H550" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44538</v>
+      </c>
       <c r="B551" s="2">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="C551" t="s">
-        <v>201</v>
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1690</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>59</v>
+        <v>1691</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>67</v>
+        <v>1524</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>1529</v>
+        <v>1692</v>
       </c>
       <c r="H551" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="552" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B552" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44538</v>
+      </c>
+      <c r="B552" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H552" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44538</v>
+      </c>
       <c r="B553" s="2">
-        <v>0.23958333333333334</v>
+        <v>0.27152777777777776</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>290</v>
@@ -17976,148 +18314,140 @@
       <c r="E553" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F553" t="s">
-        <v>1530</v>
+      <c r="F553" s="3" t="s">
+        <v>1696</v>
       </c>
       <c r="H553" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B554" s="2">
         <v>0.3659722222222222</v>
       </c>
-      <c r="C554" s="3" t="s">
-        <v>1532</v>
-      </c>
+      <c r="C554" s="3"/>
       <c r="D554" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E554" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F554" t="s">
-        <v>1533</v>
+        <v>133</v>
+      </c>
+      <c r="E554" t="s">
+        <v>17</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>1698</v>
       </c>
       <c r="H554" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B555" s="2">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="C555" t="s">
-        <v>20</v>
-      </c>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C555" s="3"/>
       <c r="D555" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E555" s="3" t="s">
-        <v>22</v>
+        <v>1699</v>
+      </c>
+      <c r="E555" t="s">
+        <v>17</v>
       </c>
       <c r="F555" s="3" t="s">
-        <v>1317</v>
+        <v>1700</v>
       </c>
       <c r="H555" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B556" s="2">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="C556" s="3"/>
       <c r="D556" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E556" s="3" t="s">
-        <v>27</v>
+        <v>736</v>
+      </c>
+      <c r="E556" t="s">
+        <v>17</v>
       </c>
       <c r="F556" s="3" t="s">
-        <v>1646</v>
+        <v>1701</v>
       </c>
       <c r="H556" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="557" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B557" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C557" t="s">
-        <v>1234</v>
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1529</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>21</v>
+        <v>1061</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1647</v>
+        <v>1702</v>
       </c>
       <c r="H557" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="558" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B558" s="2">
-        <v>0.4604166666666667</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>34</v>
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C558" t="s">
+        <v>20</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F558" s="3" t="s">
-        <v>1648</v>
+        <v>1317</v>
       </c>
       <c r="H558" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="559" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B559" s="2">
-        <v>0.47986111111111113</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F559" t="s">
-        <v>1649</v>
+        <v>27</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>1622</v>
       </c>
       <c r="H559" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="560" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B560" s="2">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="C560" t="s">
-        <v>43</v>
-      </c>
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C560" s="3"/>
       <c r="D560" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E560" s="3" t="s">
-        <v>27</v>
+        <v>1705</v>
+      </c>
+      <c r="E560" t="s">
+        <v>17</v>
       </c>
       <c r="F560" s="3" t="s">
-        <v>1650</v>
+        <v>1706</v>
       </c>
       <c r="H560" t="s">
         <v>258</v>
@@ -18125,19 +18455,19 @@
     </row>
     <row r="561" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B561" s="2">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>47</v>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1234</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1651</v>
+        <v>1235</v>
       </c>
       <c r="H561" t="s">
         <v>258</v>
@@ -18145,19 +18475,19 @@
     </row>
     <row r="562" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B562" s="2">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="C562" t="s">
-        <v>51</v>
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>1652</v>
+        <v>1623</v>
       </c>
       <c r="H562" t="s">
         <v>258</v>
@@ -18165,19 +18495,19 @@
     </row>
     <row r="563" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B563" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1653</v>
+        <v>22</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>1707</v>
       </c>
       <c r="H563" t="s">
         <v>258</v>
@@ -18185,19 +18515,19 @@
     </row>
     <row r="564" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B564" s="2">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="C564" s="3" t="s">
-        <v>662</v>
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C564" t="s">
+        <v>43</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F564" s="3" t="s">
-        <v>1654</v>
+        <v>1624</v>
       </c>
       <c r="H564" t="s">
         <v>258</v>
@@ -18205,19 +18535,19 @@
     </row>
     <row r="565" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B565" s="2">
-        <v>0.59027777777777779</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1098</v>
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>64</v>
+        <v>1625</v>
       </c>
       <c r="H565" t="s">
         <v>258</v>
@@ -18225,19 +18555,17 @@
     </row>
     <row r="566" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B566" s="2">
-        <v>0.59305555555555556</v>
-      </c>
-      <c r="C566" t="s">
-        <v>404</v>
-      </c>
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="C566" s="3"/>
       <c r="D566" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E566" s="3" t="s">
-        <v>67</v>
+        <v>1708</v>
+      </c>
+      <c r="E566" t="s">
+        <v>17</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1365</v>
+        <v>1709</v>
       </c>
       <c r="H566" t="s">
         <v>258</v>
@@ -18245,19 +18573,19 @@
     </row>
     <row r="567" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B567" s="2">
-        <v>0.59930555555555554</v>
+        <v>0.53680555555555554</v>
       </c>
       <c r="C567" t="s">
-        <v>666</v>
+        <v>51</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>855</v>
+        <v>1710</v>
       </c>
       <c r="H567" t="s">
         <v>258</v>
@@ -18265,19 +18593,19 @@
     </row>
     <row r="568" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B568" s="2">
-        <v>0.60625000000000007</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1101</v>
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>1226</v>
+        <v>1711</v>
       </c>
       <c r="H568" t="s">
         <v>258</v>
@@ -18285,19 +18613,17 @@
     </row>
     <row r="569" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B569" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>667</v>
-      </c>
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="C569" s="3"/>
       <c r="D569" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E569" s="3" t="s">
-        <v>60</v>
+        <v>464</v>
+      </c>
+      <c r="E569" t="s">
+        <v>17</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1655</v>
+        <v>1712</v>
       </c>
       <c r="H569" t="s">
         <v>258</v>
@@ -18305,19 +18631,19 @@
     </row>
     <row r="570" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B570" s="2">
-        <v>0.66597222222222219</v>
-      </c>
-      <c r="C570" t="s">
-        <v>98</v>
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>1656</v>
+        <v>1713</v>
       </c>
       <c r="H570" t="s">
         <v>258</v>
@@ -18325,19 +18651,19 @@
     </row>
     <row r="571" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B571" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="C571" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F571" s="3" t="s">
-        <v>1657</v>
+        <v>1340</v>
       </c>
       <c r="H571" t="s">
         <v>258</v>
@@ -18345,19 +18671,19 @@
     </row>
     <row r="572" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B572" s="2">
-        <v>0.69374999999999998</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="C572" t="s">
-        <v>670</v>
+        <v>404</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F572" t="s">
-        <v>1658</v>
+      <c r="F572" s="3" t="s">
+        <v>1365</v>
       </c>
       <c r="H572" t="s">
         <v>258</v>
@@ -18365,19 +18691,19 @@
     </row>
     <row r="573" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B573" s="2">
-        <v>0.6958333333333333</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="C573" t="s">
-        <v>113</v>
+        <v>666</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>68</v>
+        <v>1714</v>
       </c>
       <c r="H573" t="s">
         <v>258</v>
@@ -18385,19 +18711,19 @@
     </row>
     <row r="574" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B574" s="2">
-        <v>0.6972222222222223</v>
+        <v>0.60625000000000007</v>
       </c>
       <c r="C574" t="s">
-        <v>123</v>
+        <v>1101</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E574" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F574" s="3" t="s">
-        <v>1659</v>
+        <v>1226</v>
       </c>
       <c r="H574" t="s">
         <v>258</v>
@@ -18405,19 +18731,19 @@
     </row>
     <row r="575" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B575" s="2">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="C575" t="s">
-        <v>116</v>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E575" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>1245</v>
+        <v>1715</v>
       </c>
       <c r="H575" t="s">
         <v>258</v>
@@ -18425,19 +18751,19 @@
     </row>
     <row r="576" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B576" s="2">
-        <v>0.72777777777777775</v>
-      </c>
-      <c r="C576" s="3" t="s">
-        <v>126</v>
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C576" t="s">
+        <v>98</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E576" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F576" t="s">
-        <v>1653</v>
+        <v>36</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>1627</v>
       </c>
       <c r="H576" t="s">
         <v>258</v>
@@ -18445,19 +18771,19 @@
     </row>
     <row r="577" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B577" s="2">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="C577" t="s">
-        <v>274</v>
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>1716</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="E577" s="3" t="s">
-        <v>67</v>
+        <v>470</v>
       </c>
       <c r="F577" t="s">
-        <v>1658</v>
+        <v>1717</v>
       </c>
       <c r="H577" t="s">
         <v>258</v>
@@ -18465,19 +18791,19 @@
     </row>
     <row r="578" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B578" s="2">
-        <v>0.8041666666666667</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C578" t="s">
-        <v>146</v>
+        <v>1102</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E578" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1075</v>
+        <v>1628</v>
       </c>
       <c r="H578" t="s">
         <v>258</v>
@@ -18485,19 +18811,19 @@
     </row>
     <row r="579" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B579" s="2">
-        <v>0.83819444444444446</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="C579" t="s">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E579" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F579" s="3" t="s">
-        <v>1660</v>
+        <v>1718</v>
       </c>
       <c r="H579" t="s">
         <v>258</v>
@@ -18505,19 +18831,19 @@
     </row>
     <row r="580" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B580" s="2">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="C580" s="3" t="s">
-        <v>160</v>
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="C580" t="s">
+        <v>113</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E580" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F580" s="3" t="s">
-        <v>1651</v>
+        <v>68</v>
       </c>
       <c r="H580" t="s">
         <v>258</v>
@@ -18525,10 +18851,10 @@
     </row>
     <row r="581" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B581" s="2">
-        <v>0.87430555555555556</v>
+        <v>0.6972222222222223</v>
       </c>
       <c r="C581" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="D581" s="3" t="s">
         <v>44</v>
@@ -18537,7 +18863,7 @@
         <v>27</v>
       </c>
       <c r="F581" s="3" t="s">
-        <v>117</v>
+        <v>1719</v>
       </c>
       <c r="H581" t="s">
         <v>258</v>
@@ -18545,21 +18871,1104 @@
     </row>
     <row r="582" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B582" s="2">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="C582" t="s">
+        <v>116</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H582" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="583" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B583" s="2">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H583" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="584" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B584" s="2">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H584" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="585" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B585" s="2">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H585" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="586" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B586" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="C586" t="s">
+        <v>274</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H586" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="587" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B587" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="C587" t="s">
+        <v>146</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H587" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="588" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B588" s="2">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H588" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="589" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B589" s="2">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="C589" s="3"/>
+      <c r="D589" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E589" t="s">
+        <v>17</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H589" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B590" s="2">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="C590" t="s">
+        <v>157</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H590" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B591" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H591" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B592" s="2">
+        <v>0.87430555555555556</v>
+      </c>
+      <c r="C592" t="s">
+        <v>162</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H592" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B593" s="2">
         <v>0.88750000000000007</v>
       </c>
-      <c r="C582" t="s">
+      <c r="C593" t="s">
         <v>1106</v>
       </c>
-      <c r="D582" s="3" t="s">
+      <c r="D593" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E582" s="3" t="s">
+      <c r="E593" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F582" s="3" t="s">
-        <v>1661</v>
-      </c>
-      <c r="H582" t="s">
+      <c r="F593" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H593" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B594" s="2">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="C594" t="s">
+        <v>171</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H594" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="595" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B595" s="2">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H595" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="596" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B596" s="2">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H596" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="597" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B597" s="2">
+        <v>0.92222222222222217</v>
+      </c>
+      <c r="C597" t="s">
+        <v>181</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H597" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="598" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B598" s="2">
+        <v>0.93194444444444446</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H598" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="599" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B599" s="2">
+        <v>0.94027777777777777</v>
+      </c>
+      <c r="C599" t="s">
+        <v>184</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H599" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="600" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B600" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="C600" t="s">
+        <v>191</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H600" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="601" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B601" s="2">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="C601" t="s">
+        <v>195</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H601" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="602" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B602" s="2">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="C602" t="s">
+        <v>201</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="H602" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="603" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B603" s="2">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H603" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="604" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B604" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="605" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B605" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H605" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="606" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B606" s="2">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C606" t="s">
+        <v>20</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H606" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="607" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B607" s="2">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H607" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="608" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B608" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H608" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="609" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B609" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H609" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="610" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B610" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H610" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="611" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B611" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F611">
+        <v>320</v>
+      </c>
+      <c r="H611" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="612" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B612" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C612" t="s">
+        <v>43</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="H612" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="613" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B613" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H613" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="614" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B614" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="C614" t="s">
+        <v>51</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H614" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="615" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B615" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H615" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="616" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B616" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C616" t="s">
+        <v>142</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H616" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="617" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B617" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H617" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="618" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B618" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H618" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="619" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B619" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="C619" t="s">
+        <v>404</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H619" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="620" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B620" s="2">
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F620">
+        <v>320</v>
+      </c>
+      <c r="H620" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="621" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B621" s="2">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="C621" t="s">
+        <v>666</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H621" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="622" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B622" s="2">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H622" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="623" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B623" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H623" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="624" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B624" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C624" t="s">
+        <v>98</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H624" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="625" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B625" s="2">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H625" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="626" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B626" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F626">
+        <v>320</v>
+      </c>
+      <c r="H626" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="627" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B627" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H627" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="628" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B628" s="2">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="C628" t="s">
+        <v>670</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F628" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H628" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="629" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B629" s="2">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="C629" t="s">
+        <v>113</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H629" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="630" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B630" s="2">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="C630" t="s">
+        <v>123</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H630" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="631" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B631" s="2">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="C631" t="s">
+        <v>116</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H631" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="632" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B632" s="2">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="C632" t="s">
+        <v>119</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="H632" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="633" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B633" s="2">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F633">
+        <v>320</v>
+      </c>
+      <c r="H633" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="634" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B634" s="2">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H634" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="635" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B635" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="C635" t="s">
+        <v>274</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H635" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="636" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B636" s="2">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="C636" t="s">
+        <v>146</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H636" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="637" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B637" s="2">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="C637" t="s">
+        <v>157</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H637" t="s">
         <v>258</v>
       </c>
     </row>
@@ -20274,262 +21683,451 @@
     <hyperlink ref="D502" r:id="rId1706" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{12A9B150-DBCD-A04F-848F-4085C8DD0B98}"/>
     <hyperlink ref="E502" r:id="rId1707" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{205A9BC4-B911-DC40-82D2-1BDC99103B8B}"/>
     <hyperlink ref="F502" r:id="rId1708" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{A1731804-2648-9D4C-9860-15BCFE18E7F2}"/>
-    <hyperlink ref="C504" r:id="rId1709" tooltip="3M3901" display="https://www.flightradar24.com/data/flights/3m3901" xr:uid="{1751357B-1CFA-2B48-90F5-A1ACAA21180E}"/>
-    <hyperlink ref="D504" r:id="rId1710" tooltip="Fort Worth Alliance Airport, United States" display="https://www.flightradar24.com/data/airports/afw" xr:uid="{467CEE99-3F92-B14E-BF9E-CB52D92AC58C}"/>
-    <hyperlink ref="E504" r:id="rId1711" tooltip="Amazon Air" display="https://www.flightradar24.com/data/airlines/3m-sil" xr:uid="{ED7A5C7A-A050-6940-BEE5-E14D59C8B5D4}"/>
-    <hyperlink ref="F504" r:id="rId1712" tooltip="N937AZ" display="https://www.flightradar24.com/data/aircraft/n937az" xr:uid="{1CAE6190-FEDB-E64D-8539-922054F38229}"/>
-    <hyperlink ref="C505" r:id="rId1713" tooltip="5X514" display="https://www.flightradar24.com/data/flights/5x514" xr:uid="{8511A98F-4ADC-8B4C-B988-33F38A50D5F9}"/>
-    <hyperlink ref="D505" r:id="rId1714" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{D3989693-39F1-374E-8A85-644BDB9C7AB7}"/>
-    <hyperlink ref="E505" r:id="rId1715" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{62D5DEE4-F7E2-B844-B3E6-BC96E989ACA0}"/>
-    <hyperlink ref="F505" r:id="rId1716" tooltip="N336UP" display="https://www.flightradar24.com/data/aircraft/n336up" xr:uid="{1979C210-F752-5941-9810-D7C81E1A1350}"/>
-    <hyperlink ref="C506" r:id="rId1717" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{3C118D3E-AE9C-5640-838C-2EA0B4CE6F5D}"/>
-    <hyperlink ref="D506" r:id="rId1718" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{211BFCC8-A4D3-9B42-B546-0407F4035584}"/>
-    <hyperlink ref="E506" r:id="rId1719" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{18AE3D55-3CA6-B749-98F8-E665DB5C8D80}"/>
-    <hyperlink ref="F506" r:id="rId1720" tooltip="N674FE" display="https://www.flightradar24.com/data/aircraft/n674fe" xr:uid="{BECE677B-2423-8D4B-B6E4-2795DD1D5AA5}"/>
-    <hyperlink ref="C507" r:id="rId1721" tooltip="DL5558" display="https://www.flightradar24.com/data/flights/dl5558" xr:uid="{72EAB0AC-D482-1843-937E-76DB4CFCB413}"/>
-    <hyperlink ref="D507" r:id="rId1722" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{27EC093E-E5B1-A44C-87F0-3EF686ED03EA}"/>
-    <hyperlink ref="E507" r:id="rId1723" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{55263E12-3D16-584E-9DBF-5ACD7CE37BD0}"/>
-    <hyperlink ref="F507" r:id="rId1724" tooltip="N305PQ" display="https://www.flightradar24.com/data/aircraft/n305pq" xr:uid="{298F32B2-CA5A-4243-A117-14E37A97054D}"/>
-    <hyperlink ref="C508" r:id="rId1725" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{0A6FF6E4-1D0C-B74A-985F-384B9A097EC9}"/>
-    <hyperlink ref="D508" r:id="rId1726" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{D95ED30C-E312-9B4A-A0B4-196F11E4F868}"/>
-    <hyperlink ref="E508" r:id="rId1727" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{AE3B8543-B727-7F4C-BCD0-38184DA32CE4}"/>
-    <hyperlink ref="F508" r:id="rId1728" tooltip="N937FD" display="https://www.flightradar24.com/data/aircraft/n937fd" xr:uid="{95EF9C7E-3C7E-8C47-A663-2FE56B74488C}"/>
-    <hyperlink ref="D509" r:id="rId1729" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{CD038919-8C56-FD49-909D-212D4393C0EA}"/>
-    <hyperlink ref="E509" r:id="rId1730" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B465B4C6-489A-A74A-99D2-B5725CE8B6CF}"/>
-    <hyperlink ref="F509" r:id="rId1731" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{1CB0F148-8C59-F54E-9AFA-F0961C3CCA59}"/>
-    <hyperlink ref="C510" r:id="rId1732" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{CE64EA3E-C25F-1145-9358-D23BCBC65EDB}"/>
-    <hyperlink ref="D510" r:id="rId1733" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{B3E78807-CA9F-0944-9100-10BD1FC5A9F2}"/>
-    <hyperlink ref="E510" r:id="rId1734" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6BF34300-0813-3B4D-8EC9-704CD5349B43}"/>
-    <hyperlink ref="F510" r:id="rId1735" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{5BB9CADA-8B0E-724A-BE97-9B8612B0FAC1}"/>
-    <hyperlink ref="D511" r:id="rId1736" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{24263B1C-2F76-A944-BE7E-389095580555}"/>
-    <hyperlink ref="E511" r:id="rId1737" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1AD7B0D1-4C4C-3440-849A-994D333EEC2C}"/>
-    <hyperlink ref="F511" r:id="rId1738" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{1DE6EAE3-1596-4F41-BFBC-FF56122AB15C}"/>
-    <hyperlink ref="C512" r:id="rId1739" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{65937059-4EA0-6442-9E20-092E56E569C3}"/>
-    <hyperlink ref="D512" r:id="rId1740" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{64D013A5-A199-574D-BE6A-D04258D42FC5}"/>
-    <hyperlink ref="E512" r:id="rId1741" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8F0268A6-4E0C-9A46-B11D-52934E95BBB0}"/>
-    <hyperlink ref="F512" r:id="rId1742" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{972F5C9C-3F0F-9E48-8CFB-3517B10ED19A}"/>
-    <hyperlink ref="D513" r:id="rId1743" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{51E9105C-C21C-5246-B7F1-634C468FAB2D}"/>
-    <hyperlink ref="E513" r:id="rId1744" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C0FB4299-E7FE-1B4E-8C0F-383334BDC3C3}"/>
-    <hyperlink ref="F513" r:id="rId1745" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{232B918A-9758-5E4B-BEC5-BBB709A3DF43}"/>
-    <hyperlink ref="C514" r:id="rId1746" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{8BE99289-E93F-B14A-A730-626A4961BF7E}"/>
-    <hyperlink ref="D514" r:id="rId1747" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{323DEE1E-6B45-7D4A-90C5-9C86B62227A9}"/>
-    <hyperlink ref="E514" r:id="rId1748" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{0A31E575-EC32-9C4C-9DD7-0B7B3FDF7AB3}"/>
-    <hyperlink ref="F514" r:id="rId1749" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{1FEFFAD5-677E-A946-BDFF-D49D375D0370}"/>
-    <hyperlink ref="C515" r:id="rId1750" display="https://www.flightradar24.com/data/flights/" xr:uid="{7B6818C8-7469-C54D-B747-CAA134FE7C73}"/>
-    <hyperlink ref="D515" r:id="rId1751" tooltip="Chicago Gary International, United States" display="https://www.flightradar24.com/data/airports/gyy" xr:uid="{A1C1DD41-4104-F945-861F-900E5A2B5C8C}"/>
-    <hyperlink ref="C516" r:id="rId1752" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{055DEE99-A6B9-BA43-8690-59997FBC16F3}"/>
-    <hyperlink ref="D516" r:id="rId1753" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{5F89E727-75F8-C047-BA0E-304AAD783458}"/>
-    <hyperlink ref="E516" r:id="rId1754" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{A88E1FD6-DC67-EC4E-96D6-FF2D3B8AC874}"/>
-    <hyperlink ref="F516" r:id="rId1755" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{3211E951-9485-194F-9D5D-2D8C06EBCAA9}"/>
-    <hyperlink ref="D517" r:id="rId1756" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{D5850D84-B468-5F40-A6C4-8215AB7939F6}"/>
-    <hyperlink ref="E517" r:id="rId1757" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1B155252-EFF8-854A-9B79-05F5E1BB7E35}"/>
-    <hyperlink ref="F517" r:id="rId1758" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{38201778-9B72-074E-9A9C-7D1DED51D4FC}"/>
-    <hyperlink ref="C518" r:id="rId1759" tooltip="UJ811" display="https://www.flightradar24.com/data/flights/uj811" xr:uid="{FD42E7F3-376D-4D42-860C-02B0A2AD5DB3}"/>
-    <hyperlink ref="D518" r:id="rId1760" tooltip="Detroit Willow Run Airport, United States" display="https://www.flightradar24.com/data/airports/yip" xr:uid="{FB0ECBD0-2E13-364E-B650-80DEDAB3E6D7}"/>
-    <hyperlink ref="E518" r:id="rId1761" tooltip="AlMasria Universal Airlines" display="https://www.flightradar24.com/data/airlines/uj-lmu" xr:uid="{5AC7162C-0C00-774E-91AF-EB589C0CD94C}"/>
-    <hyperlink ref="C519" r:id="rId1762" tooltip="JL43" display="https://www.flightradar24.com/data/flights/jl43" xr:uid="{52DF35BD-7314-A642-9905-717F78E87124}"/>
-    <hyperlink ref="D519" r:id="rId1763" tooltip="Scottsdale Airport, United States" display="https://www.flightradar24.com/data/airports/scf" xr:uid="{40F48DCD-DEB1-F948-8DBF-CFAE9995ACD3}"/>
-    <hyperlink ref="E519" r:id="rId1764" tooltip="Jet Linx Aviation" display="https://www.flightradar24.com/data/airlines/jl-jtl" xr:uid="{17994101-7388-9442-B5BD-746D904D7EAE}"/>
-    <hyperlink ref="C520" r:id="rId1765" tooltip="JUS811" display="https://www.flightradar24.com/data/flights/jus811" xr:uid="{3A9A57C6-A4BF-694F-9B9C-EA7C5E2E7882}"/>
-    <hyperlink ref="D520" r:id="rId1766" tooltip="Detroit Willow Run Airport, United States" display="https://www.flightradar24.com/data/airports/yip" xr:uid="{904631CE-F6E3-574C-8701-B44727893A65}"/>
-    <hyperlink ref="E520" r:id="rId1767" tooltip="USA Jet Airlines" display="https://www.flightradar24.com/data/airlines/-jus" xr:uid="{25568FE9-02E4-AC49-9F32-9B2558C668FD}"/>
-    <hyperlink ref="C521" r:id="rId1768" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{21A9D6B6-3DFA-AE4B-85C6-B960203710DB}"/>
-    <hyperlink ref="D521" r:id="rId1769" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{6EEB1655-37EC-E944-96F9-940E91885201}"/>
-    <hyperlink ref="E521" r:id="rId1770" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{3A89DA9F-FE89-D149-98B9-63808529ADA2}"/>
-    <hyperlink ref="F521" r:id="rId1771" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{EC65D619-EF01-E44B-9E10-080598713A03}"/>
-    <hyperlink ref="D522" r:id="rId1772" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{DE982125-7B17-8F47-903A-D6B63DC8F3E8}"/>
-    <hyperlink ref="E522" r:id="rId1773" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{55B43117-7618-2342-8E2A-ED44B12A61D0}"/>
-    <hyperlink ref="F522" r:id="rId1774" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{2D3EEC60-8DA1-A843-8217-83160CEF40C2}"/>
-    <hyperlink ref="C523" r:id="rId1775" tooltip="CNS176" display="https://www.flightradar24.com/data/flights/cns176" xr:uid="{79E0C91B-D66D-CF43-B1E3-A75517E6F154}"/>
-    <hyperlink ref="D523" r:id="rId1776" tooltip="Philadelphia Northeast Airport, United States" display="https://www.flightradar24.com/data/airports/pne" xr:uid="{0C628142-C2C8-5E47-A586-DE351F9167D5}"/>
-    <hyperlink ref="E523" r:id="rId1777" tooltip="PlaneSense" display="https://www.flightradar24.com/data/airlines/-cns" xr:uid="{80616FD9-9655-1B41-B9AD-765204F134FC}"/>
-    <hyperlink ref="C524" r:id="rId1778" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{855C860A-4194-254E-822E-8D3F37B8DB53}"/>
-    <hyperlink ref="D524" r:id="rId1779" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{C087D186-7F1C-BB4F-947D-074A502C8EA4}"/>
-    <hyperlink ref="E524" r:id="rId1780" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E39B9159-10B9-884D-B2B4-1EB848F49F2F}"/>
-    <hyperlink ref="F524" r:id="rId1781" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{2CB62131-151B-C447-BC7B-87F9C1B6ADC1}"/>
-    <hyperlink ref="D525" r:id="rId1782" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{361028A9-0AE0-8F47-BCA3-75C8ACF2EE60}"/>
-    <hyperlink ref="E525" r:id="rId1783" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{BFF61326-1BE8-7B4B-853C-2C60FF40ED88}"/>
-    <hyperlink ref="F525" r:id="rId1784" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{B84EB96E-945A-2F41-B1CF-FAE7DF47CCD0}"/>
-    <hyperlink ref="C526" r:id="rId1785" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{3EF833F9-A6B0-5A47-85AC-E9AD5A650A13}"/>
-    <hyperlink ref="D526" r:id="rId1786" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{214C6B0D-6654-7B4D-8D53-A1F1E66DB132}"/>
-    <hyperlink ref="E526" r:id="rId1787" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{2011A7CF-5AAD-4F4A-B1B8-92C5A741D56B}"/>
-    <hyperlink ref="F526" r:id="rId1788" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{B34818B7-F3E2-9148-9A0D-7BE577DAD23D}"/>
-    <hyperlink ref="D527" r:id="rId1789" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{417D386E-84AE-C540-8D4E-31693C8824ED}"/>
-    <hyperlink ref="E527" r:id="rId1790" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{84690AB1-9EFA-7A45-8B17-FB5D5B56F4B1}"/>
-    <hyperlink ref="F527" r:id="rId1791" tooltip="N82338" display="https://www.flightradar24.com/data/aircraft/n82338" xr:uid="{1DCD2041-D050-DC4F-8492-D6913E742177}"/>
-    <hyperlink ref="D528" r:id="rId1792" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{E4BBBE09-B909-6042-BC64-BFED204FA5D8}"/>
-    <hyperlink ref="E528" r:id="rId1793" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D9208BD7-3483-3942-BB33-AA8FECFEF21F}"/>
-    <hyperlink ref="F528" r:id="rId1794" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{339F0202-B0A0-3245-B02D-CF51BF68BC90}"/>
-    <hyperlink ref="D529" r:id="rId1795" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{3F0BCE05-4A7C-884C-80A9-665D8F2097D4}"/>
-    <hyperlink ref="E529" r:id="rId1796" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{420F9930-1D48-BE42-9DCF-D92EFAD45709}"/>
-    <hyperlink ref="F529" r:id="rId1797" tooltip="N677AE" display="https://www.flightradar24.com/data/aircraft/n677ae" xr:uid="{85E2C1FE-E567-F74D-9832-A981625BCEF0}"/>
-    <hyperlink ref="D530" r:id="rId1798" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{65B441BE-73FE-2447-A710-579172AA0C0F}"/>
-    <hyperlink ref="E530" r:id="rId1799" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{04437415-C72D-BB42-9A9D-F1B699688CEC}"/>
-    <hyperlink ref="F530" r:id="rId1800" tooltip="N86309" display="https://www.flightradar24.com/data/aircraft/n86309" xr:uid="{3B140539-CA8D-104D-AD1C-61BD36C0AF5F}"/>
-    <hyperlink ref="C531" r:id="rId1801" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{3AEAEC91-7950-FC43-AB39-FEF1AD2FE704}"/>
-    <hyperlink ref="D531" r:id="rId1802" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{BD8DCF17-C4CD-C444-BA39-568EEADB4E73}"/>
-    <hyperlink ref="E531" r:id="rId1803" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{7F1A7730-94FF-5D42-A36C-E19B45510B1F}"/>
-    <hyperlink ref="F531" r:id="rId1804" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{014DC63C-348F-9249-8DE4-A38614DC1C6A}"/>
-    <hyperlink ref="D532" r:id="rId1805" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{D1CD2A20-0D74-054C-9EB9-D39A2F8566F4}"/>
-    <hyperlink ref="E532" r:id="rId1806" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{FC360E0B-558E-BC46-A961-54D41F9ACC63}"/>
-    <hyperlink ref="F532" r:id="rId1807" tooltip="N965AT" display="https://www.flightradar24.com/data/aircraft/n965at" xr:uid="{2F471F25-32D9-DC4A-AABF-45ECC8ED756F}"/>
-    <hyperlink ref="D533" r:id="rId1808" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{BDE8D8CD-77F4-8844-9173-2509B9C7BAC8}"/>
-    <hyperlink ref="E533" r:id="rId1809" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{5E88523E-37E4-AE43-8D0D-71A45C3C1C09}"/>
-    <hyperlink ref="F533" r:id="rId1810" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{CF5C8ED2-72F3-7849-9C2B-1AED471D4B05}"/>
-    <hyperlink ref="D534" r:id="rId1811" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{35180F43-9C87-C447-A136-8F4CC727907B}"/>
-    <hyperlink ref="E534" r:id="rId1812" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1328AB9D-B49C-9F44-B845-F2072DE95B01}"/>
-    <hyperlink ref="F534" r:id="rId1813" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{77187984-50E8-BE46-8FF9-FC7C002F4F7D}"/>
-    <hyperlink ref="D535" r:id="rId1814" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{196D7789-DD19-7E43-A5F3-6CEC9E6F6A25}"/>
-    <hyperlink ref="E535" r:id="rId1815" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E8F4CBAF-381A-8249-89F3-027BBC979850}"/>
-    <hyperlink ref="F535" r:id="rId1816" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{3EA336D6-DBBF-F546-8331-EBE1214A8C74}"/>
-    <hyperlink ref="C536" r:id="rId1817" tooltip="FX718" display="https://www.flightradar24.com/data/flights/fx718" xr:uid="{C24A6228-F26F-B94F-9787-32D5D23B19CD}"/>
-    <hyperlink ref="D536" r:id="rId1818" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{E4DAE6DD-5221-5B4C-AE73-D4B754244A00}"/>
-    <hyperlink ref="E536" r:id="rId1819" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{28127526-8478-134C-B6D5-AEC418E02A6C}"/>
-    <hyperlink ref="C537" r:id="rId1820" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{B5EAA286-8C18-8A4A-877D-EF36DE0DBAAA}"/>
-    <hyperlink ref="D537" r:id="rId1821" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{9187875B-72BA-9542-BE15-EF419E1B6805}"/>
-    <hyperlink ref="E537" r:id="rId1822" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{8067C1FD-4022-DA44-9BFB-267A513A4926}"/>
-    <hyperlink ref="F537" r:id="rId1823" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{693DB717-7FBC-BD43-9D42-34533DB84E62}"/>
-    <hyperlink ref="C538" r:id="rId1824" tooltip="5X9654" display="https://www.flightradar24.com/data/flights/5x9654" xr:uid="{3F52C0E9-58B4-9646-BDD0-D12A2D011B4C}"/>
-    <hyperlink ref="D538" r:id="rId1825" tooltip="Louisville International Airport, United States" display="https://www.flightradar24.com/data/airports/sdf" xr:uid="{D4F64FD1-812C-7E41-88E8-7FDFEE9FB356}"/>
-    <hyperlink ref="E538" r:id="rId1826" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{6EE37E7F-38F6-394F-96E6-6FCBFCC4A317}"/>
-    <hyperlink ref="D539" r:id="rId1827" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{F34D8CD6-9AD5-D142-B75A-BF9608F685A9}"/>
-    <hyperlink ref="E539" r:id="rId1828" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C08E2CE8-7B4F-D04E-A3D2-0E935B2417EA}"/>
-    <hyperlink ref="F539" r:id="rId1829" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{24E24035-5839-CA40-B262-D40F7D230451}"/>
-    <hyperlink ref="C540" r:id="rId1830" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{4E5596D0-EFA1-414E-831A-F29AC41972C5}"/>
-    <hyperlink ref="D540" r:id="rId1831" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{C5397DD2-4E14-0349-BD03-A52CBE4E30D7}"/>
-    <hyperlink ref="E540" r:id="rId1832" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C945B140-7E66-2641-B6AC-1277813C6DC5}"/>
-    <hyperlink ref="F540" r:id="rId1833" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{ACFA590B-A0CE-F949-9EAA-EE3C7090D605}"/>
-    <hyperlink ref="D541" r:id="rId1834" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{E12E03E9-71B7-CD49-B27F-0B56D4351ADC}"/>
-    <hyperlink ref="E541" r:id="rId1835" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E7086197-276D-2049-B72F-22AF2B463C25}"/>
-    <hyperlink ref="F541" r:id="rId1836" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{3746805A-D8B1-C549-8FDD-01257DF0FEC1}"/>
-    <hyperlink ref="D542" r:id="rId1837" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{38796B8E-B466-644C-88A2-4F9F636FEBB9}"/>
-    <hyperlink ref="E542" r:id="rId1838" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{FC2346E5-0C1A-8C4E-8D66-611E3A1067AC}"/>
-    <hyperlink ref="F542" r:id="rId1839" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{FC4E3B6A-9CA8-0A4F-B356-73178BF704C5}"/>
-    <hyperlink ref="D543" r:id="rId1840" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{FF304F0D-1F29-904F-8E8C-7FCD4F8B98A9}"/>
-    <hyperlink ref="E543" r:id="rId1841" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{88F8D847-4F09-6A4B-9CF9-891CED5B4655}"/>
-    <hyperlink ref="F543" r:id="rId1842" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{0D2D6EDE-BC27-754E-A612-5CCD195B62B6}"/>
-    <hyperlink ref="C544" r:id="rId1843" tooltip="AA4770" display="https://www.flightradar24.com/data/flights/aa4770" xr:uid="{2D786498-C188-824F-9565-AD6CD92923B0}"/>
-    <hyperlink ref="D544" r:id="rId1844" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{7B873F14-F574-8346-9D3B-5E08D4FCCCE1}"/>
-    <hyperlink ref="E544" r:id="rId1845" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BEFF99A6-3F9A-8945-AB95-D141CDBA3B47}"/>
-    <hyperlink ref="F544" r:id="rId1846" tooltip="N416YX" display="https://www.flightradar24.com/data/aircraft/n416yx" xr:uid="{97C41F25-B9E4-FA48-9A73-6FD4BCCA06AC}"/>
-    <hyperlink ref="C545" r:id="rId1847" tooltip="WN3250" display="https://www.flightradar24.com/data/flights/wn3250" xr:uid="{A860BE7D-E96E-F84E-BDCD-87AA27061E23}"/>
-    <hyperlink ref="D545" r:id="rId1848" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{9206803B-FAAA-F44C-B001-D6C9468BDCF4}"/>
-    <hyperlink ref="E545" r:id="rId1849" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{33021274-F4E1-FD4E-9E68-7AB6E1C5A88C}"/>
-    <hyperlink ref="F545" r:id="rId1850" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{2FF84401-30C6-3E4A-876D-CE88D4AFF78A}"/>
-    <hyperlink ref="C546" r:id="rId1851" tooltip="AA825" display="https://www.flightradar24.com/data/flights/aa825" xr:uid="{AE765369-3B63-364D-B306-BE48A1228E0D}"/>
-    <hyperlink ref="D546" r:id="rId1852" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{B4AF5DF2-B536-014C-88DF-4576082EF201}"/>
-    <hyperlink ref="E546" r:id="rId1853" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{554A381A-00ED-3042-9FA7-EFE556BC87B6}"/>
-    <hyperlink ref="F546" r:id="rId1854" tooltip="N836AW" display="https://www.flightradar24.com/data/aircraft/n836aw" xr:uid="{054AE903-51B8-5A42-9D80-C84F185F64CF}"/>
-    <hyperlink ref="D547" r:id="rId1855" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{11C559E0-795A-E342-992D-D1F8936346F1}"/>
-    <hyperlink ref="E547" r:id="rId1856" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{47F13320-B94B-DA42-8E29-B1E9746FEDD9}"/>
-    <hyperlink ref="F547" r:id="rId1857" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{A6F8B3FF-CE34-324D-8EF0-F80DD6F43D21}"/>
-    <hyperlink ref="D548" r:id="rId1858" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{06B320E2-CD86-D747-8C58-078BBFD99C33}"/>
-    <hyperlink ref="E548" r:id="rId1859" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{248191D8-DD83-B341-8758-855B8D80461F}"/>
-    <hyperlink ref="F548" r:id="rId1860" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{FF3E4E2C-1271-A347-9EBD-723D9B12D235}"/>
-    <hyperlink ref="C549" r:id="rId1861" tooltip="AA3558" display="https://www.flightradar24.com/data/flights/aa3558" xr:uid="{C5800808-6101-954B-8039-833E10519396}"/>
-    <hyperlink ref="D549" r:id="rId1862" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{BA653373-2F15-EC46-9497-DBEB5CB95801}"/>
-    <hyperlink ref="E549" r:id="rId1863" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9B76E02A-F417-6746-AEEB-12878A7137ED}"/>
-    <hyperlink ref="F549" r:id="rId1864" tooltip="N274NN" display="https://www.flightradar24.com/data/aircraft/n274nn" xr:uid="{93490BF9-E45F-6249-B881-7BE7E21BEE64}"/>
-    <hyperlink ref="D550" r:id="rId1865" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{979DE76B-993C-E343-B18B-3D45E6763BB2}"/>
-    <hyperlink ref="E550" r:id="rId1866" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3D618FCF-2A70-D646-913F-C4414B8F4786}"/>
-    <hyperlink ref="F550" r:id="rId1867" tooltip="N711UW" display="https://www.flightradar24.com/data/aircraft/n711uw" xr:uid="{5CCA2CE7-C8F0-E348-9F99-609679A52640}"/>
-    <hyperlink ref="D551" r:id="rId1868" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{8D7D41DA-C344-664A-9976-DC2B4B8EFA89}"/>
-    <hyperlink ref="E551" r:id="rId1869" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{019EB0DB-FD33-4C44-967D-E4268FCCDF41}"/>
-    <hyperlink ref="F551" r:id="rId1870" tooltip="N110UW" display="https://www.flightradar24.com/data/aircraft/n110uw" xr:uid="{8D2CAF10-5E1C-A54C-9FE6-BEE6517972DB}"/>
-    <hyperlink ref="C553" r:id="rId1871" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{B08ECB06-AFD9-994B-9C89-DDD6DBDA5563}"/>
-    <hyperlink ref="D553" r:id="rId1872" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{05790219-8D87-234C-9281-2B73C5F97D94}"/>
-    <hyperlink ref="E553" r:id="rId1873" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{37344D21-4AEA-C442-81D7-150591F9B7EA}"/>
-    <hyperlink ref="C554" r:id="rId1874" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{CF35E16A-E8FA-8F45-95DC-5B4E66910820}"/>
-    <hyperlink ref="D554" r:id="rId1875" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{AA06D374-A3B1-D242-9FBD-DDB1DA1E91CC}"/>
-    <hyperlink ref="E554" r:id="rId1876" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{D7211A5C-F255-1942-A59C-2BF2B2AE8E96}"/>
-    <hyperlink ref="D555" r:id="rId1877" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{68BB8A7B-A881-DB44-8B96-9AAFA6862CE5}"/>
-    <hyperlink ref="E555" r:id="rId1878" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D5C4587A-7E7C-E840-8D2F-ED19C20491A0}"/>
-    <hyperlink ref="F555" r:id="rId1879" tooltip="N685AE" display="https://www.flightradar24.com/data/aircraft/n685ae" xr:uid="{F6BDC087-D115-474E-96B5-BF8752C3EF81}"/>
-    <hyperlink ref="C556" r:id="rId1880" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{C0E56F0E-F3A2-0440-A94F-D27A02C2B1B4}"/>
-    <hyperlink ref="D556" r:id="rId1881" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{B72DC859-746B-8244-84F3-76C8A9F680CF}"/>
-    <hyperlink ref="E556" r:id="rId1882" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{CF40C429-EBEA-1148-B5F6-9C3A6B0D8094}"/>
-    <hyperlink ref="F556" r:id="rId1883" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{79AF8EEB-60A7-0240-ADC4-BF2A2F573F99}"/>
-    <hyperlink ref="D557" r:id="rId1884" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{34D22AC5-524C-3F4B-BAEE-8B56B5B1664C}"/>
-    <hyperlink ref="E557" r:id="rId1885" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{CA04E348-DBC2-D14A-B4D7-D817C157BEC0}"/>
-    <hyperlink ref="F557" r:id="rId1886" tooltip="N469AW" display="https://www.flightradar24.com/data/aircraft/n469aw" xr:uid="{E1794B9D-7F2B-0142-9467-44FDA8B3AAD9}"/>
-    <hyperlink ref="C558" r:id="rId1887" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{2483D332-B803-D048-BFD3-A0DCF3F1E3AD}"/>
-    <hyperlink ref="D558" r:id="rId1888" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E2F556A6-AC2D-4C4E-8FF1-483A3B23D977}"/>
-    <hyperlink ref="E558" r:id="rId1889" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7DE3B099-9EFE-3F40-8BF3-951C861267B6}"/>
-    <hyperlink ref="F558" r:id="rId1890" tooltip="N717JL" display="https://www.flightradar24.com/data/aircraft/n717jl" xr:uid="{0034D95D-FEBC-214C-B5BD-33C10AE07364}"/>
-    <hyperlink ref="C559" r:id="rId1891" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{C17B35EB-14A2-B84F-B315-58A4B7B4BF15}"/>
-    <hyperlink ref="D559" r:id="rId1892" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{84649310-A2D9-BC45-9937-478A8AC2FBCD}"/>
-    <hyperlink ref="E559" r:id="rId1893" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{12871A29-36DB-6547-93C7-BBB0F4CE89B2}"/>
-    <hyperlink ref="D560" r:id="rId1894" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{E6B05222-F722-E247-9065-7DAE8146164D}"/>
-    <hyperlink ref="E560" r:id="rId1895" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7B673B94-08A0-FF42-9533-F42F3CED123C}"/>
-    <hyperlink ref="F560" r:id="rId1896" tooltip="N256SY" display="https://www.flightradar24.com/data/aircraft/n256sy" xr:uid="{86F0117D-9FD4-CD4A-8765-2005C02C11C8}"/>
-    <hyperlink ref="C561" r:id="rId1897" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{170EA538-92FC-1345-8BEF-4CB324D8EFEE}"/>
-    <hyperlink ref="D561" r:id="rId1898" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{D9914048-08B4-124C-8885-EC9C5AE71414}"/>
-    <hyperlink ref="E561" r:id="rId1899" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C5F5BDA1-606F-6044-AFFB-7B23CB921BA5}"/>
-    <hyperlink ref="F561" r:id="rId1900" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{0B0391E4-71B8-7640-9A00-402F7CF92AF4}"/>
-    <hyperlink ref="D562" r:id="rId1901" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{9523B34B-79A2-F54E-81B6-5A5FC9FA5D14}"/>
-    <hyperlink ref="E562" r:id="rId1902" tooltip="SkyWest Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{99DB98D2-BDB4-4C4F-806F-F833C7A4653A}"/>
-    <hyperlink ref="F562" r:id="rId1903" tooltip="N709BR" display="https://www.flightradar24.com/data/aircraft/n709br" xr:uid="{8C5C79F2-9E63-CD4C-868D-D0707F0AEE5F}"/>
-    <hyperlink ref="C563" r:id="rId1904" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{2F5154AC-C428-B94B-8022-31870DF480E7}"/>
-    <hyperlink ref="D563" r:id="rId1905" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{A57208C9-2CA0-DC45-8716-6B7E030C4F0A}"/>
-    <hyperlink ref="E563" r:id="rId1906" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C1D2C2EC-32AE-364F-9347-E85DC15C1B87}"/>
-    <hyperlink ref="C564" r:id="rId1907" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{2D3B1077-EBD5-4343-96D4-A635412A0803}"/>
-    <hyperlink ref="D564" r:id="rId1908" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{7037631F-5CE2-7A4D-8F49-04E86A07629B}"/>
-    <hyperlink ref="E564" r:id="rId1909" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{BCC98CF9-388A-7D44-A84B-0C61D679B283}"/>
-    <hyperlink ref="F564" r:id="rId1910" tooltip="N281WN" display="https://www.flightradar24.com/data/aircraft/n281wn" xr:uid="{319BCECC-7734-A14E-852B-88757909D48B}"/>
-    <hyperlink ref="D565" r:id="rId1911" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{1914C85C-59ED-4142-8AAB-387BD9CB2B1D}"/>
-    <hyperlink ref="E565" r:id="rId1912" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{14C4041F-4A3D-DA4D-B513-C335F275626F}"/>
-    <hyperlink ref="F565" r:id="rId1913" tooltip="N89317" display="https://www.flightradar24.com/data/aircraft/n89317" xr:uid="{4C5EB65C-C2BA-EB45-AFD9-9F5C70C9F1FB}"/>
-    <hyperlink ref="D566" r:id="rId1914" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{523D03E3-0916-E042-ACF9-9A88B6166320}"/>
-    <hyperlink ref="E566" r:id="rId1915" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{8A76BD05-C12D-864D-91D0-A0DF4B12824A}"/>
-    <hyperlink ref="F566" r:id="rId1916" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{825DBE41-E2A6-6E44-9EF2-23D508783C23}"/>
-    <hyperlink ref="D567" r:id="rId1917" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{598EB242-8E12-3B49-A6FD-DCC79D3DFE24}"/>
-    <hyperlink ref="E567" r:id="rId1918" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{716662D8-83BF-2A43-AEA8-50328A6D7E73}"/>
-    <hyperlink ref="F567" r:id="rId1919" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{31445F27-72EE-5347-AA37-021B369AD385}"/>
-    <hyperlink ref="D568" r:id="rId1920" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{CA9C531F-E23F-A440-A2A3-11D0DB42BA30}"/>
-    <hyperlink ref="E568" r:id="rId1921" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{59E534BF-DB71-DC4D-B479-C7D62E54172E}"/>
-    <hyperlink ref="F568" r:id="rId1922" tooltip="N88332" display="https://www.flightradar24.com/data/aircraft/n88332" xr:uid="{3EBA3A65-9DF9-4247-879A-7EAB623873B4}"/>
-    <hyperlink ref="C569" r:id="rId1923" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{122FEE8D-9701-4841-847C-C16D57CB3C32}"/>
-    <hyperlink ref="D569" r:id="rId1924" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{0952DBF0-49D6-F14A-A263-E99B01B522DB}"/>
-    <hyperlink ref="E569" r:id="rId1925" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{0A2F8E43-54CA-544F-8269-A4A49C56AA43}"/>
-    <hyperlink ref="F569" r:id="rId1926" tooltip="N7721E" display="https://www.flightradar24.com/data/aircraft/n7721e" xr:uid="{DF012DA3-6BB0-FD4F-BC12-BB6EA368D4B7}"/>
-    <hyperlink ref="D570" r:id="rId1927" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{D1031E63-58BD-4F48-8913-335F1FFEFDE1}"/>
-    <hyperlink ref="E570" r:id="rId1928" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1054D492-0D19-434A-A0F1-7E3023501614}"/>
-    <hyperlink ref="F570" r:id="rId1929" tooltip="N925AT" display="https://www.flightradar24.com/data/aircraft/n925at" xr:uid="{0D5AEB32-E081-DE41-9768-B19813A58DDC}"/>
-    <hyperlink ref="D571" r:id="rId1930" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{DE09CC5B-93BB-7A42-9D1A-215E73F05016}"/>
-    <hyperlink ref="E571" r:id="rId1931" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{1C19627E-65A3-3F41-842B-6BA0EE079B25}"/>
-    <hyperlink ref="F571" r:id="rId1932" tooltip="N851UA" display="https://www.flightradar24.com/data/aircraft/n851ua" xr:uid="{DCC4F9B7-48C9-A440-BF81-68046EE9B6EF}"/>
-    <hyperlink ref="D572" r:id="rId1933" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{8B5CBAC6-BC47-0D4E-801A-41BE139415F9}"/>
-    <hyperlink ref="E572" r:id="rId1934" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2E2239F7-F7D1-764F-B075-C9906A2D9F80}"/>
-    <hyperlink ref="D573" r:id="rId1935" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{DCF275AF-6F19-1245-871D-E49F22B72FFA}"/>
-    <hyperlink ref="E573" r:id="rId1936" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E514B1AC-CA21-7A4E-80DE-48C077949349}"/>
-    <hyperlink ref="F573" r:id="rId1937" tooltip="N816AW" display="https://www.flightradar24.com/data/aircraft/n816aw" xr:uid="{29E04F53-A473-C448-BD77-1FC61F8B965A}"/>
-    <hyperlink ref="D574" r:id="rId1938" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{34CFC8C5-2D62-5B44-B9E8-3094442568D7}"/>
-    <hyperlink ref="E574" r:id="rId1939" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A331681F-3E60-B848-8043-123F135AFCD4}"/>
-    <hyperlink ref="F574" r:id="rId1940" tooltip="N906XJ" display="https://www.flightradar24.com/data/aircraft/n906xj" xr:uid="{9F921C0F-4E20-5A4A-980F-46C8B6C42374}"/>
-    <hyperlink ref="D575" r:id="rId1941" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{D73EA832-F721-6940-9DC9-5574ABDF7BFA}"/>
-    <hyperlink ref="E575" r:id="rId1942" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{0EB599E1-714D-5042-A4A8-9B7D5FF28D23}"/>
-    <hyperlink ref="F575" r:id="rId1943" tooltip="N324PQ" display="https://www.flightradar24.com/data/aircraft/n324pq" xr:uid="{CAA698B3-7049-274D-8EFD-03E74F6B8EA5}"/>
-    <hyperlink ref="C576" r:id="rId1944" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{06DB6FDD-AE57-9648-BAB4-ADC9BA9E6B13}"/>
-    <hyperlink ref="D576" r:id="rId1945" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{024B11DC-ABE2-CC4E-9849-A981845B72BC}"/>
-    <hyperlink ref="E576" r:id="rId1946" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DC6FE02E-DA8D-564E-9774-8F49125A1AB5}"/>
-    <hyperlink ref="D577" r:id="rId1947" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{15600228-8043-DE4C-804D-2CCA15D3C48F}"/>
-    <hyperlink ref="E577" r:id="rId1948" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{EDF9A1CA-DA42-0046-9278-D9759F8F8497}"/>
-    <hyperlink ref="D578" r:id="rId1949" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E568344D-6806-274E-983B-300D99693999}"/>
-    <hyperlink ref="E578" r:id="rId1950" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{965BD03A-464C-604C-A82E-58F84DC67D00}"/>
-    <hyperlink ref="F578" r:id="rId1951" tooltip="N330PQ" display="https://www.flightradar24.com/data/aircraft/n330pq" xr:uid="{B32CA5F4-046A-4C43-A33D-77AF90BA7D40}"/>
-    <hyperlink ref="D579" r:id="rId1952" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{C7BC0BC3-A95F-274D-BAA9-D7A47CDE34D4}"/>
-    <hyperlink ref="E579" r:id="rId1953" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{973451AE-C4DB-CE48-983B-DD78A0D4FFAF}"/>
-    <hyperlink ref="F579" r:id="rId1954" tooltip="N482UA" display="https://www.flightradar24.com/data/aircraft/n482ua" xr:uid="{56A4DFD1-4E93-B645-84BF-80DBDC82565D}"/>
-    <hyperlink ref="C580" r:id="rId1955" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{E2E6846C-8692-A545-8F83-01494749F16C}"/>
-    <hyperlink ref="D580" r:id="rId1956" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{6256B90A-6A41-FF41-9832-62A7DA1AE0B7}"/>
-    <hyperlink ref="E580" r:id="rId1957" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6B07F640-B936-B94E-9AE9-5881E3FC3EFC}"/>
-    <hyperlink ref="F580" r:id="rId1958" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{2C90404D-4795-B149-9CA9-BFC0765D07CF}"/>
-    <hyperlink ref="D581" r:id="rId1959" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{81B64D08-B090-7D44-BEEC-781EDE3E866F}"/>
-    <hyperlink ref="E581" r:id="rId1960" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{B770A4E5-48C2-6D4C-8392-EE2D0C1757C8}"/>
-    <hyperlink ref="F581" r:id="rId1961" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{E085B4E7-0969-DB49-9B5D-1111DB030458}"/>
-    <hyperlink ref="D582" r:id="rId1962" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{3BF4D75A-3DE7-D545-9F29-4142363BE445}"/>
-    <hyperlink ref="E582" r:id="rId1963" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{36ED79F7-C484-8D44-A427-31A944A2E19B}"/>
-    <hyperlink ref="F582" r:id="rId1964" tooltip="N38458" display="https://www.flightradar24.com/data/aircraft/n38458" xr:uid="{FBFFBA0C-E729-0843-ABB0-14C082EE4A6B}"/>
+    <hyperlink ref="C503" r:id="rId1709" tooltip="3M3901" display="https://www.flightradar24.com/data/flights/3m3901" xr:uid="{1751357B-1CFA-2B48-90F5-A1ACAA21180E}"/>
+    <hyperlink ref="D503" r:id="rId1710" tooltip="Fort Worth Alliance Airport, United States" display="https://www.flightradar24.com/data/airports/afw" xr:uid="{467CEE99-3F92-B14E-BF9E-CB52D92AC58C}"/>
+    <hyperlink ref="E503" r:id="rId1711" tooltip="Amazon Air" display="https://www.flightradar24.com/data/airlines/3m-sil" xr:uid="{ED7A5C7A-A050-6940-BEE5-E14D59C8B5D4}"/>
+    <hyperlink ref="F503" r:id="rId1712" tooltip="N937AZ" display="https://www.flightradar24.com/data/aircraft/n937az" xr:uid="{1CAE6190-FEDB-E64D-8539-922054F38229}"/>
+    <hyperlink ref="C504" r:id="rId1713" tooltip="5X514" display="https://www.flightradar24.com/data/flights/5x514" xr:uid="{8511A98F-4ADC-8B4C-B988-33F38A50D5F9}"/>
+    <hyperlink ref="D504" r:id="rId1714" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{D3989693-39F1-374E-8A85-644BDB9C7AB7}"/>
+    <hyperlink ref="E504" r:id="rId1715" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{62D5DEE4-F7E2-B844-B3E6-BC96E989ACA0}"/>
+    <hyperlink ref="F504" r:id="rId1716" tooltip="N336UP" display="https://www.flightradar24.com/data/aircraft/n336up" xr:uid="{1979C210-F752-5941-9810-D7C81E1A1350}"/>
+    <hyperlink ref="C505" r:id="rId1717" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{3C118D3E-AE9C-5640-838C-2EA0B4CE6F5D}"/>
+    <hyperlink ref="D505" r:id="rId1718" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{211BFCC8-A4D3-9B42-B546-0407F4035584}"/>
+    <hyperlink ref="E505" r:id="rId1719" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{18AE3D55-3CA6-B749-98F8-E665DB5C8D80}"/>
+    <hyperlink ref="F505" r:id="rId1720" tooltip="N674FE" display="https://www.flightradar24.com/data/aircraft/n674fe" xr:uid="{BECE677B-2423-8D4B-B6E4-2795DD1D5AA5}"/>
+    <hyperlink ref="C506" r:id="rId1721" tooltip="DL5558" display="https://www.flightradar24.com/data/flights/dl5558" xr:uid="{72EAB0AC-D482-1843-937E-76DB4CFCB413}"/>
+    <hyperlink ref="D506" r:id="rId1722" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{27EC093E-E5B1-A44C-87F0-3EF686ED03EA}"/>
+    <hyperlink ref="E506" r:id="rId1723" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{55263E12-3D16-584E-9DBF-5ACD7CE37BD0}"/>
+    <hyperlink ref="F506" r:id="rId1724" tooltip="N305PQ" display="https://www.flightradar24.com/data/aircraft/n305pq" xr:uid="{298F32B2-CA5A-4243-A117-14E37A97054D}"/>
+    <hyperlink ref="C507" r:id="rId1725" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{0D0DFEE4-4FEF-C143-AC51-ED227C8BB207}"/>
+    <hyperlink ref="D507" r:id="rId1726" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{6DB98A34-94DA-0D46-9ABE-877F10C6A799}"/>
+    <hyperlink ref="E507" r:id="rId1727" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{FF638A34-343C-F946-B28D-D664BB63383B}"/>
+    <hyperlink ref="F507" r:id="rId1728" tooltip="N937FD" display="https://www.flightradar24.com/data/aircraft/n937fd" xr:uid="{51662C51-3111-3D45-90C7-6DAE077F6089}"/>
+    <hyperlink ref="D508" r:id="rId1729" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{92632F6F-DCA9-0B41-92ED-9D69CAE19876}"/>
+    <hyperlink ref="E508" r:id="rId1730" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{56DCD900-31AE-A44B-A5F6-F8DBD640CA5E}"/>
+    <hyperlink ref="F508" r:id="rId1731" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{305473DA-02CF-F74B-A4F0-43A0A4AA08B5}"/>
+    <hyperlink ref="C509" r:id="rId1732" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{3581BDAB-9FE9-EA47-B1DC-3790402449ED}"/>
+    <hyperlink ref="D509" r:id="rId1733" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{C766AA0C-25D3-7342-B5C2-6425FACA9D7C}"/>
+    <hyperlink ref="E509" r:id="rId1734" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C80C9EF3-A64B-934D-93A1-24DF585EF77B}"/>
+    <hyperlink ref="F509" r:id="rId1735" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{A3A99A53-0518-A74F-861C-996B835E8BFA}"/>
+    <hyperlink ref="D510" r:id="rId1736" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{D4C47AA0-3AC2-744C-9BAF-2E18ED1882A9}"/>
+    <hyperlink ref="E510" r:id="rId1737" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{D250C635-33CB-8E47-8299-6603B0A05A6E}"/>
+    <hyperlink ref="F510" r:id="rId1738" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{1BEA3307-323B-C545-A72A-989F997C6258}"/>
+    <hyperlink ref="C511" r:id="rId1739" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{BE9D31B3-7B29-0541-934C-5D5BDDD145C9}"/>
+    <hyperlink ref="D511" r:id="rId1740" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{91D4F02E-43E1-544F-9F73-B2D4F1699F05}"/>
+    <hyperlink ref="E511" r:id="rId1741" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{09992E1D-1769-BC45-9936-B4AB469150C3}"/>
+    <hyperlink ref="F511" r:id="rId1742" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{22160992-C6FE-4143-A9E2-7AA591683DC4}"/>
+    <hyperlink ref="C512" r:id="rId1743" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{00A21AAB-5A5C-E346-AE2E-4BBA86663C69}"/>
+    <hyperlink ref="D512" r:id="rId1744" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{29842D20-0FF5-7840-9A64-10BE9B4181EC}"/>
+    <hyperlink ref="E512" r:id="rId1745" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B563AEDB-D858-B14E-BDF9-71813A9658F8}"/>
+    <hyperlink ref="F512" r:id="rId1746" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{CD32FA1C-EDA8-CF46-A563-F64CDDD30ED9}"/>
+    <hyperlink ref="D513" r:id="rId1747" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{8579A1B1-B6B7-B346-BC24-3DEECA79E560}"/>
+    <hyperlink ref="E513" r:id="rId1748" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{75255666-D340-054A-8604-67E48199FA68}"/>
+    <hyperlink ref="F513" r:id="rId1749" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{D7CC8356-86C4-0A43-9391-DBFF383035A5}"/>
+    <hyperlink ref="C514" r:id="rId1750" tooltip="UJ811" display="https://www.flightradar24.com/data/flights/uj811" xr:uid="{CF6147F5-FF7F-464C-8244-37BBCC7522D1}"/>
+    <hyperlink ref="D514" r:id="rId1751" tooltip="Detroit Willow Run Airport, United States" display="https://www.flightradar24.com/data/airports/yip" xr:uid="{43088ABD-35DD-F041-9504-7F326C12B00A}"/>
+    <hyperlink ref="E514" r:id="rId1752" tooltip="USA Jet Airlines" display="https://www.flightradar24.com/data/airlines/uj-lmu" xr:uid="{AEF56017-B30E-DA43-8E48-C686A70ED53A}"/>
+    <hyperlink ref="F514" r:id="rId1753" tooltip="N811AA" display="https://www.flightradar24.com/data/aircraft/n811aa" xr:uid="{D3BC371F-515D-DD4C-842C-CCECEC909514}"/>
+    <hyperlink ref="C515" r:id="rId1754" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{83B2DF95-ADDF-9B4D-B799-D5B4EBE19CB3}"/>
+    <hyperlink ref="D515" r:id="rId1755" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{50E62DB8-2495-3F49-8645-0A56000B50BD}"/>
+    <hyperlink ref="E515" r:id="rId1756" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{B6331736-94FA-664E-A04E-32269CA5BB80}"/>
+    <hyperlink ref="F515" r:id="rId1757" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{F36FCEBA-65C4-8F49-BDEE-73A10DB0D762}"/>
+    <hyperlink ref="D516" r:id="rId1758" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{ABB882D2-A2AE-FF4F-96BE-2BF05679FE53}"/>
+    <hyperlink ref="E516" r:id="rId1759" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C1CD7131-B2FD-AE49-9FDD-18FF74B41C30}"/>
+    <hyperlink ref="F516" r:id="rId1760" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{B468BC1A-E49A-0F4C-B468-2CC802CDE7F4}"/>
+    <hyperlink ref="C517" r:id="rId1761" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{66A674BA-9EFE-E44D-9028-D951BC394E77}"/>
+    <hyperlink ref="D517" r:id="rId1762" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{4173F64D-3835-DA4A-82AC-14926D8FEA3A}"/>
+    <hyperlink ref="E517" r:id="rId1763" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E8D305F1-E897-4B46-89F4-5796383B840F}"/>
+    <hyperlink ref="F517" r:id="rId1764" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{B704832F-6E7A-C043-9198-7964AAD1A9A9}"/>
+    <hyperlink ref="D518" r:id="rId1765" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{3961A339-87CC-9D44-BD3C-0F933E81B34C}"/>
+    <hyperlink ref="E518" r:id="rId1766" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{7334859C-8C11-C04B-9C61-08E3363DCA48}"/>
+    <hyperlink ref="F518" r:id="rId1767" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{CDFCCD69-A25A-3E41-BE52-B0B0FB8D562F}"/>
+    <hyperlink ref="C519" r:id="rId1768" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{AE087682-99B3-2748-8308-14AA4B93C0BC}"/>
+    <hyperlink ref="D519" r:id="rId1769" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{4C9A40DC-CCDC-3E4E-A362-3BD76825D8A1}"/>
+    <hyperlink ref="E519" r:id="rId1770" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{C85AB22A-EBCF-F84F-A65C-131E64361621}"/>
+    <hyperlink ref="F519" r:id="rId1771" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{E251FCEB-ABFC-D44D-9B65-713DA57C071A}"/>
+    <hyperlink ref="D520" r:id="rId1772" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{94F58E55-7AB4-634E-BF49-42205C5A60D7}"/>
+    <hyperlink ref="E520" r:id="rId1773" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{D9513122-6F6E-4947-87E8-868E415DCEF0}"/>
+    <hyperlink ref="F520" r:id="rId1774" tooltip="N82338" display="https://www.flightradar24.com/data/aircraft/n82338" xr:uid="{5BE1AEB9-947F-E44E-9C3F-7862B002B19C}"/>
+    <hyperlink ref="D521" r:id="rId1775" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{AF2C4504-1E6F-C241-8BE9-DC778295D6E6}"/>
+    <hyperlink ref="E521" r:id="rId1776" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{68A80371-940E-7742-B1E8-5863770914C6}"/>
+    <hyperlink ref="F521" r:id="rId1777" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{6A40B61C-C3F3-6840-ACEE-13B19E56EE2C}"/>
+    <hyperlink ref="D522" r:id="rId1778" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{A38D7216-4638-3342-8D07-E3843ACE92A1}"/>
+    <hyperlink ref="E522" r:id="rId1779" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{F5E68FBD-D63B-AF48-ADD6-2C6E855F780D}"/>
+    <hyperlink ref="F522" r:id="rId1780" tooltip="N677AE" display="https://www.flightradar24.com/data/aircraft/n677ae" xr:uid="{A15A5B6C-4CE0-AC4D-A155-0EFBAEB717E1}"/>
+    <hyperlink ref="D523" r:id="rId1781" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{DDC2367E-0C64-A24C-A763-DBE547FE4947}"/>
+    <hyperlink ref="E523" r:id="rId1782" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{00EE28B6-D0E2-A549-8AFD-50BD55B7D62B}"/>
+    <hyperlink ref="F523" r:id="rId1783" tooltip="N86309" display="https://www.flightradar24.com/data/aircraft/n86309" xr:uid="{1D3BFD65-9D92-0747-8A51-D5973FDF1614}"/>
+    <hyperlink ref="C524" r:id="rId1784" tooltip="CNS176" display="https://www.flightradar24.com/data/flights/cns176" xr:uid="{349291AB-A210-DA40-99E9-E3B60D894F1C}"/>
+    <hyperlink ref="D524" r:id="rId1785" tooltip="Philadelphia Northeast Airport, United States" display="https://www.flightradar24.com/data/airports/pne" xr:uid="{F89BACB6-E50A-184B-9CB5-2AF8756A95DD}"/>
+    <hyperlink ref="E524" r:id="rId1786" tooltip="PlaneSense" display="https://www.flightradar24.com/data/airlines/-cns" xr:uid="{AF17D30B-FCCB-5C40-871E-C00786DC55DA}"/>
+    <hyperlink ref="F524" r:id="rId1787" tooltip="N154AF" display="https://www.flightradar24.com/data/aircraft/n154af" xr:uid="{8B06EEFC-BF3F-C449-8E1E-8C2A20CD2F1B}"/>
+    <hyperlink ref="C525" r:id="rId1788" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{7BD567DA-2F99-9141-ABBE-93D4A1F68690}"/>
+    <hyperlink ref="D525" r:id="rId1789" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{33AF28B9-705E-E24E-8C32-14A25EEEE450}"/>
+    <hyperlink ref="E525" r:id="rId1790" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{CBFFF0F8-74CC-E348-A2F3-64EE0EC82280}"/>
+    <hyperlink ref="F525" r:id="rId1791" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{5DC627F9-2C36-394C-8470-798E2579ABB6}"/>
+    <hyperlink ref="D526" r:id="rId1792" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{232E016B-EBE5-A241-8C33-6EB8FE11C000}"/>
+    <hyperlink ref="E526" r:id="rId1793" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{C7189B55-FCAA-BA46-9B9B-20F36B7ADA8C}"/>
+    <hyperlink ref="F526" r:id="rId1794" tooltip="N965AT" display="https://www.flightradar24.com/data/aircraft/n965at" xr:uid="{86E0F89A-2A5D-594B-BB90-4E30CBB61E05}"/>
+    <hyperlink ref="D527" r:id="rId1795" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{DB8068F7-A5F8-974B-A8F6-D584E25E2D99}"/>
+    <hyperlink ref="E527" r:id="rId1796" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{C7314AC2-E1AE-304C-90D2-668512C0139E}"/>
+    <hyperlink ref="F527" r:id="rId1797" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{15BB2AF4-84CC-3D42-994D-C1C1B3FAC5E6}"/>
+    <hyperlink ref="D528" r:id="rId1798" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{F87E8CEE-566A-1B42-8279-24F2DF9D5106}"/>
+    <hyperlink ref="E528" r:id="rId1799" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DE2D8E29-7C60-FD4F-AC39-912F44CE91D0}"/>
+    <hyperlink ref="F528" r:id="rId1800" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{83CA65B4-03FF-4043-A1BE-28F46E23BB8D}"/>
+    <hyperlink ref="D529" r:id="rId1801" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{508D091C-C280-2645-9A73-1457DF17C09F}"/>
+    <hyperlink ref="E529" r:id="rId1802" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{EC36E6B1-365B-0240-93AF-693CD4215DEA}"/>
+    <hyperlink ref="F529" r:id="rId1803" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{ABAC7EC9-25CE-264B-884C-6DB7348B7AC9}"/>
+    <hyperlink ref="C530" r:id="rId1804" display="https://www.flightradar24.com/data/flights/" xr:uid="{68D38FDB-F2C6-934C-ADDB-E92F87EA804F}"/>
+    <hyperlink ref="D530" r:id="rId1805" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{366D56CB-7F14-4144-9F37-8F06071786C8}"/>
+    <hyperlink ref="F530" r:id="rId1806" tooltip="N425DD" display="https://www.flightradar24.com/data/aircraft/n425dd" xr:uid="{AABDCBED-BF2F-C846-8B03-A737BCAF5AD0}"/>
+    <hyperlink ref="C531" r:id="rId1807" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{693D989D-2716-7D4C-B6FE-AA66C29E46FE}"/>
+    <hyperlink ref="D531" r:id="rId1808" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{DF1B8D79-98CB-AA4A-9A9A-D9409B28E753}"/>
+    <hyperlink ref="E531" r:id="rId1809" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DDA7E14F-EDCE-4446-93EC-6317BB269B77}"/>
+    <hyperlink ref="F531" r:id="rId1810" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{707D9D2F-F0DE-804A-8DBE-3863480C0C98}"/>
+    <hyperlink ref="C532" r:id="rId1811" display="https://www.flightradar24.com/data/flights/" xr:uid="{F8BDE30A-03D4-D444-85DF-04FAA9C63FFD}"/>
+    <hyperlink ref="D532" r:id="rId1812" tooltip="Peru Illinois Valley Regional Airport, United States" display="https://www.flightradar24.com/data/airports/vys" xr:uid="{DF4F6A2D-0F24-934F-8D4C-345F26996604}"/>
+    <hyperlink ref="F532" r:id="rId1813" tooltip="N375RR" display="https://www.flightradar24.com/data/aircraft/n375rr" xr:uid="{FBCB1CC1-D0D7-564C-B2C6-3622505A3D56}"/>
+    <hyperlink ref="C533" r:id="rId1814" tooltip="FX718" display="https://www.flightradar24.com/data/flights/fx718" xr:uid="{1320C619-20A2-CC49-8DAA-27C32A76EF1B}"/>
+    <hyperlink ref="D533" r:id="rId1815" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{C91D939E-5016-2047-ADE0-E34C9080B8DE}"/>
+    <hyperlink ref="E533" r:id="rId1816" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{9C87364D-85BE-0345-8C59-B16C02E54725}"/>
+    <hyperlink ref="F533" r:id="rId1817" tooltip="N664FE" display="https://www.flightradar24.com/data/aircraft/n664fe" xr:uid="{8FF3DE9D-FC97-E14A-96E5-BE8AABAA510A}"/>
+    <hyperlink ref="C534" r:id="rId1818" tooltip="UJ811" display="https://www.flightradar24.com/data/flights/uj811" xr:uid="{9ED83260-607D-6943-A3E7-B2C9C1C07A10}"/>
+    <hyperlink ref="D534" r:id="rId1819" tooltip="Hickory Regional, United States" display="https://www.flightradar24.com/data/airports/hky" xr:uid="{14C31E92-78F8-4E44-B514-A0C890C47797}"/>
+    <hyperlink ref="E534" r:id="rId1820" tooltip="USA Jet Airlines" display="https://www.flightradar24.com/data/airlines/uj-lmu" xr:uid="{3038FEFF-9D94-6E4D-8622-3233E0A458AE}"/>
+    <hyperlink ref="F534" r:id="rId1821" tooltip="N811AA" display="https://www.flightradar24.com/data/aircraft/n811aa" xr:uid="{5FF87660-45E3-A14B-8BF7-3682DD52A36F}"/>
+    <hyperlink ref="C535" r:id="rId1822" tooltip="5X9654" display="https://www.flightradar24.com/data/flights/5x9654" xr:uid="{62F730F0-F85E-FF4F-8B50-A8FEFB3F6EF1}"/>
+    <hyperlink ref="D535" r:id="rId1823" tooltip="Louisville International Airport, United States" display="https://www.flightradar24.com/data/airports/sdf" xr:uid="{CBFAB187-FE79-CB45-B691-227AF38625FD}"/>
+    <hyperlink ref="E535" r:id="rId1824" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{11E10CFF-8DBD-D948-A26D-40756FC7689E}"/>
+    <hyperlink ref="F535" r:id="rId1825" tooltip="N356UP" display="https://www.flightradar24.com/data/aircraft/n356up" xr:uid="{D56ECB06-E7B7-B745-AF58-3635BD5D89CA}"/>
+    <hyperlink ref="C536" r:id="rId1826" display="https://www.flightradar24.com/data/flights/" xr:uid="{F5CB1200-D39F-8B41-8688-4363B2CD6414}"/>
+    <hyperlink ref="D536" r:id="rId1827" tooltip="Minneapolis Anoka County Blaine Airport, United States" display="https://www.flightradar24.com/data/airports/qqa" xr:uid="{11F81B51-7B6A-944F-8A4B-BA7C3C6F067D}"/>
+    <hyperlink ref="F536" r:id="rId1828" tooltip="N481JB" display="https://www.flightradar24.com/data/aircraft/n481jb" xr:uid="{B22E1462-073D-A24C-8FF5-E64CBA2EF513}"/>
+    <hyperlink ref="D537" r:id="rId1829" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{F4D310EA-12F1-ED41-BF55-032A97F4C6D8}"/>
+    <hyperlink ref="E537" r:id="rId1830" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{90145D76-55B3-BD46-8658-B1BD5858F546}"/>
+    <hyperlink ref="F537" r:id="rId1831" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{4DB4E1B9-8294-B046-8381-FC950032C28A}"/>
+    <hyperlink ref="C538" r:id="rId1832" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{37226DB2-5F37-D045-8526-11FBFCC82C3A}"/>
+    <hyperlink ref="D538" r:id="rId1833" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{E40B453C-BA63-F149-861B-8679CFEA49EA}"/>
+    <hyperlink ref="E538" r:id="rId1834" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{43AF2DFD-1DD2-F045-B876-AB5A55908BF1}"/>
+    <hyperlink ref="F538" r:id="rId1835" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{C1024C6F-CC1D-574F-AA19-84C49BE6A912}"/>
+    <hyperlink ref="D539" r:id="rId1836" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{F3EE8E16-5FDE-FD42-BB81-0D67BF840E85}"/>
+    <hyperlink ref="E539" r:id="rId1837" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{0437C963-F00B-FE48-AE6E-0F58F47BA007}"/>
+    <hyperlink ref="F539" r:id="rId1838" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{6AD1E192-E97A-7541-8101-17DD75739D2D}"/>
+    <hyperlink ref="D540" r:id="rId1839" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{1D91357E-CDF3-954E-9EEE-CBBB4B838A9E}"/>
+    <hyperlink ref="E540" r:id="rId1840" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{2903C506-7D30-1E46-ACAD-08D94C52F4F3}"/>
+    <hyperlink ref="F540" r:id="rId1841" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{C8E50278-3C57-0A4A-BC85-7A68E75415A2}"/>
+    <hyperlink ref="D541" r:id="rId1842" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{DBE491E4-A60F-194C-92F0-376F42C627B3}"/>
+    <hyperlink ref="E541" r:id="rId1843" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{9079CC2D-5EA9-5142-93AD-A26D61BA14BB}"/>
+    <hyperlink ref="F541" r:id="rId1844" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{2490D05F-3C13-4A45-859A-37D5F5DD9C0F}"/>
+    <hyperlink ref="C542" r:id="rId1845" tooltip="AA4770" display="https://www.flightradar24.com/data/flights/aa4770" xr:uid="{A9FCE362-D4E0-834B-AB38-C1FC891F5C47}"/>
+    <hyperlink ref="D542" r:id="rId1846" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{D025607F-30CE-734E-894D-A26E7457C40B}"/>
+    <hyperlink ref="E542" r:id="rId1847" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1CE89756-72E0-8047-9C19-6C1CC9D05B49}"/>
+    <hyperlink ref="F542" r:id="rId1848" tooltip="N416YX" display="https://www.flightradar24.com/data/aircraft/n416yx" xr:uid="{5B5B34E3-964C-2846-B7F1-A8231B72BE14}"/>
+    <hyperlink ref="C543" r:id="rId1849" tooltip="WN3250" display="https://www.flightradar24.com/data/flights/wn3250" xr:uid="{9B59AAF0-2E34-574E-84D4-0368AF7A7E0E}"/>
+    <hyperlink ref="D543" r:id="rId1850" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{0A3BA30E-ED64-CE4B-8104-B9C78C99E777}"/>
+    <hyperlink ref="E543" r:id="rId1851" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{82C0077C-418D-6043-93A7-58B50F35DD60}"/>
+    <hyperlink ref="F543" r:id="rId1852" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{FC5AFDCA-4128-AC4F-950B-A368959479EA}"/>
+    <hyperlink ref="C544" r:id="rId1853" tooltip="AA825" display="https://www.flightradar24.com/data/flights/aa825" xr:uid="{37A82C43-9680-394D-A42F-1CAE2047112F}"/>
+    <hyperlink ref="D544" r:id="rId1854" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{26C9665B-4060-7A40-89E8-D39AFD354E65}"/>
+    <hyperlink ref="E544" r:id="rId1855" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9B7CB349-5701-B54F-A7D3-99DCBB3472F1}"/>
+    <hyperlink ref="F544" r:id="rId1856" tooltip="N836AW" display="https://www.flightradar24.com/data/aircraft/n836aw" xr:uid="{6C9E9FF1-9390-654A-885F-46B57281608F}"/>
+    <hyperlink ref="D545" r:id="rId1857" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{7A158D2F-429F-7948-A941-7DEE21106B65}"/>
+    <hyperlink ref="E545" r:id="rId1858" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{88B1FC79-289D-4D46-B9A9-C294E5F2F0A3}"/>
+    <hyperlink ref="F545" r:id="rId1859" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{B856756B-6641-2D41-994C-8386E5847EC6}"/>
+    <hyperlink ref="D546" r:id="rId1860" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{81FFDA5F-B265-6541-9B27-452141E3C5EF}"/>
+    <hyperlink ref="E546" r:id="rId1861" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{4A627FFA-CB4E-544B-8586-7DF706E03A03}"/>
+    <hyperlink ref="F546" r:id="rId1862" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{AE817A2A-F47E-F749-BC29-2A9419E3CDAE}"/>
+    <hyperlink ref="D547" r:id="rId1863" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{C217B08A-9264-9443-B60E-4D0F02C9FE22}"/>
+    <hyperlink ref="E547" r:id="rId1864" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{88671EDB-A0AD-5D4E-97E3-A8A4B51929AB}"/>
+    <hyperlink ref="F547" r:id="rId1865" tooltip="N274NN" display="https://www.flightradar24.com/data/aircraft/n274nn" xr:uid="{0D0CDD5E-F0DD-3844-8E73-87685E5B6A72}"/>
+    <hyperlink ref="D548" r:id="rId1866" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{035903A3-E08E-5C4D-A70B-DDAF9DF670C8}"/>
+    <hyperlink ref="E548" r:id="rId1867" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{99A75F66-A71F-F943-A1AD-38B30269B281}"/>
+    <hyperlink ref="F548" r:id="rId1868" tooltip="N765US" display="https://www.flightradar24.com/data/aircraft/n765us" xr:uid="{6C853E16-1CDA-0B4E-A73D-C7CEA5137B3F}"/>
+    <hyperlink ref="D549" r:id="rId1869" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{CCA5EBE3-BA67-044F-9127-CD12166BEF5D}"/>
+    <hyperlink ref="E549" r:id="rId1870" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{435A2D63-5971-8748-A0A3-0F4CBBC6F9AC}"/>
+    <hyperlink ref="F549" r:id="rId1871" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{800812A8-36AF-4B42-8873-FF7436C01D35}"/>
+    <hyperlink ref="C550" r:id="rId1872" tooltip="3M3901" display="https://www.flightradar24.com/data/flights/3m3901" xr:uid="{1E227724-4D01-A748-B34D-911A2D770CBE}"/>
+    <hyperlink ref="D550" r:id="rId1873" tooltip="Fort Worth Alliance Airport, United States" display="https://www.flightradar24.com/data/airports/afw" xr:uid="{DB1C3584-8ED2-5E4D-835F-4FDEAEEC66F4}"/>
+    <hyperlink ref="E550" r:id="rId1874" tooltip="Amazon Air" display="https://www.flightradar24.com/data/airlines/3m-sil" xr:uid="{7538240D-C84F-A347-8F5D-AE5C1FAB8EAF}"/>
+    <hyperlink ref="F550" r:id="rId1875" tooltip="N919AZ" display="https://www.flightradar24.com/data/aircraft/n919az" xr:uid="{10B3FCD1-E6F5-0340-8173-18291A57345E}"/>
+    <hyperlink ref="C551" r:id="rId1876" tooltip="BYA651" display="https://www.flightradar24.com/data/flights/bya651" xr:uid="{2821856E-FB2E-804D-84C9-4E7FA83CCEFE}"/>
+    <hyperlink ref="D551" r:id="rId1877" tooltip="Port Huron St. Clair County International Airport, United States" display="https://www.flightradar24.com/data/airports/phn" xr:uid="{CFCD6DCC-42C1-8246-9E0A-3E25BEF59B78}"/>
+    <hyperlink ref="E551" r:id="rId1878" tooltip="Berry Aviation" display="https://www.flightradar24.com/data/airlines/-bya" xr:uid="{C93A3C76-2F2F-3F4F-9120-119F184AE7B6}"/>
+    <hyperlink ref="F551" r:id="rId1879" tooltip="N651CT" display="https://www.flightradar24.com/data/aircraft/n651ct" xr:uid="{7FF7EC39-3025-4E4D-9B0E-4DCED86874B4}"/>
+    <hyperlink ref="C552" r:id="rId1880" tooltip="5X514" display="https://www.flightradar24.com/data/flights/5x514" xr:uid="{91C68A35-0F9D-B149-9CAD-DDAF1B723298}"/>
+    <hyperlink ref="D552" r:id="rId1881" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{46BE85A4-4E33-614D-AC7E-3C462D218498}"/>
+    <hyperlink ref="E552" r:id="rId1882" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{7D750AAC-9769-0647-B4A6-1461409829EE}"/>
+    <hyperlink ref="F552" r:id="rId1883" tooltip="N330UP" display="https://www.flightradar24.com/data/aircraft/n330up" xr:uid="{639539D6-1E3F-8F4A-A225-B106C08EC23A}"/>
+    <hyperlink ref="C553" r:id="rId1884" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{F07E44C6-F441-AD4B-B20A-68BF74B8DC0D}"/>
+    <hyperlink ref="D553" r:id="rId1885" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{479691EE-BBDB-B043-BFB9-BD82CBBDB90F}"/>
+    <hyperlink ref="E553" r:id="rId1886" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{224A411B-B012-F949-917C-5ABEFF00FF18}"/>
+    <hyperlink ref="F553" r:id="rId1887" tooltip="N676FE" display="https://www.flightradar24.com/data/aircraft/n676fe" xr:uid="{C34548CD-F64A-CF42-8885-52139F418EC1}"/>
+    <hyperlink ref="C554" r:id="rId1888" display="https://www.flightradar24.com/data/flights/" xr:uid="{99D5E8C3-31B5-6046-B7CF-F2E46B9477B4}"/>
+    <hyperlink ref="D554" r:id="rId1889" tooltip="Kansas City Johnson County Executive Airport, United States" display="https://www.flightradar24.com/data/airports/ojc" xr:uid="{01696253-DFCF-6745-8DB4-9A0287B0CF4E}"/>
+    <hyperlink ref="F554" r:id="rId1890" tooltip="N560WH" display="https://www.flightradar24.com/data/aircraft/n560wh" xr:uid="{2FA358A7-E5E4-964C-AD20-B7DD8E9A17D2}"/>
+    <hyperlink ref="C555" r:id="rId1891" display="https://www.flightradar24.com/data/flights/" xr:uid="{2F60FADD-EDA5-B444-9309-10FA743F6829}"/>
+    <hyperlink ref="D555" r:id="rId1892" tooltip="Mountain Home Ozark Regional Airport, United States" display="https://www.flightradar24.com/data/airports/wmh" xr:uid="{6281A430-3E18-E848-ADD6-CAC2D747F4D4}"/>
+    <hyperlink ref="F555" r:id="rId1893" tooltip="N368BL" display="https://www.flightradar24.com/data/aircraft/n368bl" xr:uid="{DC6CD8E4-13A8-5445-8060-7A69E099BB4F}"/>
+    <hyperlink ref="C556" r:id="rId1894" display="https://www.flightradar24.com/data/flights/" xr:uid="{D0809051-DFBF-4C42-88E2-2693269AE1AE}"/>
+    <hyperlink ref="D556" r:id="rId1895" tooltip="Jefferson City Memorial Airport, United States" display="https://www.flightradar24.com/data/airports/jef" xr:uid="{3E18D4D8-FABA-2646-9DE9-74CD3148CDB6}"/>
+    <hyperlink ref="F556" r:id="rId1896" tooltip="N3281K" display="https://www.flightradar24.com/data/aircraft/n3281k" xr:uid="{D244023B-254C-8E4F-B232-22C3DCA4F834}"/>
+    <hyperlink ref="C557" r:id="rId1897" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{119BF215-EF6C-164A-9ADE-962461F42886}"/>
+    <hyperlink ref="D557" r:id="rId1898" tooltip="Wichita Dwight D. Eisenhower National Airport, United States" display="https://www.flightradar24.com/data/airports/ict" xr:uid="{32CFEF39-E650-8A4A-B8AA-5BBDC8CAB7A2}"/>
+    <hyperlink ref="E557" r:id="rId1899" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{DA3F4D69-0C70-7542-AB51-2DEB11CFFC8D}"/>
+    <hyperlink ref="F557" r:id="rId1900" tooltip="N951FD" display="https://www.flightradar24.com/data/aircraft/n951fd" xr:uid="{3211E515-96FE-AC4F-B20F-EE0A366D40EF}"/>
+    <hyperlink ref="D558" r:id="rId1901" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{26A237EF-7F01-164E-AF27-D568620E1AE2}"/>
+    <hyperlink ref="E558" r:id="rId1902" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3B7380CA-E446-0848-877A-16FC1314D792}"/>
+    <hyperlink ref="F558" r:id="rId1903" tooltip="N685AE" display="https://www.flightradar24.com/data/aircraft/n685ae" xr:uid="{27DF3F55-351B-F54C-99A1-E672B79D30A1}"/>
+    <hyperlink ref="C559" r:id="rId1904" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{FAF8C25B-9E6E-B047-B128-1A91D7EE2C5F}"/>
+    <hyperlink ref="D559" r:id="rId1905" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{37E1CC44-0B21-2841-AC9A-1E4F31B54A62}"/>
+    <hyperlink ref="E559" r:id="rId1906" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{F0F8C2D6-B461-9D4C-98A4-8A4CA97D7621}"/>
+    <hyperlink ref="F559" r:id="rId1907" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{C5BD2D8E-6E94-E44B-8AB4-EAAEBA8110F9}"/>
+    <hyperlink ref="C560" r:id="rId1908" display="https://www.flightradar24.com/data/flights/" xr:uid="{DD3AE4AE-59AC-B84F-AA34-CFCDF9545E13}"/>
+    <hyperlink ref="D560" r:id="rId1909" tooltip="Moline Quad City International Airport, United States" display="https://www.flightradar24.com/data/airports/mli" xr:uid="{EC2A5728-7B74-3D46-A954-0F1B362A3031}"/>
+    <hyperlink ref="F560" r:id="rId1910" tooltip="N414TJ" display="https://www.flightradar24.com/data/aircraft/n414tj" xr:uid="{37FB7021-4469-0F4F-A047-6E8D692F13AA}"/>
+    <hyperlink ref="D561" r:id="rId1911" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{B7E7B6A4-052B-E04F-BA67-671B91DFE7E0}"/>
+    <hyperlink ref="E561" r:id="rId1912" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{0A2836E1-40A8-1E4B-BE1C-3FCC8941BC03}"/>
+    <hyperlink ref="F561" r:id="rId1913" tooltip="N465AW" display="https://www.flightradar24.com/data/aircraft/n465aw" xr:uid="{982764B9-198D-1749-B975-65E8100E8B13}"/>
+    <hyperlink ref="C562" r:id="rId1914" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{8F5961D4-40EE-574F-B95C-0E5DCD180E87}"/>
+    <hyperlink ref="D562" r:id="rId1915" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{5184C802-C18A-B444-A997-C0C563D43945}"/>
+    <hyperlink ref="E562" r:id="rId1916" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{4C1DA368-CA4D-6E45-B933-EC659532B61F}"/>
+    <hyperlink ref="F562" r:id="rId1917" tooltip="N717JL" display="https://www.flightradar24.com/data/aircraft/n717jl" xr:uid="{5DC53C75-5FCE-E64F-8957-727944DEB80C}"/>
+    <hyperlink ref="C563" r:id="rId1918" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{CF9FACCF-DB83-DE49-B938-02E2957C576C}"/>
+    <hyperlink ref="D563" r:id="rId1919" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{819A5A2C-2CB5-5B47-91F7-1327B85999A5}"/>
+    <hyperlink ref="E563" r:id="rId1920" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C948F2EF-768D-0742-A6DD-0AEBE57231D5}"/>
+    <hyperlink ref="F563" r:id="rId1921" tooltip="N753SK" display="https://www.flightradar24.com/data/aircraft/n753sk" xr:uid="{C753FB78-0F2C-B64C-A8E7-044FA8F90FDF}"/>
+    <hyperlink ref="D564" r:id="rId1922" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{AB100AA0-6277-D648-A9E3-7D5E075E5997}"/>
+    <hyperlink ref="E564" r:id="rId1923" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{76048F52-D09A-694C-A189-094AE3911565}"/>
+    <hyperlink ref="F564" r:id="rId1924" tooltip="N256SY" display="https://www.flightradar24.com/data/aircraft/n256sy" xr:uid="{7A877AD0-D84D-024A-B49E-D75129DA8C88}"/>
+    <hyperlink ref="C565" r:id="rId1925" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{8B61BA8C-D861-ED4C-B1D2-6AB6DA6129C5}"/>
+    <hyperlink ref="D565" r:id="rId1926" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{942B635A-1D97-3942-AFD7-C53972728376}"/>
+    <hyperlink ref="E565" r:id="rId1927" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E414BBDF-DCF3-3E4D-903F-1015A47EDFE3}"/>
+    <hyperlink ref="F565" r:id="rId1928" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{32C6652B-A26C-BF4D-92B7-7DC52A165436}"/>
+    <hyperlink ref="C566" r:id="rId1929" display="https://www.flightradar24.com/data/flights/" xr:uid="{31AF5609-C118-BB45-87FB-D3AA05CEF1F4}"/>
+    <hyperlink ref="D566" r:id="rId1930" tooltip="Naples Municipal Airport, United States" display="https://www.flightradar24.com/data/airports/apf" xr:uid="{B3693F29-4917-704E-818E-5EF8DAB5D556}"/>
+    <hyperlink ref="F566" r:id="rId1931" tooltip="N238KK" display="https://www.flightradar24.com/data/aircraft/n238kk" xr:uid="{5AE6B0F2-A663-0D41-84EA-FEC61C1399B3}"/>
+    <hyperlink ref="D567" r:id="rId1932" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{469C77CB-DD3B-654A-AD44-D2382C1ADA12}"/>
+    <hyperlink ref="E567" r:id="rId1933" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{96D366AE-221F-364E-8AC4-28BB93D3F23C}"/>
+    <hyperlink ref="F567" r:id="rId1934" tooltip="N875AS" display="https://www.flightradar24.com/data/aircraft/n875as" xr:uid="{7E6707C6-92C5-A14E-9D03-98D8C61B65D4}"/>
+    <hyperlink ref="C568" r:id="rId1935" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{C3F49B27-3771-8546-9130-7FF29F396E4B}"/>
+    <hyperlink ref="D568" r:id="rId1936" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{4B9C3CCF-935D-5143-87A0-FFE52EC4625C}"/>
+    <hyperlink ref="E568" r:id="rId1937" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{6DA29674-C4A4-9547-9C9C-B592AB82C600}"/>
+    <hyperlink ref="F568" r:id="rId1938" tooltip="N594NN" display="https://www.flightradar24.com/data/aircraft/n594nn" xr:uid="{A343B2AB-9335-FB47-B391-ECDA0FD05BFC}"/>
+    <hyperlink ref="C569" r:id="rId1939" display="https://www.flightradar24.com/data/flights/" xr:uid="{C746E66E-3643-6443-9045-CFB31B822C55}"/>
+    <hyperlink ref="D569" r:id="rId1940" tooltip="Kalamazoo Battle Creek International Airport, United States" display="https://www.flightradar24.com/data/airports/azo" xr:uid="{5584533E-3510-0145-BDDD-0F4D6C7E3454}"/>
+    <hyperlink ref="F569" r:id="rId1941" tooltip="N155GB" display="https://www.flightradar24.com/data/aircraft/n155gb" xr:uid="{5E34A3D4-912F-DE42-8587-5C7054E8C993}"/>
+    <hyperlink ref="C570" r:id="rId1942" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{0B913E5D-ACFC-5747-A376-BA08303D17E7}"/>
+    <hyperlink ref="D570" r:id="rId1943" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{A7673F5A-3FBB-BA4B-83FA-C74B78146B91}"/>
+    <hyperlink ref="E570" r:id="rId1944" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{28844F27-BC58-264D-A54D-8F62B16E8D59}"/>
+    <hyperlink ref="F570" r:id="rId1945" tooltip="N7815L" display="https://www.flightradar24.com/data/aircraft/n7815l" xr:uid="{F01FD60B-0956-C84B-A098-7A98FFEF355E}"/>
+    <hyperlink ref="D571" r:id="rId1946" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{4DF57223-9B97-EB43-B7A8-4CF3E2AA2E20}"/>
+    <hyperlink ref="E571" r:id="rId1947" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{B92EC6CE-079B-A145-9C49-CA323F2C6FAE}"/>
+    <hyperlink ref="F571" r:id="rId1948" tooltip="N86344" display="https://www.flightradar24.com/data/aircraft/n86344" xr:uid="{A6E72D39-4B4B-4E4B-B3C6-2BF0AF0BAA5F}"/>
+    <hyperlink ref="D572" r:id="rId1949" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{B39A0E11-DEFB-1B4B-99C1-FE9EB9BAEFA0}"/>
+    <hyperlink ref="E572" r:id="rId1950" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E10FD0E5-1A23-534E-8391-60342A6BE953}"/>
+    <hyperlink ref="F572" r:id="rId1951" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{7368804D-6E96-844B-9969-7854A06A98EF}"/>
+    <hyperlink ref="D573" r:id="rId1952" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{0A3B2298-7EC2-2947-9D4B-1C1E3A4CF333}"/>
+    <hyperlink ref="E573" r:id="rId1953" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D4FB39A8-528B-1E46-B71F-90D1709EE25F}"/>
+    <hyperlink ref="F573" r:id="rId1954" tooltip="N661JA" display="https://www.flightradar24.com/data/aircraft/n661ja" xr:uid="{66EA368F-E169-3743-9729-77E1337EFD62}"/>
+    <hyperlink ref="D574" r:id="rId1955" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{DA07660A-58B5-574B-B2A0-55831F52E4DE}"/>
+    <hyperlink ref="E574" r:id="rId1956" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{B4C0EC25-FD5A-AF4B-80CB-C670B74C2FC7}"/>
+    <hyperlink ref="F574" r:id="rId1957" tooltip="N88332" display="https://www.flightradar24.com/data/aircraft/n88332" xr:uid="{0363C0D2-A2EB-4B42-85E9-082A608FE350}"/>
+    <hyperlink ref="C575" r:id="rId1958" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{E597CE92-B30C-AF4A-B649-6709EFD022D8}"/>
+    <hyperlink ref="D575" r:id="rId1959" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{0844FD4B-1B54-114F-98FB-FB07188D91AC}"/>
+    <hyperlink ref="E575" r:id="rId1960" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{9EE7B273-FAC4-0348-9609-8B928A435A66}"/>
+    <hyperlink ref="F575" r:id="rId1961" tooltip="N285WN" display="https://www.flightradar24.com/data/aircraft/n285wn" xr:uid="{B5ED39D4-F29B-9241-93C7-6C207F245798}"/>
+    <hyperlink ref="D576" r:id="rId1962" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{F51CC8A9-DF15-584B-BBFB-DA35501BA423}"/>
+    <hyperlink ref="E576" r:id="rId1963" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{BFECFE23-32C5-2247-B147-5FB917F9EA60}"/>
+    <hyperlink ref="F576" r:id="rId1964" tooltip="N925AT" display="https://www.flightradar24.com/data/aircraft/n925at" xr:uid="{8ABCF8D2-6A36-9C48-A8DF-DBD404E9F5C9}"/>
+    <hyperlink ref="C577" r:id="rId1965" tooltip="LXJ415" display="https://www.flightradar24.com/data/flights/lxj415" xr:uid="{F3E5F2AE-3B81-2943-83AE-EC25A2C91411}"/>
+    <hyperlink ref="D577" r:id="rId1966" tooltip="Iowa City Municipal Airport, United States" display="https://www.flightradar24.com/data/airports/iow" xr:uid="{A76ECA1A-6806-1540-B978-4BEB290ED52F}"/>
+    <hyperlink ref="E577" r:id="rId1967" tooltip="Flexjet" display="https://www.flightradar24.com/data/airlines/-lxj" xr:uid="{4FAA75A1-AAE9-2649-8598-B00466B0AA3D}"/>
+    <hyperlink ref="D578" r:id="rId1968" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{B61846F6-64A9-F049-ADA6-40372151691C}"/>
+    <hyperlink ref="E578" r:id="rId1969" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{55B960A1-7824-9246-8A69-5764F5C1D713}"/>
+    <hyperlink ref="F578" r:id="rId1970" tooltip="N851UA" display="https://www.flightradar24.com/data/aircraft/n851ua" xr:uid="{B39755FC-A66D-2544-A37F-9F7C5C8BC49A}"/>
+    <hyperlink ref="D579" r:id="rId1971" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{910017A1-A4EC-DB4A-B302-11EB6B725482}"/>
+    <hyperlink ref="E579" r:id="rId1972" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{90BC8FA0-5678-5B4A-A880-6D021F438A31}"/>
+    <hyperlink ref="F579" r:id="rId1973" tooltip="N718SK" display="https://www.flightradar24.com/data/aircraft/n718sk" xr:uid="{4122CA18-9EA6-6343-A32D-0809FA7CB48E}"/>
+    <hyperlink ref="D580" r:id="rId1974" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{C5E78ACD-C4BC-2943-A2EB-918A477CFECB}"/>
+    <hyperlink ref="E580" r:id="rId1975" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BC98C9A6-1B13-614E-A5B9-C52010C00495}"/>
+    <hyperlink ref="F580" r:id="rId1976" tooltip="N816AW" display="https://www.flightradar24.com/data/aircraft/n816aw" xr:uid="{E5FE43F7-A1D8-7B4D-8EA9-9E0BE984DBA0}"/>
+    <hyperlink ref="D581" r:id="rId1977" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{0C3CFDBB-4A1F-8C4B-A655-C32A89BCAEE9}"/>
+    <hyperlink ref="E581" r:id="rId1978" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{0E59F13E-A2E4-4E4E-BE28-9FEB5A508CD5}"/>
+    <hyperlink ref="F581" r:id="rId1979" tooltip="N147PQ" display="https://www.flightradar24.com/data/aircraft/n147pq" xr:uid="{8C11840D-24C8-A94E-93ED-D70575900729}"/>
+    <hyperlink ref="D582" r:id="rId1980" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{AB128157-3A50-844D-A356-D80EDD0A0142}"/>
+    <hyperlink ref="E582" r:id="rId1981" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{623EA230-0978-4E4B-B5D9-ADCE93D47775}"/>
+    <hyperlink ref="F582" r:id="rId1982" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{C20EA9D0-7968-EA4D-BC28-8C26056761F8}"/>
+    <hyperlink ref="C583" r:id="rId1983" tooltip="FX718" display="https://www.flightradar24.com/data/flights/fx718" xr:uid="{852C3AB7-2A9C-5A43-8459-19028F8AF23D}"/>
+    <hyperlink ref="D583" r:id="rId1984" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{39B9EEBD-4ABC-0A46-BF2A-28B957D6305D}"/>
+    <hyperlink ref="E583" r:id="rId1985" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{0B61B320-2D0C-AF44-B4FD-533799BCBDC5}"/>
+    <hyperlink ref="C584" r:id="rId1986" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{96FCCDE9-91E3-4540-8C99-8D16CAE0E991}"/>
+    <hyperlink ref="D584" r:id="rId1987" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{2C2136EA-EB37-4549-86F2-5CA73AF9F220}"/>
+    <hyperlink ref="E584" r:id="rId1988" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{61464B1E-472C-0C41-9FD4-4AA89DFBE0B6}"/>
+    <hyperlink ref="F584" r:id="rId1989" tooltip="N550NN" display="https://www.flightradar24.com/data/aircraft/n550nn" xr:uid="{3395578D-3B3D-A748-A249-AB94C008B4E8}"/>
+    <hyperlink ref="C585" r:id="rId1990" tooltip="1I328" display="https://www.flightradar24.com/data/flights/1i328" xr:uid="{8604D47C-7CD0-E34D-84D7-4C885258CC8A}"/>
+    <hyperlink ref="D585" r:id="rId1991" tooltip="Fargo Hector International Airport, United States" display="https://www.flightradar24.com/data/airports/far" xr:uid="{412A1074-327C-7440-B72E-4CE780BD8AED}"/>
+    <hyperlink ref="E585" r:id="rId1992" tooltip="NetJets" display="https://www.flightradar24.com/data/airlines/1i-eja" xr:uid="{732BCD65-8715-1A4D-B3DF-12AAC82C3DBD}"/>
+    <hyperlink ref="D586" r:id="rId1993" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{93678D9F-2B9F-3847-9213-4F9BF62C06E0}"/>
+    <hyperlink ref="E586" r:id="rId1994" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E19E17A9-F060-A242-B368-747D25707BC3}"/>
+    <hyperlink ref="F586" r:id="rId1995" tooltip="N705SK" display="https://www.flightradar24.com/data/aircraft/n705sk" xr:uid="{21C0D97C-FA77-B14D-ABA0-47AF05660348}"/>
+    <hyperlink ref="D587" r:id="rId1996" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{5439BAB6-F506-A548-B8B8-90B75292AD24}"/>
+    <hyperlink ref="E587" r:id="rId1997" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{AB0C2C78-16B4-894F-8409-4E9D283E527F}"/>
+    <hyperlink ref="F587" r:id="rId1998" tooltip="N336PQ" display="https://www.flightradar24.com/data/aircraft/n336pq" xr:uid="{A195C40E-FE27-3543-B6EE-012B536D8A2E}"/>
+    <hyperlink ref="C588" r:id="rId1999" tooltip="5X9654" display="https://www.flightradar24.com/data/flights/5x9654" xr:uid="{EBC5F675-E80D-2348-A040-F34125FA4949}"/>
+    <hyperlink ref="D588" r:id="rId2000" tooltip="Louisville International Airport, United States" display="https://www.flightradar24.com/data/airports/sdf" xr:uid="{CEA7C703-37D3-0448-9382-03DB08F9BC8A}"/>
+    <hyperlink ref="E588" r:id="rId2001" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{E41CD3C4-3366-A149-AE2F-8765FC12CA59}"/>
+    <hyperlink ref="C589" r:id="rId2002" display="https://www.flightradar24.com/data/flights/" xr:uid="{2E0D921A-01D9-3343-BE80-11DEA98A276C}"/>
+    <hyperlink ref="D589" r:id="rId2003" tooltip="Salt Lake City International Airport, United States" display="https://www.flightradar24.com/data/airports/slc" xr:uid="{1298863B-0A5D-C149-87B4-949009E888B3}"/>
+    <hyperlink ref="F589" r:id="rId2004" tooltip="N430QS" display="https://www.flightradar24.com/data/aircraft/n430qs" xr:uid="{3F079E24-C969-2148-BDCA-9250D94D63EE}"/>
+    <hyperlink ref="D590" r:id="rId2005" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{9C8808F1-80ED-2944-8113-1DCAB361F672}"/>
+    <hyperlink ref="E590" r:id="rId2006" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{F8DA594F-ABEC-4D43-BCCD-94231B9A4A33}"/>
+    <hyperlink ref="F590" r:id="rId2007" tooltip="N482UA" display="https://www.flightradar24.com/data/aircraft/n482ua" xr:uid="{926BA7C4-B645-4145-B439-6A384F1E9EE1}"/>
+    <hyperlink ref="C591" r:id="rId2008" tooltip="DL5265" display="https://www.flightradar24.com/data/flights/dl5265" xr:uid="{0792E79A-97BA-C64C-A398-0ADBF139E994}"/>
+    <hyperlink ref="D591" r:id="rId2009" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{93FFE1DE-C99A-1244-915F-4A30D8583CB4}"/>
+    <hyperlink ref="E591" r:id="rId2010" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D5FBC055-0910-FD48-A8B2-9EE6D422788C}"/>
+    <hyperlink ref="F591" r:id="rId2011" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{1A92CB86-2506-E543-8201-2A522BB5C2C3}"/>
+    <hyperlink ref="D592" r:id="rId2012" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{32867E1B-3DF7-6249-B9A5-54EE8BE52D54}"/>
+    <hyperlink ref="E592" r:id="rId2013" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{2C0C4324-284B-254A-B9C0-853C64250778}"/>
+    <hyperlink ref="F592" r:id="rId2014" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{7887FB77-A8B5-F943-9BD4-67AE5A306C57}"/>
+    <hyperlink ref="D593" r:id="rId2015" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{008BF4EA-245D-5647-A48A-B669C7BBE7A0}"/>
+    <hyperlink ref="E593" r:id="rId2016" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{139E1E15-1353-8C4C-9F2B-6EFEDB527FF2}"/>
+    <hyperlink ref="F593" r:id="rId2017" tooltip="N38458" display="https://www.flightradar24.com/data/aircraft/n38458" xr:uid="{D434314A-5B2E-8F46-920E-D1315AFF7621}"/>
+    <hyperlink ref="D594" r:id="rId2018" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{E378E989-0254-6D4F-9F93-637523AF2F84}"/>
+    <hyperlink ref="E594" r:id="rId2019" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{B9C4C473-2746-654A-89DF-CF2861312A73}"/>
+    <hyperlink ref="F594" r:id="rId2020" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{2AB19E3D-A991-814C-93AC-FA63C8EC3F14}"/>
+    <hyperlink ref="C595" r:id="rId2021" tooltip="AA4770" display="https://www.flightradar24.com/data/flights/aa4770" xr:uid="{BCFBDFBC-AAF9-0E42-AB45-5AA0A77EBA23}"/>
+    <hyperlink ref="D595" r:id="rId2022" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{91F70717-3D7A-6943-9F37-CACA43C65CA1}"/>
+    <hyperlink ref="E595" r:id="rId2023" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{F1690071-1558-644A-8D11-D2FCE8595273}"/>
+    <hyperlink ref="F595" r:id="rId2024" tooltip="N419YX" display="https://www.flightradar24.com/data/aircraft/n419yx" xr:uid="{FDF5AB42-F1C9-384F-A9CC-7ADECAEE4A55}"/>
+    <hyperlink ref="C596" r:id="rId2025" tooltip="WN3250" display="https://www.flightradar24.com/data/flights/wn3250" xr:uid="{F7B30C44-BD28-5D4F-8158-9AE813FC0017}"/>
+    <hyperlink ref="D596" r:id="rId2026" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{624C326C-1BBD-9E45-9DA8-50BA02A9BF32}"/>
+    <hyperlink ref="E596" r:id="rId2027" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{36CB2F97-962E-0542-A18C-0D3927C70D62}"/>
+    <hyperlink ref="F596" r:id="rId2028" tooltip="N8646B" display="https://www.flightradar24.com/data/aircraft/n8646b" xr:uid="{5EBFD1A8-DEE3-014B-A4BD-26AAE8A7E19C}"/>
+    <hyperlink ref="D597" r:id="rId2029" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{84BB3B40-608F-E749-849B-39B02AD4D055}"/>
+    <hyperlink ref="E597" r:id="rId2030" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{10974254-887F-504A-8B3F-1E1D39CF84DB}"/>
+    <hyperlink ref="F597" r:id="rId2031" tooltip="N751SK" display="https://www.flightradar24.com/data/aircraft/n751sk" xr:uid="{547CD396-C087-F646-BA28-AF98AB2CC3D3}"/>
+    <hyperlink ref="D598" r:id="rId2032" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{C5A6C03D-F081-A244-ADFD-258B9766BB66}"/>
+    <hyperlink ref="E598" r:id="rId2033" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{8A6726A7-7D46-774D-8967-593CCE211799}"/>
+    <hyperlink ref="F598" r:id="rId2034" tooltip="N84378" display="https://www.flightradar24.com/data/aircraft/n84378" xr:uid="{9019A2E0-B375-5449-B8FC-2C3DA46ED98E}"/>
+    <hyperlink ref="D599" r:id="rId2035" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{C5CC263F-A002-2F44-BA79-537F65ABB821}"/>
+    <hyperlink ref="E599" r:id="rId2036" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8C4B2E85-0DE0-9343-9539-0DC817327230}"/>
+    <hyperlink ref="F599" r:id="rId2037" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{139E205F-04E3-3840-A73C-33928F645598}"/>
+    <hyperlink ref="D600" r:id="rId2038" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{BFCC3159-B6CF-8842-A6F9-8F0FF7C04B69}"/>
+    <hyperlink ref="E600" r:id="rId2039" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{7138E8F5-AF47-C14F-BF14-4AAEF528444A}"/>
+    <hyperlink ref="F600" r:id="rId2040" tooltip="N299JJ" display="https://www.flightradar24.com/data/aircraft/n299jj" xr:uid="{350E6F53-C8D2-6947-B72C-B7E67C3CF93A}"/>
+    <hyperlink ref="D601" r:id="rId2041" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{DA6940C7-5F82-AA48-9F82-7F4CB03D1ADF}"/>
+    <hyperlink ref="E601" r:id="rId2042" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3E7DAA97-1CA6-034C-9510-EE15203CF5FC}"/>
+    <hyperlink ref="F601" r:id="rId2043" tooltip="N827AW" display="https://www.flightradar24.com/data/aircraft/n827aw" xr:uid="{CD7C649B-0C30-0F49-94E3-6E7626A5F7C5}"/>
+    <hyperlink ref="D602" r:id="rId2044" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{C5116A6F-F125-BD4E-8045-030A1518454E}"/>
+    <hyperlink ref="E602" r:id="rId2045" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{735AD542-6505-B143-A092-C61419EE4DE1}"/>
+    <hyperlink ref="F602" r:id="rId2046" tooltip="N667AW" display="https://www.flightradar24.com/data/aircraft/n667aw" xr:uid="{9B2B8F1C-7B9C-074D-BDD0-A70C363E0B7A}"/>
+    <hyperlink ref="C603" r:id="rId2047" tooltip="AA825" display="https://www.flightradar24.com/data/flights/aa825" xr:uid="{05A43341-C459-8C4A-B665-CC668B0BE45A}"/>
+    <hyperlink ref="D603" r:id="rId2048" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{1944D1A4-3C3A-F643-B2DC-087B11B780B7}"/>
+    <hyperlink ref="E603" r:id="rId2049" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{1BACA6E8-C37D-5A45-BD7A-588B3B2D9073}"/>
+    <hyperlink ref="F603" r:id="rId2050" tooltip="N747UW" display="https://www.flightradar24.com/data/aircraft/n747uw" xr:uid="{AC9BC7A9-7B33-0C43-8CF4-A81288C6CD7C}"/>
+    <hyperlink ref="C605" r:id="rId2051" tooltip="FX1500" display="https://www.flightradar24.com/data/flights/fx1500" xr:uid="{4B076EC8-8653-3B48-B4E5-F40E9DB4E6EF}"/>
+    <hyperlink ref="D605" r:id="rId2052" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{C687E2D4-2BB1-B347-9DF7-FF396A783FF8}"/>
+    <hyperlink ref="E605" r:id="rId2053" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{623B23DE-B166-9B4B-BAB0-AFDF0A754F18}"/>
+    <hyperlink ref="D606" r:id="rId2054" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{2A74DB84-51F9-E144-86DA-2E04DEF8F89D}"/>
+    <hyperlink ref="E606" r:id="rId2055" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{7A7F13E6-4F76-964B-B231-383B0CADBAAB}"/>
+    <hyperlink ref="F606" r:id="rId2056" tooltip="N918AE" display="https://www.flightradar24.com/data/aircraft/n918ae" xr:uid="{E6118E70-338D-2944-9623-51160014FE28}"/>
+    <hyperlink ref="C607" r:id="rId2057" tooltip="DL5188" display="https://www.flightradar24.com/data/flights/dl5188" xr:uid="{E9B60569-58B3-654A-8E66-329A54BF40E0}"/>
+    <hyperlink ref="D607" r:id="rId2058" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{4967E433-C1D7-3645-B5AD-139872C375D0}"/>
+    <hyperlink ref="E607" r:id="rId2059" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{4E883808-8A44-0246-928C-D284FCE3CB59}"/>
+    <hyperlink ref="F607" r:id="rId2060" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{8C43513D-F6F3-7644-A866-945A947B1DEC}"/>
+    <hyperlink ref="D608" r:id="rId2061" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{80BC143D-F948-8744-809D-4A2BD2D8F518}"/>
+    <hyperlink ref="E608" r:id="rId2062" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{2ACB20E7-B69C-164A-A923-86B705BB3CF8}"/>
+    <hyperlink ref="F608" r:id="rId2063" tooltip="N466AW" display="https://www.flightradar24.com/data/aircraft/n466aw" xr:uid="{17C8A2BA-AB28-BC48-A4C6-BCDC97D76276}"/>
+    <hyperlink ref="C609" r:id="rId2064" tooltip="DL2867" display="https://www.flightradar24.com/data/flights/dl2867" xr:uid="{96130D17-13DC-2446-81A9-92CF28AF6DE0}"/>
+    <hyperlink ref="D609" r:id="rId2065" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{79E78ECE-D3BB-FE4E-8758-83D53BD58AA3}"/>
+    <hyperlink ref="E609" r:id="rId2066" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{77CB0DB3-E242-F543-AD92-95DB3FD5ACAC}"/>
+    <hyperlink ref="F609" r:id="rId2067" tooltip="N986AT" display="https://www.flightradar24.com/data/aircraft/n986at" xr:uid="{B8AC16F3-0E53-5142-A28E-2CBDD133188F}"/>
+    <hyperlink ref="C610" r:id="rId2068" tooltip="AA3181" display="https://www.flightradar24.com/data/flights/aa3181" xr:uid="{CD7A5A2E-65DB-2042-96E9-B4D262D7C8F9}"/>
+    <hyperlink ref="D610" r:id="rId2069" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{EE474E76-7800-8944-9CEE-B3BB1117A89D}"/>
+    <hyperlink ref="E610" r:id="rId2070" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{0471F33E-EA77-9241-81D5-ACEF832035FC}"/>
+    <hyperlink ref="C611" r:id="rId2071" tooltip="G4812" display="https://www.flightradar24.com/data/flights/g4812" xr:uid="{C03EA4E6-C602-8440-B9CC-3E7B63AD5A03}"/>
+    <hyperlink ref="D611" r:id="rId2072" tooltip="Austin Bergstrom International Airport, United States" display="https://www.flightradar24.com/data/airports/aus" xr:uid="{275F579F-8E2D-E04D-B1E3-A5BC90C7A516}"/>
+    <hyperlink ref="E611" r:id="rId2073" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{D4A0A00B-9BCF-B541-9D8A-67A6C5E0CC3C}"/>
+    <hyperlink ref="D612" r:id="rId2074" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{627676AD-6F5D-B343-A34F-E382588C240E}"/>
+    <hyperlink ref="E612" r:id="rId2075" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{183E0235-B671-3148-BE86-50DABB62529C}"/>
+    <hyperlink ref="F612" r:id="rId2076" tooltip="N610CZ" display="https://www.flightradar24.com/data/aircraft/n610cz" xr:uid="{14DCA03B-7718-ED44-B14D-2C3A82021D15}"/>
+    <hyperlink ref="C613" r:id="rId2077" tooltip="DL5133" display="https://www.flightradar24.com/data/flights/dl5133" xr:uid="{D64BECC5-105F-1D45-BB65-0001C60058AF}"/>
+    <hyperlink ref="D613" r:id="rId2078" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{D27C3A7A-CD6C-9C4D-919E-3DD153A4CDA9}"/>
+    <hyperlink ref="E613" r:id="rId2079" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{FDF7F181-C1AE-EA4F-88F5-2063EEA257B1}"/>
+    <hyperlink ref="F613" r:id="rId2080" tooltip="N490PX" display="https://www.flightradar24.com/data/aircraft/n490px" xr:uid="{DCFD48C9-0D3C-D842-9853-6B0CB205B35F}"/>
+    <hyperlink ref="D614" r:id="rId2081" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{A69BFD68-96AC-DC46-B277-4D4D63771A1B}"/>
+    <hyperlink ref="E614" r:id="rId2082" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{2B69BE20-C3B2-F940-988E-573383629DDB}"/>
+    <hyperlink ref="F614" r:id="rId2083" tooltip="N465SW" display="https://www.flightradar24.com/data/aircraft/n465sw" xr:uid="{FEA70D7F-DF6E-DB4B-9501-D09BBCB52FD6}"/>
+    <hyperlink ref="C615" r:id="rId2084" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{6B217454-7C8B-E346-A21B-904DEE6E74A1}"/>
+    <hyperlink ref="D615" r:id="rId2085" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{E2462EB7-C1C1-C348-B240-272FB9BE87E7}"/>
+    <hyperlink ref="E615" r:id="rId2086" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2DB7A816-DB58-7643-9400-E16FAFB7E0B8}"/>
+    <hyperlink ref="D616" r:id="rId2087" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{5A837188-3466-C749-A4E9-830B8082DE20}"/>
+    <hyperlink ref="E616" r:id="rId2088" tooltip="Frontier (Verde the Resplendent Quetzal Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{AC06D5A8-B1ED-8941-8319-543EC748D237}"/>
+    <hyperlink ref="F616" r:id="rId2089" tooltip="N380FR" display="https://www.flightradar24.com/data/aircraft/n380fr" xr:uid="{E6738CFD-40F0-D247-88AE-9F0BE1A9A786}"/>
+    <hyperlink ref="C617" r:id="rId2090" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{17DBB0FE-BD56-1F46-B956-9BA0CC6B968A}"/>
+    <hyperlink ref="D617" r:id="rId2091" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{5A916C65-3160-674F-B08B-F9E658821DE9}"/>
+    <hyperlink ref="E617" r:id="rId2092" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{9B76A7CD-6D5D-CE45-8BF6-A072B8FCCE86}"/>
+    <hyperlink ref="F617" r:id="rId2093" tooltip="N754SW" display="https://www.flightradar24.com/data/aircraft/n754sw" xr:uid="{13D61CE0-5719-C54A-B2CB-FE5B9FE4461A}"/>
+    <hyperlink ref="D618" r:id="rId2094" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{5D551BF7-F14A-C846-854F-44A412FC317C}"/>
+    <hyperlink ref="E618" r:id="rId2095" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{F66AA11E-279D-C041-926E-8A236A5C7729}"/>
+    <hyperlink ref="F618" r:id="rId2096" tooltip="N86311" display="https://www.flightradar24.com/data/aircraft/n86311" xr:uid="{0282024A-C8E4-DA45-829C-A0690FC8E5F9}"/>
+    <hyperlink ref="D619" r:id="rId2097" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{1792FA69-9DC0-804D-9FF8-FF52A2C98224}"/>
+    <hyperlink ref="E619" r:id="rId2098" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{880C502E-01D3-CF4A-BF81-B9AEDF4B2221}"/>
+    <hyperlink ref="F619" r:id="rId2099" tooltip="N802AW" display="https://www.flightradar24.com/data/aircraft/n802aw" xr:uid="{745518B3-1AC0-634D-8B2A-F040B11E0CD0}"/>
+    <hyperlink ref="C620" r:id="rId2100" tooltip="G4847" display="https://www.flightradar24.com/data/flights/g4847" xr:uid="{EE976F1A-0496-E84D-B16F-2FCC2CC6FCC2}"/>
+    <hyperlink ref="D620" r:id="rId2101" tooltip="Palm Springs International Airport, United States" display="https://www.flightradar24.com/data/airports/psp" xr:uid="{7ED31258-D5E4-184F-8A8F-B77A65832478}"/>
+    <hyperlink ref="E620" r:id="rId2102" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{2FAAFEE5-7149-E946-B2FA-49AAB5CABF79}"/>
+    <hyperlink ref="D621" r:id="rId2103" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{D9832A7B-21FB-C748-982B-8656544880BE}"/>
+    <hyperlink ref="E621" r:id="rId2104" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{774D2A6A-B0AD-C84B-8F88-7DDACD725A69}"/>
+    <hyperlink ref="F621" r:id="rId2105" tooltip="N613AE" display="https://www.flightradar24.com/data/aircraft/n613ae" xr:uid="{D145C3CF-CB7A-A54C-B780-9E9C8DB43003}"/>
+    <hyperlink ref="D622" r:id="rId2106" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{A0C36A9C-A250-AF4D-9AC5-9D7CD1BC0095}"/>
+    <hyperlink ref="E622" r:id="rId2107" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{25B14E1E-6C0B-C84E-861C-C0B1B239CC4C}"/>
+    <hyperlink ref="F622" r:id="rId2108" tooltip="N87306" display="https://www.flightradar24.com/data/aircraft/n87306" xr:uid="{950E8056-9F3A-E049-828C-8E7D797E88D3}"/>
+    <hyperlink ref="C623" r:id="rId2109" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{F432CB06-EE0B-1B4B-BEE4-B56C1F95E519}"/>
+    <hyperlink ref="D623" r:id="rId2110" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{10B88883-5C85-BF46-9EA9-6FB76EC7C067}"/>
+    <hyperlink ref="E623" r:id="rId2111" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{6B971FDF-1EA5-6B45-85C2-83D7734C1138}"/>
+    <hyperlink ref="F623" r:id="rId2112" tooltip="N7843A" display="https://www.flightradar24.com/data/aircraft/n7843a" xr:uid="{E28839DD-4932-ED49-83FB-96197E30E6B3}"/>
+    <hyperlink ref="D624" r:id="rId2113" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{7A7F11CD-7920-C34A-BE74-D9DD0846BA25}"/>
+    <hyperlink ref="E624" r:id="rId2114" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{3FD1C54F-C439-E74F-9D38-8D5992FC29E3}"/>
+    <hyperlink ref="F624" r:id="rId2115" tooltip="N940AT" display="https://www.flightradar24.com/data/aircraft/n940at" xr:uid="{ED2891D8-D398-464C-9B3F-D38D56F0CA82}"/>
+    <hyperlink ref="C625" r:id="rId2116" tooltip="F91958" display="https://www.flightradar24.com/data/flights/f91958" xr:uid="{30439792-9B91-9645-9251-5D746248630D}"/>
+    <hyperlink ref="D625" r:id="rId2117" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{D2FD6740-3A33-9F43-B3BA-F2AACFF621D1}"/>
+    <hyperlink ref="E625" r:id="rId2118" tooltip="Frontier (Sonny the Lemon Shark Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{48D79C92-9D37-4E4A-9222-2CC91C378028}"/>
+    <hyperlink ref="F625" r:id="rId2119" tooltip="N382FR" display="https://www.flightradar24.com/data/aircraft/n382fr" xr:uid="{39BC4054-B157-794F-8987-7C09E906FE90}"/>
+    <hyperlink ref="C626" r:id="rId2120" tooltip="G4814" display="https://www.flightradar24.com/data/flights/g4814" xr:uid="{CFBD228A-3986-9F49-92E8-4403DBDEF461}"/>
+    <hyperlink ref="D626" r:id="rId2121" tooltip="Nashville International Airport, United States" display="https://www.flightradar24.com/data/airports/bna" xr:uid="{11F842B4-69C1-D144-A446-EA1FEA42007D}"/>
+    <hyperlink ref="E626" r:id="rId2122" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{50FA2522-DCE6-164D-8899-464C9E5BFCEC}"/>
+    <hyperlink ref="D627" r:id="rId2123" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{DF783B07-EC4F-704E-9D47-158F2DDF10E7}"/>
+    <hyperlink ref="E627" r:id="rId2124" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{74944ACC-557B-7343-841C-C78B8C1CA855}"/>
+    <hyperlink ref="F627" r:id="rId2125" tooltip="N820UA" display="https://www.flightradar24.com/data/aircraft/n820ua" xr:uid="{32F3108C-FF61-3A40-B485-6A293E06F911}"/>
+    <hyperlink ref="D628" r:id="rId2126" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{6EEC4471-0399-634D-97DC-F08E123A0FB0}"/>
+    <hyperlink ref="E628" r:id="rId2127" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{96E05905-DDDC-AF47-93E8-431239E55CA8}"/>
+    <hyperlink ref="D629" r:id="rId2128" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{0196B3D2-B77F-A342-A456-3D5AD946A5C3}"/>
+    <hyperlink ref="E629" r:id="rId2129" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{FFACD65D-78C8-5541-A55B-E6C548916BEF}"/>
+    <hyperlink ref="F629" r:id="rId2130" tooltip="N747UW" display="https://www.flightradar24.com/data/aircraft/n747uw" xr:uid="{20CCA5C6-83C7-7D40-862C-97F02DF45932}"/>
+    <hyperlink ref="D630" r:id="rId2131" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{203EBD3E-D997-154B-A481-8E374F1C6879}"/>
+    <hyperlink ref="E630" r:id="rId2132" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{29E94D8A-A189-F74D-853C-9CF6A8CF7F3D}"/>
+    <hyperlink ref="F630" r:id="rId2133" tooltip="N305PQ" display="https://www.flightradar24.com/data/aircraft/n305pq" xr:uid="{C3E264CD-5854-7646-9C8A-AB301333015D}"/>
+    <hyperlink ref="D631" r:id="rId2134" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{59A11221-D144-9B48-B128-A3761A51BB24}"/>
+    <hyperlink ref="E631" r:id="rId2135" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{BB0B7142-EDA9-F547-93D3-6F489A7FCF8F}"/>
+    <hyperlink ref="F631" r:id="rId2136" tooltip="N135EV" display="https://www.flightradar24.com/data/aircraft/n135ev" xr:uid="{DC40A68F-6F56-0144-9E70-40E13A18942C}"/>
+    <hyperlink ref="D632" r:id="rId2137" tooltip="Salt Lake City International Airport, United States" display="https://www.flightradar24.com/data/airports/slc" xr:uid="{46915C3E-4053-C349-9B0B-B5807281807E}"/>
+    <hyperlink ref="E632" r:id="rId2138" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{3FC9E0CB-011F-E84B-A9A4-7E77954A35A1}"/>
+    <hyperlink ref="F632" r:id="rId2139" tooltip="N240SY" display="https://www.flightradar24.com/data/aircraft/n240sy" xr:uid="{783DAB9B-A062-F94F-A565-141B0E669EC7}"/>
+    <hyperlink ref="C633" r:id="rId2140" tooltip="G41707" display="https://www.flightradar24.com/data/flights/g41707" xr:uid="{D4F5A57E-0439-8F43-9A38-751E11A16904}"/>
+    <hyperlink ref="D633" r:id="rId2141" tooltip="Punta Gorda Airport, United States" display="https://www.flightradar24.com/data/airports/pgd" xr:uid="{A717E142-55A6-3F4A-ABF3-C4A8461390AD}"/>
+    <hyperlink ref="E633" r:id="rId2142" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{B6AC7219-8F2C-1544-93FD-03561CB8979F}"/>
+    <hyperlink ref="C634" r:id="rId2143" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{9A771670-74B9-8C4D-871D-318DD11D824C}"/>
+    <hyperlink ref="D634" r:id="rId2144" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{B70B8866-782E-7546-9104-2EA4763CD264}"/>
+    <hyperlink ref="E634" r:id="rId2145" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{CAA4333B-3860-654C-8647-74A2F5B39ED0}"/>
+    <hyperlink ref="D635" r:id="rId2146" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{26A434AE-D2A8-0344-9605-5D3020C09050}"/>
+    <hyperlink ref="E635" r:id="rId2147" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{09AC14A4-211F-3648-83B2-1CDB6E3E2B1D}"/>
+    <hyperlink ref="D636" r:id="rId2148" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{D748338D-1729-D64F-8538-0EFE1B84D43A}"/>
+    <hyperlink ref="E636" r:id="rId2149" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{886E092E-2B45-2242-B2A4-480FF265D0B0}"/>
+    <hyperlink ref="F636" r:id="rId2150" tooltip="N316PQ" display="https://www.flightradar24.com/data/aircraft/n316pq" xr:uid="{5AC83048-5E17-F041-BC57-CF235C8E6240}"/>
+    <hyperlink ref="D637" r:id="rId2151" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{23A89FE9-AE01-924B-8866-D1AC16472981}"/>
+    <hyperlink ref="E637" r:id="rId2152" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{80866CF0-2A72-8947-B155-453029659683}"/>
+    <hyperlink ref="F637" r:id="rId2153" tooltip="N482UA" display="https://www.flightradar24.com/data/aircraft/n482ua" xr:uid="{CB7596E9-81DE-694A-BF5C-D34082609990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20537,10 +22135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7696585-1829-FE4B-B36A-0ED8734950E8}">
-  <dimension ref="A1:H596"/>
+  <dimension ref="A1:H605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529:XFD529"/>
+      <selection activeCell="A531" sqref="A531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30847,7 +32445,7 @@
         <v>1247</v>
       </c>
       <c r="H453" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.2">
@@ -30893,7 +32491,7 @@
         <v>117</v>
       </c>
       <c r="H455" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.2">
@@ -30916,7 +32514,7 @@
         <v>210</v>
       </c>
       <c r="H456" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.2">
@@ -30939,7 +32537,7 @@
         <v>1367</v>
       </c>
       <c r="H457" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
@@ -30962,7 +32560,7 @@
         <v>1369</v>
       </c>
       <c r="H458" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
@@ -31054,7 +32652,7 @@
         <v>783</v>
       </c>
       <c r="H462" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -31077,7 +32675,7 @@
         <v>252</v>
       </c>
       <c r="H463" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
@@ -31169,7 +32767,7 @@
         <v>1024</v>
       </c>
       <c r="H467" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
@@ -31192,7 +32790,7 @@
         <v>80</v>
       </c>
       <c r="H468" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.2">
@@ -31227,16 +32825,16 @@
       </c>
       <c r="C470" s="3"/>
       <c r="D470" s="3" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="E470" t="s">
         <v>17</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="H470" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.2">
@@ -31256,10 +32854,10 @@
         <v>1377</v>
       </c>
       <c r="F471" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="H471" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
@@ -31282,7 +32880,7 @@
         <v>681</v>
       </c>
       <c r="H472" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
@@ -31305,7 +32903,7 @@
         <v>1026</v>
       </c>
       <c r="H473" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
@@ -31328,7 +32926,7 @@
         <v>1248</v>
       </c>
       <c r="H474" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
@@ -31351,7 +32949,7 @@
         <v>215</v>
       </c>
       <c r="H475" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.2">
@@ -31374,7 +32972,7 @@
         <v>1244</v>
       </c>
       <c r="H476" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
@@ -31386,16 +32984,16 @@
       </c>
       <c r="C477" s="3"/>
       <c r="D477" s="3" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="E477" t="s">
         <v>17</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H477" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
@@ -31407,16 +33005,16 @@
       </c>
       <c r="C478" s="3"/>
       <c r="D478" s="3" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="E478" t="s">
         <v>17</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="H478" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
@@ -31436,10 +33034,10 @@
         <v>31</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H479" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.2">
@@ -31459,10 +33057,10 @@
         <v>36</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H480" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
@@ -31474,16 +33072,16 @@
       </c>
       <c r="C481" s="3"/>
       <c r="D481" s="3" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="E481" t="s">
         <v>17</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="H481" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
@@ -31523,13 +33121,13 @@
         <v>229</v>
       </c>
       <c r="E483" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F483" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="F483" s="3" t="s">
-        <v>1386</v>
-      </c>
       <c r="H483" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.2">
@@ -31572,7 +33170,7 @@
         <v>27</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H485" t="s">
         <v>1131</v>
@@ -31595,10 +33193,10 @@
         <v>22</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H486" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.2">
@@ -31618,7 +33216,7 @@
         <v>110</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H487" t="s">
         <v>1129</v>
@@ -31664,7 +33262,7 @@
         <v>60</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H489" t="s">
         <v>1134</v>
@@ -31687,10 +33285,10 @@
         <v>31</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H490" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -31713,7 +33311,7 @@
         <v>80</v>
       </c>
       <c r="H491" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.2">
@@ -31733,10 +33331,10 @@
         <v>22</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H492" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
@@ -31747,19 +33345,19 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="H493" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
@@ -31779,10 +33377,10 @@
         <v>67</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H494" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -31802,10 +33400,10 @@
         <v>31</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H495" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.2">
@@ -31825,10 +33423,10 @@
         <v>60</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H496" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.2">
@@ -31851,7 +33449,7 @@
         <v>91</v>
       </c>
       <c r="H497" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.2">
@@ -31874,7 +33472,7 @@
         <v>1227</v>
       </c>
       <c r="H498" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.2">
@@ -31894,7 +33492,7 @@
         <v>13</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H499" t="s">
         <v>798</v>
@@ -31908,16 +33506,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>516</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="H500" t="s">
         <v>1140</v>
@@ -31963,7 +33561,7 @@
         <v>22</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H502" t="s">
         <v>1260</v>
@@ -32009,7 +33607,7 @@
         <v>27</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="H504" t="s">
         <v>735</v>
@@ -32032,7 +33630,7 @@
         <v>22</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="H505" t="s">
         <v>734</v>
@@ -32055,10 +33653,10 @@
         <v>151</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H506" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
@@ -32070,16 +33668,16 @@
       </c>
       <c r="C507" s="3"/>
       <c r="D507" s="3" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E507" t="s">
         <v>17</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H507" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
@@ -32099,7 +33697,7 @@
         <v>103</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H508" t="s">
         <v>809</v>
@@ -32113,19 +33711,19 @@
         <v>6.25E-2</v>
       </c>
       <c r="C509" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F509" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="D509" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E509" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F509" s="3" t="s">
-        <v>1528</v>
-      </c>
       <c r="H509" t="s">
-        <v>1662</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.2">
@@ -32145,7 +33743,7 @@
         <v>67</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="H510" t="s">
         <v>435</v>
@@ -32191,10 +33789,10 @@
         <v>22</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H512" t="s">
-        <v>1663</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
@@ -32214,7 +33812,7 @@
         <v>36</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H513" t="s">
         <v>695</v>
@@ -32237,7 +33835,7 @@
         <v>22</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H514" t="s">
         <v>690</v>
@@ -32260,10 +33858,10 @@
         <v>22</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H515" t="s">
-        <v>1664</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
@@ -32283,7 +33881,7 @@
         <v>31</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="H516" t="s">
         <v>755</v>
@@ -32306,7 +33904,7 @@
         <v>8</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="H517" t="s">
         <v>327</v>
@@ -32329,7 +33927,7 @@
         <v>27</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="H518" t="s">
         <v>1155</v>
@@ -32373,7 +33971,7 @@
         <v>67</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H520" t="s">
         <v>1267</v>
@@ -32396,7 +33994,7 @@
         <v>27</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H521" t="s">
         <v>759</v>
@@ -32419,10 +34017,10 @@
         <v>67</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="H522" t="s">
-        <v>1665</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
@@ -32442,10 +34040,10 @@
         <v>151</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="H523" t="s">
-        <v>1666</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
@@ -32465,10 +34063,10 @@
         <v>103</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="H524" t="s">
-        <v>1667</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
@@ -32488,10 +34086,10 @@
         <v>13</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="H525" t="s">
-        <v>1668</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
@@ -32511,10 +34109,10 @@
         <v>60</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H526" t="s">
-        <v>1669</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
@@ -32534,50 +34132,48 @@
         <v>13</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="H527" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="2">
         <v>0.39583333333333331</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1671</v>
+        <v>1529</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E528" t="s">
+        <v>150</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H528" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="529" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B529" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C529" s="3"/>
+      <c r="D529" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E529" t="s">
         <v>17</v>
       </c>
-      <c r="F528" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H528" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="529" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B529" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E529" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F529" t="s">
-        <v>1672</v>
+      <c r="F529" s="3" t="s">
+        <v>1747</v>
       </c>
       <c r="H529" t="s">
-        <v>258</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="530" spans="2:8" x14ac:dyDescent="0.2">
@@ -32594,7 +34190,7 @@
         <v>22</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>855</v>
+        <v>1317</v>
       </c>
       <c r="H530" t="s">
         <v>477</v>
@@ -32614,7 +34210,7 @@
         <v>27</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>1534</v>
+        <v>1622</v>
       </c>
       <c r="H531" t="s">
         <v>478</v>
@@ -32634,10 +34230,10 @@
         <v>31</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1535</v>
+        <v>1235</v>
       </c>
       <c r="H532" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="533" spans="2:8" x14ac:dyDescent="0.2">
@@ -32654,292 +34250,298 @@
         <v>36</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>263</v>
+        <v>1623</v>
       </c>
       <c r="H533" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="534" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B534" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>1673</v>
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C534" t="s">
+        <v>39</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>1481</v>
+        <v>1707</v>
       </c>
       <c r="H534" t="s">
-        <v>258</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="535" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B535" s="2">
-        <v>0.50277777777777777</v>
-      </c>
-      <c r="C535" t="s">
-        <v>39</v>
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F535" s="3" t="s">
-        <v>71</v>
+        <v>1625</v>
       </c>
       <c r="H535" t="s">
-        <v>1274</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="536" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B536" s="2">
-        <v>0.53125</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1538</v>
+        <v>54</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>1604</v>
+        <v>55</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F536" t="s">
-        <v>832</v>
+        <v>22</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>1749</v>
       </c>
       <c r="H536" t="s">
-        <v>1605</v>
+        <v>846</v>
       </c>
     </row>
     <row r="537" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B537" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C537" s="3"/>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C537" t="s">
+        <v>377</v>
+      </c>
       <c r="D537" s="3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E537" t="s">
-        <v>17</v>
-      </c>
-      <c r="F537" t="s">
-        <v>1537</v>
+        <v>12</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>1710</v>
       </c>
       <c r="H537" t="s">
-        <v>1606</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="538" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B538" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1375</v>
+        <v>662</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>1376</v>
+        <v>94</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F538" t="s">
-        <v>1378</v>
+        <v>60</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>1713</v>
       </c>
       <c r="H538" t="s">
-        <v>1607</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="539" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B539" s="2">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>374</v>
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1185</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>891</v>
+        <v>1340</v>
       </c>
       <c r="H539" t="s">
-        <v>1608</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="540" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B540" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="C540" s="3"/>
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C540" t="s">
+        <v>742</v>
+      </c>
       <c r="D540" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E540" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1675</v>
+        <v>1714</v>
       </c>
       <c r="H540" t="s">
-        <v>1676</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="541" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B541" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>1590</v>
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C541" t="s">
+        <v>386</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>1591</v>
+        <v>40</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1634</v>
+        <v>67</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>1241</v>
       </c>
       <c r="H541" t="s">
-        <v>1677</v>
+        <v>856</v>
       </c>
     </row>
     <row r="542" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B542" s="2">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>54</v>
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1186</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E542" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F542" s="3" t="s">
-        <v>128</v>
+        <v>1226</v>
       </c>
       <c r="H542" t="s">
-        <v>846</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="543" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B543" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="C543" t="s">
-        <v>377</v>
+        <v>0.65625</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="D543" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>1541</v>
+        <v>1715</v>
       </c>
       <c r="H543" t="s">
-        <v>1388</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="544" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B544" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="C544" s="3" t="s">
-        <v>662</v>
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C544" t="s">
+        <v>98</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>1544</v>
+        <v>36</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>1545</v>
+        <v>1627</v>
       </c>
       <c r="H544" t="s">
-        <v>1678</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="545" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B545" s="2">
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>465</v>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1187</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>1542</v>
+        <v>13</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>1543</v>
+        <v>1628</v>
       </c>
       <c r="H545" t="s">
-        <v>1679</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="546" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B546" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1185</v>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>1716</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>74</v>
+        <v>504</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F546" s="3" t="s">
-        <v>1640</v>
+        <v>470</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1717</v>
       </c>
       <c r="H546" t="s">
-        <v>1609</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="547" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B547" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C547" s="3"/>
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C547" t="s">
+        <v>863</v>
+      </c>
       <c r="D547" s="3" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E547" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F547" s="3" t="s">
-        <v>1681</v>
+        <v>1622</v>
       </c>
       <c r="H547" t="s">
-        <v>1682</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="548" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B548" s="2">
-        <v>0.63472222222222219</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="C548" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>21</v>
@@ -32948,415 +34550,413 @@
         <v>22</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>1641</v>
+        <v>1718</v>
       </c>
       <c r="H548" t="s">
-        <v>1391</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="549" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B549" s="2">
-        <v>0.64236111111111105</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="C549" t="s">
-        <v>386</v>
+        <v>743</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E549" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>866</v>
+        <v>68</v>
       </c>
       <c r="H549" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="550" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B550" s="2">
-        <v>0.64652777777777781</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="C550" t="s">
-        <v>1186</v>
+        <v>406</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F550" s="3" t="s">
-        <v>1642</v>
+        <v>1624</v>
       </c>
       <c r="H550" t="s">
-        <v>1276</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="551" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B551" s="2">
-        <v>0.65625</v>
+        <v>0.75486111111111109</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>667</v>
+        <v>126</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>1546</v>
+        <v>1720</v>
       </c>
       <c r="H551" t="s">
-        <v>1683</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="552" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B552" s="2">
-        <v>0.70416666666666661</v>
+        <v>0.81041666666666667</v>
       </c>
       <c r="C552" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F552" s="3" t="s">
-        <v>1643</v>
+        <v>1723</v>
       </c>
       <c r="H552" t="s">
-        <v>1610</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="553" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B553" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1187</v>
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F553" s="3" t="s">
-        <v>1547</v>
+        <v>151</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1527</v>
       </c>
       <c r="H553" t="s">
-        <v>1611</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="554" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B554" s="2">
-        <v>0.73055555555555562</v>
-      </c>
-      <c r="C554" t="s">
-        <v>863</v>
-      </c>
+        <v>0.875</v>
+      </c>
+      <c r="C554" s="3"/>
       <c r="D554" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E554" s="3" t="s">
-        <v>27</v>
+        <v>1754</v>
+      </c>
+      <c r="E554" t="s">
+        <v>17</v>
       </c>
       <c r="F554" s="3" t="s">
-        <v>1548</v>
+        <v>1725</v>
       </c>
       <c r="H554" t="s">
-        <v>1395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="555" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B555" s="2">
-        <v>0.74930555555555556</v>
-      </c>
-      <c r="C555" t="s">
-        <v>743</v>
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>59</v>
+        <v>474</v>
       </c>
       <c r="E555" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F555" s="3" t="s">
-        <v>1087</v>
+        <v>103</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1528</v>
       </c>
       <c r="H555" t="s">
-        <v>867</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="556" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B556" s="2">
-        <v>0.74930555555555556</v>
-      </c>
-      <c r="C556" t="s">
-        <v>406</v>
-      </c>
-      <c r="D556" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E556" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F556" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H556" t="s">
-        <v>1684</v>
+      <c r="B556" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="557" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B557" s="2">
-        <v>0.75486111111111109</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>126</v>
+        <v>0.21875</v>
+      </c>
+      <c r="C557" t="s">
+        <v>315</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1549</v>
+        <v>873</v>
       </c>
       <c r="H557" t="s">
-        <v>1612</v>
+        <v>874</v>
       </c>
     </row>
     <row r="558" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B558" s="2">
-        <v>0.87013888888888891</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>472</v>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C558" t="s">
+        <v>320</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F558" t="s">
-        <v>1530</v>
+        <v>27</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H558" t="s">
-        <v>1613</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="559" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B559" s="2">
-        <v>0.88124999999999998</v>
+        <v>0.24027777777777778</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>473</v>
+        <v>744</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>474</v>
+        <v>127</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F559" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="H559" t="s">
-        <v>1685</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="560" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B560" t="s">
-        <v>1557</v>
+      <c r="B560" s="2">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="C560" t="s">
+        <v>323</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="561" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B561" s="2">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
       <c r="C561" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1365</v>
+        <v>182</v>
       </c>
       <c r="H561" t="s">
-        <v>874</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="562" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B562" s="2">
-        <v>0.22916666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="C562" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>117</v>
+        <v>1728</v>
       </c>
       <c r="H562" t="s">
-        <v>1366</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="563" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B563" s="2">
-        <v>0.24027777777777778</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>744</v>
+        <v>0.25</v>
+      </c>
+      <c r="C563" t="s">
+        <v>328</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F563" t="s">
-        <v>1553</v>
+        <v>31</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="H563" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="564" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B564" s="2">
-        <v>0.24583333333333335</v>
-      </c>
-      <c r="C564" t="s">
-        <v>323</v>
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F564" s="3" t="s">
-        <v>1556</v>
+        <v>1625</v>
       </c>
       <c r="H564" t="s">
-        <v>1686</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="565" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B565" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C565" t="s">
-        <v>325</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>745</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>192</v>
+        <v>746</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F565" s="3" t="s">
-        <v>1645</v>
+        <v>79</v>
+      </c>
+      <c r="F565" t="s">
+        <v>843</v>
       </c>
       <c r="H565" t="s">
-        <v>1277</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="566" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B566" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C566" t="s">
-        <v>328</v>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1555</v>
+        <v>196</v>
       </c>
       <c r="H566" t="s">
-        <v>1600</v>
+        <v>740</v>
       </c>
     </row>
     <row r="567" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B567" s="2">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="C567" s="3" t="s">
-        <v>340</v>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C567" t="s">
+        <v>333</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>891</v>
+        <v>1544</v>
       </c>
       <c r="H567" t="s">
-        <v>1687</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="568" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B568" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>547</v>
+        <v>747</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>55</v>
+        <v>748</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F568" s="3" t="s">
-        <v>287</v>
+        <v>79</v>
+      </c>
+      <c r="F568" t="s">
+        <v>843</v>
       </c>
       <c r="H568" t="s">
-        <v>740</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="569" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B569" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="C569" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1552</v>
+        <v>1719</v>
       </c>
       <c r="H569" t="s">
-        <v>1688</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="570" spans="2:8" x14ac:dyDescent="0.2">
@@ -33373,7 +34973,7 @@
         <v>67</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>1060</v>
+        <v>1729</v>
       </c>
       <c r="H570" t="s">
         <v>880</v>
@@ -33393,10 +34993,10 @@
         <v>151</v>
       </c>
       <c r="F571" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H571" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="572" spans="2:8" x14ac:dyDescent="0.2">
@@ -33413,10 +35013,10 @@
         <v>13</v>
       </c>
       <c r="F572" s="3" t="s">
-        <v>1551</v>
+        <v>1631</v>
       </c>
       <c r="H572" t="s">
-        <v>1602</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="573" spans="2:8" x14ac:dyDescent="0.2">
@@ -33433,10 +35033,10 @@
         <v>60</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>1554</v>
+        <v>1727</v>
       </c>
       <c r="H573" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="574" spans="2:8" x14ac:dyDescent="0.2">
@@ -33453,10 +35053,10 @@
         <v>13</v>
       </c>
       <c r="F574" s="3" t="s">
-        <v>1550</v>
+        <v>1630</v>
       </c>
       <c r="H574" t="s">
-        <v>1689</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="575" spans="2:8" x14ac:dyDescent="0.2">
@@ -33473,10 +35073,10 @@
         <v>22</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>1317</v>
+        <v>215</v>
       </c>
       <c r="H575" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="576" spans="2:8" x14ac:dyDescent="0.2">
@@ -33493,7 +35093,7 @@
         <v>27</v>
       </c>
       <c r="F576" s="3" t="s">
-        <v>1646</v>
+        <v>1622</v>
       </c>
       <c r="H576" t="s">
         <v>258</v>
@@ -33513,10 +35113,10 @@
         <v>31</v>
       </c>
       <c r="F577" s="3" t="s">
-        <v>1647</v>
+        <v>1731</v>
       </c>
       <c r="H577" t="s">
-        <v>1690</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="578" spans="2:8" x14ac:dyDescent="0.2">
@@ -33533,7 +35133,7 @@
         <v>36</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1648</v>
+        <v>1732</v>
       </c>
       <c r="H578" t="s">
         <v>258</v>
@@ -33553,27 +35153,27 @@
         <v>67</v>
       </c>
       <c r="F579" t="s">
-        <v>1658</v>
+        <v>1629</v>
       </c>
       <c r="H579" t="s">
-        <v>1691</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="580" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B580" s="2">
-        <v>0.55902777777777779</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>374</v>
+        <v>842</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="E580" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F580" s="3" t="s">
-        <v>1651</v>
+        <v>79</v>
+      </c>
+      <c r="F580">
+        <v>320</v>
       </c>
       <c r="H580" t="s">
         <v>258</v>
@@ -33581,279 +35181,279 @@
     </row>
     <row r="581" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B581" s="2">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="C581" s="3" t="s">
-        <v>54</v>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C581" t="s">
+        <v>371</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E581" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1653</v>
+        <v>27</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>1724</v>
       </c>
       <c r="H581" t="s">
-        <v>1692</v>
+        <v>258</v>
       </c>
     </row>
     <row r="582" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B582" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="C582" t="s">
-        <v>377</v>
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E582" s="3" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="F582" s="3" t="s">
-        <v>1652</v>
+        <v>1733</v>
       </c>
       <c r="H582" t="s">
-        <v>1693</v>
+        <v>258</v>
       </c>
     </row>
     <row r="583" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B583" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>662</v>
+        <v>54</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E583" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F583" s="3" t="s">
-        <v>1654</v>
+        <v>67</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1626</v>
       </c>
       <c r="H583" t="s">
-        <v>258</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="584" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B584" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="C584" t="s">
-        <v>1185</v>
+        <v>377</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F584" s="3" t="s">
-        <v>64</v>
+        <v>1734</v>
       </c>
       <c r="H584" t="s">
-        <v>1679</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="585" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B585" s="2">
-        <v>0.63472222222222219</v>
-      </c>
-      <c r="C585" t="s">
-        <v>742</v>
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>848</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E585" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F585" s="3" t="s">
-        <v>855</v>
+        <v>79</v>
+      </c>
+      <c r="F585">
+        <v>320</v>
       </c>
       <c r="H585" t="s">
-        <v>1694</v>
+        <v>258</v>
       </c>
     </row>
     <row r="586" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B586" s="2">
-        <v>0.64236111111111105</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C586" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E586" s="3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F586" s="3" t="s">
-        <v>1365</v>
+        <v>303</v>
       </c>
       <c r="H586" t="s">
-        <v>1695</v>
+        <v>258</v>
       </c>
     </row>
     <row r="587" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B587" s="2">
-        <v>0.64652777777777781</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1186</v>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E587" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F587" s="3" t="s">
-        <v>1226</v>
+        <v>1737</v>
       </c>
       <c r="H587" t="s">
-        <v>1696</v>
+        <v>258</v>
       </c>
     </row>
     <row r="588" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B588" s="2">
-        <v>0.65625</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="D588" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E588" s="3" t="s">
-        <v>60</v>
+        <v>1735</v>
       </c>
       <c r="F588" s="3" t="s">
-        <v>1655</v>
+        <v>1736</v>
       </c>
       <c r="H588" t="s">
-        <v>258</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="589" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B589" s="2">
-        <v>0.70416666666666661</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C589" t="s">
-        <v>98</v>
+        <v>1185</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E589" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F589" s="3" t="s">
-        <v>1656</v>
+        <v>1738</v>
       </c>
       <c r="H589" t="s">
-        <v>258</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="590" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B590" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1187</v>
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>854</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="E590" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F590" s="3" t="s">
-        <v>1657</v>
+        <v>79</v>
+      </c>
+      <c r="F590">
+        <v>320</v>
       </c>
       <c r="H590" t="s">
-        <v>1697</v>
+        <v>258</v>
       </c>
     </row>
     <row r="591" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B591" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="C591" t="s">
-        <v>863</v>
+        <v>742</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E591" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>1646</v>
+        <v>1088</v>
       </c>
       <c r="H591" t="s">
-        <v>258</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="592" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B592" s="2">
-        <v>0.74513888888888891</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="C592" t="s">
-        <v>670</v>
+        <v>386</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F592" t="s">
-        <v>1658</v>
+      <c r="F592" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="H592" t="s">
-        <v>1698</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="593" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B593" s="2">
-        <v>0.74930555555555556</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="C593" t="s">
-        <v>743</v>
+        <v>1186</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="H593" t="s">
-        <v>1699</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="594" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B594" s="2">
-        <v>0.74930555555555556</v>
-      </c>
-      <c r="C594" t="s">
-        <v>406</v>
+        <v>0.65625</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E594" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F594" s="3" t="s">
-        <v>1540</v>
+        <v>1740</v>
       </c>
       <c r="H594" t="s">
         <v>258</v>
@@ -33861,42 +35461,222 @@
     </row>
     <row r="595" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B595" s="2">
-        <v>0.75486111111111109</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>126</v>
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="C595" t="s">
+        <v>394</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E595" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F595" t="s">
-        <v>1653</v>
+        <v>1742</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>1743</v>
       </c>
       <c r="H595" t="s">
-        <v>1700</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="596" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B596" s="2">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C596" t="s">
+        <v>98</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H596" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="597" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B597" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H597" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="598" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B598" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F598">
+        <v>320</v>
+      </c>
+      <c r="H598" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="599" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B599" s="2">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="C599" t="s">
+        <v>863</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H599" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="600" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B600" s="2">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="C600" t="s">
+        <v>670</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H600" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="601" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B601" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="C601" t="s">
+        <v>743</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H601" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="602" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B602" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="C602" t="s">
+        <v>406</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="H602" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="603" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B603" s="2">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H603" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="604" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B604" s="2">
+        <v>0.75486111111111109</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F604">
+        <v>320</v>
+      </c>
+      <c r="H604" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="605" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B605" s="2">
         <v>0.81041666666666667</v>
       </c>
-      <c r="C596" t="s">
+      <c r="C605" t="s">
         <v>274</v>
       </c>
-      <c r="D596" s="3" t="s">
+      <c r="D605" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E596" s="3" t="s">
+      <c r="E605" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F596" t="s">
-        <v>1658</v>
-      </c>
-      <c r="H596" t="s">
-        <v>1701</v>
+      <c r="F605" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H605" t="s">
+        <v>1662</v>
       </c>
     </row>
   </sheetData>
@@ -35671,218 +37451,246 @@
     <hyperlink ref="D527" r:id="rId1767" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{F793D39F-CB8B-B34F-A0B9-1B302D88BCF9}"/>
     <hyperlink ref="E527" r:id="rId1768" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{3D643F7B-4076-F34A-AFBB-E15049F34658}"/>
     <hyperlink ref="F527" r:id="rId1769" tooltip="N445UA" display="https://www.flightradar24.com/data/aircraft/n445ua" xr:uid="{108C6D16-F7CF-D84F-ACF3-B6414F6EB720}"/>
-    <hyperlink ref="C528" r:id="rId1770" tooltip="DJR213" display="https://www.flightradar24.com/data/flights/djr213" xr:uid="{CBFE5F03-88E5-1B48-8C01-8795CAEDA5D0}"/>
-    <hyperlink ref="D528" r:id="rId1771" tooltip="Thermal Jacqueline Cochran Regional Airport, United States" display="https://www.flightradar24.com/data/airports/trm" xr:uid="{B4F2293F-77A1-C04A-9E1F-DA274BA7B18C}"/>
-    <hyperlink ref="C529" r:id="rId1772" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{08FE4231-BC9A-844C-95B1-0C8D6CDB7825}"/>
-    <hyperlink ref="D529" r:id="rId1773" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{C86AED1F-637C-5344-98BF-20D58A4CB60F}"/>
-    <hyperlink ref="E529" r:id="rId1774" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{41933962-E6FD-5340-8AF7-E5A8E59FE822}"/>
-    <hyperlink ref="D530" r:id="rId1775" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{255A2213-E182-0046-BEC6-1C531A6AD8A6}"/>
-    <hyperlink ref="E530" r:id="rId1776" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{CCA98758-2F3E-A94D-9DB0-FA182F484409}"/>
-    <hyperlink ref="F530" r:id="rId1777" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{A2A68972-730B-AA45-BFA7-20FC38A5BF42}"/>
-    <hyperlink ref="D531" r:id="rId1778" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{30D29B25-9192-2548-8DF8-0CE22B0B67FC}"/>
-    <hyperlink ref="E531" r:id="rId1779" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{FD0CB122-04C9-1441-8E32-F51EEA63610E}"/>
-    <hyperlink ref="F531" r:id="rId1780" tooltip="N606LR" display="https://www.flightradar24.com/data/aircraft/n606lr" xr:uid="{4445E3E9-7F01-0244-BC88-BCED4A16BFF9}"/>
-    <hyperlink ref="D532" r:id="rId1781" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{EC62417D-957D-8540-AC12-89A6DB0986E3}"/>
-    <hyperlink ref="E532" r:id="rId1782" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{635FAFEC-C876-F748-B7BC-C9B7B75872B3}"/>
-    <hyperlink ref="F532" r:id="rId1783" tooltip="N436AW" display="https://www.flightradar24.com/data/aircraft/n436aw" xr:uid="{A051AAC8-C40C-E140-8EED-CBA55022C97F}"/>
-    <hyperlink ref="D533" r:id="rId1784" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{724CBB93-10E7-5E46-BA68-31FDCC846D37}"/>
-    <hyperlink ref="E533" r:id="rId1785" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D553A19A-BAB5-A046-B22C-FD8DD8A60675}"/>
-    <hyperlink ref="F533" r:id="rId1786" tooltip="N927AT" display="https://www.flightradar24.com/data/aircraft/n927at" xr:uid="{70F08DB2-4E4C-DE4B-86C4-27EADE1D9085}"/>
-    <hyperlink ref="C534" r:id="rId1787" tooltip="DL5559" display="https://www.flightradar24.com/data/flights/dl5559" xr:uid="{C8531DBF-FDA0-D645-B6E8-473559BA1030}"/>
-    <hyperlink ref="D534" r:id="rId1788" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{775FDFE7-BF42-A444-A9E4-CC17FC496D14}"/>
-    <hyperlink ref="E534" r:id="rId1789" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{506ABFA2-E048-424D-8EC8-3BDCBB6CDEF4}"/>
-    <hyperlink ref="F534" r:id="rId1790" tooltip="N928XJ" display="https://www.flightradar24.com/data/aircraft/n928xj" xr:uid="{2483B262-C860-BC41-9FF7-73309F4A9A0F}"/>
-    <hyperlink ref="D535" r:id="rId1791" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{EE62F4E5-681F-6046-9BB3-97F6969EA6A3}"/>
-    <hyperlink ref="E535" r:id="rId1792" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D1ABF581-5D12-7D45-B3EC-8B1FDF54825E}"/>
-    <hyperlink ref="F535" r:id="rId1793" tooltip="N631SK" display="https://www.flightradar24.com/data/aircraft/n631sk" xr:uid="{A905F253-4FEE-8345-B1EE-2865FF10681E}"/>
-    <hyperlink ref="C536" r:id="rId1794" tooltip="JL43" display="https://www.flightradar24.com/data/flights/jl43" xr:uid="{00ACF097-B0F3-4741-8C4D-E340B45D43EC}"/>
-    <hyperlink ref="D536" r:id="rId1795" tooltip="Aspen Pitkin County Airport, United States" display="https://www.flightradar24.com/data/airports/ase" xr:uid="{CA5B906C-638B-D741-8DAC-00A5B90ED4FA}"/>
-    <hyperlink ref="E536" r:id="rId1796" tooltip="Jet Linx Aviation" display="https://www.flightradar24.com/data/airlines/jl-jtl" xr:uid="{99D99877-F49A-6A47-B2ED-E81B54B55390}"/>
-    <hyperlink ref="C537" r:id="rId1797" display="https://www.flightradar24.com/data/flights/" xr:uid="{79E178FC-6A61-6E44-A399-320D4420376D}"/>
-    <hyperlink ref="D537" r:id="rId1798" tooltip="Chicago Gary International, United States" display="https://www.flightradar24.com/data/airports/gyy" xr:uid="{F7C7ABD6-9A74-B048-893D-62742DD6B2DF}"/>
-    <hyperlink ref="C538" r:id="rId1799" tooltip="TJ816" display="https://www.flightradar24.com/data/flights/tj816" xr:uid="{2BB29186-F854-D64D-9C7C-B9B49A9E31A7}"/>
-    <hyperlink ref="D538" r:id="rId1800" tooltip="Grand Junction Regional Airport, United States" display="https://www.flightradar24.com/data/airports/gjt" xr:uid="{4A51AA1F-A597-B04C-A141-557EE51D8270}"/>
-    <hyperlink ref="E538" r:id="rId1801" tooltip="Tradewind Aviation" display="https://www.flightradar24.com/data/airlines/tj-gpd" xr:uid="{46405666-FC50-934D-8472-B8670529DBBE}"/>
-    <hyperlink ref="C539" r:id="rId1802" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{E068946C-E9D2-6742-B513-58BECCD220BE}"/>
-    <hyperlink ref="D539" r:id="rId1803" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{C73163B0-8367-F641-9330-7DFF0FA33937}"/>
-    <hyperlink ref="E539" r:id="rId1804" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1A0E0297-40B4-0043-B141-4358960A56A2}"/>
-    <hyperlink ref="F539" r:id="rId1805" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{FCC129D6-6EFE-9C42-A420-A24879677245}"/>
-    <hyperlink ref="C540" r:id="rId1806" display="https://www.flightradar24.com/data/flights/" xr:uid="{5D4F268F-0973-EA4C-85F4-DAC1B5C51708}"/>
-    <hyperlink ref="D540" r:id="rId1807" tooltip="Minneapolis Anoka County Blaine Airport, United States" display="https://www.flightradar24.com/data/airports/qqa" xr:uid="{783E9005-2B13-FF4A-B604-C74B19F3F9B7}"/>
-    <hyperlink ref="F540" r:id="rId1808" tooltip="N481JB" display="https://www.flightradar24.com/data/aircraft/n481jb" xr:uid="{46967E26-D725-6D4A-8E65-017B95A78103}"/>
-    <hyperlink ref="C541" r:id="rId1809" tooltip="JUS811" display="https://www.flightradar24.com/data/flights/jus811" xr:uid="{BC388998-D4A2-054F-A5F7-F92CB9845099}"/>
-    <hyperlink ref="D541" r:id="rId1810" tooltip="Hickory Regional, United States" display="https://www.flightradar24.com/data/airports/hky" xr:uid="{622868C9-AE05-FE4C-87EF-CC613CD8A654}"/>
-    <hyperlink ref="E541" r:id="rId1811" tooltip="USA Jet Airlines" display="https://www.flightradar24.com/data/airlines/-jus" xr:uid="{FDD16789-4CD5-A540-A555-711FEEF546C9}"/>
-    <hyperlink ref="C542" r:id="rId1812" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{0E4A1EB6-26C0-734C-84B8-80CCEC8A1A24}"/>
-    <hyperlink ref="D542" r:id="rId1813" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{84BAD6E5-D28D-7C45-9B73-33DFF91CACFC}"/>
-    <hyperlink ref="E542" r:id="rId1814" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{9DD7445F-EF1A-0C4C-B088-1A2A9E88AC32}"/>
-    <hyperlink ref="F542" r:id="rId1815" tooltip="N608NN" display="https://www.flightradar24.com/data/aircraft/n608nn" xr:uid="{08FA7E41-F1FB-0342-887F-88B1FB8B1AD7}"/>
-    <hyperlink ref="D543" r:id="rId1816" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{BDCCC262-B17B-9A46-B194-38C4524814CF}"/>
-    <hyperlink ref="E543" r:id="rId1817" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{F5BA3E46-DD66-1C4F-9C0A-BD78090E7D64}"/>
-    <hyperlink ref="F543" r:id="rId1818" tooltip="N912SW" display="https://www.flightradar24.com/data/aircraft/n912sw" xr:uid="{EA2B3EB8-EFE5-8548-A1DC-C69952970D53}"/>
-    <hyperlink ref="C544" r:id="rId1819" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{9384B33F-499E-354B-8183-77A40BDBE726}"/>
-    <hyperlink ref="D544" r:id="rId1820" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{D01ABC94-3727-AC48-B9A8-72C4D562AC6B}"/>
-    <hyperlink ref="E544" r:id="rId1821" tooltip="Southwest Airlines (Maryland One Livery)" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{8AD422D0-549A-994A-97E3-63610CA06A97}"/>
-    <hyperlink ref="F544" r:id="rId1822" tooltip="N214WN" display="https://www.flightradar24.com/data/aircraft/n214wn" xr:uid="{058E0C41-35E2-214B-A571-0839A5C0D03D}"/>
-    <hyperlink ref="C545" r:id="rId1823" tooltip="F9471" display="https://www.flightradar24.com/data/flights/f9471" xr:uid="{029DEDAF-C5CD-C145-8C5F-E3BD30739374}"/>
-    <hyperlink ref="D545" r:id="rId1824" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{7605C73E-EEFA-7F4A-8C13-F88DD8613226}"/>
-    <hyperlink ref="E545" r:id="rId1825" tooltip="Frontier (Jo Jo the Grizzly Bear Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{29931389-719F-5D42-A877-0632202969E3}"/>
-    <hyperlink ref="F545" r:id="rId1826" tooltip="N335FR" display="https://www.flightradar24.com/data/aircraft/n335fr" xr:uid="{1FF715F7-B758-734A-8C57-FCD17E2884A0}"/>
-    <hyperlink ref="D546" r:id="rId1827" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{EB8AF98C-FB92-3840-9E9D-C05015DEEC89}"/>
-    <hyperlink ref="E546" r:id="rId1828" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{DC314F68-BF96-114F-B7A0-DEE436DF73A5}"/>
-    <hyperlink ref="F546" r:id="rId1829" tooltip="N82338" display="https://www.flightradar24.com/data/aircraft/n82338" xr:uid="{D4084261-5D1C-DF43-AE84-3A4F3729D7DF}"/>
-    <hyperlink ref="C547" r:id="rId1830" display="https://www.flightradar24.com/data/flights/" xr:uid="{44934817-0A4C-5B40-BAE6-CA8BACF7476B}"/>
-    <hyperlink ref="D547" r:id="rId1831" tooltip="Dallas Love Field Airport, United States" display="https://www.flightradar24.com/data/airports/dal" xr:uid="{B41B93C6-75E9-C740-A702-CA9F5191C79A}"/>
-    <hyperlink ref="F547" r:id="rId1832" tooltip="N900H" display="https://www.flightradar24.com/data/aircraft/n900h" xr:uid="{DE7EAA2E-BB03-AC4E-9C00-9D49BDFBF062}"/>
-    <hyperlink ref="D548" r:id="rId1833" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{5A037CFB-FB96-AC42-849E-16B73059FC74}"/>
-    <hyperlink ref="E548" r:id="rId1834" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{531AA077-E137-C84D-989B-49F8CC9A384D}"/>
-    <hyperlink ref="F548" r:id="rId1835" tooltip="N677AE" display="https://www.flightradar24.com/data/aircraft/n677ae" xr:uid="{3C04C24B-D5AA-2941-B8C0-3B3BE132DF2F}"/>
-    <hyperlink ref="D549" r:id="rId1836" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{698B4D06-FB4E-2D4A-92C3-B0F0E78F2A1A}"/>
-    <hyperlink ref="E549" r:id="rId1837" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DF5B37CF-A7C8-5945-9F69-8EE7CF902A6C}"/>
-    <hyperlink ref="F549" r:id="rId1838" tooltip="N713UW" display="https://www.flightradar24.com/data/aircraft/n713uw" xr:uid="{9C3CBDBD-7734-AB4E-84B2-5ED13AC8882F}"/>
-    <hyperlink ref="D550" r:id="rId1839" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{DE3E1CA5-86B8-6A4E-B511-3984E4529E96}"/>
-    <hyperlink ref="E550" r:id="rId1840" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{57163F0C-6E69-BC49-8C21-FDC1AA3A4FBE}"/>
-    <hyperlink ref="F550" r:id="rId1841" tooltip="N86309" display="https://www.flightradar24.com/data/aircraft/n86309" xr:uid="{18D1DB91-3AD3-7D46-857A-124102E6DCDC}"/>
-    <hyperlink ref="C551" r:id="rId1842" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{64CD9A15-4E57-2F47-BBD8-22699057AF76}"/>
-    <hyperlink ref="D551" r:id="rId1843" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{4F0A4786-4C92-654F-B336-B1E0B0E65EBB}"/>
-    <hyperlink ref="E551" r:id="rId1844" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{09E18CE7-431B-6941-B7B8-58A533541332}"/>
-    <hyperlink ref="F551" r:id="rId1845" tooltip="N241WN" display="https://www.flightradar24.com/data/aircraft/n241wn" xr:uid="{6D5BD197-9670-8244-B959-390DFC4AC534}"/>
-    <hyperlink ref="D552" r:id="rId1846" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{14E2ED72-5DA3-454C-B862-E26F9F8A8E54}"/>
-    <hyperlink ref="E552" r:id="rId1847" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{4ECBB466-BF0A-654B-BB69-25F1A08C435C}"/>
-    <hyperlink ref="F552" r:id="rId1848" tooltip="N965AT" display="https://www.flightradar24.com/data/aircraft/n965at" xr:uid="{3DF80F90-A633-7249-9E55-D20B03936BA5}"/>
-    <hyperlink ref="D553" r:id="rId1849" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{91CD4F00-1997-9148-B9BE-9E1C3FB27E26}"/>
-    <hyperlink ref="E553" r:id="rId1850" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{E6A7781F-774A-574F-B134-745BE2065DB4}"/>
-    <hyperlink ref="F553" r:id="rId1851" tooltip="N456UA" display="https://www.flightradar24.com/data/aircraft/n456ua" xr:uid="{8DB76E5F-4CFC-224D-A92D-97BFC3F6B624}"/>
-    <hyperlink ref="D554" r:id="rId1852" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{F2D15F09-CAC3-9945-9DDC-8F6BADC834F7}"/>
-    <hyperlink ref="E554" r:id="rId1853" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{F59C26A6-C964-E643-80F9-12DA7BD5F952}"/>
-    <hyperlink ref="F554" r:id="rId1854" tooltip="N678CA" display="https://www.flightradar24.com/data/aircraft/n678ca" xr:uid="{6B145207-D11D-604B-82DB-31231B575BA0}"/>
-    <hyperlink ref="D555" r:id="rId1855" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{565B5D33-A9F8-5F42-857B-928086783233}"/>
-    <hyperlink ref="E555" r:id="rId1856" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B715BA86-9521-7045-8028-83B6E0A07341}"/>
-    <hyperlink ref="F555" r:id="rId1857" tooltip="N764US" display="https://www.flightradar24.com/data/aircraft/n764us" xr:uid="{F3E86FA9-8C6E-DB43-B642-4C52FABD1E60}"/>
-    <hyperlink ref="D556" r:id="rId1858" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{34FCF271-71D3-CE49-A215-BE13766D4E16}"/>
-    <hyperlink ref="E556" r:id="rId1859" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E539DD87-61AD-E14F-A06B-F06C4E94A996}"/>
-    <hyperlink ref="F556" r:id="rId1860" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{E9FF1443-5D22-854D-93C3-A8C36C2E5D4A}"/>
-    <hyperlink ref="C557" r:id="rId1861" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{032B8DBC-CB3D-4046-A403-AF2E4FF7B0A4}"/>
-    <hyperlink ref="D557" r:id="rId1862" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{E98CE8AE-4F27-D148-A9EC-E05E6D18F8FC}"/>
-    <hyperlink ref="E557" r:id="rId1863" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{CE51E68D-B7F4-364B-AB0B-6625D812CEE7}"/>
-    <hyperlink ref="F557" r:id="rId1864" tooltip="N547NN" display="https://www.flightradar24.com/data/aircraft/n547nn" xr:uid="{302715C7-9E97-E14A-87EF-64251382166F}"/>
-    <hyperlink ref="C558" r:id="rId1865" tooltip="FX1211" display="https://www.flightradar24.com/data/flights/fx1211" xr:uid="{3A91E68B-EE48-F147-8284-C76CC568D063}"/>
-    <hyperlink ref="D558" r:id="rId1866" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{4DF6A26F-CFC9-F042-953A-231565580A79}"/>
-    <hyperlink ref="E558" r:id="rId1867" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{892213E9-B586-AF40-AF5A-BC2A1781DB35}"/>
-    <hyperlink ref="C559" r:id="rId1868" tooltip="5X513" display="https://www.flightradar24.com/data/flights/5x513" xr:uid="{9AB1A5AE-B53B-B84D-AFE8-2BEBC3C002A6}"/>
-    <hyperlink ref="D559" r:id="rId1869" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{747AA801-21CF-2543-856C-59E073195E1D}"/>
-    <hyperlink ref="E559" r:id="rId1870" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{F739A2EE-7774-B14F-B39E-BF8889973268}"/>
-    <hyperlink ref="D561" r:id="rId1871" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{C6D6C743-CB58-8A43-915C-3BFC6DBAAC6B}"/>
-    <hyperlink ref="E561" r:id="rId1872" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2FC9E838-4657-8840-A033-2A8B68A85BCF}"/>
-    <hyperlink ref="F561" r:id="rId1873" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{52955152-AB91-3F49-859B-CB215BA5117A}"/>
-    <hyperlink ref="D562" r:id="rId1874" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{DBAFE020-13F4-8944-93B8-10FFA72CC25A}"/>
-    <hyperlink ref="E562" r:id="rId1875" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{AA5CFD7A-25CA-2A48-B98A-84B23336680E}"/>
-    <hyperlink ref="F562" r:id="rId1876" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{754BB136-8BB1-724D-AEC1-A1D3CB17AE2B}"/>
-    <hyperlink ref="C563" r:id="rId1877" tooltip="AA4812" display="https://www.flightradar24.com/data/flights/aa4812" xr:uid="{1544D1BA-60EF-4A49-A247-4AD9460B34A1}"/>
-    <hyperlink ref="D563" r:id="rId1878" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{14D05F72-E706-814F-BDA0-C774DC81A427}"/>
-    <hyperlink ref="E563" r:id="rId1879" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2A4E181B-C890-0346-86F1-93A3A423E01B}"/>
-    <hyperlink ref="D564" r:id="rId1880" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{02AAE518-CF28-5443-A05F-756D9FB4CA00}"/>
-    <hyperlink ref="E564" r:id="rId1881" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A9617357-48A4-3849-AAB9-C49F5870FBC6}"/>
-    <hyperlink ref="F564" r:id="rId1882" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{131117E1-B8F7-9546-8696-FC2AB4D0788A}"/>
-    <hyperlink ref="D565" r:id="rId1883" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{5CE2BE1C-7DAD-D240-95D2-0EB5DA75F2C8}"/>
-    <hyperlink ref="E565" r:id="rId1884" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3DC11A8F-1D15-BC4D-8402-AA613C2F4BA2}"/>
-    <hyperlink ref="F565" r:id="rId1885" tooltip="N274NN" display="https://www.flightradar24.com/data/aircraft/n274nn" xr:uid="{D240CBBF-7212-324C-AFA6-04447EE12FB6}"/>
-    <hyperlink ref="D566" r:id="rId1886" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{BC2AC51E-ECAD-BF44-BFD3-06480626C754}"/>
-    <hyperlink ref="E566" r:id="rId1887" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{D7B00464-1E2C-5A46-BC86-3AB4D329B668}"/>
-    <hyperlink ref="F566" r:id="rId1888" tooltip="N86371" display="https://www.flightradar24.com/data/aircraft/n86371" xr:uid="{DFE69D98-EA83-0745-8E04-A9882D0881B1}"/>
-    <hyperlink ref="C567" r:id="rId1889" tooltip="DL5469" display="https://www.flightradar24.com/data/flights/dl5469" xr:uid="{015479CD-F945-054A-8EA2-40CED7756DB5}"/>
-    <hyperlink ref="D567" r:id="rId1890" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{D753C93D-4051-5144-8631-9117589DE472}"/>
-    <hyperlink ref="E567" r:id="rId1891" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{6D170809-7424-2247-8A27-23988EB9D108}"/>
-    <hyperlink ref="F567" r:id="rId1892" tooltip="N926XJ" display="https://www.flightradar24.com/data/aircraft/n926xj" xr:uid="{399DB9D6-9B41-4145-BB82-A1F7FC3AE7A5}"/>
-    <hyperlink ref="C568" r:id="rId1893" tooltip="AA2854" display="https://www.flightradar24.com/data/flights/aa2854" xr:uid="{3C2D8947-ACEB-EC49-A726-28946C04B428}"/>
-    <hyperlink ref="D568" r:id="rId1894" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{DD97D8A8-647D-244A-B53C-BD26DE9F308C}"/>
-    <hyperlink ref="E568" r:id="rId1895" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E2ED4740-628E-F74D-B336-5E7BEAE77E24}"/>
-    <hyperlink ref="F568" r:id="rId1896" tooltip="N711UW" display="https://www.flightradar24.com/data/aircraft/n711uw" xr:uid="{418E958B-B4FB-A84D-A4C4-515421F6CB4B}"/>
-    <hyperlink ref="D569" r:id="rId1897" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{31A5B415-D27E-7641-A1C9-550D52D16276}"/>
-    <hyperlink ref="E569" r:id="rId1898" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{62886EE7-AB17-014E-A622-ECE218A66636}"/>
-    <hyperlink ref="F569" r:id="rId1899" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{B46F3BD7-1C55-AD42-B226-0D9FD18F8766}"/>
-    <hyperlink ref="D570" r:id="rId1900" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{F10D046A-D9C6-5945-87DE-63A7D03FB2B2}"/>
-    <hyperlink ref="E570" r:id="rId1901" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D4546A41-AD7C-6049-9CE9-0649EC834CF6}"/>
-    <hyperlink ref="F570" r:id="rId1902" tooltip="N836AW" display="https://www.flightradar24.com/data/aircraft/n836aw" xr:uid="{FE1F2DD9-338C-4D45-8191-AE959C4A0193}"/>
-    <hyperlink ref="C571" r:id="rId1903" tooltip="FX697" display="https://www.flightradar24.com/data/flights/fx697" xr:uid="{3BB1CAF6-CAE3-C743-8DD3-21ED2E5A7344}"/>
-    <hyperlink ref="D571" r:id="rId1904" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{ACA18EFA-52AB-8441-A29C-4930B8ED3342}"/>
-    <hyperlink ref="E571" r:id="rId1905" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{8896E845-3653-3F45-BC98-641A0014D47B}"/>
-    <hyperlink ref="D572" r:id="rId1906" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{4A3D5574-E8DC-7242-9335-B0A30725D4FB}"/>
-    <hyperlink ref="E572" r:id="rId1907" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{A95A1FA6-6BF3-C740-8BAE-CDF30C907359}"/>
-    <hyperlink ref="F572" r:id="rId1908" tooltip="N66848" display="https://www.flightradar24.com/data/aircraft/n66848" xr:uid="{F1B5A104-085B-3C42-A882-F0C2DFD96FD8}"/>
-    <hyperlink ref="C573" r:id="rId1909" tooltip="WN1480" display="https://www.flightradar24.com/data/flights/wn1480" xr:uid="{2B0B7953-1176-7E4B-A1E4-B6920F21B0CF}"/>
-    <hyperlink ref="D573" r:id="rId1910" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{284452E8-863D-6845-920C-FE7FDFD411DC}"/>
-    <hyperlink ref="E573" r:id="rId1911" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{D418D645-CE7B-754D-932A-0C1988DE45D0}"/>
-    <hyperlink ref="F573" r:id="rId1912" tooltip="N8693A" display="https://www.flightradar24.com/data/aircraft/n8693a" xr:uid="{E0E8BC2B-2ABC-C040-8B39-2D22A874C256}"/>
-    <hyperlink ref="D574" r:id="rId1913" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{9605519B-12C5-8F41-98E3-199B717A2FC7}"/>
-    <hyperlink ref="E574" r:id="rId1914" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{A01548E6-18C1-F04E-9104-5FF4E84F880C}"/>
-    <hyperlink ref="F574" r:id="rId1915" tooltip="N470UA" display="https://www.flightradar24.com/data/aircraft/n470ua" xr:uid="{3AA8D69D-60C4-8449-A8C2-34E03CD5A6D4}"/>
-    <hyperlink ref="D575" r:id="rId1916" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{5F6DA0D2-9CFE-004A-B7E5-0BDBC999EC21}"/>
-    <hyperlink ref="E575" r:id="rId1917" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{D252EC00-3426-5F46-8210-08ED6D9DE1D2}"/>
-    <hyperlink ref="F575" r:id="rId1918" tooltip="N685AE" display="https://www.flightradar24.com/data/aircraft/n685ae" xr:uid="{71A9CE01-F297-5042-A328-C61437A647ED}"/>
-    <hyperlink ref="D576" r:id="rId1919" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{9AA8C53B-6382-CA42-AA2A-16566BB2CDFF}"/>
-    <hyperlink ref="E576" r:id="rId1920" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{5C865B1E-0315-7848-8A00-F99A090227E1}"/>
-    <hyperlink ref="F576" r:id="rId1921" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{DF58A3DE-819B-1E49-AE2A-0BABEBC414E2}"/>
-    <hyperlink ref="D577" r:id="rId1922" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{2F7E19AD-F718-0940-AABA-F7E290091EA3}"/>
-    <hyperlink ref="E577" r:id="rId1923" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{1C739DB6-8C7F-5147-8B39-5A359C017201}"/>
-    <hyperlink ref="F577" r:id="rId1924" tooltip="N469AW" display="https://www.flightradar24.com/data/aircraft/n469aw" xr:uid="{3007EC45-0062-804C-B72A-851429AF343E}"/>
-    <hyperlink ref="D578" r:id="rId1925" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{E328C937-3A16-0E4E-978D-45161BCBD74E}"/>
-    <hyperlink ref="E578" r:id="rId1926" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{9A4ED850-3863-D640-A840-49A1DCEC26D2}"/>
-    <hyperlink ref="F578" r:id="rId1927" tooltip="N717JL" display="https://www.flightradar24.com/data/aircraft/n717jl" xr:uid="{BC3F3E11-855F-0446-87AA-1FD9C63735CD}"/>
-    <hyperlink ref="D579" r:id="rId1928" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{311C9516-5951-4F4C-9BCE-341B30937031}"/>
-    <hyperlink ref="E579" r:id="rId1929" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{81D1F0D2-7747-9B4F-912E-9B084F3E0E97}"/>
-    <hyperlink ref="C580" r:id="rId1930" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{2A364126-9A06-404B-B89C-5D07F43ADB7E}"/>
-    <hyperlink ref="D580" r:id="rId1931" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{E58C8075-8AEC-8147-BD20-B99739F977B4}"/>
-    <hyperlink ref="E580" r:id="rId1932" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{7168D6A9-DF22-AF40-9DB8-EB9728A7CB5F}"/>
-    <hyperlink ref="F580" r:id="rId1933" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{CD6C5FED-1D0C-4246-BE37-C72F25F19F0B}"/>
-    <hyperlink ref="C581" r:id="rId1934" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{A35A59A1-70B3-8342-9775-FE803E1A646F}"/>
-    <hyperlink ref="D581" r:id="rId1935" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{91E3C3C5-ABFB-714B-85A7-5C3821FF7AB2}"/>
-    <hyperlink ref="E581" r:id="rId1936" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{67C842D1-4359-7240-A48B-6A0454DEA21C}"/>
-    <hyperlink ref="D582" r:id="rId1937" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{4711EC88-6FA8-CB45-BB57-22D3405C8770}"/>
-    <hyperlink ref="E582" r:id="rId1938" tooltip="SkyWest Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{8BD75293-9769-6841-A533-2FE671D83FFC}"/>
-    <hyperlink ref="F582" r:id="rId1939" tooltip="N709BR" display="https://www.flightradar24.com/data/aircraft/n709br" xr:uid="{0D1E3715-A7FF-D747-A5F6-C979118FD09B}"/>
-    <hyperlink ref="C583" r:id="rId1940" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{A478C499-B38D-DA4A-859B-56A469D19223}"/>
-    <hyperlink ref="D583" r:id="rId1941" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{DA9B080E-686C-5144-B9A5-8CD7F187EF5A}"/>
-    <hyperlink ref="E583" r:id="rId1942" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{0076EF0F-E3A9-A241-8B59-1D74FF3F3855}"/>
-    <hyperlink ref="F583" r:id="rId1943" tooltip="N281WN" display="https://www.flightradar24.com/data/aircraft/n281wn" xr:uid="{A55E3282-FFFC-064D-8830-5D19AAF6FB29}"/>
-    <hyperlink ref="D584" r:id="rId1944" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{DCEE416F-7FD8-D542-8661-EB0B683B5AEB}"/>
-    <hyperlink ref="E584" r:id="rId1945" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{6149B65B-61D4-164C-B806-0A60CCBA116A}"/>
-    <hyperlink ref="F584" r:id="rId1946" tooltip="N89317" display="https://www.flightradar24.com/data/aircraft/n89317" xr:uid="{A8D44F6F-D155-6C49-B4B6-3916E5BB6034}"/>
-    <hyperlink ref="D585" r:id="rId1947" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{3C30EB2B-BA79-E744-B8CF-F662AF2F5C9A}"/>
-    <hyperlink ref="E585" r:id="rId1948" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E45B88BF-A50E-B14F-936F-D5A56B1F6155}"/>
-    <hyperlink ref="F585" r:id="rId1949" tooltip="N605KS" display="https://www.flightradar24.com/data/aircraft/n605ks" xr:uid="{18B36A48-A569-3247-80DE-7DF29E8DFF4F}"/>
-    <hyperlink ref="D586" r:id="rId1950" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{F2E074C6-1EBA-634F-9972-460B026780A5}"/>
-    <hyperlink ref="E586" r:id="rId1951" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{BBA86838-DFAF-EB44-9B45-87BF91B93640}"/>
-    <hyperlink ref="F586" r:id="rId1952" tooltip="N604AW" display="https://www.flightradar24.com/data/aircraft/n604aw" xr:uid="{BCA073BC-B447-A346-BCB6-BAF44B6098C1}"/>
-    <hyperlink ref="D587" r:id="rId1953" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{BD80536E-2160-F640-988D-12388A514F82}"/>
-    <hyperlink ref="E587" r:id="rId1954" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{61889E66-DFD3-BB48-A554-2E2F22F5EB73}"/>
-    <hyperlink ref="F587" r:id="rId1955" tooltip="N88332" display="https://www.flightradar24.com/data/aircraft/n88332" xr:uid="{B34E568E-1089-A64C-A038-09F13448EE4A}"/>
-    <hyperlink ref="C588" r:id="rId1956" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{9D7EC79C-AE3E-1A49-B9A7-F35D7D0B12AF}"/>
-    <hyperlink ref="D588" r:id="rId1957" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{2CFAD8F4-A230-9C4C-A253-61B1CA4745A2}"/>
-    <hyperlink ref="E588" r:id="rId1958" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{FD85CD10-0674-9D48-9C0C-B9EAC044D6DC}"/>
-    <hyperlink ref="F588" r:id="rId1959" tooltip="N7721E" display="https://www.flightradar24.com/data/aircraft/n7721e" xr:uid="{2D2E5F06-4343-104D-9232-D250D1F22F1D}"/>
-    <hyperlink ref="D589" r:id="rId1960" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{0837D5E4-3FF4-2C45-9798-2704FF98E853}"/>
-    <hyperlink ref="E589" r:id="rId1961" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{60FB574D-4C4F-D241-877D-6DDC1623924A}"/>
-    <hyperlink ref="F589" r:id="rId1962" tooltip="N925AT" display="https://www.flightradar24.com/data/aircraft/n925at" xr:uid="{C4872609-8C66-DC47-AC94-C58106650ABD}"/>
-    <hyperlink ref="D590" r:id="rId1963" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{FC45CD6C-6A88-5A45-AB38-DCAD69D78D80}"/>
-    <hyperlink ref="E590" r:id="rId1964" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{7A19AA26-6F79-5044-9489-135BB4D21D45}"/>
-    <hyperlink ref="F590" r:id="rId1965" tooltip="N851UA" display="https://www.flightradar24.com/data/aircraft/n851ua" xr:uid="{9D901324-A17F-A040-AECB-A04418B14758}"/>
-    <hyperlink ref="D591" r:id="rId1966" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{D0D75C51-4369-4046-8F91-8BA3EBF7B6ED}"/>
-    <hyperlink ref="E591" r:id="rId1967" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{F9C7B664-5285-A84F-81AE-4EC7CC6B13E4}"/>
-    <hyperlink ref="F591" r:id="rId1968" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{C1B0A5FF-6884-3D40-ACAE-445A70F17A88}"/>
-    <hyperlink ref="D592" r:id="rId1969" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{D0BCD96B-F1D7-B74E-8573-E9CB4A0673B2}"/>
-    <hyperlink ref="E592" r:id="rId1970" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E5625F05-72D7-8C45-8F5C-E8A45E3EF918}"/>
-    <hyperlink ref="D593" r:id="rId1971" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{E67E638A-327F-C444-9643-0DB7007573F9}"/>
-    <hyperlink ref="E593" r:id="rId1972" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B8061471-4CE7-FE45-B88F-F490C38DEB16}"/>
-    <hyperlink ref="F593" r:id="rId1973" tooltip="N816AW" display="https://www.flightradar24.com/data/aircraft/n816aw" xr:uid="{F3A0AA69-CA15-B345-9E0E-4AD30E630848}"/>
-    <hyperlink ref="D594" r:id="rId1974" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{2C86E72E-C9FF-064B-BD6E-E9949C3655FA}"/>
-    <hyperlink ref="E594" r:id="rId1975" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{E0F1A906-3902-5B46-B8A7-56C1CCC69D29}"/>
-    <hyperlink ref="F594" r:id="rId1976" tooltip="N293SY" display="https://www.flightradar24.com/data/aircraft/n293sy" xr:uid="{1E05451B-4151-AB4A-B1D4-1F0FA8C9CF8C}"/>
-    <hyperlink ref="C595" r:id="rId1977" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{325D3C55-C9B5-1346-B78E-2AFFEB231960}"/>
-    <hyperlink ref="D595" r:id="rId1978" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{0974DBA8-017F-0745-BEEA-149D5DAB9FC8}"/>
-    <hyperlink ref="E595" r:id="rId1979" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{367E26AB-0A3A-CF49-A9CA-8191FE9CD589}"/>
-    <hyperlink ref="D596" r:id="rId1980" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{E517C63C-A4EB-9B4F-BEA8-3147193960A5}"/>
-    <hyperlink ref="E596" r:id="rId1981" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{66718311-CEDA-2343-AB52-45FF874D1A26}"/>
+    <hyperlink ref="C528" r:id="rId1770" tooltip="FX422" display="https://www.flightradar24.com/data/flights/fx422" xr:uid="{BFE15E2B-EEA4-344B-9F4C-68B28C02DC09}"/>
+    <hyperlink ref="D528" r:id="rId1771" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{996C4A87-7F39-1443-B303-25490534506B}"/>
+    <hyperlink ref="E528" r:id="rId1772" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{63F692B0-145F-254D-A57C-4BD6C6F514B8}"/>
+    <hyperlink ref="C529" r:id="rId1773" display="https://www.flightradar24.com/data/flights/" xr:uid="{62909D83-1664-AA4F-BF55-5D5AD4F55E84}"/>
+    <hyperlink ref="D529" r:id="rId1774" tooltip="Indianapolis International Airport, United States" display="https://www.flightradar24.com/data/airports/ind" xr:uid="{136463DB-1731-4446-AB12-6A20255BA0C5}"/>
+    <hyperlink ref="F529" r:id="rId1775" tooltip="N70EJ" display="https://www.flightradar24.com/data/aircraft/n70ej" xr:uid="{0057EED4-843C-4442-A8A3-CF44318CE5C0}"/>
+    <hyperlink ref="D530" r:id="rId1776" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{05D98E2A-F9C2-E541-94C7-169A349E7BC3}"/>
+    <hyperlink ref="E530" r:id="rId1777" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{762C455F-FD2B-1E43-80C4-53B79716B8B2}"/>
+    <hyperlink ref="F530" r:id="rId1778" tooltip="N685AE" display="https://www.flightradar24.com/data/aircraft/n685ae" xr:uid="{3CC5CBF7-DAD5-7F41-B333-2DA24D758D80}"/>
+    <hyperlink ref="D531" r:id="rId1779" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{4C785DA5-CD4E-0345-AD83-242AA6B7B4BA}"/>
+    <hyperlink ref="E531" r:id="rId1780" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{5022F0AB-7F6B-CD40-9DE0-4F77FE04147E}"/>
+    <hyperlink ref="F531" r:id="rId1781" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{111F7513-A953-634A-88E9-E89F4CA06BEA}"/>
+    <hyperlink ref="D532" r:id="rId1782" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{11655B29-8802-DA49-8681-F9173A705BB1}"/>
+    <hyperlink ref="E532" r:id="rId1783" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{20830C0B-B12D-AE42-BF66-9BF4ADEB62F8}"/>
+    <hyperlink ref="F532" r:id="rId1784" tooltip="N465AW" display="https://www.flightradar24.com/data/aircraft/n465aw" xr:uid="{C3914552-B5EE-3842-9C39-494656DB0C4B}"/>
+    <hyperlink ref="D533" r:id="rId1785" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{46279171-5034-EC40-B8FD-D597941AD1AA}"/>
+    <hyperlink ref="E533" r:id="rId1786" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{5C87F8E7-817F-6946-B303-8461B715E46D}"/>
+    <hyperlink ref="F533" r:id="rId1787" tooltip="N717JL" display="https://www.flightradar24.com/data/aircraft/n717jl" xr:uid="{372538DE-10BC-7147-8F63-D100491079AD}"/>
+    <hyperlink ref="D534" r:id="rId1788" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{18028200-DE1F-CE44-8C76-C324A4F24089}"/>
+    <hyperlink ref="E534" r:id="rId1789" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{59E20049-9285-6E4F-B451-F8133088D2D5}"/>
+    <hyperlink ref="F534" r:id="rId1790" tooltip="N753SK" display="https://www.flightradar24.com/data/aircraft/n753sk" xr:uid="{7CBD4981-5B93-0844-93D7-3F5BF4338ECA}"/>
+    <hyperlink ref="C535" r:id="rId1791" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{B76BDF7D-3BB8-7344-B39B-B9964DDADAD9}"/>
+    <hyperlink ref="D535" r:id="rId1792" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{921E0EF9-1A3A-3C43-BDC5-E34042323BD9}"/>
+    <hyperlink ref="E535" r:id="rId1793" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{D8F1BA95-D6F2-564F-B726-5453DDC3D451}"/>
+    <hyperlink ref="F535" r:id="rId1794" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{9FCB61E0-5A68-4745-B5C0-8821A59DD9C3}"/>
+    <hyperlink ref="C536" r:id="rId1795" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{9587DB48-2C8C-E044-8EEA-27C945F341EA}"/>
+    <hyperlink ref="D536" r:id="rId1796" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{CBAFD4F5-82ED-FE4A-A347-A577B739C218}"/>
+    <hyperlink ref="E536" r:id="rId1797" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DD46052F-A00E-7540-8A1B-AC847073B0CB}"/>
+    <hyperlink ref="F536" r:id="rId1798" tooltip="N596NN" display="https://www.flightradar24.com/data/aircraft/n596nn" xr:uid="{83B663F1-0A15-484C-A6EC-ABBDFA6018F0}"/>
+    <hyperlink ref="D537" r:id="rId1799" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{84CD44DC-12D0-E34C-AE55-3510CFAB4F50}"/>
+    <hyperlink ref="E537" r:id="rId1800" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{B204B027-9ED1-D443-94F9-C6A745790733}"/>
+    <hyperlink ref="F537" r:id="rId1801" tooltip="N875AS" display="https://www.flightradar24.com/data/aircraft/n875as" xr:uid="{B6BE081F-6014-CA42-BE37-43B3E7A0726B}"/>
+    <hyperlink ref="C538" r:id="rId1802" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{2072B477-88D9-984A-84A4-C664D28207E6}"/>
+    <hyperlink ref="D538" r:id="rId1803" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{93BDB02B-1440-5F45-A914-668CE2F78DAD}"/>
+    <hyperlink ref="E538" r:id="rId1804" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{F4499D5F-614E-574D-97A2-172F8FA20320}"/>
+    <hyperlink ref="F538" r:id="rId1805" tooltip="N7815L" display="https://www.flightradar24.com/data/aircraft/n7815l" xr:uid="{5F9C95C3-83AF-774F-94A1-DD130F04B3CB}"/>
+    <hyperlink ref="D539" r:id="rId1806" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{B391830F-24BD-6041-A933-5219F0A47764}"/>
+    <hyperlink ref="E539" r:id="rId1807" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{851C465C-5282-C249-A003-7C8A58F5C3D5}"/>
+    <hyperlink ref="F539" r:id="rId1808" tooltip="N86344" display="https://www.flightradar24.com/data/aircraft/n86344" xr:uid="{1927B9D0-926C-0943-B635-A758EA02B463}"/>
+    <hyperlink ref="D540" r:id="rId1809" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{DC806D4E-980C-2F46-94C9-3F116B8116AD}"/>
+    <hyperlink ref="E540" r:id="rId1810" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{C0FFB556-AC8E-9D42-8544-B8F9075486DE}"/>
+    <hyperlink ref="F540" r:id="rId1811" tooltip="N661JA" display="https://www.flightradar24.com/data/aircraft/n661ja" xr:uid="{D6E4F3AA-47FB-474B-A396-7234677DD36F}"/>
+    <hyperlink ref="D541" r:id="rId1812" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{9BE88D43-BB95-D846-B95A-7BB3C7FE4182}"/>
+    <hyperlink ref="E541" r:id="rId1813" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{EEBA5384-66FF-FE45-84D1-6AA61300A6AC}"/>
+    <hyperlink ref="F541" r:id="rId1814" tooltip="N814AW" display="https://www.flightradar24.com/data/aircraft/n814aw" xr:uid="{BDF658AA-BB5C-1549-9A61-247AC90286BB}"/>
+    <hyperlink ref="D542" r:id="rId1815" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{FDC378E3-F58D-5F48-A601-9D56DF7E7E4C}"/>
+    <hyperlink ref="E542" r:id="rId1816" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{377BF129-665D-FD4D-9FC5-44C353BE0F00}"/>
+    <hyperlink ref="F542" r:id="rId1817" tooltip="N88332" display="https://www.flightradar24.com/data/aircraft/n88332" xr:uid="{9BEDA493-8120-6442-A3A2-D6D288B6D881}"/>
+    <hyperlink ref="C543" r:id="rId1818" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{26B63B46-C625-2649-823D-56267098F38F}"/>
+    <hyperlink ref="D543" r:id="rId1819" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{2FC1F33C-498D-B24B-BE33-16CAF7632C48}"/>
+    <hyperlink ref="E543" r:id="rId1820" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{44D9B4A8-B6F4-2144-BD05-8DC8CD33E3CE}"/>
+    <hyperlink ref="F543" r:id="rId1821" tooltip="N285WN" display="https://www.flightradar24.com/data/aircraft/n285wn" xr:uid="{73AEA7A2-1495-4F45-8EDB-FC08A32DB379}"/>
+    <hyperlink ref="D544" r:id="rId1822" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{4BE43D13-9520-AA4D-9B87-76918D475D40}"/>
+    <hyperlink ref="E544" r:id="rId1823" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A3CBE00E-4234-1645-AABE-2D6F7B41807D}"/>
+    <hyperlink ref="F544" r:id="rId1824" tooltip="N925AT" display="https://www.flightradar24.com/data/aircraft/n925at" xr:uid="{DFEA93B5-CE46-AC4D-ABA0-FF3C0EF3F965}"/>
+    <hyperlink ref="D545" r:id="rId1825" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{B5536966-4F42-8C47-B7DF-6BFACA87B8E8}"/>
+    <hyperlink ref="E545" r:id="rId1826" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{9948684A-613A-FA48-972A-97973632CCE6}"/>
+    <hyperlink ref="F545" r:id="rId1827" tooltip="N851UA" display="https://www.flightradar24.com/data/aircraft/n851ua" xr:uid="{88615D6D-3DB2-9B40-8D90-952038F64857}"/>
+    <hyperlink ref="C546" r:id="rId1828" tooltip="LXJ415" display="https://www.flightradar24.com/data/flights/lxj415" xr:uid="{36BCFADE-35C9-4743-8672-BC811C387A46}"/>
+    <hyperlink ref="D546" r:id="rId1829" tooltip="Spirit of St. Louis Airport, United States" display="https://www.flightradar24.com/data/airports/sus" xr:uid="{24CD7E1F-729D-A344-B374-B6E0E62A4A68}"/>
+    <hyperlink ref="E546" r:id="rId1830" tooltip="Flexjet" display="https://www.flightradar24.com/data/airlines/-lxj" xr:uid="{87FB669A-1F90-9341-AB94-69AEE68E9B40}"/>
+    <hyperlink ref="D547" r:id="rId1831" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{CE5CA3FB-D709-8B44-AF9A-921A63D50F98}"/>
+    <hyperlink ref="E547" r:id="rId1832" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{370C0D8A-A6CC-1741-B2BC-0DC4DFB6B0A8}"/>
+    <hyperlink ref="F547" r:id="rId1833" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{81CCD688-091F-7544-82B3-AB7567DEFD6E}"/>
+    <hyperlink ref="D548" r:id="rId1834" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{0CEB756E-934E-9F49-89E5-A2ECE4BAD3F8}"/>
+    <hyperlink ref="E548" r:id="rId1835" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{3985B2E4-B68C-4B4A-A869-EF550D9EBCF8}"/>
+    <hyperlink ref="F548" r:id="rId1836" tooltip="N718SK" display="https://www.flightradar24.com/data/aircraft/n718sk" xr:uid="{9F394549-0F4A-E04C-A502-3F4538CE13F1}"/>
+    <hyperlink ref="D549" r:id="rId1837" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{D6C73766-17EE-B347-A2B7-15445395EF99}"/>
+    <hyperlink ref="E549" r:id="rId1838" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{A052E9C2-2E8B-8E49-B61D-0F7236D4DA3D}"/>
+    <hyperlink ref="F549" r:id="rId1839" tooltip="N816AW" display="https://www.flightradar24.com/data/aircraft/n816aw" xr:uid="{AA7DD5EA-B60D-F24F-93F5-13905BE5C0F1}"/>
+    <hyperlink ref="D550" r:id="rId1840" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{5BDC0206-ABD4-B34B-8DE9-00740AA33468}"/>
+    <hyperlink ref="E550" r:id="rId1841" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{37068ECF-3261-FF4C-AD71-FE8A4ADD2AF3}"/>
+    <hyperlink ref="F550" r:id="rId1842" tooltip="N256SY" display="https://www.flightradar24.com/data/aircraft/n256sy" xr:uid="{4B04A6B8-E9F2-3D4E-A943-C8982544D291}"/>
+    <hyperlink ref="C551" r:id="rId1843" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{2228B261-FBBE-FC48-A71E-C8791DFACB5C}"/>
+    <hyperlink ref="D551" r:id="rId1844" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{D2219A18-D278-F141-87F1-085203ED2B87}"/>
+    <hyperlink ref="E551" r:id="rId1845" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{46D8BC8E-58B1-6F42-BF09-A9D9AF8DF8EF}"/>
+    <hyperlink ref="F551" r:id="rId1846" tooltip="N550NN" display="https://www.flightradar24.com/data/aircraft/n550nn" xr:uid="{BBD0DC57-A869-B345-B562-C7BCC45C90F9}"/>
+    <hyperlink ref="D552" r:id="rId1847" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{3E0FF9F8-6AD7-1845-8DF2-5F06C404533B}"/>
+    <hyperlink ref="E552" r:id="rId1848" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{CFC29386-373B-A049-8CCD-AAB0B7E3107C}"/>
+    <hyperlink ref="F552" r:id="rId1849" tooltip="N705SK" display="https://www.flightradar24.com/data/aircraft/n705sk" xr:uid="{CDE5F5DA-7E96-C749-BA6A-5AF7382FF2A0}"/>
+    <hyperlink ref="C553" r:id="rId1850" tooltip="FX1211" display="https://www.flightradar24.com/data/flights/fx1211" xr:uid="{1E494451-1E9E-A747-BAB0-3B941732A98E}"/>
+    <hyperlink ref="D553" r:id="rId1851" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{903F5E4A-E549-FC4F-B5E0-F445BA5E1588}"/>
+    <hyperlink ref="E553" r:id="rId1852" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{E86DC766-3DB9-E24C-9FB6-F2BE11D64EF0}"/>
+    <hyperlink ref="C554" r:id="rId1853" display="https://www.flightradar24.com/data/flights/" xr:uid="{605F5E7A-9C78-9040-AFB8-4DA4EC078761}"/>
+    <hyperlink ref="D554" r:id="rId1854" tooltip="Farmingdale Republic Airport, United States" display="https://www.flightradar24.com/data/airports/frg" xr:uid="{F2212F7D-76D2-3440-AE85-4C21E8318640}"/>
+    <hyperlink ref="F554" r:id="rId1855" tooltip="N430QS" display="https://www.flightradar24.com/data/aircraft/n430qs" xr:uid="{2D691293-76E8-AC48-88C9-462407AEB1FB}"/>
+    <hyperlink ref="C555" r:id="rId1856" tooltip="5X513" display="https://www.flightradar24.com/data/flights/5x513" xr:uid="{906CF2B8-23CE-2F45-832A-3D8A72641BD8}"/>
+    <hyperlink ref="D555" r:id="rId1857" tooltip="Cedar Rapids Eastern Iowa Airport, United States" display="https://www.flightradar24.com/data/airports/cid" xr:uid="{150A5466-BCA4-ED4F-BC8A-2F98B1558286}"/>
+    <hyperlink ref="E555" r:id="rId1858" tooltip="UPS" display="https://www.flightradar24.com/data/airlines/5x-ups" xr:uid="{F6C7A2D6-010D-BC4F-8403-D7001DEBB379}"/>
+    <hyperlink ref="D557" r:id="rId1859" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{8A77A8B8-C71C-A146-BE1F-EF2C964689B6}"/>
+    <hyperlink ref="E557" r:id="rId1860" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{879311CB-95AB-0E4B-BF1C-BA20BBFFDE70}"/>
+    <hyperlink ref="F557" r:id="rId1861" tooltip="N667AW" display="https://www.flightradar24.com/data/aircraft/n667aw" xr:uid="{28D72A78-9341-9841-A33A-FCAC1380589E}"/>
+    <hyperlink ref="D558" r:id="rId1862" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{5631B856-E72F-4B40-AF46-6AF00782E34B}"/>
+    <hyperlink ref="E558" r:id="rId1863" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{DF599B22-03EE-564A-8E83-D637AF41E66A}"/>
+    <hyperlink ref="F558" r:id="rId1864" tooltip="N390CA" display="https://www.flightradar24.com/data/aircraft/n390ca" xr:uid="{E7AA2D53-B0CD-8F4F-832F-712D2787FD8B}"/>
+    <hyperlink ref="C559" r:id="rId1865" tooltip="AA4812" display="https://www.flightradar24.com/data/flights/aa4812" xr:uid="{D57F72CE-DF54-0C43-990E-1631F236C93C}"/>
+    <hyperlink ref="D559" r:id="rId1866" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{8862A50E-118D-FA42-89C2-6A64B8453498}"/>
+    <hyperlink ref="E559" r:id="rId1867" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{33F8275A-46D4-6441-AE08-58E9FC4DF53F}"/>
+    <hyperlink ref="D560" r:id="rId1868" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{3F4E1F60-223D-C84B-813C-DB89D804AF8C}"/>
+    <hyperlink ref="E560" r:id="rId1869" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{5B98773D-F110-AB47-A9A7-05EC85F4512D}"/>
+    <hyperlink ref="F560" r:id="rId1870" tooltip="N955AT" display="https://www.flightradar24.com/data/aircraft/n955at" xr:uid="{93ADC471-A2EB-3C45-B22B-02B6348EDE46}"/>
+    <hyperlink ref="D561" r:id="rId1871" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{7035D898-3AB8-BB42-9D43-E420F20CB49F}"/>
+    <hyperlink ref="E561" r:id="rId1872" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{7832B772-63D2-6742-8169-859A528340BB}"/>
+    <hyperlink ref="F561" r:id="rId1873" tooltip="N751SK" display="https://www.flightradar24.com/data/aircraft/n751sk" xr:uid="{31C92DFB-A6E4-8A4C-99AC-C7B8ACD76D31}"/>
+    <hyperlink ref="D562" r:id="rId1874" tooltip="Miami International Airport, United States" display="https://www.flightradar24.com/data/airports/mia" xr:uid="{7480CC38-B0C5-944D-9B38-D865CF30B450}"/>
+    <hyperlink ref="E562" r:id="rId1875" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{5B4EB972-4A3C-E341-8191-5B8BFD5EDC14}"/>
+    <hyperlink ref="F562" r:id="rId1876" tooltip="N299JJ" display="https://www.flightradar24.com/data/aircraft/n299jj" xr:uid="{DF2EABBE-BD29-954C-A8E5-60B3BFDABDBE}"/>
+    <hyperlink ref="D563" r:id="rId1877" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{70C5F618-5BCF-CC49-86C6-0933B919230E}"/>
+    <hyperlink ref="E563" r:id="rId1878" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{6EB88323-9243-C448-B607-50B561F2DC37}"/>
+    <hyperlink ref="F563" r:id="rId1879" tooltip="N84378" display="https://www.flightradar24.com/data/aircraft/n84378" xr:uid="{628783FF-DC9E-0A47-8E31-1C1F768DCE6F}"/>
+    <hyperlink ref="C564" r:id="rId1880" tooltip="DL5469" display="https://www.flightradar24.com/data/flights/dl5469" xr:uid="{104C126D-FAB5-5544-997A-FDCC1AE4828C}"/>
+    <hyperlink ref="D564" r:id="rId1881" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{0BA3FE95-EAF3-7D4B-8A5D-3040A996643F}"/>
+    <hyperlink ref="E564" r:id="rId1882" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{75CBB11C-044A-0B48-B5D2-AEAAF95D90A9}"/>
+    <hyperlink ref="F564" r:id="rId1883" tooltip="N491PX" display="https://www.flightradar24.com/data/aircraft/n491px" xr:uid="{96FE1C55-5207-FE45-B033-0201D94A48FF}"/>
+    <hyperlink ref="C565" r:id="rId1884" tooltip="G4801" display="https://www.flightradar24.com/data/flights/g4801" xr:uid="{3CBA77D0-C170-C749-B76D-903D39E58656}"/>
+    <hyperlink ref="D565" r:id="rId1885" tooltip="Austin Bergstrom International Airport, United States" display="https://www.flightradar24.com/data/airports/aus" xr:uid="{EBFF4D85-87D2-9340-B203-D00F42A534A4}"/>
+    <hyperlink ref="E565" r:id="rId1886" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{E79540CB-01B6-254E-9370-A60941080D4B}"/>
+    <hyperlink ref="C566" r:id="rId1887" tooltip="AA2854" display="https://www.flightradar24.com/data/flights/aa2854" xr:uid="{CEDE5165-0AFE-9F4A-92A1-0409E31FA61B}"/>
+    <hyperlink ref="D566" r:id="rId1888" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{6CA4A127-9B21-684C-8012-A39370106C20}"/>
+    <hyperlink ref="E566" r:id="rId1889" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{EB88E243-CE1D-0943-8048-B66584C144D3}"/>
+    <hyperlink ref="F566" r:id="rId1890" tooltip="N827AW" display="https://www.flightradar24.com/data/aircraft/n827aw" xr:uid="{9A9E87A9-1AD7-8A4D-BAEC-E0B525435E41}"/>
+    <hyperlink ref="D567" r:id="rId1891" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{DA99B073-E0DC-6B47-B1D1-8CFEDFE08C50}"/>
+    <hyperlink ref="E567" r:id="rId1892" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{AC8681B9-3A6F-6142-A5C1-8AF44A5077D3}"/>
+    <hyperlink ref="F567" r:id="rId1893" tooltip="N368CA" display="https://www.flightradar24.com/data/aircraft/n368ca" xr:uid="{8EA41AAE-7D08-2348-9929-45E559B45E87}"/>
+    <hyperlink ref="C568" r:id="rId1894" tooltip="G4834" display="https://www.flightradar24.com/data/flights/g4834" xr:uid="{E82A0B1E-3304-6948-8B0B-23FB7CA6B4CA}"/>
+    <hyperlink ref="D568" r:id="rId1895" tooltip="Palm Springs International Airport, United States" display="https://www.flightradar24.com/data/airports/psp" xr:uid="{6CAB4FCF-D11D-A941-BC87-1105D19BA854}"/>
+    <hyperlink ref="E568" r:id="rId1896" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{2C6D7CA2-06BA-534F-8416-1A844961F835}"/>
+    <hyperlink ref="D569" r:id="rId1897" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{A370A859-A0AB-C44E-AFDA-87E2F8A49252}"/>
+    <hyperlink ref="E569" r:id="rId1898" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8B9B9349-8179-944A-B58C-4BBD154843FE}"/>
+    <hyperlink ref="F569" r:id="rId1899" tooltip="N147PQ" display="https://www.flightradar24.com/data/aircraft/n147pq" xr:uid="{D3F9CC97-12F6-B248-8177-6BC9CBC430A4}"/>
+    <hyperlink ref="D570" r:id="rId1900" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{54C8AB58-C95C-2641-B56E-8029A651447C}"/>
+    <hyperlink ref="E570" r:id="rId1901" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{B8DA9CC9-7818-8643-B22F-C75BBDEDC8FF}"/>
+    <hyperlink ref="F570" r:id="rId1902" tooltip="N747UW" display="https://www.flightradar24.com/data/aircraft/n747uw" xr:uid="{0ABFDE3F-DDC5-B842-AC98-E652498DC3FF}"/>
+    <hyperlink ref="C571" r:id="rId1903" tooltip="FX697" display="https://www.flightradar24.com/data/flights/fx697" xr:uid="{2E885C0A-81EA-EE45-AAAE-F93E4D44E3B8}"/>
+    <hyperlink ref="D571" r:id="rId1904" tooltip="Memphis International Airport, United States" display="https://www.flightradar24.com/data/airports/mem" xr:uid="{89FD29E3-94C3-DA48-AE79-3D9DB6B64F47}"/>
+    <hyperlink ref="E571" r:id="rId1905" tooltip="FedEx" display="https://www.flightradar24.com/data/airlines/fx-fdx" xr:uid="{943B6565-D6B3-D940-B72C-6BF2BCF1A2E9}"/>
+    <hyperlink ref="D572" r:id="rId1906" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{FBA635C7-1DFC-6345-B769-B33CDB03BBC6}"/>
+    <hyperlink ref="E572" r:id="rId1907" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{3BEC75F6-CCC4-5147-BBE0-7127AB2D1333}"/>
+    <hyperlink ref="F572" r:id="rId1908" tooltip="N38458" display="https://www.flightradar24.com/data/aircraft/n38458" xr:uid="{CC48727B-643C-A143-979D-9AFFC31AEBD6}"/>
+    <hyperlink ref="C573" r:id="rId1909" tooltip="WN1480" display="https://www.flightradar24.com/data/flights/wn1480" xr:uid="{D5D274D5-35C5-2849-8628-C563F2CB1012}"/>
+    <hyperlink ref="D573" r:id="rId1910" tooltip="St. Louis Lambert International Airport, United States" display="https://www.flightradar24.com/data/airports/stl" xr:uid="{034D2B98-7649-0543-9BB9-FCACE8BBB197}"/>
+    <hyperlink ref="E573" r:id="rId1911" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{F0504D74-3746-4C48-B4E5-D7F97CAC32BD}"/>
+    <hyperlink ref="F573" r:id="rId1912" tooltip="N8646B" display="https://www.flightradar24.com/data/aircraft/n8646b" xr:uid="{9E8CD17B-6085-7B48-B13E-FC8A2245F3BD}"/>
+    <hyperlink ref="D574" r:id="rId1913" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{36BCAE6B-A88B-CC42-BF3D-6EFBF4D74557}"/>
+    <hyperlink ref="E574" r:id="rId1914" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{B6D0826E-B3DD-134A-AAAE-47666D16DD5B}"/>
+    <hyperlink ref="F574" r:id="rId1915" tooltip="N482UA" display="https://www.flightradar24.com/data/aircraft/n482ua" xr:uid="{7D484BD9-6252-3942-85EB-F3720DCA6D18}"/>
+    <hyperlink ref="D575" r:id="rId1916" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{28FF545D-321A-C043-9DCE-A4FCEA559139}"/>
+    <hyperlink ref="E575" r:id="rId1917" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{6AD347AD-F7BB-1142-BB29-DBC351A93A8A}"/>
+    <hyperlink ref="F575" r:id="rId1918" tooltip="N918AE" display="https://www.flightradar24.com/data/aircraft/n918ae" xr:uid="{3874C6CB-0053-E54D-A7E1-03C1990128B2}"/>
+    <hyperlink ref="D576" r:id="rId1919" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{3CDDEB84-5155-8141-906E-72E9311234D8}"/>
+    <hyperlink ref="E576" r:id="rId1920" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{DB714F46-56A6-2E4F-A1E2-0246FB733B93}"/>
+    <hyperlink ref="F576" r:id="rId1921" tooltip="N186PQ" display="https://www.flightradar24.com/data/aircraft/n186pq" xr:uid="{A727C41D-9E55-E64B-9EB4-A2DBED60DE80}"/>
+    <hyperlink ref="D577" r:id="rId1922" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{EB045586-D8EA-474E-A54C-4B236B83E1EE}"/>
+    <hyperlink ref="E577" r:id="rId1923" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{97FF323A-8E55-F742-B28B-394EDA6FC0C7}"/>
+    <hyperlink ref="F577" r:id="rId1924" tooltip="N466AW" display="https://www.flightradar24.com/data/aircraft/n466aw" xr:uid="{69FDA748-995B-414C-B6C1-1C03ABE4CF3A}"/>
+    <hyperlink ref="D578" r:id="rId1925" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{4F1DF78C-3FFB-E049-A22A-4DE6781B406C}"/>
+    <hyperlink ref="E578" r:id="rId1926" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{8868D30F-708F-1B49-AFAF-7DE6A2429D88}"/>
+    <hyperlink ref="F578" r:id="rId1927" tooltip="N986AT" display="https://www.flightradar24.com/data/aircraft/n986at" xr:uid="{2A0781A2-732E-C444-B9F2-9E93BB7BDA8F}"/>
+    <hyperlink ref="D579" r:id="rId1928" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{448BD1BF-1468-EA41-9EBC-943BC0606B25}"/>
+    <hyperlink ref="E579" r:id="rId1929" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{6165C210-E5AD-2341-B71C-1CCB366500BC}"/>
+    <hyperlink ref="C580" r:id="rId1930" tooltip="G4803" display="https://www.flightradar24.com/data/flights/g4803" xr:uid="{25557CA9-2CFF-CB4E-BCA2-FD758A65D9BE}"/>
+    <hyperlink ref="D580" r:id="rId1931" tooltip="Nashville International Airport, United States" display="https://www.flightradar24.com/data/airports/bna" xr:uid="{3A0CDAD2-997D-864A-84E2-BA66B5B77FF7}"/>
+    <hyperlink ref="E580" r:id="rId1932" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{C1F30A0F-2AE6-3E42-882D-658B8D218952}"/>
+    <hyperlink ref="D581" r:id="rId1933" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{3D98C60A-B716-3740-838B-0893A0CB2B39}"/>
+    <hyperlink ref="E581" r:id="rId1934" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{348273C5-0BF3-FD40-AB04-BA1BC7C01204}"/>
+    <hyperlink ref="F581" r:id="rId1935" tooltip="N336PQ" display="https://www.flightradar24.com/data/aircraft/n336pq" xr:uid="{EAD9F025-59E1-524B-B783-6DBCF3630A58}"/>
+    <hyperlink ref="C582" r:id="rId1936" tooltip="DL5417" display="https://www.flightradar24.com/data/flights/dl5417" xr:uid="{4E1FE4DA-FBFE-484E-852A-D0CB3C006317}"/>
+    <hyperlink ref="D582" r:id="rId1937" tooltip="New York LaGuardia Airport, United States" display="https://www.flightradar24.com/data/airports/lga" xr:uid="{120FCE5B-BEB5-BD45-8C53-9B128D1403E7}"/>
+    <hyperlink ref="E582" r:id="rId1938" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1755BFB5-1E9B-8145-A7D7-1B1FA30FBCDD}"/>
+    <hyperlink ref="F582" r:id="rId1939" tooltip="N490PX" display="https://www.flightradar24.com/data/aircraft/n490px" xr:uid="{D0F8CCD4-7275-344D-810E-F556DDB8B2C9}"/>
+    <hyperlink ref="C583" r:id="rId1940" tooltip="AA5168" display="https://www.flightradar24.com/data/flights/aa5168" xr:uid="{217E64FF-7443-F842-AE12-E587E4123017}"/>
+    <hyperlink ref="D583" r:id="rId1941" tooltip="Charlotte Douglas International Airport, United States" display="https://www.flightradar24.com/data/airports/clt" xr:uid="{211A181A-D0D2-9444-9D83-0CDC6BDB7FA5}"/>
+    <hyperlink ref="E583" r:id="rId1942" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{E7EF4F80-6621-8E49-9362-EAEE6CBFBEB3}"/>
+    <hyperlink ref="D584" r:id="rId1943" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{E7D2E453-8F09-1E4C-8318-3FAE0E88BD1E}"/>
+    <hyperlink ref="E584" r:id="rId1944" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{E00FC6D3-493F-644B-A901-A9AC873B999F}"/>
+    <hyperlink ref="F584" r:id="rId1945" tooltip="N465SW" display="https://www.flightradar24.com/data/aircraft/n465sw" xr:uid="{804A8AE7-134C-BD4A-A2C1-7BF0003B92F2}"/>
+    <hyperlink ref="C585" r:id="rId1946" tooltip="G4831" display="https://www.flightradar24.com/data/flights/g4831" xr:uid="{BC88B69D-B0B3-534C-BD58-716B1CE60CFA}"/>
+    <hyperlink ref="D585" r:id="rId1947" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{27B46AF8-5644-D645-BC64-5DAD8C2D63A6}"/>
+    <hyperlink ref="E585" r:id="rId1948" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{62B1C781-BF68-BE43-9214-A4D48945D036}"/>
+    <hyperlink ref="D586" r:id="rId1949" tooltip="Salt Lake City International Airport, United States" display="https://www.flightradar24.com/data/airports/slc" xr:uid="{ACB58F19-F6D7-6B41-B26C-C26E36C3626D}"/>
+    <hyperlink ref="E586" r:id="rId1950" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{1CF954BF-1322-EB41-8D6D-3F53905F1DE5}"/>
+    <hyperlink ref="F586" r:id="rId1951" tooltip="N259SY" display="https://www.flightradar24.com/data/aircraft/n259sy" xr:uid="{DBE818D1-FF2F-AE4D-BE6C-AFC10C01A3F8}"/>
+    <hyperlink ref="C587" r:id="rId1952" tooltip="WN4529" display="https://www.flightradar24.com/data/flights/wn4529" xr:uid="{D78BAB3F-07E2-BC4F-9B5D-0D80FD8D89F5}"/>
+    <hyperlink ref="D587" r:id="rId1953" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{977DD7AF-CFB6-AB44-A939-7C03D2C6C01F}"/>
+    <hyperlink ref="E587" r:id="rId1954" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{88FCA7CE-F831-5649-A9CD-0D877ED95D2C}"/>
+    <hyperlink ref="F587" r:id="rId1955" tooltip="N754SW" display="https://www.flightradar24.com/data/aircraft/n754sw" xr:uid="{73FBED02-ACFE-0149-9852-A8E68C8B44FC}"/>
+    <hyperlink ref="C588" r:id="rId1956" tooltip="F9471" display="https://www.flightradar24.com/data/flights/f9471" xr:uid="{6A2406FA-E36C-AA4C-8DD2-34785C84EC29}"/>
+    <hyperlink ref="D588" r:id="rId1957" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{75CED114-0EEA-E04C-98EA-B574FA631F40}"/>
+    <hyperlink ref="E588" r:id="rId1958" tooltip="Frontier (Verde the Resplendent Quetzal Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{5E3F6152-7705-FA4D-BCA5-686FA8D6CD62}"/>
+    <hyperlink ref="F588" r:id="rId1959" tooltip="N380FR" display="https://www.flightradar24.com/data/aircraft/n380fr" xr:uid="{E8A2291A-5E0F-F740-B051-4764A693631B}"/>
+    <hyperlink ref="D589" r:id="rId1960" tooltip="Houston George Bush Intercontinental Airport, United States" display="https://www.flightradar24.com/data/airports/iah" xr:uid="{F68026C7-44D8-AB46-AA6E-170F99B17D21}"/>
+    <hyperlink ref="E589" r:id="rId1961" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{79431311-7EE5-1C4D-BB65-A96341939970}"/>
+    <hyperlink ref="F589" r:id="rId1962" tooltip="N86311" display="https://www.flightradar24.com/data/aircraft/n86311" xr:uid="{82CDCC39-77FA-234F-A248-3304BDE52255}"/>
+    <hyperlink ref="C590" r:id="rId1963" tooltip="G4858" display="https://www.flightradar24.com/data/flights/g4858" xr:uid="{0A5C472F-5A49-B84B-B3F1-8D32CEC010BE}"/>
+    <hyperlink ref="D590" r:id="rId1964" tooltip="Sarasota-Bradenton International Airport, United States" display="https://www.flightradar24.com/data/airports/srq" xr:uid="{2E145D86-D898-B342-8151-C331123C8E8E}"/>
+    <hyperlink ref="E590" r:id="rId1965" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{195C1768-BDA5-1949-917F-296872518F11}"/>
+    <hyperlink ref="D591" r:id="rId1966" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{5F6DEE05-F33C-B442-AF11-D9AA1A5245A7}"/>
+    <hyperlink ref="E591" r:id="rId1967" tooltip="American Eagle" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{FAE0FDFE-9C30-0B42-9EA2-204499A332E0}"/>
+    <hyperlink ref="F591" r:id="rId1968" tooltip="N622AE" display="https://www.flightradar24.com/data/aircraft/n622ae" xr:uid="{6CE30C9C-89EB-F74A-9889-C778FE2DA14A}"/>
+    <hyperlink ref="D592" r:id="rId1969" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{0F485564-7550-E94A-8061-308982B7E249}"/>
+    <hyperlink ref="E592" r:id="rId1970" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{0C4BB3A3-E4A8-3740-9B11-C68A0CFBE249}"/>
+    <hyperlink ref="F592" r:id="rId1971" tooltip="N802AW" display="https://www.flightradar24.com/data/aircraft/n802aw" xr:uid="{4AEE7ABE-C36C-A642-9B21-86E80296D18E}"/>
+    <hyperlink ref="D593" r:id="rId1972" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{1578D77B-0BC3-E245-8093-ED3313DD8A1E}"/>
+    <hyperlink ref="E593" r:id="rId1973" tooltip="United Express" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{B405D9A1-E7E9-3945-9D4E-A9418AF5DAD6}"/>
+    <hyperlink ref="F593" r:id="rId1974" tooltip="N87306" display="https://www.flightradar24.com/data/aircraft/n87306" xr:uid="{1D965A41-5D1A-054A-B662-8EFDC35CD247}"/>
+    <hyperlink ref="C594" r:id="rId1975" tooltip="WN320" display="https://www.flightradar24.com/data/flights/wn320" xr:uid="{3830797B-35F8-BB49-B9AE-7F836706DEAB}"/>
+    <hyperlink ref="D594" r:id="rId1976" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{A7E53BBD-F519-1441-97AB-AB91FC7A4583}"/>
+    <hyperlink ref="E594" r:id="rId1977" tooltip="Southwest Airlines" display="https://www.flightradar24.com/data/airlines/wn-swa" xr:uid="{50225FA5-A692-1340-B221-ED193BDCAB32}"/>
+    <hyperlink ref="F594" r:id="rId1978" tooltip="N7843A" display="https://www.flightradar24.com/data/aircraft/n7843a" xr:uid="{C311B32E-F835-7A44-8A5C-F9D749CEDBB7}"/>
+    <hyperlink ref="D595" r:id="rId1979" tooltip="Las Vegas McCarran International Airport, United States" display="https://www.flightradar24.com/data/airports/las" xr:uid="{15E1C246-6FC3-6042-9C09-2E3C788EC00F}"/>
+    <hyperlink ref="E595" r:id="rId1980" tooltip="Frontier (Sonny the Lemon Shark Livery)" display="https://www.flightradar24.com/data/airlines/f9-fft" xr:uid="{2D129284-21AF-444C-B9FB-7E5DCF6B16E3}"/>
+    <hyperlink ref="F595" r:id="rId1981" tooltip="N382FR" display="https://www.flightradar24.com/data/aircraft/n382fr" xr:uid="{67968077-D857-094B-8AF7-2B17AF40B2BE}"/>
+    <hyperlink ref="D596" r:id="rId1982" tooltip="Atlanta Hartsfield-Jackson International Airport, United States" display="https://www.flightradar24.com/data/airports/atl" xr:uid="{10266C3D-CA41-3A46-897A-ECDD8FD6E20D}"/>
+    <hyperlink ref="E596" r:id="rId1983" tooltip="Delta Air Lines" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{A627B5C9-E8B8-5444-9619-DED76B102CB9}"/>
+    <hyperlink ref="F596" r:id="rId1984" tooltip="N940AT" display="https://www.flightradar24.com/data/aircraft/n940at" xr:uid="{7D3E95F8-7F86-7049-8698-55E66008F37C}"/>
+    <hyperlink ref="D597" r:id="rId1985" tooltip="Denver International Airport, United States" display="https://www.flightradar24.com/data/airports/den" xr:uid="{5136DA19-98AD-834C-B833-1D3D0B2A90D7}"/>
+    <hyperlink ref="E597" r:id="rId1986" tooltip="United Airlines" display="https://www.flightradar24.com/data/airlines/ua-ual" xr:uid="{5C4CE90C-DFAC-E742-9013-8F996E48E516}"/>
+    <hyperlink ref="F597" r:id="rId1987" tooltip="N820UA" display="https://www.flightradar24.com/data/aircraft/n820ua" xr:uid="{2072A295-6DAE-D444-8937-6B834F89B7DF}"/>
+    <hyperlink ref="C598" r:id="rId1988" tooltip="G4829" display="https://www.flightradar24.com/data/flights/g4829" xr:uid="{B974B4BD-B249-254A-898D-6E9242397AC8}"/>
+    <hyperlink ref="D598" r:id="rId1989" tooltip="Orlando Sanford International Airport, United States" display="https://www.flightradar24.com/data/airports/sfb" xr:uid="{7FDF2736-E3EE-0444-9978-AFA077142C6D}"/>
+    <hyperlink ref="E598" r:id="rId1990" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{573BB8E4-FBEC-9F49-9302-D462E625B9E9}"/>
+    <hyperlink ref="D599" r:id="rId1991" tooltip="Detroit Metropolitan Wayne County Airport, United States" display="https://www.flightradar24.com/data/airports/dtw" xr:uid="{AECF2283-B5C6-0944-97EA-0034B3B87504}"/>
+    <hyperlink ref="E599" r:id="rId1992" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{DD0CE31F-7BCC-5D40-8E87-A59AC37EFCA7}"/>
+    <hyperlink ref="F599" r:id="rId1993" tooltip="N135EV" display="https://www.flightradar24.com/data/aircraft/n135ev" xr:uid="{45BD1C54-F6ED-1743-BE1E-B04F7904773B}"/>
+    <hyperlink ref="D600" r:id="rId1994" tooltip="Chicago O'Hare International Airport, United States" display="https://www.flightradar24.com/data/airports/ord" xr:uid="{60CA10C1-1099-C94D-9C50-570147FADB7A}"/>
+    <hyperlink ref="E600" r:id="rId1995" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{DF7D46CC-DC12-0245-A9BE-A01FDD40C780}"/>
+    <hyperlink ref="D601" r:id="rId1996" tooltip="Phoenix Sky Harbor International Airport, United States" display="https://www.flightradar24.com/data/airports/phx" xr:uid="{38AA54D4-543F-1647-B438-F097C7E0A752}"/>
+    <hyperlink ref="E601" r:id="rId1997" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{2AA07382-8225-C044-A622-7D4E2808807D}"/>
+    <hyperlink ref="F601" r:id="rId1998" tooltip="N747UW" display="https://www.flightradar24.com/data/aircraft/n747uw" xr:uid="{7B3B3374-B6A9-DC46-9A81-E4A2E2721242}"/>
+    <hyperlink ref="D602" r:id="rId1999" tooltip="Minneapolis Saint Paul International Airport, United States" display="https://www.flightradar24.com/data/airports/msp" xr:uid="{C7DD2ED6-1A8F-B642-B208-0762DD365E92}"/>
+    <hyperlink ref="E602" r:id="rId2000" tooltip="Delta Connection" display="https://www.flightradar24.com/data/airlines/dl-dal" xr:uid="{EF80FC2B-BC1F-2942-A7B1-78ABA2422423}"/>
+    <hyperlink ref="F602" r:id="rId2001" tooltip="N240SY" display="https://www.flightradar24.com/data/aircraft/n240sy" xr:uid="{41ABCF09-7879-1741-8209-ECBC19F0C220}"/>
+    <hyperlink ref="C603" r:id="rId2002" tooltip="AA5278" display="https://www.flightradar24.com/data/flights/aa5278" xr:uid="{DEE63896-C44B-A942-A9A4-E7EEB0777BE2}"/>
+    <hyperlink ref="D603" r:id="rId2003" tooltip="Washington Ronald Reagan National Airport, United States" display="https://www.flightradar24.com/data/airports/dca" xr:uid="{C9431478-3079-0E41-9B46-44C23DC3D01A}"/>
+    <hyperlink ref="E603" r:id="rId2004" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{107B95BF-C295-AF49-8C3F-4CE2344FD7E2}"/>
+    <hyperlink ref="C604" r:id="rId2005" tooltip="G41578" display="https://www.flightradar24.com/data/flights/g41578" xr:uid="{F98C7BFA-5267-7743-B217-E75FA7C40463}"/>
+    <hyperlink ref="D604" r:id="rId2006" tooltip="Punta Gorda Airport, United States" display="https://www.flightradar24.com/data/airports/pgd" xr:uid="{3973D98F-B01D-A04D-BE29-6ADFD3A53F8F}"/>
+    <hyperlink ref="E604" r:id="rId2007" tooltip="Allegiant Air" display="https://www.flightradar24.com/data/airlines/g4-aay" xr:uid="{770CEB9C-6337-B84E-949E-B0CCDDF3F313}"/>
+    <hyperlink ref="D605" r:id="rId2008" tooltip="Dallas Fort Worth International Airport, United States" display="https://www.flightradar24.com/data/airports/dfw" xr:uid="{22FD8878-581E-BD4D-95C4-32B15D323AAA}"/>
+    <hyperlink ref="E605" r:id="rId2009" tooltip="American Airlines" display="https://www.flightradar24.com/data/airlines/aa-aal" xr:uid="{739154BB-7BE7-0A45-837F-3314D1A18078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
